--- a/file.xlsx
+++ b/file.xlsx
@@ -8,37 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\programacao\ponto-edit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473FB503-F6AF-4FC8-9157-186C03E84BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A52D65-6995-460C-875F-9BAFFB6D9CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F241870E-C983-476D-A12D-2829AF3800A8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
-    <sheet name="ESTAGIARIO" sheetId="10" r:id="rId2"/>
-    <sheet name="FUNCIONARIO" sheetId="2" r:id="rId3"/>
-    <sheet name="PEDRO" sheetId="3" r:id="rId4"/>
-    <sheet name="CLEUTON" sheetId="8" r:id="rId5"/>
-    <sheet name="ADRIANO" sheetId="9" r:id="rId6"/>
-    <sheet name="REGINALDO" sheetId="4" r:id="rId7"/>
-    <sheet name="WILSON" sheetId="5" r:id="rId8"/>
-    <sheet name="FELIPE" sheetId="19" r:id="rId9"/>
-    <sheet name="DAISE" sheetId="6" r:id="rId10"/>
-    <sheet name="ROSE" sheetId="7" r:id="rId11"/>
-    <sheet name="LEIDIANE" sheetId="11" r:id="rId12"/>
-    <sheet name="VANESSA" sheetId="12" r:id="rId13"/>
-    <sheet name="JOSELI" sheetId="13" r:id="rId14"/>
-    <sheet name="REGIANE" sheetId="18" r:id="rId15"/>
-    <sheet name="KAMILA" sheetId="15" r:id="rId16"/>
-    <sheet name="MOISES" sheetId="16" r:id="rId17"/>
-    <sheet name="RAIMUNDO" sheetId="17" r:id="rId18"/>
-    <sheet name="LUCIANO" sheetId="20" r:id="rId19"/>
-    <sheet name="LARISSA" sheetId="14" r:id="rId20"/>
+    <sheet name="ESTAGIARIO" sheetId="2" r:id="rId2"/>
+    <sheet name="FUNCIONARIO" sheetId="3" r:id="rId3"/>
+    <sheet name="PEDRO" sheetId="4" r:id="rId4"/>
+    <sheet name="CLEUTON" sheetId="5" r:id="rId5"/>
+    <sheet name="ADRIANO" sheetId="6" r:id="rId6"/>
+    <sheet name="REGINALDO" sheetId="7" r:id="rId7"/>
+    <sheet name="WILSON" sheetId="8" r:id="rId8"/>
+    <sheet name="FELIPE" sheetId="9" r:id="rId9"/>
+    <sheet name="DAISE" sheetId="10" r:id="rId10"/>
+    <sheet name="ROSE" sheetId="11" r:id="rId11"/>
+    <sheet name="LEIDIANE" sheetId="12" r:id="rId12"/>
+    <sheet name="VANESSA" sheetId="13" r:id="rId13"/>
+    <sheet name="JOSELI" sheetId="14" r:id="rId14"/>
+    <sheet name="REGIANE" sheetId="15" r:id="rId15"/>
+    <sheet name="KAMILA" sheetId="16" r:id="rId16"/>
+    <sheet name="MOISES" sheetId="17" r:id="rId17"/>
+    <sheet name="RAIMUNDO" sheetId="18" r:id="rId18"/>
+    <sheet name="LUCIANO" sheetId="19" r:id="rId19"/>
+    <sheet name="LARISSA" sheetId="20" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -66,10 +63,16 @@
     <t>HORARIO POR DIA</t>
   </si>
   <si>
+    <t>HORAS</t>
+  </si>
+  <si>
     <t>HORARIO REFEICAO</t>
   </si>
   <si>
-    <t>NOME</t>
+    <t>ADICIONAL NOTURNO APÓS</t>
+  </si>
+  <si>
+    <t>HORA POR DIA ESTAGIARIO</t>
   </si>
   <si>
     <t>DATA</t>
@@ -78,16 +81,19 @@
     <t>ENTRADA</t>
   </si>
   <si>
-    <t>SAIDA</t>
-  </si>
-  <si>
     <t>REFEICAO</t>
   </si>
   <si>
     <t>FINAL REFEICAO</t>
   </si>
   <si>
+    <t>SAIDA</t>
+  </si>
+  <si>
     <t>FERIADO</t>
+  </si>
+  <si>
+    <t>STATUS</t>
   </si>
   <si>
     <t>HORA EXTRA</t>
@@ -96,31 +102,46 @@
     <t>HORA REFEICAO</t>
   </si>
   <si>
-    <t>HORAS</t>
-  </si>
-  <si>
     <t>ADICIONAL NOTURNO</t>
   </si>
   <si>
-    <t>ADICIONAL NOTURNO APÓS</t>
+    <t>NOME</t>
+  </si>
+  <si>
+    <t>ESTAGIARIO</t>
+  </si>
+  <si>
+    <t>ADICIONAL</t>
   </si>
   <si>
     <t>TOTAL</t>
   </si>
   <si>
-    <t>STATUS</t>
+    <t>FUNCIONARIO</t>
   </si>
   <si>
-    <t>ADICIONAL</t>
+    <t>PEDRO</t>
   </si>
   <si>
-    <t>HORA POR DIA ESTAGIARIO</t>
+    <t>CLEITON</t>
   </si>
   <si>
-    <t>ESTAGIARIO</t>
+    <t>ADRIANO</t>
   </si>
   <si>
-    <t>FUNCIONARIO</t>
+    <t>REGINALDO</t>
+  </si>
+  <si>
+    <t>WILSON</t>
+  </si>
+  <si>
+    <t>MIKE</t>
+  </si>
+  <si>
+    <t>SONIA ROSALIA</t>
+  </si>
+  <si>
+    <t>LEIDIANE</t>
   </si>
   <si>
     <t>VANESSA</t>
@@ -129,40 +150,16 @@
     <t>JOSELI</t>
   </si>
   <si>
-    <t>RAIMUNDO</t>
+    <t>HEBERT</t>
   </si>
   <si>
     <t>MOISES</t>
   </si>
   <si>
-    <t>HEBERT</t>
+    <t>RAIMUNDO</t>
   </si>
   <si>
     <t>LARISSA</t>
-  </si>
-  <si>
-    <t>LEIDIANE</t>
-  </si>
-  <si>
-    <t>SONIA ROSALIA</t>
-  </si>
-  <si>
-    <t>MIKE</t>
-  </si>
-  <si>
-    <t>WILSON</t>
-  </si>
-  <si>
-    <t>REGINALDO</t>
-  </si>
-  <si>
-    <t>ADRIANO</t>
-  </si>
-  <si>
-    <t>CLEITON</t>
-  </si>
-  <si>
-    <t>PEDRO</t>
   </si>
 </sst>
 </file>
@@ -174,16 +171,10 @@
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="166" formatCode="[h]:mm:ss;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -565,11 +556,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F85DE7F-8E23-43CF-8371-827884049362}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -583,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="9">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -591,7 +582,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9">
-        <v>2025</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -602,26 +593,26 @@
         <v>2</v>
       </c>
       <c r="B4" s="10">
-        <v>0.30555555555555552</v>
+        <v>0.30555555555555558</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10">
+        <v>4.1666666666666657E-2</v>
+      </c>
+      <c r="C5" t="s">
         <v>3</v>
-      </c>
-      <c r="B5" s="10">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B6" s="11">
         <v>0.91666666666666663</v>
@@ -635,13 +626,13 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B9" s="11">
-        <v>0.20833333333333334</v>
+        <v>0.20833333333333329</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -651,7 +642,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34056BF-5E59-4F2E-804D-2C6F3A294110}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -675,34 +666,34 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -721,17 +712,17 @@
       </c>
       <c r="L2" s="2">
         <f>IF(G2="",DATA!B5-(D2-C2),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M2" s="1">
         <f>IF(E2&gt;DATA!B6,E2-DATA!B6,0)</f>
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="P2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -750,7 +741,7 @@
       </c>
       <c r="L3" s="2">
         <f>IF(G3="",DATA!B5-(D3-C3),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M3" s="1">
         <f>IF(E3&gt;DATA!B6,E3-DATA!B6,0)</f>
@@ -761,7 +752,7 @@
       </c>
       <c r="P3">
         <f>DATA!B1</f>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -780,7 +771,7 @@
       </c>
       <c r="L4" s="2">
         <f>IF(G4="",DATA!B5-(D4-C4),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M4" s="1">
         <f>IF(E4&gt;DATA!B6,E4-DATA!B6,0)</f>
@@ -791,7 +782,7 @@
       </c>
       <c r="P4">
         <f>DATA!B2</f>
-        <v>2025</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -810,7 +801,7 @@
       </c>
       <c r="L5" s="2">
         <f>IF(G5="",DATA!B5-(D5-C5),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M5" s="1">
         <f>IF(E5&gt;DATA!B6,E5-DATA!B6,0)</f>
@@ -833,14 +824,14 @@
       </c>
       <c r="L6" s="2">
         <f>IF(G6="",DATA!B5-(D6-C6),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M6" s="1">
         <f>IF(E6&gt;DATA!B6,E6-DATA!B6,0)</f>
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q6" s="4">
         <f>K34+L34</f>
@@ -863,7 +854,7 @@
       </c>
       <c r="L7" s="2">
         <f>IF(G7="",DATA!B5-(D7-C7),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M7" s="1">
         <f>IF(E7&gt;DATA!B6,E7-DATA!B6,0)</f>
@@ -887,14 +878,14 @@
       </c>
       <c r="L8" s="2">
         <f>IF(G8="",DATA!B5-(D8-C8),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M8" s="1">
         <f>IF(E8&gt;DATA!B6,E8-DATA!B6,0)</f>
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q8" s="4">
         <f>M34</f>
@@ -917,7 +908,7 @@
       </c>
       <c r="L9" s="2">
         <f>IF(G9="",DATA!B5-(D9-C9),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M9" s="1">
         <f>IF(E9&gt;DATA!B6,E9-DATA!B6,0)</f>
@@ -940,14 +931,14 @@
       </c>
       <c r="L10" s="2">
         <f>IF(G10="",DATA!B5-(D10-C10),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M10" s="1">
         <f>IF(E10&gt;DATA!B6,E10-DATA!B6,0)</f>
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -966,7 +957,7 @@
       </c>
       <c r="L11" s="2">
         <f>IF(G11="",DATA!B5-(D11-C11),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M11" s="1">
         <f>IF(E11&gt;DATA!B6,E11-DATA!B6,0)</f>
@@ -989,7 +980,7 @@
       </c>
       <c r="L12" s="2">
         <f>IF(G12="",DATA!B5-(D12-C12),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M12" s="1">
         <f>IF(E12&gt;DATA!B6,E12-DATA!B6,0)</f>
@@ -1012,7 +1003,7 @@
       </c>
       <c r="L13" s="2">
         <f>IF(G13="",DATA!B5-(D13-C13),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M13" s="1">
         <f>IF(E13&gt;DATA!B6,E13-DATA!B6,0)</f>
@@ -1035,7 +1026,7 @@
       </c>
       <c r="L14" s="2">
         <f>IF(G14="",DATA!B5-(D14-C14),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M14" s="1">
         <f>IF(E14&gt;DATA!B6,E14-DATA!B6,0)</f>
@@ -1058,7 +1049,7 @@
       </c>
       <c r="L15" s="2">
         <f>IF(G15="",DATA!B5-(D15-C15),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M15" s="1">
         <f>IF(E15&gt;DATA!B6,E15-DATA!B6,0)</f>
@@ -1081,7 +1072,7 @@
       </c>
       <c r="L16" s="2">
         <f>IF(G16="",DATA!B5-(D16-C16),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M16" s="1">
         <f>IF(E16&gt;DATA!B6,E16-DATA!B6,0)</f>
@@ -1104,7 +1095,7 @@
       </c>
       <c r="L17" s="2">
         <f>IF(G17="",DATA!B5-(D17-C17),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M17" s="1">
         <f>IF(E17&gt;DATA!B6,E17-DATA!B6,0)</f>
@@ -1127,7 +1118,7 @@
       </c>
       <c r="L18" s="2">
         <f>IF(G18="",DATA!B5-(D18-C18),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M18" s="1">
         <f>IF(E18&gt;DATA!B6,E18-DATA!B6,0)</f>
@@ -1150,7 +1141,7 @@
       </c>
       <c r="L19" s="2">
         <f>IF(G19="",DATA!B5-(D19-C19),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M19" s="1">
         <f>IF(E19&gt;DATA!B6,E19-DATA!B6,0)</f>
@@ -1173,7 +1164,7 @@
       </c>
       <c r="L20" s="2">
         <f>IF(G20="",DATA!B5-(D20-C20),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M20" s="1">
         <f>IF(E20&gt;DATA!B6,E20-DATA!B6,0)</f>
@@ -1196,7 +1187,7 @@
       </c>
       <c r="L21" s="2">
         <f>IF(G21="",DATA!B5-(D21-C21),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M21" s="1">
         <f>IF(E21&gt;DATA!B6,E21-DATA!B6,0)</f>
@@ -1219,7 +1210,7 @@
       </c>
       <c r="L22" s="2">
         <f>IF(G22="",DATA!B5-(D22-C22),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M22" s="1">
         <f>IF(E22&gt;DATA!B6,E22-DATA!B6,0)</f>
@@ -1242,7 +1233,7 @@
       </c>
       <c r="L23" s="2">
         <f>IF(G23="",DATA!B5-(D23-C23),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M23" s="1">
         <f>IF(E23&gt;DATA!B6,E23-DATA!B6,0)</f>
@@ -1265,7 +1256,7 @@
       </c>
       <c r="L24" s="2">
         <f>IF(G24="",DATA!B5-(D24-C24),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M24" s="1">
         <f>IF(E24&gt;DATA!B6,E24-DATA!B6,0)</f>
@@ -1288,7 +1279,7 @@
       </c>
       <c r="L25" s="2">
         <f>IF(G25="",DATA!B5-(D25-C25),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M25" s="1">
         <f>IF(E25&gt;DATA!B6,E25-DATA!B6,0)</f>
@@ -1311,7 +1302,7 @@
       </c>
       <c r="L26" s="2">
         <f>IF(G26="",DATA!B5-(D26-C26),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M26" s="1">
         <f>IF(E26&gt;DATA!B6,E26-DATA!B6,0)</f>
@@ -1334,7 +1325,7 @@
       </c>
       <c r="L27" s="2">
         <f>IF(G27="",DATA!B5-(D27-C27),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M27" s="1">
         <f>IF(E27&gt;DATA!B6,E27-DATA!B6,0)</f>
@@ -1357,7 +1348,7 @@
       </c>
       <c r="L28" s="2">
         <f>IF(G28="",DATA!B5-(D28-C28),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M28" s="1">
         <f>IF(E28&gt;DATA!B6,E28-DATA!B6,0)</f>
@@ -1380,7 +1371,7 @@
       </c>
       <c r="L29" s="2">
         <f>IF(G29="",DATA!B5-(D29-C29),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M29" s="1">
         <f>IF(E29&gt;DATA!B6,E29-DATA!B6,0)</f>
@@ -1403,7 +1394,7 @@
       </c>
       <c r="L30" s="2">
         <f>IF(G30="",DATA!B5-(D30-C30),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M30" s="1">
         <f>IF(E30&gt;DATA!B6,E30-DATA!B6,0)</f>
@@ -1426,7 +1417,7 @@
       </c>
       <c r="L31" s="2">
         <f>IF(G31="",DATA!B5-(D31-C31),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M31" s="1">
         <f>IF(E31&gt;DATA!B6,E31-DATA!B6,0)</f>
@@ -1449,7 +1440,7 @@
       </c>
       <c r="L32" s="2">
         <f>IF(G32="",DATA!B5-(D32-C32),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M32" s="1">
         <f>IF(E32&gt;DATA!B6,E32-DATA!B6,0)</f>
@@ -1461,7 +1452,7 @@
     </row>
     <row r="34" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J34" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K34" s="4">
         <f>IF(G2="",K2)+IF(G3="",K3)+IF(G4="",K4)+IF(G5="",K5)+IF(G6="",K6)+IF(G7="",K7)+IF(G8="",K8)+IF(G9="",K9)+IF(G10="",K10)+IF(G11="",K11)+IF(G12="",K12)+IF(G13="",K13)+IF(G14="",K14)+IF(G15="",K15)+IF(G16="",K16)+IF(G17="",K17)+IF(G18="",K18)+IF(G19="",K19)+IF(G20="",K20)+IF(G21="",K21)+IF(G22="",K22)+IF(G23="",K23)+IF(G24="",K24)+IF(G25="",K25)+IF(G26="",K26)+IF(G27="",K27)+IF(G28="",K28)+IF(G29="",K29)+IF(G30="",K30)+IF(G31="",K31)+IF(G32="",K32)</f>
@@ -1469,7 +1460,7 @@
       </c>
       <c r="L34" s="4">
         <f>IF(G2="",L2)+IF(G3="",L3)+IF(G4="",L4)+IF(G5="",L5)+IF(G6="",L6)+IF(G7="",L7)+IF(G8="",L8)+IF(G9="",L9)+IF(G10="",L10)+IF(G11="",L11)+IF(G12="",L12)+IF(G13="",L13)+IF(G14="",L14)+IF(G15="",L15)+IF(G16="",L16)+IF(G17="",L17)+IF(G18="",L18)+IF(G19="",L19)+IF(G20="",L20)+IF(G21="",L21)+IF(G22="",L22)+IF(G23="",L23)+IF(G24="",L24)+IF(G25="",L25)+IF(G26="",L26)+IF(G27="",L27)+IF(G28="",L28)+IF(G29="",L29)+IF(G30="",L30)+IF(G31="",L31)+IF(G32="",L32)</f>
-        <v>1.2916666666666667</v>
+        <v>1.2916666666666665</v>
       </c>
       <c r="M34" s="4">
         <f>SUM(M2:M32)</f>
@@ -1488,7 +1479,7 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G32" xr:uid="{E3EDA19F-52C4-47D6-8100-362B0C4EE42F}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G2:G32" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>"FOLGA,ATESTADO,FALTA,DOBRA,DOMINGO,NÃO EXISTE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1497,7 +1488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C814BA81-E357-4021-83D9-9C5DA8AFB892}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1521,34 +1512,34 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -1567,17 +1558,17 @@
       </c>
       <c r="L2" s="2">
         <f>IF(G2="",DATA!B5-(D2-C2),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M2" s="1">
         <f>IF(E2&gt;DATA!B6,E2-DATA!B6,0)</f>
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="P2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -1596,7 +1587,7 @@
       </c>
       <c r="L3" s="2">
         <f>IF(G3="",DATA!B5-(D3-C3),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M3" s="1">
         <f>IF(E3&gt;DATA!B6,E3-DATA!B6,0)</f>
@@ -1607,7 +1598,7 @@
       </c>
       <c r="P3">
         <f>DATA!B1</f>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -1626,7 +1617,7 @@
       </c>
       <c r="L4" s="2">
         <f>IF(G4="",DATA!B5-(D4-C4),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M4" s="1">
         <f>IF(E4&gt;DATA!B6,E4-DATA!B6,0)</f>
@@ -1637,7 +1628,7 @@
       </c>
       <c r="P4">
         <f>DATA!B2</f>
-        <v>2025</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1656,7 +1647,7 @@
       </c>
       <c r="L5" s="2">
         <f>IF(G5="",DATA!B5-(D5-C5),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M5" s="1">
         <f>IF(E5&gt;DATA!B6,E5-DATA!B6,0)</f>
@@ -1679,14 +1670,14 @@
       </c>
       <c r="L6" s="2">
         <f>IF(G6="",DATA!B5-(D6-C6),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M6" s="1">
         <f>IF(E6&gt;DATA!B6,E6-DATA!B6,0)</f>
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q6" s="4">
         <f>K34+L34</f>
@@ -1709,7 +1700,7 @@
       </c>
       <c r="L7" s="2">
         <f>IF(G7="",DATA!B5-(D7-C7),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M7" s="1">
         <f>IF(E7&gt;DATA!B6,E7-DATA!B6,0)</f>
@@ -1733,14 +1724,14 @@
       </c>
       <c r="L8" s="2">
         <f>IF(G8="",DATA!B5-(D8-C8),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M8" s="1">
         <f>IF(E8&gt;DATA!B6,E8-DATA!B6,0)</f>
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q8" s="4">
         <f>M34</f>
@@ -1763,7 +1754,7 @@
       </c>
       <c r="L9" s="2">
         <f>IF(G9="",DATA!B5-(D9-C9),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M9" s="1">
         <f>IF(E9&gt;DATA!B6,E9-DATA!B6,0)</f>
@@ -1786,14 +1777,14 @@
       </c>
       <c r="L10" s="2">
         <f>IF(G10="",DATA!B5-(D10-C10),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M10" s="1">
         <f>IF(E10&gt;DATA!B6,E10-DATA!B6,0)</f>
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1812,7 +1803,7 @@
       </c>
       <c r="L11" s="2">
         <f>IF(G11="",DATA!B5-(D11-C11),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M11" s="1">
         <f>IF(E11&gt;DATA!B6,E11-DATA!B6,0)</f>
@@ -1835,7 +1826,7 @@
       </c>
       <c r="L12" s="2">
         <f>IF(G12="",DATA!B5-(D12-C12),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M12" s="1">
         <f>IF(E12&gt;DATA!B6,E12-DATA!B6,0)</f>
@@ -1858,7 +1849,7 @@
       </c>
       <c r="L13" s="2">
         <f>IF(G13="",DATA!B5-(D13-C13),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M13" s="1">
         <f>IF(E13&gt;DATA!B6,E13-DATA!B6,0)</f>
@@ -1881,7 +1872,7 @@
       </c>
       <c r="L14" s="2">
         <f>IF(G14="",DATA!B5-(D14-C14),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M14" s="1">
         <f>IF(E14&gt;DATA!B6,E14-DATA!B6,0)</f>
@@ -1904,7 +1895,7 @@
       </c>
       <c r="L15" s="2">
         <f>IF(G15="",DATA!B5-(D15-C15),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M15" s="1">
         <f>IF(E15&gt;DATA!B6,E15-DATA!B6,0)</f>
@@ -1927,7 +1918,7 @@
       </c>
       <c r="L16" s="2">
         <f>IF(G16="",DATA!B5-(D16-C16),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M16" s="1">
         <f>IF(E16&gt;DATA!B6,E16-DATA!B6,0)</f>
@@ -1950,7 +1941,7 @@
       </c>
       <c r="L17" s="2">
         <f>IF(G17="",DATA!B5-(D17-C17),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M17" s="1">
         <f>IF(E17&gt;DATA!B6,E17-DATA!B6,0)</f>
@@ -1973,7 +1964,7 @@
       </c>
       <c r="L18" s="2">
         <f>IF(G18="",DATA!B5-(D18-C18),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M18" s="1">
         <f>IF(E18&gt;DATA!B6,E18-DATA!B6,0)</f>
@@ -1996,7 +1987,7 @@
       </c>
       <c r="L19" s="2">
         <f>IF(G19="",DATA!B5-(D19-C19),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M19" s="1">
         <f>IF(E19&gt;DATA!B6,E19-DATA!B6,0)</f>
@@ -2019,7 +2010,7 @@
       </c>
       <c r="L20" s="2">
         <f>IF(G20="",DATA!B5-(D20-C20),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M20" s="1">
         <f>IF(E20&gt;DATA!B6,E20-DATA!B6,0)</f>
@@ -2042,7 +2033,7 @@
       </c>
       <c r="L21" s="2">
         <f>IF(G21="",DATA!B5-(D21-C21),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M21" s="1">
         <f>IF(E21&gt;DATA!B6,E21-DATA!B6,0)</f>
@@ -2065,7 +2056,7 @@
       </c>
       <c r="L22" s="2">
         <f>IF(G22="",DATA!B5-(D22-C22),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M22" s="1">
         <f>IF(E22&gt;DATA!B6,E22-DATA!B6,0)</f>
@@ -2088,7 +2079,7 @@
       </c>
       <c r="L23" s="2">
         <f>IF(G23="",DATA!B5-(D23-C23),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M23" s="1">
         <f>IF(E23&gt;DATA!B6,E23-DATA!B6,0)</f>
@@ -2111,7 +2102,7 @@
       </c>
       <c r="L24" s="2">
         <f>IF(G24="",DATA!B5-(D24-C24),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M24" s="1">
         <f>IF(E24&gt;DATA!B6,E24-DATA!B6,0)</f>
@@ -2134,7 +2125,7 @@
       </c>
       <c r="L25" s="2">
         <f>IF(G25="",DATA!B5-(D25-C25),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M25" s="1">
         <f>IF(E25&gt;DATA!B6,E25-DATA!B6,0)</f>
@@ -2157,7 +2148,7 @@
       </c>
       <c r="L26" s="2">
         <f>IF(G26="",DATA!B5-(D26-C26),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M26" s="1">
         <f>IF(E26&gt;DATA!B6,E26-DATA!B6,0)</f>
@@ -2180,7 +2171,7 @@
       </c>
       <c r="L27" s="2">
         <f>IF(G27="",DATA!B5-(D27-C27),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M27" s="1">
         <f>IF(E27&gt;DATA!B6,E27-DATA!B6,0)</f>
@@ -2203,7 +2194,7 @@
       </c>
       <c r="L28" s="2">
         <f>IF(G28="",DATA!B5-(D28-C28),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M28" s="1">
         <f>IF(E28&gt;DATA!B6,E28-DATA!B6,0)</f>
@@ -2226,7 +2217,7 @@
       </c>
       <c r="L29" s="2">
         <f>IF(G29="",DATA!B5-(D29-C29),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M29" s="1">
         <f>IF(E29&gt;DATA!B6,E29-DATA!B6,0)</f>
@@ -2249,7 +2240,7 @@
       </c>
       <c r="L30" s="2">
         <f>IF(G30="",DATA!B5-(D30-C30),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M30" s="1">
         <f>IF(E30&gt;DATA!B6,E30-DATA!B6,0)</f>
@@ -2272,7 +2263,7 @@
       </c>
       <c r="L31" s="2">
         <f>IF(G31="",DATA!B5-(D31-C31),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M31" s="1">
         <f>IF(E31&gt;DATA!B6,E31-DATA!B6,0)</f>
@@ -2295,7 +2286,7 @@
       </c>
       <c r="L32" s="2">
         <f>IF(G32="",DATA!B5-(D32-C32),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M32" s="1">
         <f>IF(E32&gt;DATA!B6,E32-DATA!B6,0)</f>
@@ -2307,7 +2298,7 @@
     </row>
     <row r="34" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J34" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K34" s="4">
         <f>IF(G2="",K2)+IF(G3="",K3)+IF(G4="",K4)+IF(G5="",K5)+IF(G6="",K6)+IF(G7="",K7)+IF(G8="",K8)+IF(G9="",K9)+IF(G10="",K10)+IF(G11="",K11)+IF(G12="",K12)+IF(G13="",K13)+IF(G14="",K14)+IF(G15="",K15)+IF(G16="",K16)+IF(G17="",K17)+IF(G18="",K18)+IF(G19="",K19)+IF(G20="",K20)+IF(G21="",K21)+IF(G22="",K22)+IF(G23="",K23)+IF(G24="",K24)+IF(G25="",K25)+IF(G26="",K26)+IF(G27="",K27)+IF(G28="",K28)+IF(G29="",K29)+IF(G30="",K30)+IF(G31="",K31)+IF(G32="",K32)</f>
@@ -2315,7 +2306,7 @@
       </c>
       <c r="L34" s="4">
         <f>IF(G2="",L2)+IF(G3="",L3)+IF(G4="",L4)+IF(G5="",L5)+IF(G6="",L6)+IF(G7="",L7)+IF(G8="",L8)+IF(G9="",L9)+IF(G10="",L10)+IF(G11="",L11)+IF(G12="",L12)+IF(G13="",L13)+IF(G14="",L14)+IF(G15="",L15)+IF(G16="",L16)+IF(G17="",L17)+IF(G18="",L18)+IF(G19="",L19)+IF(G20="",L20)+IF(G21="",L21)+IF(G22="",L22)+IF(G23="",L23)+IF(G24="",L24)+IF(G25="",L25)+IF(G26="",L26)+IF(G27="",L27)+IF(G28="",L28)+IF(G29="",L29)+IF(G30="",L30)+IF(G31="",L31)+IF(G32="",L32)</f>
-        <v>1.2916666666666667</v>
+        <v>1.2916666666666665</v>
       </c>
       <c r="M34" s="4">
         <f>SUM(M2:M32)</f>
@@ -2334,7 +2325,7 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G32" xr:uid="{DE4836B7-7210-4BB2-BB50-3FCB4E3237E8}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G2:G32" xr:uid="{00000000-0002-0000-0A00-000000000000}">
       <formula1>"FOLGA,ATESTADO,FALTA,DOBRA,DOMINGO,NÃO EXISTE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2343,7 +2334,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81372CC6-85AF-40E0-AF3A-DB0145003C30}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2367,34 +2358,34 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -2413,17 +2404,17 @@
       </c>
       <c r="L2" s="2">
         <f>IF(G2="",DATA!B5-(D2-C2),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M2" s="1">
         <f>IF(E2&gt;DATA!B6,E2-DATA!B6,0)</f>
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="P2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -2442,7 +2433,7 @@
       </c>
       <c r="L3" s="2">
         <f>IF(G3="",DATA!B5-(D3-C3),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M3" s="1">
         <f>IF(E3&gt;DATA!B6,E3-DATA!B6,0)</f>
@@ -2453,7 +2444,7 @@
       </c>
       <c r="P3">
         <f>DATA!B1</f>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -2472,7 +2463,7 @@
       </c>
       <c r="L4" s="2">
         <f>IF(G4="",DATA!B5-(D4-C4),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M4" s="1">
         <f>IF(E4&gt;DATA!B6,E4-DATA!B6,0)</f>
@@ -2483,7 +2474,7 @@
       </c>
       <c r="P4">
         <f>DATA!B2</f>
-        <v>2025</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2502,7 +2493,7 @@
       </c>
       <c r="L5" s="2">
         <f>IF(G5="",DATA!B5-(D5-C5),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M5" s="1">
         <f>IF(E5&gt;DATA!B6,E5-DATA!B6,0)</f>
@@ -2525,14 +2516,14 @@
       </c>
       <c r="L6" s="2">
         <f>IF(G6="",DATA!B5-(D6-C6),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M6" s="1">
         <f>IF(E6&gt;DATA!B6,E6-DATA!B6,0)</f>
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q6" s="4">
         <f>K34+L34</f>
@@ -2555,7 +2546,7 @@
       </c>
       <c r="L7" s="2">
         <f>IF(G7="",DATA!B5-(D7-C7),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M7" s="1">
         <f>IF(E7&gt;DATA!B6,E7-DATA!B6,0)</f>
@@ -2579,14 +2570,14 @@
       </c>
       <c r="L8" s="2">
         <f>IF(G8="",DATA!B5-(D8-C8),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M8" s="1">
         <f>IF(E8&gt;DATA!B6,E8-DATA!B6,0)</f>
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q8" s="4">
         <f>M34</f>
@@ -2609,7 +2600,7 @@
       </c>
       <c r="L9" s="2">
         <f>IF(G9="",DATA!B5-(D9-C9),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M9" s="1">
         <f>IF(E9&gt;DATA!B6,E9-DATA!B6,0)</f>
@@ -2632,14 +2623,14 @@
       </c>
       <c r="L10" s="2">
         <f>IF(G10="",DATA!B5-(D10-C10),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M10" s="1">
         <f>IF(E10&gt;DATA!B6,E10-DATA!B6,0)</f>
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2658,7 +2649,7 @@
       </c>
       <c r="L11" s="2">
         <f>IF(G11="",DATA!B5-(D11-C11),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M11" s="1">
         <f>IF(E11&gt;DATA!B6,E11-DATA!B6,0)</f>
@@ -2681,7 +2672,7 @@
       </c>
       <c r="L12" s="2">
         <f>IF(G12="",DATA!B5-(D12-C12),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M12" s="1">
         <f>IF(E12&gt;DATA!B6,E12-DATA!B6,0)</f>
@@ -2704,7 +2695,7 @@
       </c>
       <c r="L13" s="2">
         <f>IF(G13="",DATA!B5-(D13-C13),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M13" s="1">
         <f>IF(E13&gt;DATA!B6,E13-DATA!B6,0)</f>
@@ -2727,7 +2718,7 @@
       </c>
       <c r="L14" s="2">
         <f>IF(G14="",DATA!B5-(D14-C14),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M14" s="1">
         <f>IF(E14&gt;DATA!B6,E14-DATA!B6,0)</f>
@@ -2750,7 +2741,7 @@
       </c>
       <c r="L15" s="2">
         <f>IF(G15="",DATA!B5-(D15-C15),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M15" s="1">
         <f>IF(E15&gt;DATA!B6,E15-DATA!B6,0)</f>
@@ -2773,7 +2764,7 @@
       </c>
       <c r="L16" s="2">
         <f>IF(G16="",DATA!B5-(D16-C16),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M16" s="1">
         <f>IF(E16&gt;DATA!B6,E16-DATA!B6,0)</f>
@@ -2796,7 +2787,7 @@
       </c>
       <c r="L17" s="2">
         <f>IF(G17="",DATA!B5-(D17-C17),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M17" s="1">
         <f>IF(E17&gt;DATA!B6,E17-DATA!B6,0)</f>
@@ -2819,7 +2810,7 @@
       </c>
       <c r="L18" s="2">
         <f>IF(G18="",DATA!B5-(D18-C18),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M18" s="1">
         <f>IF(E18&gt;DATA!B6,E18-DATA!B6,0)</f>
@@ -2842,7 +2833,7 @@
       </c>
       <c r="L19" s="2">
         <f>IF(G19="",DATA!B5-(D19-C19),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M19" s="1">
         <f>IF(E19&gt;DATA!B6,E19-DATA!B6,0)</f>
@@ -2865,7 +2856,7 @@
       </c>
       <c r="L20" s="2">
         <f>IF(G20="",DATA!B5-(D20-C20),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M20" s="1">
         <f>IF(E20&gt;DATA!B6,E20-DATA!B6,0)</f>
@@ -2888,7 +2879,7 @@
       </c>
       <c r="L21" s="2">
         <f>IF(G21="",DATA!B5-(D21-C21),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M21" s="1">
         <f>IF(E21&gt;DATA!B6,E21-DATA!B6,0)</f>
@@ -2911,7 +2902,7 @@
       </c>
       <c r="L22" s="2">
         <f>IF(G22="",DATA!B5-(D22-C22),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M22" s="1">
         <f>IF(E22&gt;DATA!B6,E22-DATA!B6,0)</f>
@@ -2934,7 +2925,7 @@
       </c>
       <c r="L23" s="2">
         <f>IF(G23="",DATA!B5-(D23-C23),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M23" s="1">
         <f>IF(E23&gt;DATA!B6,E23-DATA!B6,0)</f>
@@ -2957,7 +2948,7 @@
       </c>
       <c r="L24" s="2">
         <f>IF(G24="",DATA!B5-(D24-C24),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M24" s="1">
         <f>IF(E24&gt;DATA!B6,E24-DATA!B6,0)</f>
@@ -2980,7 +2971,7 @@
       </c>
       <c r="L25" s="2">
         <f>IF(G25="",DATA!B5-(D25-C25),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M25" s="1">
         <f>IF(E25&gt;DATA!B6,E25-DATA!B6,0)</f>
@@ -3003,7 +2994,7 @@
       </c>
       <c r="L26" s="2">
         <f>IF(G26="",DATA!B5-(D26-C26),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M26" s="1">
         <f>IF(E26&gt;DATA!B6,E26-DATA!B6,0)</f>
@@ -3026,7 +3017,7 @@
       </c>
       <c r="L27" s="2">
         <f>IF(G27="",DATA!B5-(D27-C27),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M27" s="1">
         <f>IF(E27&gt;DATA!B6,E27-DATA!B6,0)</f>
@@ -3049,7 +3040,7 @@
       </c>
       <c r="L28" s="2">
         <f>IF(G28="",DATA!B5-(D28-C28),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M28" s="1">
         <f>IF(E28&gt;DATA!B6,E28-DATA!B6,0)</f>
@@ -3072,7 +3063,7 @@
       </c>
       <c r="L29" s="2">
         <f>IF(G29="",DATA!B5-(D29-C29),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M29" s="1">
         <f>IF(E29&gt;DATA!B6,E29-DATA!B6,0)</f>
@@ -3095,7 +3086,7 @@
       </c>
       <c r="L30" s="2">
         <f>IF(G30="",DATA!B5-(D30-C30),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M30" s="1">
         <f>IF(E30&gt;DATA!B6,E30-DATA!B6,0)</f>
@@ -3118,7 +3109,7 @@
       </c>
       <c r="L31" s="2">
         <f>IF(G31="",DATA!B5-(D31-C31),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M31" s="1">
         <f>IF(E31&gt;DATA!B6,E31-DATA!B6,0)</f>
@@ -3141,7 +3132,7 @@
       </c>
       <c r="L32" s="2">
         <f>IF(G32="",DATA!B5-(D32-C32),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M32" s="1">
         <f>IF(E32&gt;DATA!B6,E32-DATA!B6,0)</f>
@@ -3153,7 +3144,7 @@
     </row>
     <row r="34" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J34" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K34" s="4">
         <f>IF(G2="",K2)+IF(G3="",K3)+IF(G4="",K4)+IF(G5="",K5)+IF(G6="",K6)+IF(G7="",K7)+IF(G8="",K8)+IF(G9="",K9)+IF(G10="",K10)+IF(G11="",K11)+IF(G12="",K12)+IF(G13="",K13)+IF(G14="",K14)+IF(G15="",K15)+IF(G16="",K16)+IF(G17="",K17)+IF(G18="",K18)+IF(G19="",K19)+IF(G20="",K20)+IF(G21="",K21)+IF(G22="",K22)+IF(G23="",K23)+IF(G24="",K24)+IF(G25="",K25)+IF(G26="",K26)+IF(G27="",K27)+IF(G28="",K28)+IF(G29="",K29)+IF(G30="",K30)+IF(G31="",K31)+IF(G32="",K32)</f>
@@ -3161,7 +3152,7 @@
       </c>
       <c r="L34" s="4">
         <f>IF(G2="",L2)+IF(G3="",L3)+IF(G4="",L4)+IF(G5="",L5)+IF(G6="",L6)+IF(G7="",L7)+IF(G8="",L8)+IF(G9="",L9)+IF(G10="",L10)+IF(G11="",L11)+IF(G12="",L12)+IF(G13="",L13)+IF(G14="",L14)+IF(G15="",L15)+IF(G16="",L16)+IF(G17="",L17)+IF(G18="",L18)+IF(G19="",L19)+IF(G20="",L20)+IF(G21="",L21)+IF(G22="",L22)+IF(G23="",L23)+IF(G24="",L24)+IF(G25="",L25)+IF(G26="",L26)+IF(G27="",L27)+IF(G28="",L28)+IF(G29="",L29)+IF(G30="",L30)+IF(G31="",L31)+IF(G32="",L32)</f>
-        <v>1.2916666666666667</v>
+        <v>1.2916666666666665</v>
       </c>
       <c r="M34" s="4">
         <f>SUM(M2:M32)</f>
@@ -3180,7 +3171,7 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G32" xr:uid="{751C9F08-D588-459D-8A71-0A945553F1EB}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G2:G32" xr:uid="{00000000-0002-0000-0B00-000000000000}">
       <formula1>"FOLGA,ATESTADO,FALTA,DOBRA,DOMINGO,NÃO EXISTE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3189,7 +3180,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56162CB8-B81A-45F4-BEAD-995F927B5435}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3213,34 +3204,34 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -3259,17 +3250,17 @@
       </c>
       <c r="L2" s="2">
         <f>IF(G2="",DATA!B5-(D2-C2),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M2" s="1">
         <f>IF(E2&gt;DATA!B6,E2-DATA!B6,0)</f>
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="P2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -3288,7 +3279,7 @@
       </c>
       <c r="L3" s="2">
         <f>IF(G3="",DATA!B5-(D3-C3),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M3" s="1">
         <f>IF(E3&gt;DATA!B6,E3-DATA!B6,0)</f>
@@ -3299,7 +3290,7 @@
       </c>
       <c r="P3">
         <f>DATA!B1</f>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -3318,7 +3309,7 @@
       </c>
       <c r="L4" s="2">
         <f>IF(G4="",DATA!B5-(D4-C4),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M4" s="1">
         <f>IF(E4&gt;DATA!B6,E4-DATA!B6,0)</f>
@@ -3329,7 +3320,7 @@
       </c>
       <c r="P4">
         <f>DATA!B2</f>
-        <v>2025</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3348,7 +3339,7 @@
       </c>
       <c r="L5" s="2">
         <f>IF(G5="",DATA!B5-(D5-C5),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M5" s="1">
         <f>IF(E5&gt;DATA!B6,E5-DATA!B6,0)</f>
@@ -3371,14 +3362,14 @@
       </c>
       <c r="L6" s="2">
         <f>IF(G6="",DATA!B5-(D6-C6),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M6" s="1">
         <f>IF(E6&gt;DATA!B6,E6-DATA!B6,0)</f>
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q6" s="4">
         <f>K34+L34</f>
@@ -3401,7 +3392,7 @@
       </c>
       <c r="L7" s="2">
         <f>IF(G7="",DATA!B5-(D7-C7),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M7" s="1">
         <f>IF(E7&gt;DATA!B6,E7-DATA!B6,0)</f>
@@ -3425,14 +3416,14 @@
       </c>
       <c r="L8" s="2">
         <f>IF(G8="",DATA!B5-(D8-C8),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M8" s="1">
         <f>IF(E8&gt;DATA!B6,E8-DATA!B6,0)</f>
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q8" s="4">
         <f>M34</f>
@@ -3455,7 +3446,7 @@
       </c>
       <c r="L9" s="2">
         <f>IF(G9="",DATA!B5-(D9-C9),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M9" s="1">
         <f>IF(E9&gt;DATA!B6,E9-DATA!B6,0)</f>
@@ -3478,14 +3469,14 @@
       </c>
       <c r="L10" s="2">
         <f>IF(G10="",DATA!B5-(D10-C10),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M10" s="1">
         <f>IF(E10&gt;DATA!B6,E10-DATA!B6,0)</f>
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3504,7 +3495,7 @@
       </c>
       <c r="L11" s="2">
         <f>IF(G11="",DATA!B5-(D11-C11),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M11" s="1">
         <f>IF(E11&gt;DATA!B6,E11-DATA!B6,0)</f>
@@ -3527,7 +3518,7 @@
       </c>
       <c r="L12" s="2">
         <f>IF(G12="",DATA!B5-(D12-C12),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M12" s="1">
         <f>IF(E12&gt;DATA!B6,E12-DATA!B6,0)</f>
@@ -3550,7 +3541,7 @@
       </c>
       <c r="L13" s="2">
         <f>IF(G13="",DATA!B5-(D13-C13),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M13" s="1">
         <f>IF(E13&gt;DATA!B6,E13-DATA!B6,0)</f>
@@ -3573,7 +3564,7 @@
       </c>
       <c r="L14" s="2">
         <f>IF(G14="",DATA!B5-(D14-C14),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M14" s="1">
         <f>IF(E14&gt;DATA!B6,E14-DATA!B6,0)</f>
@@ -3596,7 +3587,7 @@
       </c>
       <c r="L15" s="2">
         <f>IF(G15="",DATA!B5-(D15-C15),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M15" s="1">
         <f>IF(E15&gt;DATA!B6,E15-DATA!B6,0)</f>
@@ -3619,7 +3610,7 @@
       </c>
       <c r="L16" s="2">
         <f>IF(G16="",DATA!B5-(D16-C16),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M16" s="1">
         <f>IF(E16&gt;DATA!B6,E16-DATA!B6,0)</f>
@@ -3642,7 +3633,7 @@
       </c>
       <c r="L17" s="2">
         <f>IF(G17="",DATA!B5-(D17-C17),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M17" s="1">
         <f>IF(E17&gt;DATA!B6,E17-DATA!B6,0)</f>
@@ -3665,7 +3656,7 @@
       </c>
       <c r="L18" s="2">
         <f>IF(G18="",DATA!B5-(D18-C18),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M18" s="1">
         <f>IF(E18&gt;DATA!B6,E18-DATA!B6,0)</f>
@@ -3688,7 +3679,7 @@
       </c>
       <c r="L19" s="2">
         <f>IF(G19="",DATA!B5-(D19-C19),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M19" s="1">
         <f>IF(E19&gt;DATA!B6,E19-DATA!B6,0)</f>
@@ -3711,7 +3702,7 @@
       </c>
       <c r="L20" s="2">
         <f>IF(G20="",DATA!B5-(D20-C20),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M20" s="1">
         <f>IF(E20&gt;DATA!B6,E20-DATA!B6,0)</f>
@@ -3734,7 +3725,7 @@
       </c>
       <c r="L21" s="2">
         <f>IF(G21="",DATA!B5-(D21-C21),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M21" s="1">
         <f>IF(E21&gt;DATA!B6,E21-DATA!B6,0)</f>
@@ -3757,7 +3748,7 @@
       </c>
       <c r="L22" s="2">
         <f>IF(G22="",DATA!B5-(D22-C22),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M22" s="1">
         <f>IF(E22&gt;DATA!B6,E22-DATA!B6,0)</f>
@@ -3780,7 +3771,7 @@
       </c>
       <c r="L23" s="2">
         <f>IF(G23="",DATA!B5-(D23-C23),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M23" s="1">
         <f>IF(E23&gt;DATA!B6,E23-DATA!B6,0)</f>
@@ -3803,7 +3794,7 @@
       </c>
       <c r="L24" s="2">
         <f>IF(G24="",DATA!B5-(D24-C24),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M24" s="1">
         <f>IF(E24&gt;DATA!B6,E24-DATA!B6,0)</f>
@@ -3826,7 +3817,7 @@
       </c>
       <c r="L25" s="2">
         <f>IF(G25="",DATA!B5-(D25-C25),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M25" s="1">
         <f>IF(E25&gt;DATA!B6,E25-DATA!B6,0)</f>
@@ -3849,7 +3840,7 @@
       </c>
       <c r="L26" s="2">
         <f>IF(G26="",DATA!B5-(D26-C26),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M26" s="1">
         <f>IF(E26&gt;DATA!B6,E26-DATA!B6,0)</f>
@@ -3872,7 +3863,7 @@
       </c>
       <c r="L27" s="2">
         <f>IF(G27="",DATA!B5-(D27-C27),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M27" s="1">
         <f>IF(E27&gt;DATA!B6,E27-DATA!B6,0)</f>
@@ -3895,7 +3886,7 @@
       </c>
       <c r="L28" s="2">
         <f>IF(G28="",DATA!B5-(D28-C28),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M28" s="1">
         <f>IF(E28&gt;DATA!B6,E28-DATA!B6,0)</f>
@@ -3918,7 +3909,7 @@
       </c>
       <c r="L29" s="2">
         <f>IF(G29="",DATA!B5-(D29-C29),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M29" s="1">
         <f>IF(E29&gt;DATA!B6,E29-DATA!B6,0)</f>
@@ -3941,7 +3932,7 @@
       </c>
       <c r="L30" s="2">
         <f>IF(G30="",DATA!B5-(D30-C30),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M30" s="1">
         <f>IF(E30&gt;DATA!B6,E30-DATA!B6,0)</f>
@@ -3964,7 +3955,7 @@
       </c>
       <c r="L31" s="2">
         <f>IF(G31="",DATA!B5-(D31-C31),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M31" s="1">
         <f>IF(E31&gt;DATA!B6,E31-DATA!B6,0)</f>
@@ -3987,7 +3978,7 @@
       </c>
       <c r="L32" s="2">
         <f>IF(G32="",DATA!B5-(D32-C32),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M32" s="1">
         <f>IF(E32&gt;DATA!B6,E32-DATA!B6,0)</f>
@@ -3999,7 +3990,7 @@
     </row>
     <row r="34" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J34" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K34" s="4">
         <f>IF(G2="",K2)+IF(G3="",K3)+IF(G4="",K4)+IF(G5="",K5)+IF(G6="",K6)+IF(G7="",K7)+IF(G8="",K8)+IF(G9="",K9)+IF(G10="",K10)+IF(G11="",K11)+IF(G12="",K12)+IF(G13="",K13)+IF(G14="",K14)+IF(G15="",K15)+IF(G16="",K16)+IF(G17="",K17)+IF(G18="",K18)+IF(G19="",K19)+IF(G20="",K20)+IF(G21="",K21)+IF(G22="",K22)+IF(G23="",K23)+IF(G24="",K24)+IF(G25="",K25)+IF(G26="",K26)+IF(G27="",K27)+IF(G28="",K28)+IF(G29="",K29)+IF(G30="",K30)+IF(G31="",K31)+IF(G32="",K32)</f>
@@ -4007,7 +3998,7 @@
       </c>
       <c r="L34" s="4">
         <f>IF(G2="",L2)+IF(G3="",L3)+IF(G4="",L4)+IF(G5="",L5)+IF(G6="",L6)+IF(G7="",L7)+IF(G8="",L8)+IF(G9="",L9)+IF(G10="",L10)+IF(G11="",L11)+IF(G12="",L12)+IF(G13="",L13)+IF(G14="",L14)+IF(G15="",L15)+IF(G16="",L16)+IF(G17="",L17)+IF(G18="",L18)+IF(G19="",L19)+IF(G20="",L20)+IF(G21="",L21)+IF(G22="",L22)+IF(G23="",L23)+IF(G24="",L24)+IF(G25="",L25)+IF(G26="",L26)+IF(G27="",L27)+IF(G28="",L28)+IF(G29="",L29)+IF(G30="",L30)+IF(G31="",L31)+IF(G32="",L32)</f>
-        <v>1.2916666666666667</v>
+        <v>1.2916666666666665</v>
       </c>
       <c r="M34" s="4">
         <f>SUM(M2:M32)</f>
@@ -4026,7 +4017,7 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G32" xr:uid="{1ADAB3EA-E474-456A-96A1-1DA1C901B4EC}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G2:G32" xr:uid="{00000000-0002-0000-0C00-000000000000}">
       <formula1>"FOLGA,ATESTADO,FALTA,DOBRA,DOMINGO,NÃO EXISTE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4035,7 +4026,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B3C18C-2C0D-48BF-BAC8-31AF5E9781F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4059,34 +4050,34 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -4105,17 +4096,17 @@
       </c>
       <c r="L2" s="2">
         <f>IF(G2="",DATA!B5-(D2-C2),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M2" s="1">
         <f>IF(E2&gt;DATA!B6,E2-DATA!B6,0)</f>
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="P2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -4134,7 +4125,7 @@
       </c>
       <c r="L3" s="2">
         <f>IF(G3="",DATA!B5-(D3-C3),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M3" s="1">
         <f>IF(E3&gt;DATA!B6,E3-DATA!B6,0)</f>
@@ -4145,7 +4136,7 @@
       </c>
       <c r="P3">
         <f>DATA!B1</f>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -4164,7 +4155,7 @@
       </c>
       <c r="L4" s="2">
         <f>IF(G4="",DATA!B5-(D4-C4),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M4" s="1">
         <f>IF(E4&gt;DATA!B6,E4-DATA!B6,0)</f>
@@ -4175,7 +4166,7 @@
       </c>
       <c r="P4">
         <f>DATA!B2</f>
-        <v>2025</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4194,7 +4185,7 @@
       </c>
       <c r="L5" s="2">
         <f>IF(G5="",DATA!B5-(D5-C5),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M5" s="1">
         <f>IF(E5&gt;DATA!B6,E5-DATA!B6,0)</f>
@@ -4217,14 +4208,14 @@
       </c>
       <c r="L6" s="2">
         <f>IF(G6="",DATA!B5-(D6-C6),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M6" s="1">
         <f>IF(E6&gt;DATA!B6,E6-DATA!B6,0)</f>
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q6" s="4">
         <f>K34+L34</f>
@@ -4247,7 +4238,7 @@
       </c>
       <c r="L7" s="2">
         <f>IF(G7="",DATA!B5-(D7-C7),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M7" s="1">
         <f>IF(E7&gt;DATA!B6,E7-DATA!B6,0)</f>
@@ -4271,14 +4262,14 @@
       </c>
       <c r="L8" s="2">
         <f>IF(G8="",DATA!B5-(D8-C8),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M8" s="1">
         <f>IF(E8&gt;DATA!B6,E8-DATA!B6,0)</f>
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q8" s="4">
         <f>M34</f>
@@ -4301,7 +4292,7 @@
       </c>
       <c r="L9" s="2">
         <f>IF(G9="",DATA!B5-(D9-C9),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M9" s="1">
         <f>IF(E9&gt;DATA!B6,E9-DATA!B6,0)</f>
@@ -4324,14 +4315,14 @@
       </c>
       <c r="L10" s="2">
         <f>IF(G10="",DATA!B5-(D10-C10),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M10" s="1">
         <f>IF(E10&gt;DATA!B6,E10-DATA!B6,0)</f>
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4350,7 +4341,7 @@
       </c>
       <c r="L11" s="2">
         <f>IF(G11="",DATA!B5-(D11-C11),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M11" s="1">
         <f>IF(E11&gt;DATA!B6,E11-DATA!B6,0)</f>
@@ -4373,7 +4364,7 @@
       </c>
       <c r="L12" s="2">
         <f>IF(G12="",DATA!B5-(D12-C12),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M12" s="1">
         <f>IF(E12&gt;DATA!B6,E12-DATA!B6,0)</f>
@@ -4396,7 +4387,7 @@
       </c>
       <c r="L13" s="2">
         <f>IF(G13="",DATA!B5-(D13-C13),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M13" s="1">
         <f>IF(E13&gt;DATA!B6,E13-DATA!B6,0)</f>
@@ -4419,7 +4410,7 @@
       </c>
       <c r="L14" s="2">
         <f>IF(G14="",DATA!B5-(D14-C14),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M14" s="1">
         <f>IF(E14&gt;DATA!B6,E14-DATA!B6,0)</f>
@@ -4442,7 +4433,7 @@
       </c>
       <c r="L15" s="2">
         <f>IF(G15="",DATA!B5-(D15-C15),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M15" s="1">
         <f>IF(E15&gt;DATA!B6,E15-DATA!B6,0)</f>
@@ -4465,7 +4456,7 @@
       </c>
       <c r="L16" s="2">
         <f>IF(G16="",DATA!B5-(D16-C16),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M16" s="1">
         <f>IF(E16&gt;DATA!B6,E16-DATA!B6,0)</f>
@@ -4488,7 +4479,7 @@
       </c>
       <c r="L17" s="2">
         <f>IF(G17="",DATA!B5-(D17-C17),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M17" s="1">
         <f>IF(E17&gt;DATA!B6,E17-DATA!B6,0)</f>
@@ -4511,7 +4502,7 @@
       </c>
       <c r="L18" s="2">
         <f>IF(G18="",DATA!B5-(D18-C18),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M18" s="1">
         <f>IF(E18&gt;DATA!B6,E18-DATA!B6,0)</f>
@@ -4534,7 +4525,7 @@
       </c>
       <c r="L19" s="2">
         <f>IF(G19="",DATA!B5-(D19-C19),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M19" s="1">
         <f>IF(E19&gt;DATA!B6,E19-DATA!B6,0)</f>
@@ -4557,7 +4548,7 @@
       </c>
       <c r="L20" s="2">
         <f>IF(G20="",DATA!B5-(D20-C20),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M20" s="1">
         <f>IF(E20&gt;DATA!B6,E20-DATA!B6,0)</f>
@@ -4580,7 +4571,7 @@
       </c>
       <c r="L21" s="2">
         <f>IF(G21="",DATA!B5-(D21-C21),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M21" s="1">
         <f>IF(E21&gt;DATA!B6,E21-DATA!B6,0)</f>
@@ -4603,7 +4594,7 @@
       </c>
       <c r="L22" s="2">
         <f>IF(G22="",DATA!B5-(D22-C22),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M22" s="1">
         <f>IF(E22&gt;DATA!B6,E22-DATA!B6,0)</f>
@@ -4626,7 +4617,7 @@
       </c>
       <c r="L23" s="2">
         <f>IF(G23="",DATA!B5-(D23-C23),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M23" s="1">
         <f>IF(E23&gt;DATA!B6,E23-DATA!B6,0)</f>
@@ -4649,7 +4640,7 @@
       </c>
       <c r="L24" s="2">
         <f>IF(G24="",DATA!B5-(D24-C24),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M24" s="1">
         <f>IF(E24&gt;DATA!B6,E24-DATA!B6,0)</f>
@@ -4672,7 +4663,7 @@
       </c>
       <c r="L25" s="2">
         <f>IF(G25="",DATA!B5-(D25-C25),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M25" s="1">
         <f>IF(E25&gt;DATA!B6,E25-DATA!B6,0)</f>
@@ -4695,7 +4686,7 @@
       </c>
       <c r="L26" s="2">
         <f>IF(G26="",DATA!B5-(D26-C26),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M26" s="1">
         <f>IF(E26&gt;DATA!B6,E26-DATA!B6,0)</f>
@@ -4718,7 +4709,7 @@
       </c>
       <c r="L27" s="2">
         <f>IF(G27="",DATA!B5-(D27-C27),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M27" s="1">
         <f>IF(E27&gt;DATA!B6,E27-DATA!B6,0)</f>
@@ -4741,7 +4732,7 @@
       </c>
       <c r="L28" s="2">
         <f>IF(G28="",DATA!B5-(D28-C28),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M28" s="1">
         <f>IF(E28&gt;DATA!B6,E28-DATA!B6,0)</f>
@@ -4764,7 +4755,7 @@
       </c>
       <c r="L29" s="2">
         <f>IF(G29="",DATA!B5-(D29-C29),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M29" s="1">
         <f>IF(E29&gt;DATA!B6,E29-DATA!B6,0)</f>
@@ -4787,7 +4778,7 @@
       </c>
       <c r="L30" s="2">
         <f>IF(G30="",DATA!B5-(D30-C30),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M30" s="1">
         <f>IF(E30&gt;DATA!B6,E30-DATA!B6,0)</f>
@@ -4810,7 +4801,7 @@
       </c>
       <c r="L31" s="2">
         <f>IF(G31="",DATA!B5-(D31-C31),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M31" s="1">
         <f>IF(E31&gt;DATA!B6,E31-DATA!B6,0)</f>
@@ -4833,7 +4824,7 @@
       </c>
       <c r="L32" s="2">
         <f>IF(G32="",DATA!B5-(D32-C32),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M32" s="1">
         <f>IF(E32&gt;DATA!B6,E32-DATA!B6,0)</f>
@@ -4845,7 +4836,7 @@
     </row>
     <row r="34" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J34" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K34" s="4">
         <f>IF(G2="",K2)+IF(G3="",K3)+IF(G4="",K4)+IF(G5="",K5)+IF(G6="",K6)+IF(G7="",K7)+IF(G8="",K8)+IF(G9="",K9)+IF(G10="",K10)+IF(G11="",K11)+IF(G12="",K12)+IF(G13="",K13)+IF(G14="",K14)+IF(G15="",K15)+IF(G16="",K16)+IF(G17="",K17)+IF(G18="",K18)+IF(G19="",K19)+IF(G20="",K20)+IF(G21="",K21)+IF(G22="",K22)+IF(G23="",K23)+IF(G24="",K24)+IF(G25="",K25)+IF(G26="",K26)+IF(G27="",K27)+IF(G28="",K28)+IF(G29="",K29)+IF(G30="",K30)+IF(G31="",K31)+IF(G32="",K32)</f>
@@ -4853,7 +4844,7 @@
       </c>
       <c r="L34" s="4">
         <f>IF(G2="",L2)+IF(G3="",L3)+IF(G4="",L4)+IF(G5="",L5)+IF(G6="",L6)+IF(G7="",L7)+IF(G8="",L8)+IF(G9="",L9)+IF(G10="",L10)+IF(G11="",L11)+IF(G12="",L12)+IF(G13="",L13)+IF(G14="",L14)+IF(G15="",L15)+IF(G16="",L16)+IF(G17="",L17)+IF(G18="",L18)+IF(G19="",L19)+IF(G20="",L20)+IF(G21="",L21)+IF(G22="",L22)+IF(G23="",L23)+IF(G24="",L24)+IF(G25="",L25)+IF(G26="",L26)+IF(G27="",L27)+IF(G28="",L28)+IF(G29="",L29)+IF(G30="",L30)+IF(G31="",L31)+IF(G32="",L32)</f>
-        <v>1.2916666666666667</v>
+        <v>1.2916666666666665</v>
       </c>
       <c r="M34" s="4">
         <f>SUM(M2:M32)</f>
@@ -4872,7 +4863,7 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G32" xr:uid="{9AFDA3E1-6BA3-40DE-A37C-62593DB0D72B}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G2:G32" xr:uid="{00000000-0002-0000-0D00-000000000000}">
       <formula1>"FOLGA,ATESTADO,FALTA,DOBRA,DOMINGO,NÃO EXISTE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4881,7 +4872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49ECC9FA-75D9-4623-AF46-4657123F9403}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4905,34 +4896,34 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -4951,17 +4942,17 @@
       </c>
       <c r="L2" s="2">
         <f>IF(G2="",DATA!B5-(D2-C2),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M2" s="1">
         <f>IF(E2&gt;DATA!B6,E2-DATA!B6,0)</f>
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="P2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -4980,7 +4971,7 @@
       </c>
       <c r="L3" s="2">
         <f>IF(G3="",DATA!B5-(D3-C3),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M3" s="1">
         <f>IF(E3&gt;DATA!B6,E3-DATA!B6,0)</f>
@@ -4991,7 +4982,7 @@
       </c>
       <c r="P3">
         <f>DATA!B1</f>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -5010,7 +5001,7 @@
       </c>
       <c r="L4" s="2">
         <f>IF(G4="",DATA!B5-(D4-C4),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M4" s="1">
         <f>IF(E4&gt;DATA!B6,E4-DATA!B6,0)</f>
@@ -5021,7 +5012,7 @@
       </c>
       <c r="P4">
         <f>DATA!B2</f>
-        <v>2025</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5040,7 +5031,7 @@
       </c>
       <c r="L5" s="2">
         <f>IF(G5="",DATA!B5-(D5-C5),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M5" s="1">
         <f>IF(E5&gt;DATA!B6,E5-DATA!B6,0)</f>
@@ -5063,14 +5054,14 @@
       </c>
       <c r="L6" s="2">
         <f>IF(G6="",DATA!B5-(D6-C6),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M6" s="1">
         <f>IF(E6&gt;DATA!B6,E6-DATA!B6,0)</f>
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q6" s="4">
         <f>K34+L34</f>
@@ -5093,7 +5084,7 @@
       </c>
       <c r="L7" s="2">
         <f>IF(G7="",DATA!B5-(D7-C7),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M7" s="1">
         <f>IF(E7&gt;DATA!B6,E7-DATA!B6,0)</f>
@@ -5117,14 +5108,14 @@
       </c>
       <c r="L8" s="2">
         <f>IF(G8="",DATA!B5-(D8-C8),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M8" s="1">
         <f>IF(E8&gt;DATA!B6,E8-DATA!B6,0)</f>
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q8" s="4">
         <f>M34</f>
@@ -5147,7 +5138,7 @@
       </c>
       <c r="L9" s="2">
         <f>IF(G9="",DATA!B5-(D9-C9),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M9" s="1">
         <f>IF(E9&gt;DATA!B6,E9-DATA!B6,0)</f>
@@ -5170,14 +5161,14 @@
       </c>
       <c r="L10" s="2">
         <f>IF(G10="",DATA!B5-(D10-C10),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M10" s="1">
         <f>IF(E10&gt;DATA!B6,E10-DATA!B6,0)</f>
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5196,7 +5187,7 @@
       </c>
       <c r="L11" s="2">
         <f>IF(G11="",DATA!B5-(D11-C11),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M11" s="1">
         <f>IF(E11&gt;DATA!B6,E11-DATA!B6,0)</f>
@@ -5219,7 +5210,7 @@
       </c>
       <c r="L12" s="2">
         <f>IF(G12="",DATA!B5-(D12-C12),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M12" s="1">
         <f>IF(E12&gt;DATA!B6,E12-DATA!B6,0)</f>
@@ -5242,7 +5233,7 @@
       </c>
       <c r="L13" s="2">
         <f>IF(G13="",DATA!B5-(D13-C13),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M13" s="1">
         <f>IF(E13&gt;DATA!B6,E13-DATA!B6,0)</f>
@@ -5265,7 +5256,7 @@
       </c>
       <c r="L14" s="2">
         <f>IF(G14="",DATA!B5-(D14-C14),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M14" s="1">
         <f>IF(E14&gt;DATA!B6,E14-DATA!B6,0)</f>
@@ -5288,7 +5279,7 @@
       </c>
       <c r="L15" s="2">
         <f>IF(G15="",DATA!B5-(D15-C15),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M15" s="1">
         <f>IF(E15&gt;DATA!B6,E15-DATA!B6,0)</f>
@@ -5311,7 +5302,7 @@
       </c>
       <c r="L16" s="2">
         <f>IF(G16="",DATA!B5-(D16-C16),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M16" s="1">
         <f>IF(E16&gt;DATA!B6,E16-DATA!B6,0)</f>
@@ -5334,7 +5325,7 @@
       </c>
       <c r="L17" s="2">
         <f>IF(G17="",DATA!B5-(D17-C17),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M17" s="1">
         <f>IF(E17&gt;DATA!B6,E17-DATA!B6,0)</f>
@@ -5357,7 +5348,7 @@
       </c>
       <c r="L18" s="2">
         <f>IF(G18="",DATA!B5-(D18-C18),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M18" s="1">
         <f>IF(E18&gt;DATA!B6,E18-DATA!B6,0)</f>
@@ -5380,7 +5371,7 @@
       </c>
       <c r="L19" s="2">
         <f>IF(G19="",DATA!B5-(D19-C19),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M19" s="1">
         <f>IF(E19&gt;DATA!B6,E19-DATA!B6,0)</f>
@@ -5403,7 +5394,7 @@
       </c>
       <c r="L20" s="2">
         <f>IF(G20="",DATA!B5-(D20-C20),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M20" s="1">
         <f>IF(E20&gt;DATA!B6,E20-DATA!B6,0)</f>
@@ -5426,7 +5417,7 @@
       </c>
       <c r="L21" s="2">
         <f>IF(G21="",DATA!B5-(D21-C21),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M21" s="1">
         <f>IF(E21&gt;DATA!B6,E21-DATA!B6,0)</f>
@@ -5449,7 +5440,7 @@
       </c>
       <c r="L22" s="2">
         <f>IF(G22="",DATA!B5-(D22-C22),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M22" s="1">
         <f>IF(E22&gt;DATA!B6,E22-DATA!B6,0)</f>
@@ -5472,7 +5463,7 @@
       </c>
       <c r="L23" s="2">
         <f>IF(G23="",DATA!B5-(D23-C23),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M23" s="1">
         <f>IF(E23&gt;DATA!B6,E23-DATA!B6,0)</f>
@@ -5495,7 +5486,7 @@
       </c>
       <c r="L24" s="2">
         <f>IF(G24="",DATA!B5-(D24-C24),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M24" s="1">
         <f>IF(E24&gt;DATA!B6,E24-DATA!B6,0)</f>
@@ -5518,7 +5509,7 @@
       </c>
       <c r="L25" s="2">
         <f>IF(G25="",DATA!B5-(D25-C25),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M25" s="1">
         <f>IF(E25&gt;DATA!B6,E25-DATA!B6,0)</f>
@@ -5541,7 +5532,7 @@
       </c>
       <c r="L26" s="2">
         <f>IF(G26="",DATA!B5-(D26-C26),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M26" s="1">
         <f>IF(E26&gt;DATA!B6,E26-DATA!B6,0)</f>
@@ -5564,7 +5555,7 @@
       </c>
       <c r="L27" s="2">
         <f>IF(G27="",DATA!B5-(D27-C27),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M27" s="1">
         <f>IF(E27&gt;DATA!B6,E27-DATA!B6,0)</f>
@@ -5587,7 +5578,7 @@
       </c>
       <c r="L28" s="2">
         <f>IF(G28="",DATA!B5-(D28-C28),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M28" s="1">
         <f>IF(E28&gt;DATA!B6,E28-DATA!B6,0)</f>
@@ -5610,7 +5601,7 @@
       </c>
       <c r="L29" s="2">
         <f>IF(G29="",DATA!B5-(D29-C29),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M29" s="1">
         <f>IF(E29&gt;DATA!B6,E29-DATA!B6,0)</f>
@@ -5633,7 +5624,7 @@
       </c>
       <c r="L30" s="2">
         <f>IF(G30="",DATA!B5-(D30-C30),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M30" s="1">
         <f>IF(E30&gt;DATA!B6,E30-DATA!B6,0)</f>
@@ -5656,7 +5647,7 @@
       </c>
       <c r="L31" s="2">
         <f>IF(G31="",DATA!B5-(D31-C31),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M31" s="1">
         <f>IF(E31&gt;DATA!B6,E31-DATA!B6,0)</f>
@@ -5679,7 +5670,7 @@
       </c>
       <c r="L32" s="2">
         <f>IF(G32="",DATA!B5-(D32-C32),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M32" s="1">
         <f>IF(E32&gt;DATA!B6,E32-DATA!B6,0)</f>
@@ -5691,7 +5682,7 @@
     </row>
     <row r="34" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J34" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K34" s="4">
         <f>IF(G2="",K2)+IF(G3="",K3)+IF(G4="",K4)+IF(G5="",K5)+IF(G6="",K6)+IF(G7="",K7)+IF(G8="",K8)+IF(G9="",K9)+IF(G10="",K10)+IF(G11="",K11)+IF(G12="",K12)+IF(G13="",K13)+IF(G14="",K14)+IF(G15="",K15)+IF(G16="",K16)+IF(G17="",K17)+IF(G18="",K18)+IF(G19="",K19)+IF(G20="",K20)+IF(G21="",K21)+IF(G22="",K22)+IF(G23="",K23)+IF(G24="",K24)+IF(G25="",K25)+IF(G26="",K26)+IF(G27="",K27)+IF(G28="",K28)+IF(G29="",K29)+IF(G30="",K30)+IF(G31="",K31)+IF(G32="",K32)</f>
@@ -5699,7 +5690,7 @@
       </c>
       <c r="L34" s="4">
         <f>IF(G2="",L2)+IF(G3="",L3)+IF(G4="",L4)+IF(G5="",L5)+IF(G6="",L6)+IF(G7="",L7)+IF(G8="",L8)+IF(G9="",L9)+IF(G10="",L10)+IF(G11="",L11)+IF(G12="",L12)+IF(G13="",L13)+IF(G14="",L14)+IF(G15="",L15)+IF(G16="",L16)+IF(G17="",L17)+IF(G18="",L18)+IF(G19="",L19)+IF(G20="",L20)+IF(G21="",L21)+IF(G22="",L22)+IF(G23="",L23)+IF(G24="",L24)+IF(G25="",L25)+IF(G26="",L26)+IF(G27="",L27)+IF(G28="",L28)+IF(G29="",L29)+IF(G30="",L30)+IF(G31="",L31)+IF(G32="",L32)</f>
-        <v>1.2916666666666667</v>
+        <v>1.2916666666666665</v>
       </c>
       <c r="M34" s="4">
         <f>SUM(M2:M32)</f>
@@ -5718,7 +5709,7 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G32" xr:uid="{B39DB2BC-B908-42D1-A9EC-479A55A8ECBE}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G2:G32" xr:uid="{00000000-0002-0000-0E00-000000000000}">
       <formula1>"FOLGA,ATESTADO,FALTA,DOBRA,DOMINGO,NÃO EXISTE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5727,7 +5718,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F4990E9-A331-45E8-8CF3-FE24F831BD41}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5751,34 +5742,34 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -5793,21 +5784,21 @@
       <c r="G2" s="8"/>
       <c r="K2" s="2">
         <f>IF(G2="",E2-B2-DATA!B9-DATA!B5,"")</f>
-        <v>-0.25</v>
+        <v>-0.24999999999999994</v>
       </c>
       <c r="L2" s="2">
         <f>IF(G2="",DATA!B5-(D2-C2),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M2" s="1">
         <f>IF(E2&gt;DATA!B6,E2-DATA!B6,0)</f>
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="P2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -5822,11 +5813,11 @@
       <c r="G3" s="8"/>
       <c r="K3" s="2">
         <f>IF(G3="",E3-B3-DATA!B9-DATA!B5,"")</f>
-        <v>-0.25</v>
+        <v>-0.24999999999999994</v>
       </c>
       <c r="L3" s="2">
         <f>IF(G3="",DATA!B5-(D3-C3),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M3" s="1">
         <f>IF(E3&gt;DATA!B6,E3-DATA!B6,0)</f>
@@ -5837,7 +5828,7 @@
       </c>
       <c r="P3">
         <f>DATA!B1</f>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -5852,11 +5843,11 @@
       <c r="G4" s="8"/>
       <c r="K4" s="2">
         <f>IF(G4="",E4-B4-DATA!B9-DATA!B5,"")</f>
-        <v>-0.25</v>
+        <v>-0.24999999999999994</v>
       </c>
       <c r="L4" s="2">
         <f>IF(G4="",DATA!B5-(D4-C4),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M4" s="1">
         <f>IF(E4&gt;DATA!B6,E4-DATA!B6,0)</f>
@@ -5867,7 +5858,7 @@
       </c>
       <c r="P4">
         <f>DATA!B2</f>
-        <v>2025</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5882,11 +5873,11 @@
       <c r="G5" s="8"/>
       <c r="K5" s="2">
         <f>IF(G5="",E5-B5-DATA!B9-DATA!B5,"")</f>
-        <v>-0.25</v>
+        <v>-0.24999999999999994</v>
       </c>
       <c r="L5" s="2">
         <f>IF(G5="",DATA!B5-(D5-C5),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M5" s="1">
         <f>IF(E5&gt;DATA!B6,E5-DATA!B6,0)</f>
@@ -5905,22 +5896,22 @@
       <c r="G6" s="8"/>
       <c r="K6" s="2">
         <f>IF(G6="",E6-B6-DATA!B9-DATA!B5,"")</f>
-        <v>-0.25</v>
+        <v>-0.24999999999999994</v>
       </c>
       <c r="L6" s="2">
         <f>IF(G6="",DATA!B5-(D6-C6),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M6" s="1">
         <f>IF(E6&gt;DATA!B6,E6-DATA!B6,0)</f>
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q6" s="4">
         <f>K34+L34</f>
-        <v>-6.458333333333333</v>
+        <v>-6.4583333333333321</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5935,11 +5926,11 @@
       <c r="G7" s="8"/>
       <c r="K7" s="2">
         <f>IF(G7="",E7-B7-DATA!B9-DATA!B5,"")</f>
-        <v>-0.25</v>
+        <v>-0.24999999999999994</v>
       </c>
       <c r="L7" s="2">
         <f>IF(G7="",DATA!B5-(D7-C7),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M7" s="1">
         <f>IF(E7&gt;DATA!B6,E7-DATA!B6,0)</f>
@@ -5959,18 +5950,18 @@
       <c r="G8" s="8"/>
       <c r="K8" s="2">
         <f>IF(G8="",E8-B8-DATA!B9-DATA!B5,"")</f>
-        <v>-0.25</v>
+        <v>-0.24999999999999994</v>
       </c>
       <c r="L8" s="2">
         <f>IF(G8="",DATA!B5-(D8-C8),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M8" s="1">
         <f>IF(E8&gt;DATA!B6,E8-DATA!B6,0)</f>
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q8" s="4">
         <f>M34</f>
@@ -5989,11 +5980,11 @@
       <c r="G9" s="8"/>
       <c r="K9" s="2">
         <f>IF(G9="",E9-B9-DATA!B9-DATA!B5,"")</f>
-        <v>-0.25</v>
+        <v>-0.24999999999999994</v>
       </c>
       <c r="L9" s="2">
         <f>IF(G9="",DATA!B5-(D9-C9),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M9" s="1">
         <f>IF(E9&gt;DATA!B6,E9-DATA!B6,0)</f>
@@ -6012,18 +6003,18 @@
       <c r="G10" s="8"/>
       <c r="K10" s="2">
         <f>IF(G10="",E10-B10-DATA!B9-DATA!B5,"")</f>
-        <v>-0.25</v>
+        <v>-0.24999999999999994</v>
       </c>
       <c r="L10" s="2">
         <f>IF(G10="",DATA!B5-(D10-C10),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M10" s="1">
         <f>IF(E10&gt;DATA!B6,E10-DATA!B6,0)</f>
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6038,11 +6029,11 @@
       <c r="G11" s="8"/>
       <c r="K11" s="2">
         <f>IF(G11="",E11-B11-DATA!B9-DATA!B5,"")</f>
-        <v>-0.25</v>
+        <v>-0.24999999999999994</v>
       </c>
       <c r="L11" s="2">
         <f>IF(G11="",DATA!B5-(D11-C11),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M11" s="1">
         <f>IF(E11&gt;DATA!B6,E11-DATA!B6,0)</f>
@@ -6061,11 +6052,11 @@
       <c r="G12" s="8"/>
       <c r="K12" s="2">
         <f>IF(G12="",E12-B12-DATA!B9-DATA!B5,"")</f>
-        <v>-0.25</v>
+        <v>-0.24999999999999994</v>
       </c>
       <c r="L12" s="2">
         <f>IF(G12="",DATA!B5-(D12-C12),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M12" s="1">
         <f>IF(E12&gt;DATA!B6,E12-DATA!B6,0)</f>
@@ -6084,11 +6075,11 @@
       <c r="G13" s="8"/>
       <c r="K13" s="2">
         <f>IF(G13="",E13-B13-DATA!B9-DATA!B5,"")</f>
-        <v>-0.25</v>
+        <v>-0.24999999999999994</v>
       </c>
       <c r="L13" s="2">
         <f>IF(G13="",DATA!B5-(D13-C13),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M13" s="1">
         <f>IF(E13&gt;DATA!B6,E13-DATA!B6,0)</f>
@@ -6107,11 +6098,11 @@
       <c r="G14" s="8"/>
       <c r="K14" s="2">
         <f>IF(G14="",E14-B14-DATA!B9-DATA!B5,"")</f>
-        <v>-0.25</v>
+        <v>-0.24999999999999994</v>
       </c>
       <c r="L14" s="2">
         <f>IF(G14="",DATA!B5-(D14-C14),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M14" s="1">
         <f>IF(E14&gt;DATA!B6,E14-DATA!B6,0)</f>
@@ -6130,11 +6121,11 @@
       <c r="G15" s="8"/>
       <c r="K15" s="2">
         <f>IF(G15="",E15-B15-DATA!B9-DATA!B5,"")</f>
-        <v>-0.25</v>
+        <v>-0.24999999999999994</v>
       </c>
       <c r="L15" s="2">
         <f>IF(G15="",DATA!B5-(D15-C15),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M15" s="1">
         <f>IF(E15&gt;DATA!B6,E15-DATA!B6,0)</f>
@@ -6153,11 +6144,11 @@
       <c r="G16" s="8"/>
       <c r="K16" s="2">
         <f>IF(G16="",E16-B16-DATA!B9-DATA!B5,"")</f>
-        <v>-0.25</v>
+        <v>-0.24999999999999994</v>
       </c>
       <c r="L16" s="2">
         <f>IF(G16="",DATA!B5-(D16-C16),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M16" s="1">
         <f>IF(E16&gt;DATA!B6,E16-DATA!B6,0)</f>
@@ -6176,11 +6167,11 @@
       <c r="G17" s="8"/>
       <c r="K17" s="2">
         <f>IF(G17="",E17-B17-DATA!B9-DATA!B5,"")</f>
-        <v>-0.25</v>
+        <v>-0.24999999999999994</v>
       </c>
       <c r="L17" s="2">
         <f>IF(G17="",DATA!B5-(D17-C17),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M17" s="1">
         <f>IF(E17&gt;DATA!B6,E17-DATA!B6,0)</f>
@@ -6199,11 +6190,11 @@
       <c r="G18" s="8"/>
       <c r="K18" s="2">
         <f>IF(G18="",E18-B18-DATA!B9-DATA!B5,"")</f>
-        <v>-0.25</v>
+        <v>-0.24999999999999994</v>
       </c>
       <c r="L18" s="2">
         <f>IF(G18="",DATA!B5-(D18-C18),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M18" s="1">
         <f>IF(E18&gt;DATA!B6,E18-DATA!B6,0)</f>
@@ -6222,11 +6213,11 @@
       <c r="G19" s="8"/>
       <c r="K19" s="2">
         <f>IF(G19="",E19-B19-DATA!B9-DATA!B5,"")</f>
-        <v>-0.25</v>
+        <v>-0.24999999999999994</v>
       </c>
       <c r="L19" s="2">
         <f>IF(G19="",DATA!B5-(D19-C19),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M19" s="1">
         <f>IF(E19&gt;DATA!B6,E19-DATA!B6,0)</f>
@@ -6245,11 +6236,11 @@
       <c r="G20" s="8"/>
       <c r="K20" s="2">
         <f>IF(G20="",E20-B20-DATA!B9-DATA!B5,"")</f>
-        <v>-0.25</v>
+        <v>-0.24999999999999994</v>
       </c>
       <c r="L20" s="2">
         <f>IF(G20="",DATA!B5-(D20-C20),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M20" s="1">
         <f>IF(E20&gt;DATA!B6,E20-DATA!B6,0)</f>
@@ -6268,11 +6259,11 @@
       <c r="G21" s="8"/>
       <c r="K21" s="2">
         <f>IF(G21="",E21-B21-DATA!B9-DATA!B5,"")</f>
-        <v>-0.25</v>
+        <v>-0.24999999999999994</v>
       </c>
       <c r="L21" s="2">
         <f>IF(G21="",DATA!B5-(D21-C21),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M21" s="1">
         <f>IF(E21&gt;DATA!B6,E21-DATA!B6,0)</f>
@@ -6291,11 +6282,11 @@
       <c r="G22" s="8"/>
       <c r="K22" s="2">
         <f>IF(G22="",E22-B22-DATA!B9-DATA!B5,"")</f>
-        <v>-0.25</v>
+        <v>-0.24999999999999994</v>
       </c>
       <c r="L22" s="2">
         <f>IF(G22="",DATA!B5-(D22-C22),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M22" s="1">
         <f>IF(E22&gt;DATA!B6,E22-DATA!B6,0)</f>
@@ -6314,11 +6305,11 @@
       <c r="G23" s="8"/>
       <c r="K23" s="2">
         <f>IF(G23="",E23-B23-DATA!B9-DATA!B5,"")</f>
-        <v>-0.25</v>
+        <v>-0.24999999999999994</v>
       </c>
       <c r="L23" s="2">
         <f>IF(G23="",DATA!B5-(D23-C23),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M23" s="1">
         <f>IF(E23&gt;DATA!B6,E23-DATA!B6,0)</f>
@@ -6337,11 +6328,11 @@
       <c r="G24" s="8"/>
       <c r="K24" s="2">
         <f>IF(G24="",E24-B24-DATA!B9-DATA!B5,"")</f>
-        <v>-0.25</v>
+        <v>-0.24999999999999994</v>
       </c>
       <c r="L24" s="2">
         <f>IF(G24="",DATA!B5-(D24-C24),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M24" s="1">
         <f>IF(E24&gt;DATA!B6,E24-DATA!B6,0)</f>
@@ -6360,11 +6351,11 @@
       <c r="G25" s="8"/>
       <c r="K25" s="2">
         <f>IF(G25="",E25-B25-DATA!B9-DATA!B5,"")</f>
-        <v>-0.25</v>
+        <v>-0.24999999999999994</v>
       </c>
       <c r="L25" s="2">
         <f>IF(G25="",DATA!B5-(D25-C25),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M25" s="1">
         <f>IF(E25&gt;DATA!B6,E25-DATA!B6,0)</f>
@@ -6383,11 +6374,11 @@
       <c r="G26" s="8"/>
       <c r="K26" s="2">
         <f>IF(G26="",E26-B26-DATA!B9-DATA!B5,"")</f>
-        <v>-0.25</v>
+        <v>-0.24999999999999994</v>
       </c>
       <c r="L26" s="2">
         <f>IF(G26="",DATA!B5-(D26-C26),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M26" s="1">
         <f>IF(E26&gt;DATA!B6,E26-DATA!B6,0)</f>
@@ -6406,11 +6397,11 @@
       <c r="G27" s="8"/>
       <c r="K27" s="2">
         <f>IF(G27="",E27-B27-DATA!B9-DATA!B5,"")</f>
-        <v>-0.25</v>
+        <v>-0.24999999999999994</v>
       </c>
       <c r="L27" s="2">
         <f>IF(G27="",DATA!B5-(D27-C27),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M27" s="1">
         <f>IF(E27&gt;DATA!B6,E27-DATA!B6,0)</f>
@@ -6429,11 +6420,11 @@
       <c r="G28" s="8"/>
       <c r="K28" s="2">
         <f>IF(G28="",E28-B28-DATA!B9-DATA!B5,"")</f>
-        <v>-0.25</v>
+        <v>-0.24999999999999994</v>
       </c>
       <c r="L28" s="2">
         <f>IF(G28="",DATA!B5-(D28-C28),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M28" s="1">
         <f>IF(E28&gt;DATA!B6,E28-DATA!B6,0)</f>
@@ -6452,11 +6443,11 @@
       <c r="G29" s="8"/>
       <c r="K29" s="2">
         <f>IF(G29="",E29-B29-DATA!B9-DATA!B5,"")</f>
-        <v>-0.25</v>
+        <v>-0.24999999999999994</v>
       </c>
       <c r="L29" s="2">
         <f>IF(G29="",DATA!B5-(D29-C29),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M29" s="1">
         <f>IF(E29&gt;DATA!B6,E29-DATA!B6,0)</f>
@@ -6475,11 +6466,11 @@
       <c r="G30" s="8"/>
       <c r="K30" s="2">
         <f>IF(G30="",E30-B30-DATA!B9-DATA!B5,"")</f>
-        <v>-0.25</v>
+        <v>-0.24999999999999994</v>
       </c>
       <c r="L30" s="2">
         <f>IF(G30="",DATA!B5-(D30-C30),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M30" s="1">
         <f>IF(E30&gt;DATA!B6,E30-DATA!B6,0)</f>
@@ -6498,11 +6489,11 @@
       <c r="G31" s="8"/>
       <c r="K31" s="2">
         <f>IF(G31="",E31-B31-DATA!B9-DATA!B5,"")</f>
-        <v>-0.25</v>
+        <v>-0.24999999999999994</v>
       </c>
       <c r="L31" s="2">
         <f>IF(G31="",DATA!B5-(D31-C31),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M31" s="1">
         <f>IF(E31&gt;DATA!B6,E31-DATA!B6,0)</f>
@@ -6521,11 +6512,11 @@
       <c r="G32" s="8"/>
       <c r="K32" s="2">
         <f>IF(G32="",E32-B32-DATA!B9-DATA!B5,"")</f>
-        <v>-0.25</v>
+        <v>-0.24999999999999994</v>
       </c>
       <c r="L32" s="2">
         <f>IF(G32="",DATA!B5-(D32-C32),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M32" s="1">
         <f>IF(E32&gt;DATA!B6,E32-DATA!B6,0)</f>
@@ -6537,15 +6528,15 @@
     </row>
     <row r="34" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J34" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K34" s="4">
         <f>IF(G2="",K2)+IF(G3="",K3)+IF(G4="",K4)+IF(G5="",K5)+IF(G6="",K6)+IF(G7="",K7)+IF(G8="",K8)+IF(G9="",K9)+IF(G10="",K10)+IF(G11="",K11)+IF(G12="",K12)+IF(G13="",K13)+IF(G14="",K14)+IF(G15="",K15)+IF(G16="",K16)+IF(G17="",K17)+IF(G18="",K18)+IF(G19="",K19)+IF(G20="",K20)+IF(G21="",K21)+IF(G22="",K22)+IF(G23="",K23)+IF(G24="",K24)+IF(G25="",K25)+IF(G26="",K26)+IF(G27="",K27)+IF(G28="",K28)+IF(G29="",K29)+IF(G30="",K30)+IF(G31="",K31)+IF(G32="",K32)</f>
-        <v>-7.75</v>
+        <v>-7.7499999999999991</v>
       </c>
       <c r="L34" s="4">
         <f>IF(G2="",L2)+IF(G3="",L3)+IF(G4="",L4)+IF(G5="",L5)+IF(G6="",L6)+IF(G7="",L7)+IF(G8="",L8)+IF(G9="",L9)+IF(G10="",L10)+IF(G11="",L11)+IF(G12="",L12)+IF(G13="",L13)+IF(G14="",L14)+IF(G15="",L15)+IF(G16="",L16)+IF(G17="",L17)+IF(G18="",L18)+IF(G19="",L19)+IF(G20="",L20)+IF(G21="",L21)+IF(G22="",L22)+IF(G23="",L23)+IF(G24="",L24)+IF(G25="",L25)+IF(G26="",L26)+IF(G27="",L27)+IF(G28="",L28)+IF(G29="",L29)+IF(G30="",L30)+IF(G31="",L31)+IF(G32="",L32)</f>
-        <v>1.2916666666666667</v>
+        <v>1.2916666666666665</v>
       </c>
       <c r="M34" s="4">
         <f>SUM(M2:M32)</f>
@@ -6564,7 +6555,7 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G32" xr:uid="{CB871CA7-4123-4DB2-902F-965F341E444C}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G2:G32" xr:uid="{00000000-0002-0000-0F00-000000000000}">
       <formula1>"FOLGA,ATESTADO,FALTA,DOBRA,DOMINGO,NÃO EXISTE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6573,7 +6564,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DBAA10A-71A8-40BA-828F-9EE8224F018F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6597,34 +6588,34 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -6643,17 +6634,17 @@
       </c>
       <c r="L2" s="2">
         <f>IF(G2="",DATA!B5-(D2-C2),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M2" s="1">
         <f>IF(E2&gt;DATA!B6,E2-DATA!B6,0)</f>
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="P2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -6672,7 +6663,7 @@
       </c>
       <c r="L3" s="2">
         <f>IF(G3="",DATA!B5-(D3-C3),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M3" s="1">
         <f>IF(E3&gt;DATA!B6,E3-DATA!B6,0)</f>
@@ -6683,7 +6674,7 @@
       </c>
       <c r="P3">
         <f>DATA!B1</f>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -6702,7 +6693,7 @@
       </c>
       <c r="L4" s="2">
         <f>IF(G4="",DATA!B5-(D4-C4),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M4" s="1">
         <f>IF(E4&gt;DATA!B6,E4-DATA!B6,0)</f>
@@ -6713,7 +6704,7 @@
       </c>
       <c r="P4">
         <f>DATA!B2</f>
-        <v>2025</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6732,7 +6723,7 @@
       </c>
       <c r="L5" s="2">
         <f>IF(G5="",DATA!B5-(D5-C5),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M5" s="1">
         <f>IF(E5&gt;DATA!B6,E5-DATA!B6,0)</f>
@@ -6755,14 +6746,14 @@
       </c>
       <c r="L6" s="2">
         <f>IF(G6="",DATA!B5-(D6-C6),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M6" s="1">
         <f>IF(E6&gt;DATA!B6,E6-DATA!B6,0)</f>
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q6" s="4">
         <f>K34+L34</f>
@@ -6785,7 +6776,7 @@
       </c>
       <c r="L7" s="2">
         <f>IF(G7="",DATA!B5-(D7-C7),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M7" s="1">
         <f>IF(E7&gt;DATA!B6,E7-DATA!B6,0)</f>
@@ -6809,14 +6800,14 @@
       </c>
       <c r="L8" s="2">
         <f>IF(G8="",DATA!B5-(D8-C8),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M8" s="1">
         <f>IF(E8&gt;DATA!B6,E8-DATA!B6,0)</f>
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q8" s="4">
         <f>M34</f>
@@ -6839,7 +6830,7 @@
       </c>
       <c r="L9" s="2">
         <f>IF(G9="",DATA!B5-(D9-C9),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M9" s="1">
         <f>IF(E9&gt;DATA!B6,E9-DATA!B6,0)</f>
@@ -6862,14 +6853,14 @@
       </c>
       <c r="L10" s="2">
         <f>IF(G10="",DATA!B5-(D10-C10),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M10" s="1">
         <f>IF(E10&gt;DATA!B6,E10-DATA!B6,0)</f>
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6888,7 +6879,7 @@
       </c>
       <c r="L11" s="2">
         <f>IF(G11="",DATA!B5-(D11-C11),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M11" s="1">
         <f>IF(E11&gt;DATA!B6,E11-DATA!B6,0)</f>
@@ -6911,7 +6902,7 @@
       </c>
       <c r="L12" s="2">
         <f>IF(G12="",DATA!B5-(D12-C12),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M12" s="1">
         <f>IF(E12&gt;DATA!B6,E12-DATA!B6,0)</f>
@@ -6934,7 +6925,7 @@
       </c>
       <c r="L13" s="2">
         <f>IF(G13="",DATA!B5-(D13-C13),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M13" s="1">
         <f>IF(E13&gt;DATA!B6,E13-DATA!B6,0)</f>
@@ -6957,7 +6948,7 @@
       </c>
       <c r="L14" s="2">
         <f>IF(G14="",DATA!B5-(D14-C14),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M14" s="1">
         <f>IF(E14&gt;DATA!B6,E14-DATA!B6,0)</f>
@@ -6980,7 +6971,7 @@
       </c>
       <c r="L15" s="2">
         <f>IF(G15="",DATA!B5-(D15-C15),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M15" s="1">
         <f>IF(E15&gt;DATA!B6,E15-DATA!B6,0)</f>
@@ -7003,7 +6994,7 @@
       </c>
       <c r="L16" s="2">
         <f>IF(G16="",DATA!B5-(D16-C16),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M16" s="1">
         <f>IF(E16&gt;DATA!B6,E16-DATA!B6,0)</f>
@@ -7026,7 +7017,7 @@
       </c>
       <c r="L17" s="2">
         <f>IF(G17="",DATA!B5-(D17-C17),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M17" s="1">
         <f>IF(E17&gt;DATA!B6,E17-DATA!B6,0)</f>
@@ -7049,7 +7040,7 @@
       </c>
       <c r="L18" s="2">
         <f>IF(G18="",DATA!B5-(D18-C18),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M18" s="1">
         <f>IF(E18&gt;DATA!B6,E18-DATA!B6,0)</f>
@@ -7072,7 +7063,7 @@
       </c>
       <c r="L19" s="2">
         <f>IF(G19="",DATA!B5-(D19-C19),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M19" s="1">
         <f>IF(E19&gt;DATA!B6,E19-DATA!B6,0)</f>
@@ -7095,7 +7086,7 @@
       </c>
       <c r="L20" s="2">
         <f>IF(G20="",DATA!B5-(D20-C20),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M20" s="1">
         <f>IF(E20&gt;DATA!B6,E20-DATA!B6,0)</f>
@@ -7118,7 +7109,7 @@
       </c>
       <c r="L21" s="2">
         <f>IF(G21="",DATA!B5-(D21-C21),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M21" s="1">
         <f>IF(E21&gt;DATA!B6,E21-DATA!B6,0)</f>
@@ -7141,7 +7132,7 @@
       </c>
       <c r="L22" s="2">
         <f>IF(G22="",DATA!B5-(D22-C22),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M22" s="1">
         <f>IF(E22&gt;DATA!B6,E22-DATA!B6,0)</f>
@@ -7164,7 +7155,7 @@
       </c>
       <c r="L23" s="2">
         <f>IF(G23="",DATA!B5-(D23-C23),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M23" s="1">
         <f>IF(E23&gt;DATA!B6,E23-DATA!B6,0)</f>
@@ -7187,7 +7178,7 @@
       </c>
       <c r="L24" s="2">
         <f>IF(G24="",DATA!B5-(D24-C24),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M24" s="1">
         <f>IF(E24&gt;DATA!B6,E24-DATA!B6,0)</f>
@@ -7210,7 +7201,7 @@
       </c>
       <c r="L25" s="2">
         <f>IF(G25="",DATA!B5-(D25-C25),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M25" s="1">
         <f>IF(E25&gt;DATA!B6,E25-DATA!B6,0)</f>
@@ -7233,7 +7224,7 @@
       </c>
       <c r="L26" s="2">
         <f>IF(G26="",DATA!B5-(D26-C26),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M26" s="1">
         <f>IF(E26&gt;DATA!B6,E26-DATA!B6,0)</f>
@@ -7256,7 +7247,7 @@
       </c>
       <c r="L27" s="2">
         <f>IF(G27="",DATA!B5-(D27-C27),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M27" s="1">
         <f>IF(E27&gt;DATA!B6,E27-DATA!B6,0)</f>
@@ -7279,7 +7270,7 @@
       </c>
       <c r="L28" s="2">
         <f>IF(G28="",DATA!B5-(D28-C28),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M28" s="1">
         <f>IF(E28&gt;DATA!B6,E28-DATA!B6,0)</f>
@@ -7302,7 +7293,7 @@
       </c>
       <c r="L29" s="2">
         <f>IF(G29="",DATA!B5-(D29-C29),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M29" s="1">
         <f>IF(E29&gt;DATA!B6,E29-DATA!B6,0)</f>
@@ -7325,7 +7316,7 @@
       </c>
       <c r="L30" s="2">
         <f>IF(G30="",DATA!B5-(D30-C30),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M30" s="1">
         <f>IF(E30&gt;DATA!B6,E30-DATA!B6,0)</f>
@@ -7348,7 +7339,7 @@
       </c>
       <c r="L31" s="2">
         <f>IF(G31="",DATA!B5-(D31-C31),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M31" s="1">
         <f>IF(E31&gt;DATA!B6,E31-DATA!B6,0)</f>
@@ -7371,7 +7362,7 @@
       </c>
       <c r="L32" s="2">
         <f>IF(G32="",DATA!B5-(D32-C32),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M32" s="1">
         <f>IF(E32&gt;DATA!B6,E32-DATA!B6,0)</f>
@@ -7383,7 +7374,7 @@
     </row>
     <row r="34" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J34" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K34" s="4">
         <f>IF(G2="",K2)+IF(G3="",K3)+IF(G4="",K4)+IF(G5="",K5)+IF(G6="",K6)+IF(G7="",K7)+IF(G8="",K8)+IF(G9="",K9)+IF(G10="",K10)+IF(G11="",K11)+IF(G12="",K12)+IF(G13="",K13)+IF(G14="",K14)+IF(G15="",K15)+IF(G16="",K16)+IF(G17="",K17)+IF(G18="",K18)+IF(G19="",K19)+IF(G20="",K20)+IF(G21="",K21)+IF(G22="",K22)+IF(G23="",K23)+IF(G24="",K24)+IF(G25="",K25)+IF(G26="",K26)+IF(G27="",K27)+IF(G28="",K28)+IF(G29="",K29)+IF(G30="",K30)+IF(G31="",K31)+IF(G32="",K32)</f>
@@ -7391,7 +7382,7 @@
       </c>
       <c r="L34" s="4">
         <f>IF(G2="",L2)+IF(G3="",L3)+IF(G4="",L4)+IF(G5="",L5)+IF(G6="",L6)+IF(G7="",L7)+IF(G8="",L8)+IF(G9="",L9)+IF(G10="",L10)+IF(G11="",L11)+IF(G12="",L12)+IF(G13="",L13)+IF(G14="",L14)+IF(G15="",L15)+IF(G16="",L16)+IF(G17="",L17)+IF(G18="",L18)+IF(G19="",L19)+IF(G20="",L20)+IF(G21="",L21)+IF(G22="",L22)+IF(G23="",L23)+IF(G24="",L24)+IF(G25="",L25)+IF(G26="",L26)+IF(G27="",L27)+IF(G28="",L28)+IF(G29="",L29)+IF(G30="",L30)+IF(G31="",L31)+IF(G32="",L32)</f>
-        <v>1.2916666666666667</v>
+        <v>1.2916666666666665</v>
       </c>
       <c r="M34" s="4">
         <f>SUM(M2:M32)</f>
@@ -7410,7 +7401,7 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G32" xr:uid="{F2EEA1D4-B67F-4615-8BB3-F125E05D05CA}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G2:G32" xr:uid="{00000000-0002-0000-1000-000000000000}">
       <formula1>"FOLGA,ATESTADO,FALTA,DOBRA,DOMINGO,NÃO EXISTE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7419,7 +7410,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F7C1337-8D8B-4399-802B-D2565E10D753}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7443,34 +7434,34 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -7489,17 +7480,17 @@
       </c>
       <c r="L2" s="2">
         <f>IF(G2="",DATA!B5-(D2-C2),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M2" s="1">
         <f>IF(E2&gt;DATA!B6,E2-DATA!B6,0)</f>
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="P2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -7518,7 +7509,7 @@
       </c>
       <c r="L3" s="2">
         <f>IF(G3="",DATA!B5-(D3-C3),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M3" s="1">
         <f>IF(E3&gt;DATA!B6,E3-DATA!B6,0)</f>
@@ -7529,7 +7520,7 @@
       </c>
       <c r="P3">
         <f>DATA!B1</f>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -7548,7 +7539,7 @@
       </c>
       <c r="L4" s="2">
         <f>IF(G4="",DATA!B5-(D4-C4),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M4" s="1">
         <f>IF(E4&gt;DATA!B6,E4-DATA!B6,0)</f>
@@ -7559,7 +7550,7 @@
       </c>
       <c r="P4">
         <f>DATA!B2</f>
-        <v>2025</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7578,7 +7569,7 @@
       </c>
       <c r="L5" s="2">
         <f>IF(G5="",DATA!B5-(D5-C5),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M5" s="1">
         <f>IF(E5&gt;DATA!B6,E5-DATA!B6,0)</f>
@@ -7601,14 +7592,14 @@
       </c>
       <c r="L6" s="2">
         <f>IF(G6="",DATA!B5-(D6-C6),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M6" s="1">
         <f>IF(E6&gt;DATA!B6,E6-DATA!B6,0)</f>
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q6" s="4">
         <f>K34+L34</f>
@@ -7631,7 +7622,7 @@
       </c>
       <c r="L7" s="2">
         <f>IF(G7="",DATA!B5-(D7-C7),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M7" s="1">
         <f>IF(E7&gt;DATA!B6,E7-DATA!B6,0)</f>
@@ -7655,14 +7646,14 @@
       </c>
       <c r="L8" s="2">
         <f>IF(G8="",DATA!B5-(D8-C8),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M8" s="1">
         <f>IF(E8&gt;DATA!B6,E8-DATA!B6,0)</f>
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q8" s="4">
         <f>M34</f>
@@ -7685,7 +7676,7 @@
       </c>
       <c r="L9" s="2">
         <f>IF(G9="",DATA!B5-(D9-C9),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M9" s="1">
         <f>IF(E9&gt;DATA!B6,E9-DATA!B6,0)</f>
@@ -7708,14 +7699,14 @@
       </c>
       <c r="L10" s="2">
         <f>IF(G10="",DATA!B5-(D10-C10),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M10" s="1">
         <f>IF(E10&gt;DATA!B6,E10-DATA!B6,0)</f>
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7734,7 +7725,7 @@
       </c>
       <c r="L11" s="2">
         <f>IF(G11="",DATA!B5-(D11-C11),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M11" s="1">
         <f>IF(E11&gt;DATA!B6,E11-DATA!B6,0)</f>
@@ -7757,7 +7748,7 @@
       </c>
       <c r="L12" s="2">
         <f>IF(G12="",DATA!B5-(D12-C12),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M12" s="1">
         <f>IF(E12&gt;DATA!B6,E12-DATA!B6,0)</f>
@@ -7780,7 +7771,7 @@
       </c>
       <c r="L13" s="2">
         <f>IF(G13="",DATA!B5-(D13-C13),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M13" s="1">
         <f>IF(E13&gt;DATA!B6,E13-DATA!B6,0)</f>
@@ -7803,7 +7794,7 @@
       </c>
       <c r="L14" s="2">
         <f>IF(G14="",DATA!B5-(D14-C14),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M14" s="1">
         <f>IF(E14&gt;DATA!B6,E14-DATA!B6,0)</f>
@@ -7826,7 +7817,7 @@
       </c>
       <c r="L15" s="2">
         <f>IF(G15="",DATA!B5-(D15-C15),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M15" s="1">
         <f>IF(E15&gt;DATA!B6,E15-DATA!B6,0)</f>
@@ -7849,7 +7840,7 @@
       </c>
       <c r="L16" s="2">
         <f>IF(G16="",DATA!B5-(D16-C16),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M16" s="1">
         <f>IF(E16&gt;DATA!B6,E16-DATA!B6,0)</f>
@@ -7872,7 +7863,7 @@
       </c>
       <c r="L17" s="2">
         <f>IF(G17="",DATA!B5-(D17-C17),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M17" s="1">
         <f>IF(E17&gt;DATA!B6,E17-DATA!B6,0)</f>
@@ -7895,7 +7886,7 @@
       </c>
       <c r="L18" s="2">
         <f>IF(G18="",DATA!B5-(D18-C18),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M18" s="1">
         <f>IF(E18&gt;DATA!B6,E18-DATA!B6,0)</f>
@@ -7918,7 +7909,7 @@
       </c>
       <c r="L19" s="2">
         <f>IF(G19="",DATA!B5-(D19-C19),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M19" s="1">
         <f>IF(E19&gt;DATA!B6,E19-DATA!B6,0)</f>
@@ -7941,7 +7932,7 @@
       </c>
       <c r="L20" s="2">
         <f>IF(G20="",DATA!B5-(D20-C20),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M20" s="1">
         <f>IF(E20&gt;DATA!B6,E20-DATA!B6,0)</f>
@@ -7964,7 +7955,7 @@
       </c>
       <c r="L21" s="2">
         <f>IF(G21="",DATA!B5-(D21-C21),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M21" s="1">
         <f>IF(E21&gt;DATA!B6,E21-DATA!B6,0)</f>
@@ -7987,7 +7978,7 @@
       </c>
       <c r="L22" s="2">
         <f>IF(G22="",DATA!B5-(D22-C22),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M22" s="1">
         <f>IF(E22&gt;DATA!B6,E22-DATA!B6,0)</f>
@@ -8010,7 +8001,7 @@
       </c>
       <c r="L23" s="2">
         <f>IF(G23="",DATA!B5-(D23-C23),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M23" s="1">
         <f>IF(E23&gt;DATA!B6,E23-DATA!B6,0)</f>
@@ -8033,7 +8024,7 @@
       </c>
       <c r="L24" s="2">
         <f>IF(G24="",DATA!B5-(D24-C24),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M24" s="1">
         <f>IF(E24&gt;DATA!B6,E24-DATA!B6,0)</f>
@@ -8056,7 +8047,7 @@
       </c>
       <c r="L25" s="2">
         <f>IF(G25="",DATA!B5-(D25-C25),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M25" s="1">
         <f>IF(E25&gt;DATA!B6,E25-DATA!B6,0)</f>
@@ -8079,7 +8070,7 @@
       </c>
       <c r="L26" s="2">
         <f>IF(G26="",DATA!B5-(D26-C26),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M26" s="1">
         <f>IF(E26&gt;DATA!B6,E26-DATA!B6,0)</f>
@@ -8102,7 +8093,7 @@
       </c>
       <c r="L27" s="2">
         <f>IF(G27="",DATA!B5-(D27-C27),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M27" s="1">
         <f>IF(E27&gt;DATA!B6,E27-DATA!B6,0)</f>
@@ -8125,7 +8116,7 @@
       </c>
       <c r="L28" s="2">
         <f>IF(G28="",DATA!B5-(D28-C28),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M28" s="1">
         <f>IF(E28&gt;DATA!B6,E28-DATA!B6,0)</f>
@@ -8148,7 +8139,7 @@
       </c>
       <c r="L29" s="2">
         <f>IF(G29="",DATA!B5-(D29-C29),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M29" s="1">
         <f>IF(E29&gt;DATA!B6,E29-DATA!B6,0)</f>
@@ -8171,7 +8162,7 @@
       </c>
       <c r="L30" s="2">
         <f>IF(G30="",DATA!B5-(D30-C30),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M30" s="1">
         <f>IF(E30&gt;DATA!B6,E30-DATA!B6,0)</f>
@@ -8194,7 +8185,7 @@
       </c>
       <c r="L31" s="2">
         <f>IF(G31="",DATA!B5-(D31-C31),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M31" s="1">
         <f>IF(E31&gt;DATA!B6,E31-DATA!B6,0)</f>
@@ -8217,7 +8208,7 @@
       </c>
       <c r="L32" s="2">
         <f>IF(G32="",DATA!B5-(D32-C32),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M32" s="1">
         <f>IF(E32&gt;DATA!B6,E32-DATA!B6,0)</f>
@@ -8229,7 +8220,7 @@
     </row>
     <row r="34" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J34" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K34" s="4">
         <f>IF(G2="",K2)+IF(G3="",K3)+IF(G4="",K4)+IF(G5="",K5)+IF(G6="",K6)+IF(G7="",K7)+IF(G8="",K8)+IF(G9="",K9)+IF(G10="",K10)+IF(G11="",K11)+IF(G12="",K12)+IF(G13="",K13)+IF(G14="",K14)+IF(G15="",K15)+IF(G16="",K16)+IF(G17="",K17)+IF(G18="",K18)+IF(G19="",K19)+IF(G20="",K20)+IF(G21="",K21)+IF(G22="",K22)+IF(G23="",K23)+IF(G24="",K24)+IF(G25="",K25)+IF(G26="",K26)+IF(G27="",K27)+IF(G28="",K28)+IF(G29="",K29)+IF(G30="",K30)+IF(G31="",K31)+IF(G32="",K32)</f>
@@ -8237,7 +8228,7 @@
       </c>
       <c r="L34" s="4">
         <f>IF(G2="",L2)+IF(G3="",L3)+IF(G4="",L4)+IF(G5="",L5)+IF(G6="",L6)+IF(G7="",L7)+IF(G8="",L8)+IF(G9="",L9)+IF(G10="",L10)+IF(G11="",L11)+IF(G12="",L12)+IF(G13="",L13)+IF(G14="",L14)+IF(G15="",L15)+IF(G16="",L16)+IF(G17="",L17)+IF(G18="",L18)+IF(G19="",L19)+IF(G20="",L20)+IF(G21="",L21)+IF(G22="",L22)+IF(G23="",L23)+IF(G24="",L24)+IF(G25="",L25)+IF(G26="",L26)+IF(G27="",L27)+IF(G28="",L28)+IF(G29="",L29)+IF(G30="",L30)+IF(G31="",L31)+IF(G32="",L32)</f>
-        <v>1.2916666666666667</v>
+        <v>1.2916666666666665</v>
       </c>
       <c r="M34" s="4">
         <f>SUM(M2:M32)</f>
@@ -8256,7 +8247,7 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G32" xr:uid="{E4F0E45A-4202-4623-8407-DEE90E0E6168}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G2:G32" xr:uid="{00000000-0002-0000-1100-000000000000}">
       <formula1>"FOLGA,ATESTADO,FALTA,DOBRA,DOMINGO,NÃO EXISTE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8265,7 +8256,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4AC01F5-AD13-4EC9-B87C-F323AB8FC09F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8289,34 +8280,34 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -8335,14 +8326,14 @@
       </c>
       <c r="L2" s="2">
         <f>IF(G2="",DATA!B5-(D2-C2),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M2" s="1">
         <f>IF(E2&gt;DATA!B6,E2-DATA!B6,0)</f>
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="P2" t="s">
         <v>21</v>
@@ -8364,7 +8355,7 @@
       </c>
       <c r="L3" s="2">
         <f>IF(G3="",DATA!B5-(D3-C3),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M3" s="1">
         <f>IF(E3&gt;DATA!B6,E3-DATA!B6,0)</f>
@@ -8375,7 +8366,7 @@
       </c>
       <c r="P3">
         <f>DATA!B1</f>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -8394,7 +8385,7 @@
       </c>
       <c r="L4" s="2">
         <f>IF(G4="",DATA!B5-(D4-C4),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M4" s="1">
         <f>IF(E4&gt;DATA!B6,E4-DATA!B6,0)</f>
@@ -8405,7 +8396,7 @@
       </c>
       <c r="P4">
         <f>DATA!B2</f>
-        <v>2025</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8424,7 +8415,7 @@
       </c>
       <c r="L5" s="2">
         <f>IF(G5="",DATA!B5-(D5-C5),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M5" s="1">
         <f>IF(E5&gt;DATA!B6,E5-DATA!B6,0)</f>
@@ -8447,14 +8438,14 @@
       </c>
       <c r="L6" s="2">
         <f>IF(G6="",DATA!B5-(D6-C6),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M6" s="1">
         <f>IF(E6&gt;DATA!B6,E6-DATA!B6,0)</f>
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q6" s="4">
         <f>K34+L34</f>
@@ -8477,7 +8468,7 @@
       </c>
       <c r="L7" s="2">
         <f>IF(G7="",DATA!B5-(D7-C7),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M7" s="1">
         <f>IF(E7&gt;DATA!B6,E7-DATA!B6,0)</f>
@@ -8501,14 +8492,14 @@
       </c>
       <c r="L8" s="2">
         <f>IF(G8="",DATA!B5-(D8-C8),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M8" s="1">
         <f>IF(E8&gt;DATA!B6,E8-DATA!B6,0)</f>
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q8" s="4">
         <f>M34</f>
@@ -8531,7 +8522,7 @@
       </c>
       <c r="L9" s="2">
         <f>IF(G9="",DATA!B5-(D9-C9),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M9" s="1">
         <f>IF(E9&gt;DATA!B6,E9-DATA!B6,0)</f>
@@ -8554,14 +8545,14 @@
       </c>
       <c r="L10" s="2">
         <f>IF(G10="",DATA!B5-(D10-C10),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M10" s="1">
         <f>IF(E10&gt;DATA!B6,E10-DATA!B6,0)</f>
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8580,7 +8571,7 @@
       </c>
       <c r="L11" s="2">
         <f>IF(G11="",DATA!B5-(D11-C11),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M11" s="1">
         <f>IF(E11&gt;DATA!B6,E11-DATA!B6,0)</f>
@@ -8603,7 +8594,7 @@
       </c>
       <c r="L12" s="2">
         <f>IF(G12="",DATA!B5-(D12-C12),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M12" s="1">
         <f>IF(E12&gt;DATA!B6,E12-DATA!B6,0)</f>
@@ -8626,7 +8617,7 @@
       </c>
       <c r="L13" s="2">
         <f>IF(G13="",DATA!B5-(D13-C13),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M13" s="1">
         <f>IF(E13&gt;DATA!B6,E13-DATA!B6,0)</f>
@@ -8649,7 +8640,7 @@
       </c>
       <c r="L14" s="2">
         <f>IF(G14="",DATA!B5-(D14-C14),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M14" s="1">
         <f>IF(E14&gt;DATA!B6,E14-DATA!B6,0)</f>
@@ -8672,7 +8663,7 @@
       </c>
       <c r="L15" s="2">
         <f>IF(G15="",DATA!B5-(D15-C15),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M15" s="1">
         <f>IF(E15&gt;DATA!B6,E15-DATA!B6,0)</f>
@@ -8695,7 +8686,7 @@
       </c>
       <c r="L16" s="2">
         <f>IF(G16="",DATA!B5-(D16-C16),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M16" s="1">
         <f>IF(E16&gt;DATA!B6,E16-DATA!B6,0)</f>
@@ -8718,7 +8709,7 @@
       </c>
       <c r="L17" s="2">
         <f>IF(G17="",DATA!B5-(D17-C17),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M17" s="1">
         <f>IF(E17&gt;DATA!B6,E17-DATA!B6,0)</f>
@@ -8741,7 +8732,7 @@
       </c>
       <c r="L18" s="2">
         <f>IF(G18="",DATA!B5-(D18-C18),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M18" s="1">
         <f>IF(E18&gt;DATA!B6,E18-DATA!B6,0)</f>
@@ -8764,7 +8755,7 @@
       </c>
       <c r="L19" s="2">
         <f>IF(G19="",DATA!B5-(D19-C19),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M19" s="1">
         <f>IF(E19&gt;DATA!B6,E19-DATA!B6,0)</f>
@@ -8787,7 +8778,7 @@
       </c>
       <c r="L20" s="2">
         <f>IF(G20="",DATA!B5-(D20-C20),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M20" s="1">
         <f>IF(E20&gt;DATA!B6,E20-DATA!B6,0)</f>
@@ -8810,7 +8801,7 @@
       </c>
       <c r="L21" s="2">
         <f>IF(G21="",DATA!B5-(D21-C21),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M21" s="1">
         <f>IF(E21&gt;DATA!B6,E21-DATA!B6,0)</f>
@@ -8833,7 +8824,7 @@
       </c>
       <c r="L22" s="2">
         <f>IF(G22="",DATA!B5-(D22-C22),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M22" s="1">
         <f>IF(E22&gt;DATA!B6,E22-DATA!B6,0)</f>
@@ -8856,7 +8847,7 @@
       </c>
       <c r="L23" s="2">
         <f>IF(G23="",DATA!B5-(D23-C23),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M23" s="1">
         <f>IF(E23&gt;DATA!B6,E23-DATA!B6,0)</f>
@@ -8879,7 +8870,7 @@
       </c>
       <c r="L24" s="2">
         <f>IF(G24="",DATA!B5-(D24-C24),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M24" s="1">
         <f>IF(E24&gt;DATA!B6,E24-DATA!B6,0)</f>
@@ -8902,7 +8893,7 @@
       </c>
       <c r="L25" s="2">
         <f>IF(G25="",DATA!B5-(D25-C25),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M25" s="1">
         <f>IF(E25&gt;DATA!B6,E25-DATA!B6,0)</f>
@@ -8925,7 +8916,7 @@
       </c>
       <c r="L26" s="2">
         <f>IF(G26="",DATA!B5-(D26-C26),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M26" s="1">
         <f>IF(E26&gt;DATA!B6,E26-DATA!B6,0)</f>
@@ -8948,7 +8939,7 @@
       </c>
       <c r="L27" s="2">
         <f>IF(G27="",DATA!B5-(D27-C27),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M27" s="1">
         <f>IF(E27&gt;DATA!B6,E27-DATA!B6,0)</f>
@@ -8971,7 +8962,7 @@
       </c>
       <c r="L28" s="2">
         <f>IF(G28="",DATA!B5-(D28-C28),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M28" s="1">
         <f>IF(E28&gt;DATA!B6,E28-DATA!B6,0)</f>
@@ -8994,7 +8985,7 @@
       </c>
       <c r="L29" s="2">
         <f>IF(G29="",DATA!B5-(D29-C29),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M29" s="1">
         <f>IF(E29&gt;DATA!B6,E29-DATA!B6,0)</f>
@@ -9017,7 +9008,7 @@
       </c>
       <c r="L30" s="2">
         <f>IF(G30="",DATA!B5-(D30-C30),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M30" s="1">
         <f>IF(E30&gt;DATA!B6,E30-DATA!B6,0)</f>
@@ -9040,7 +9031,7 @@
       </c>
       <c r="L31" s="2">
         <f>IF(G31="",DATA!B5-(D31-C31),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M31" s="1">
         <f>IF(E31&gt;DATA!B6,E31-DATA!B6,0)</f>
@@ -9063,7 +9054,7 @@
       </c>
       <c r="L32" s="2">
         <f>IF(G32="",DATA!B5-(D32-C32),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M32" s="1">
         <f>IF(E32&gt;DATA!B6,E32-DATA!B6,0)</f>
@@ -9075,7 +9066,7 @@
     </row>
     <row r="34" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J34" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K34" s="4">
         <f>IF(G2="",K2)+IF(G3="",K3)+IF(G4="",K4)+IF(G5="",K5)+IF(G6="",K6)+IF(G7="",K7)+IF(G8="",K8)+IF(G9="",K9)+IF(G10="",K10)+IF(G11="",K11)+IF(G12="",K12)+IF(G13="",K13)+IF(G14="",K14)+IF(G15="",K15)+IF(G16="",K16)+IF(G17="",K17)+IF(G18="",K18)+IF(G19="",K19)+IF(G20="",K20)+IF(G21="",K21)+IF(G22="",K22)+IF(G23="",K23)+IF(G24="",K24)+IF(G25="",K25)+IF(G26="",K26)+IF(G27="",K27)+IF(G28="",K28)+IF(G29="",K29)+IF(G30="",K30)+IF(G31="",K31)+IF(G32="",K32)</f>
@@ -9083,7 +9074,7 @@
       </c>
       <c r="L34" s="4">
         <f>IF(G2="",L2)+IF(G3="",L3)+IF(G4="",L4)+IF(G5="",L5)+IF(G6="",L6)+IF(G7="",L7)+IF(G8="",L8)+IF(G9="",L9)+IF(G10="",L10)+IF(G11="",L11)+IF(G12="",L12)+IF(G13="",L13)+IF(G14="",L14)+IF(G15="",L15)+IF(G16="",L16)+IF(G17="",L17)+IF(G18="",L18)+IF(G19="",L19)+IF(G20="",L20)+IF(G21="",L21)+IF(G22="",L22)+IF(G23="",L23)+IF(G24="",L24)+IF(G25="",L25)+IF(G26="",L26)+IF(G27="",L27)+IF(G28="",L28)+IF(G29="",L29)+IF(G30="",L30)+IF(G31="",L31)+IF(G32="",L32)</f>
-        <v>1.2916666666666667</v>
+        <v>1.2916666666666665</v>
       </c>
       <c r="M34" s="4">
         <f>SUM(M2:M32)</f>
@@ -9100,9 +9091,8 @@
       <c r="K37" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G32" xr:uid="{801D96FC-B488-4CD5-9F2D-0CFA52044D76}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G2:G32" xr:uid="{00000000-0002-0000-1200-000000000000}">
       <formula1>"FOLGA,ATESTADO,FALTA,DOBRA,DOMINGO,NÃO EXISTE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9111,7 +9101,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B993BC1D-F4AC-4C26-9397-2F0C137A262F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9135,34 +9125,34 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -9177,21 +9167,21 @@
       <c r="G2" s="8"/>
       <c r="K2" s="2">
         <f>IF(G2="",E2-B2-DATA!B9-DATA!B5,"")</f>
-        <v>-0.25</v>
+        <v>-0.24999999999999994</v>
       </c>
       <c r="L2" s="2">
         <f>IF(G2="",DATA!B5-(D2-C2),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M2" s="1">
         <f>IF(E2&gt;DATA!B6,E2-DATA!B6,0)</f>
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="P2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -9206,11 +9196,11 @@
       <c r="G3" s="8"/>
       <c r="K3" s="2">
         <f>IF(G3="",E3-B3-DATA!B9-DATA!B5,"")</f>
-        <v>-0.25</v>
+        <v>-0.24999999999999994</v>
       </c>
       <c r="L3" s="2">
         <f>IF(G3="",DATA!B5-(D3-C3),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M3" s="1">
         <f>IF(E3&gt;DATA!B6,E3-DATA!B6,0)</f>
@@ -9221,7 +9211,7 @@
       </c>
       <c r="P3">
         <f>DATA!B1</f>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -9236,11 +9226,11 @@
       <c r="G4" s="8"/>
       <c r="K4" s="2">
         <f>IF(G4="",E4-B4-DATA!B9-DATA!B5,"")</f>
-        <v>-0.25</v>
+        <v>-0.24999999999999994</v>
       </c>
       <c r="L4" s="2">
         <f>IF(G4="",DATA!B5-(D4-C4),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M4" s="1">
         <f>IF(E4&gt;DATA!B6,E4-DATA!B6,0)</f>
@@ -9251,7 +9241,7 @@
       </c>
       <c r="P4">
         <f>DATA!B2</f>
-        <v>2025</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9266,11 +9256,11 @@
       <c r="G5" s="8"/>
       <c r="K5" s="2">
         <f>IF(G5="",E5-B5-DATA!B9-DATA!B5,"")</f>
-        <v>-0.25</v>
+        <v>-0.24999999999999994</v>
       </c>
       <c r="L5" s="2">
         <f>IF(G5="",DATA!B5-(D5-C5),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M5" s="1">
         <f>IF(E5&gt;DATA!B6,E5-DATA!B6,0)</f>
@@ -9289,22 +9279,22 @@
       <c r="G6" s="8"/>
       <c r="K6" s="2">
         <f>IF(G6="",E6-B6-DATA!B9-DATA!B5,"")</f>
-        <v>-0.25</v>
+        <v>-0.24999999999999994</v>
       </c>
       <c r="L6" s="2">
         <f>IF(G6="",DATA!B5-(D6-C6),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M6" s="1">
         <f>IF(E6&gt;DATA!B6,E6-DATA!B6,0)</f>
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q6" s="4">
         <f>K34+L34</f>
-        <v>-6.458333333333333</v>
+        <v>-6.4583333333333321</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9319,11 +9309,11 @@
       <c r="G7" s="8"/>
       <c r="K7" s="2">
         <f>IF(G7="",E7-B7-DATA!B9-DATA!B5,"")</f>
-        <v>-0.25</v>
+        <v>-0.24999999999999994</v>
       </c>
       <c r="L7" s="2">
         <f>IF(G7="",DATA!B5-(D7-C7),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M7" s="1">
         <f>IF(E7&gt;DATA!B6,E7-DATA!B6,0)</f>
@@ -9343,18 +9333,18 @@
       <c r="G8" s="8"/>
       <c r="K8" s="2">
         <f>IF(G8="",E8-B8-DATA!B9-DATA!B5,"")</f>
-        <v>-0.25</v>
+        <v>-0.24999999999999994</v>
       </c>
       <c r="L8" s="2">
         <f>IF(G8="",DATA!B5-(D8-C8),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M8" s="1">
         <f>IF(E8&gt;DATA!B6,E8-DATA!B6,0)</f>
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q8" s="4">
         <f>M34</f>
@@ -9373,11 +9363,11 @@
       <c r="G9" s="8"/>
       <c r="K9" s="2">
         <f>IF(G9="",E9-B9-DATA!B9-DATA!B5,"")</f>
-        <v>-0.25</v>
+        <v>-0.24999999999999994</v>
       </c>
       <c r="L9" s="2">
         <f>IF(G9="",DATA!B5-(D9-C9),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M9" s="1">
         <f>IF(E9&gt;DATA!B6,E9-DATA!B6,0)</f>
@@ -9396,18 +9386,18 @@
       <c r="G10" s="8"/>
       <c r="K10" s="2">
         <f>IF(G10="",E10-B10-DATA!B9-DATA!B5,"")</f>
-        <v>-0.25</v>
+        <v>-0.24999999999999994</v>
       </c>
       <c r="L10" s="2">
         <f>IF(G10="",DATA!B5-(D10-C10),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M10" s="1">
         <f>IF(E10&gt;DATA!B6,E10-DATA!B6,0)</f>
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9422,11 +9412,11 @@
       <c r="G11" s="8"/>
       <c r="K11" s="2">
         <f>IF(G11="",E11-B11-DATA!B9-DATA!B5,"")</f>
-        <v>-0.25</v>
+        <v>-0.24999999999999994</v>
       </c>
       <c r="L11" s="2">
         <f>IF(G11="",DATA!B5-(D11-C11),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M11" s="1">
         <f>IF(E11&gt;DATA!B6,E11-DATA!B6,0)</f>
@@ -9445,11 +9435,11 @@
       <c r="G12" s="8"/>
       <c r="K12" s="2">
         <f>IF(G12="",E12-B12-DATA!B9-DATA!B5,"")</f>
-        <v>-0.25</v>
+        <v>-0.24999999999999994</v>
       </c>
       <c r="L12" s="2">
         <f>IF(G12="",DATA!B5-(D12-C12),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M12" s="1">
         <f>IF(E12&gt;DATA!B6,E12-DATA!B6,0)</f>
@@ -9468,11 +9458,11 @@
       <c r="G13" s="8"/>
       <c r="K13" s="2">
         <f>IF(G13="",E13-B13-DATA!B9-DATA!B5,"")</f>
-        <v>-0.25</v>
+        <v>-0.24999999999999994</v>
       </c>
       <c r="L13" s="2">
         <f>IF(G13="",DATA!B5-(D13-C13),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M13" s="1">
         <f>IF(E13&gt;DATA!B6,E13-DATA!B6,0)</f>
@@ -9491,11 +9481,11 @@
       <c r="G14" s="8"/>
       <c r="K14" s="2">
         <f>IF(G14="",E14-B14-DATA!B9-DATA!B5,"")</f>
-        <v>-0.25</v>
+        <v>-0.24999999999999994</v>
       </c>
       <c r="L14" s="2">
         <f>IF(G14="",DATA!B5-(D14-C14),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M14" s="1">
         <f>IF(E14&gt;DATA!B6,E14-DATA!B6,0)</f>
@@ -9514,11 +9504,11 @@
       <c r="G15" s="8"/>
       <c r="K15" s="2">
         <f>IF(G15="",E15-B15-DATA!B9-DATA!B5,"")</f>
-        <v>-0.25</v>
+        <v>-0.24999999999999994</v>
       </c>
       <c r="L15" s="2">
         <f>IF(G15="",DATA!B5-(D15-C15),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M15" s="1">
         <f>IF(E15&gt;DATA!B6,E15-DATA!B6,0)</f>
@@ -9537,11 +9527,11 @@
       <c r="G16" s="8"/>
       <c r="K16" s="2">
         <f>IF(G16="",E16-B16-DATA!B9-DATA!B5,"")</f>
-        <v>-0.25</v>
+        <v>-0.24999999999999994</v>
       </c>
       <c r="L16" s="2">
         <f>IF(G16="",DATA!B5-(D16-C16),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M16" s="1">
         <f>IF(E16&gt;DATA!B6,E16-DATA!B6,0)</f>
@@ -9560,11 +9550,11 @@
       <c r="G17" s="8"/>
       <c r="K17" s="2">
         <f>IF(G17="",E17-B17-DATA!B9-DATA!B5,"")</f>
-        <v>-0.25</v>
+        <v>-0.24999999999999994</v>
       </c>
       <c r="L17" s="2">
         <f>IF(G17="",DATA!B5-(D17-C17),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M17" s="1">
         <f>IF(E17&gt;DATA!B6,E17-DATA!B6,0)</f>
@@ -9583,11 +9573,11 @@
       <c r="G18" s="8"/>
       <c r="K18" s="2">
         <f>IF(G18="",E18-B18-DATA!B9-DATA!B5,"")</f>
-        <v>-0.25</v>
+        <v>-0.24999999999999994</v>
       </c>
       <c r="L18" s="2">
         <f>IF(G18="",DATA!B5-(D18-C18),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M18" s="1">
         <f>IF(E18&gt;DATA!B6,E18-DATA!B6,0)</f>
@@ -9606,11 +9596,11 @@
       <c r="G19" s="8"/>
       <c r="K19" s="2">
         <f>IF(G19="",E19-B19-DATA!B9-DATA!B5,"")</f>
-        <v>-0.25</v>
+        <v>-0.24999999999999994</v>
       </c>
       <c r="L19" s="2">
         <f>IF(G19="",DATA!B5-(D19-C19),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M19" s="1">
         <f>IF(E19&gt;DATA!B6,E19-DATA!B6,0)</f>
@@ -9629,11 +9619,11 @@
       <c r="G20" s="8"/>
       <c r="K20" s="2">
         <f>IF(G20="",E20-B20-DATA!B9-DATA!B5,"")</f>
-        <v>-0.25</v>
+        <v>-0.24999999999999994</v>
       </c>
       <c r="L20" s="2">
         <f>IF(G20="",DATA!B5-(D20-C20),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M20" s="1">
         <f>IF(E20&gt;DATA!B6,E20-DATA!B6,0)</f>
@@ -9652,11 +9642,11 @@
       <c r="G21" s="8"/>
       <c r="K21" s="2">
         <f>IF(G21="",E21-B21-DATA!B9-DATA!B5,"")</f>
-        <v>-0.25</v>
+        <v>-0.24999999999999994</v>
       </c>
       <c r="L21" s="2">
         <f>IF(G21="",DATA!B5-(D21-C21),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M21" s="1">
         <f>IF(E21&gt;DATA!B6,E21-DATA!B6,0)</f>
@@ -9675,11 +9665,11 @@
       <c r="G22" s="8"/>
       <c r="K22" s="2">
         <f>IF(G22="",E22-B22-DATA!B9-DATA!B5,"")</f>
-        <v>-0.25</v>
+        <v>-0.24999999999999994</v>
       </c>
       <c r="L22" s="2">
         <f>IF(G22="",DATA!B5-(D22-C22),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M22" s="1">
         <f>IF(E22&gt;DATA!B6,E22-DATA!B6,0)</f>
@@ -9698,11 +9688,11 @@
       <c r="G23" s="8"/>
       <c r="K23" s="2">
         <f>IF(G23="",E23-B23-DATA!B9-DATA!B5,"")</f>
-        <v>-0.25</v>
+        <v>-0.24999999999999994</v>
       </c>
       <c r="L23" s="2">
         <f>IF(G23="",DATA!B5-(D23-C23),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M23" s="1">
         <f>IF(E23&gt;DATA!B6,E23-DATA!B6,0)</f>
@@ -9721,11 +9711,11 @@
       <c r="G24" s="8"/>
       <c r="K24" s="2">
         <f>IF(G24="",E24-B24-DATA!B9-DATA!B5,"")</f>
-        <v>-0.25</v>
+        <v>-0.24999999999999994</v>
       </c>
       <c r="L24" s="2">
         <f>IF(G24="",DATA!B5-(D24-C24),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M24" s="1">
         <f>IF(E24&gt;DATA!B6,E24-DATA!B6,0)</f>
@@ -9744,11 +9734,11 @@
       <c r="G25" s="8"/>
       <c r="K25" s="2">
         <f>IF(G25="",E25-B25-DATA!B9-DATA!B5,"")</f>
-        <v>-0.25</v>
+        <v>-0.24999999999999994</v>
       </c>
       <c r="L25" s="2">
         <f>IF(G25="",DATA!B5-(D25-C25),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M25" s="1">
         <f>IF(E25&gt;DATA!B6,E25-DATA!B6,0)</f>
@@ -9767,11 +9757,11 @@
       <c r="G26" s="8"/>
       <c r="K26" s="2">
         <f>IF(G26="",E26-B26-DATA!B9-DATA!B5,"")</f>
-        <v>-0.25</v>
+        <v>-0.24999999999999994</v>
       </c>
       <c r="L26" s="2">
         <f>IF(G26="",DATA!B5-(D26-C26),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M26" s="1">
         <f>IF(E26&gt;DATA!B6,E26-DATA!B6,0)</f>
@@ -9790,11 +9780,11 @@
       <c r="G27" s="8"/>
       <c r="K27" s="2">
         <f>IF(G27="",E27-B27-DATA!B9-DATA!B5,"")</f>
-        <v>-0.25</v>
+        <v>-0.24999999999999994</v>
       </c>
       <c r="L27" s="2">
         <f>IF(G27="",DATA!B5-(D27-C27),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M27" s="1">
         <f>IF(E27&gt;DATA!B6,E27-DATA!B6,0)</f>
@@ -9813,11 +9803,11 @@
       <c r="G28" s="8"/>
       <c r="K28" s="2">
         <f>IF(G28="",E28-B28-DATA!B9-DATA!B5,"")</f>
-        <v>-0.25</v>
+        <v>-0.24999999999999994</v>
       </c>
       <c r="L28" s="2">
         <f>IF(G28="",DATA!B5-(D28-C28),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M28" s="1">
         <f>IF(E28&gt;DATA!B6,E28-DATA!B6,0)</f>
@@ -9836,11 +9826,11 @@
       <c r="G29" s="8"/>
       <c r="K29" s="2">
         <f>IF(G29="",E29-B29-DATA!B9-DATA!B5,"")</f>
-        <v>-0.25</v>
+        <v>-0.24999999999999994</v>
       </c>
       <c r="L29" s="2">
         <f>IF(G29="",DATA!B5-(D29-C29),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M29" s="1">
         <f>IF(E29&gt;DATA!B6,E29-DATA!B6,0)</f>
@@ -9859,11 +9849,11 @@
       <c r="G30" s="8"/>
       <c r="K30" s="2">
         <f>IF(G30="",E30-B30-DATA!B9-DATA!B5,"")</f>
-        <v>-0.25</v>
+        <v>-0.24999999999999994</v>
       </c>
       <c r="L30" s="2">
         <f>IF(G30="",DATA!B5-(D30-C30),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M30" s="1">
         <f>IF(E30&gt;DATA!B6,E30-DATA!B6,0)</f>
@@ -9882,11 +9872,11 @@
       <c r="G31" s="8"/>
       <c r="K31" s="2">
         <f>IF(G31="",E31-B31-DATA!B9-DATA!B5,"")</f>
-        <v>-0.25</v>
+        <v>-0.24999999999999994</v>
       </c>
       <c r="L31" s="2">
         <f>IF(G31="",DATA!B5-(D31-C31),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M31" s="1">
         <f>IF(E31&gt;DATA!B6,E31-DATA!B6,0)</f>
@@ -9905,11 +9895,11 @@
       <c r="G32" s="8"/>
       <c r="K32" s="2">
         <f>IF(G32="",E32-B32-DATA!B9-DATA!B5,"")</f>
-        <v>-0.25</v>
+        <v>-0.24999999999999994</v>
       </c>
       <c r="L32" s="2">
         <f>IF(G32="",DATA!B5-(D32-C32),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M32" s="1">
         <f>IF(E32&gt;DATA!B6,E32-DATA!B6,0)</f>
@@ -9921,15 +9911,15 @@
     </row>
     <row r="34" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J34" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K34" s="4">
         <f>IF(G2="",K2)+IF(G3="",K3)+IF(G4="",K4)+IF(G5="",K5)+IF(G6="",K6)+IF(G7="",K7)+IF(G8="",K8)+IF(G9="",K9)+IF(G10="",K10)+IF(G11="",K11)+IF(G12="",K12)+IF(G13="",K13)+IF(G14="",K14)+IF(G15="",K15)+IF(G16="",K16)+IF(G17="",K17)+IF(G18="",K18)+IF(G19="",K19)+IF(G20="",K20)+IF(G21="",K21)+IF(G22="",K22)+IF(G23="",K23)+IF(G24="",K24)+IF(G25="",K25)+IF(G26="",K26)+IF(G27="",K27)+IF(G28="",K28)+IF(G29="",K29)+IF(G30="",K30)+IF(G31="",K31)+IF(G32="",K32)</f>
-        <v>-7.75</v>
+        <v>-7.7499999999999991</v>
       </c>
       <c r="L34" s="4">
         <f>IF(G2="",L2)+IF(G3="",L3)+IF(G4="",L4)+IF(G5="",L5)+IF(G6="",L6)+IF(G7="",L7)+IF(G8="",L8)+IF(G9="",L9)+IF(G10="",L10)+IF(G11="",L11)+IF(G12="",L12)+IF(G13="",L13)+IF(G14="",L14)+IF(G15="",L15)+IF(G16="",L16)+IF(G17="",L17)+IF(G18="",L18)+IF(G19="",L19)+IF(G20="",L20)+IF(G21="",L21)+IF(G22="",L22)+IF(G23="",L23)+IF(G24="",L24)+IF(G25="",L25)+IF(G26="",L26)+IF(G27="",L27)+IF(G28="",L28)+IF(G29="",L29)+IF(G30="",L30)+IF(G31="",L31)+IF(G32="",L32)</f>
-        <v>1.2916666666666667</v>
+        <v>1.2916666666666665</v>
       </c>
       <c r="M34" s="4">
         <f>SUM(M2:M32)</f>
@@ -9948,7 +9938,7 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G32" xr:uid="{849C4C0B-48AF-49F1-9B31-47B000FE0C33}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G2:G32" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"FOLGA,ATESTADO,FALTA,DOBRA,DOMINGO,NÃO EXISTE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9957,7 +9947,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BFE17A0-2093-46BA-B23F-322667B85444}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -9981,34 +9971,34 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -10027,17 +10017,17 @@
       </c>
       <c r="L2" s="2">
         <f>IF(G2="",DATA!B5-(D2-C2),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M2" s="1">
         <f>IF(E2&gt;DATA!B6,E2-DATA!B6,0)</f>
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="P2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -10056,7 +10046,7 @@
       </c>
       <c r="L3" s="2">
         <f>IF(G3="",DATA!B5-(D3-C3),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M3" s="1">
         <f>IF(E3&gt;DATA!B6,E3-DATA!B6,0)</f>
@@ -10067,7 +10057,7 @@
       </c>
       <c r="P3">
         <f>DATA!B1</f>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -10086,7 +10076,7 @@
       </c>
       <c r="L4" s="2">
         <f>IF(G4="",DATA!B5-(D4-C4),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M4" s="1">
         <f>IF(E4&gt;DATA!B6,E4-DATA!B6,0)</f>
@@ -10097,7 +10087,7 @@
       </c>
       <c r="P4">
         <f>DATA!B2</f>
-        <v>2025</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -10116,7 +10106,7 @@
       </c>
       <c r="L5" s="2">
         <f>IF(G5="",DATA!B5-(D5-C5),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M5" s="1">
         <f>IF(E5&gt;DATA!B6,E5-DATA!B6,0)</f>
@@ -10139,14 +10129,14 @@
       </c>
       <c r="L6" s="2">
         <f>IF(G6="",DATA!B5-(D6-C6),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M6" s="1">
         <f>IF(E6&gt;DATA!B6,E6-DATA!B6,0)</f>
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q6" s="4">
         <f>K34+L34</f>
@@ -10169,7 +10159,7 @@
       </c>
       <c r="L7" s="2">
         <f>IF(G7="",DATA!B5-(D7-C7),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M7" s="1">
         <f>IF(E7&gt;DATA!B6,E7-DATA!B6,0)</f>
@@ -10193,14 +10183,14 @@
       </c>
       <c r="L8" s="2">
         <f>IF(G8="",DATA!B5-(D8-C8),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M8" s="1">
         <f>IF(E8&gt;DATA!B6,E8-DATA!B6,0)</f>
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q8" s="4">
         <f>M34</f>
@@ -10223,7 +10213,7 @@
       </c>
       <c r="L9" s="2">
         <f>IF(G9="",DATA!B5-(D9-C9),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M9" s="1">
         <f>IF(E9&gt;DATA!B6,E9-DATA!B6,0)</f>
@@ -10246,14 +10236,14 @@
       </c>
       <c r="L10" s="2">
         <f>IF(G10="",DATA!B5-(D10-C10),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M10" s="1">
         <f>IF(E10&gt;DATA!B6,E10-DATA!B6,0)</f>
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -10272,7 +10262,7 @@
       </c>
       <c r="L11" s="2">
         <f>IF(G11="",DATA!B5-(D11-C11),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M11" s="1">
         <f>IF(E11&gt;DATA!B6,E11-DATA!B6,0)</f>
@@ -10295,7 +10285,7 @@
       </c>
       <c r="L12" s="2">
         <f>IF(G12="",DATA!B5-(D12-C12),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M12" s="1">
         <f>IF(E12&gt;DATA!B6,E12-DATA!B6,0)</f>
@@ -10318,7 +10308,7 @@
       </c>
       <c r="L13" s="2">
         <f>IF(G13="",DATA!B5-(D13-C13),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M13" s="1">
         <f>IF(E13&gt;DATA!B6,E13-DATA!B6,0)</f>
@@ -10341,7 +10331,7 @@
       </c>
       <c r="L14" s="2">
         <f>IF(G14="",DATA!B5-(D14-C14),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M14" s="1">
         <f>IF(E14&gt;DATA!B6,E14-DATA!B6,0)</f>
@@ -10364,7 +10354,7 @@
       </c>
       <c r="L15" s="2">
         <f>IF(G15="",DATA!B5-(D15-C15),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M15" s="1">
         <f>IF(E15&gt;DATA!B6,E15-DATA!B6,0)</f>
@@ -10387,7 +10377,7 @@
       </c>
       <c r="L16" s="2">
         <f>IF(G16="",DATA!B5-(D16-C16),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M16" s="1">
         <f>IF(E16&gt;DATA!B6,E16-DATA!B6,0)</f>
@@ -10410,7 +10400,7 @@
       </c>
       <c r="L17" s="2">
         <f>IF(G17="",DATA!B5-(D17-C17),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M17" s="1">
         <f>IF(E17&gt;DATA!B6,E17-DATA!B6,0)</f>
@@ -10433,7 +10423,7 @@
       </c>
       <c r="L18" s="2">
         <f>IF(G18="",DATA!B5-(D18-C18),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M18" s="1">
         <f>IF(E18&gt;DATA!B6,E18-DATA!B6,0)</f>
@@ -10456,7 +10446,7 @@
       </c>
       <c r="L19" s="2">
         <f>IF(G19="",DATA!B5-(D19-C19),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M19" s="1">
         <f>IF(E19&gt;DATA!B6,E19-DATA!B6,0)</f>
@@ -10479,7 +10469,7 @@
       </c>
       <c r="L20" s="2">
         <f>IF(G20="",DATA!B5-(D20-C20),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M20" s="1">
         <f>IF(E20&gt;DATA!B6,E20-DATA!B6,0)</f>
@@ -10502,7 +10492,7 @@
       </c>
       <c r="L21" s="2">
         <f>IF(G21="",DATA!B5-(D21-C21),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M21" s="1">
         <f>IF(E21&gt;DATA!B6,E21-DATA!B6,0)</f>
@@ -10525,7 +10515,7 @@
       </c>
       <c r="L22" s="2">
         <f>IF(G22="",DATA!B5-(D22-C22),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M22" s="1">
         <f>IF(E22&gt;DATA!B6,E22-DATA!B6,0)</f>
@@ -10548,7 +10538,7 @@
       </c>
       <c r="L23" s="2">
         <f>IF(G23="",DATA!B5-(D23-C23),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M23" s="1">
         <f>IF(E23&gt;DATA!B6,E23-DATA!B6,0)</f>
@@ -10571,7 +10561,7 @@
       </c>
       <c r="L24" s="2">
         <f>IF(G24="",DATA!B5-(D24-C24),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M24" s="1">
         <f>IF(E24&gt;DATA!B6,E24-DATA!B6,0)</f>
@@ -10594,7 +10584,7 @@
       </c>
       <c r="L25" s="2">
         <f>IF(G25="",DATA!B5-(D25-C25),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M25" s="1">
         <f>IF(E25&gt;DATA!B6,E25-DATA!B6,0)</f>
@@ -10617,7 +10607,7 @@
       </c>
       <c r="L26" s="2">
         <f>IF(G26="",DATA!B5-(D26-C26),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M26" s="1">
         <f>IF(E26&gt;DATA!B6,E26-DATA!B6,0)</f>
@@ -10640,7 +10630,7 @@
       </c>
       <c r="L27" s="2">
         <f>IF(G27="",DATA!B5-(D27-C27),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M27" s="1">
         <f>IF(E27&gt;DATA!B6,E27-DATA!B6,0)</f>
@@ -10663,7 +10653,7 @@
       </c>
       <c r="L28" s="2">
         <f>IF(G28="",DATA!B5-(D28-C28),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M28" s="1">
         <f>IF(E28&gt;DATA!B6,E28-DATA!B6,0)</f>
@@ -10686,7 +10676,7 @@
       </c>
       <c r="L29" s="2">
         <f>IF(G29="",DATA!B5-(D29-C29),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M29" s="1">
         <f>IF(E29&gt;DATA!B6,E29-DATA!B6,0)</f>
@@ -10709,7 +10699,7 @@
       </c>
       <c r="L30" s="2">
         <f>IF(G30="",DATA!B5-(D30-C30),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M30" s="1">
         <f>IF(E30&gt;DATA!B6,E30-DATA!B6,0)</f>
@@ -10732,7 +10722,7 @@
       </c>
       <c r="L31" s="2">
         <f>IF(G31="",DATA!B5-(D31-C31),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M31" s="1">
         <f>IF(E31&gt;DATA!B6,E31-DATA!B6,0)</f>
@@ -10755,7 +10745,7 @@
       </c>
       <c r="L32" s="2">
         <f>IF(G32="",DATA!B5-(D32-C32),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M32" s="1">
         <f>IF(E32&gt;DATA!B6,E32-DATA!B6,0)</f>
@@ -10767,7 +10757,7 @@
     </row>
     <row r="34" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J34" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K34" s="4">
         <f>IF(G2="",K2)+IF(G3="",K3)+IF(G4="",K4)+IF(G5="",K5)+IF(G6="",K6)+IF(G7="",K7)+IF(G8="",K8)+IF(G9="",K9)+IF(G10="",K10)+IF(G11="",K11)+IF(G12="",K12)+IF(G13="",K13)+IF(G14="",K14)+IF(G15="",K15)+IF(G16="",K16)+IF(G17="",K17)+IF(G18="",K18)+IF(G19="",K19)+IF(G20="",K20)+IF(G21="",K21)+IF(G22="",K22)+IF(G23="",K23)+IF(G24="",K24)+IF(G25="",K25)+IF(G26="",K26)+IF(G27="",K27)+IF(G28="",K28)+IF(G29="",K29)+IF(G30="",K30)+IF(G31="",K31)+IF(G32="",K32)</f>
@@ -10775,7 +10765,7 @@
       </c>
       <c r="L34" s="4">
         <f>IF(G2="",L2)+IF(G3="",L3)+IF(G4="",L4)+IF(G5="",L5)+IF(G6="",L6)+IF(G7="",L7)+IF(G8="",L8)+IF(G9="",L9)+IF(G10="",L10)+IF(G11="",L11)+IF(G12="",L12)+IF(G13="",L13)+IF(G14="",L14)+IF(G15="",L15)+IF(G16="",L16)+IF(G17="",L17)+IF(G18="",L18)+IF(G19="",L19)+IF(G20="",L20)+IF(G21="",L21)+IF(G22="",L22)+IF(G23="",L23)+IF(G24="",L24)+IF(G25="",L25)+IF(G26="",L26)+IF(G27="",L27)+IF(G28="",L28)+IF(G29="",L29)+IF(G30="",L30)+IF(G31="",L31)+IF(G32="",L32)</f>
-        <v>1.2916666666666667</v>
+        <v>1.2916666666666665</v>
       </c>
       <c r="M34" s="4">
         <f>SUM(M2:M32)</f>
@@ -10794,7 +10784,7 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G32" xr:uid="{DE5B5543-4107-4C4B-8B04-23CF4AA013D0}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G2:G32" xr:uid="{00000000-0002-0000-1300-000000000000}">
       <formula1>"FOLGA,ATESTADO,FALTA,DOBRA,DOMINGO,NÃO EXISTE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10803,7 +10793,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E2A1EEC-E6DA-461D-BE48-C9C6B85BBC74}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10827,34 +10817,34 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -10873,14 +10863,14 @@
       </c>
       <c r="L2" s="2">
         <f>IF(G2="",DATA!B5-(D2-C2),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M2" s="1">
         <f>IF(E2&gt;DATA!B6,E2-DATA!B6,0)</f>
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="P2" t="s">
         <v>21</v>
@@ -10902,7 +10892,7 @@
       </c>
       <c r="L3" s="2">
         <f>IF(G3="",DATA!B5-(D3-C3),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M3" s="1">
         <f>IF(E3&gt;DATA!B6,E3-DATA!B6,0)</f>
@@ -10913,7 +10903,7 @@
       </c>
       <c r="P3">
         <f>DATA!B1</f>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -10932,7 +10922,7 @@
       </c>
       <c r="L4" s="2">
         <f>IF(G4="",DATA!B5-(D4-C4),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M4" s="1">
         <f>IF(E4&gt;DATA!B6,E4-DATA!B6,0)</f>
@@ -10943,7 +10933,7 @@
       </c>
       <c r="P4">
         <f>DATA!B2</f>
-        <v>2025</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -10962,7 +10952,7 @@
       </c>
       <c r="L5" s="2">
         <f>IF(G5="",DATA!B5-(D5-C5),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M5" s="1">
         <f>IF(E5&gt;DATA!B6,E5-DATA!B6,0)</f>
@@ -10985,14 +10975,14 @@
       </c>
       <c r="L6" s="2">
         <f>IF(G6="",DATA!B5-(D6-C6),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M6" s="1">
         <f>IF(E6&gt;DATA!B6,E6-DATA!B6,0)</f>
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q6" s="4">
         <f>K34+L34</f>
@@ -11015,7 +11005,7 @@
       </c>
       <c r="L7" s="2">
         <f>IF(G7="",DATA!B5-(D7-C7),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M7" s="1">
         <f>IF(E7&gt;DATA!B6,E7-DATA!B6,0)</f>
@@ -11039,14 +11029,14 @@
       </c>
       <c r="L8" s="2">
         <f>IF(G8="",DATA!B5-(D8-C8),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M8" s="1">
         <f>IF(E8&gt;DATA!B6,E8-DATA!B6,0)</f>
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q8" s="4">
         <f>M34</f>
@@ -11069,7 +11059,7 @@
       </c>
       <c r="L9" s="2">
         <f>IF(G9="",DATA!B5-(D9-C9),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M9" s="1">
         <f>IF(E9&gt;DATA!B6,E9-DATA!B6,0)</f>
@@ -11092,14 +11082,14 @@
       </c>
       <c r="L10" s="2">
         <f>IF(G10="",DATA!B5-(D10-C10),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M10" s="1">
         <f>IF(E10&gt;DATA!B6,E10-DATA!B6,0)</f>
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -11118,7 +11108,7 @@
       </c>
       <c r="L11" s="2">
         <f>IF(G11="",DATA!B5-(D11-C11),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M11" s="1">
         <f>IF(E11&gt;DATA!B6,E11-DATA!B6,0)</f>
@@ -11141,7 +11131,7 @@
       </c>
       <c r="L12" s="2">
         <f>IF(G12="",DATA!B5-(D12-C12),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M12" s="1">
         <f>IF(E12&gt;DATA!B6,E12-DATA!B6,0)</f>
@@ -11164,7 +11154,7 @@
       </c>
       <c r="L13" s="2">
         <f>IF(G13="",DATA!B5-(D13-C13),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M13" s="1">
         <f>IF(E13&gt;DATA!B6,E13-DATA!B6,0)</f>
@@ -11187,7 +11177,7 @@
       </c>
       <c r="L14" s="2">
         <f>IF(G14="",DATA!B5-(D14-C14),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M14" s="1">
         <f>IF(E14&gt;DATA!B6,E14-DATA!B6,0)</f>
@@ -11210,7 +11200,7 @@
       </c>
       <c r="L15" s="2">
         <f>IF(G15="",DATA!B5-(D15-C15),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M15" s="1">
         <f>IF(E15&gt;DATA!B6,E15-DATA!B6,0)</f>
@@ -11233,7 +11223,7 @@
       </c>
       <c r="L16" s="2">
         <f>IF(G16="",DATA!B5-(D16-C16),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M16" s="1">
         <f>IF(E16&gt;DATA!B6,E16-DATA!B6,0)</f>
@@ -11256,7 +11246,7 @@
       </c>
       <c r="L17" s="2">
         <f>IF(G17="",DATA!B5-(D17-C17),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M17" s="1">
         <f>IF(E17&gt;DATA!B6,E17-DATA!B6,0)</f>
@@ -11279,7 +11269,7 @@
       </c>
       <c r="L18" s="2">
         <f>IF(G18="",DATA!B5-(D18-C18),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M18" s="1">
         <f>IF(E18&gt;DATA!B6,E18-DATA!B6,0)</f>
@@ -11302,7 +11292,7 @@
       </c>
       <c r="L19" s="2">
         <f>IF(G19="",DATA!B5-(D19-C19),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M19" s="1">
         <f>IF(E19&gt;DATA!B6,E19-DATA!B6,0)</f>
@@ -11325,7 +11315,7 @@
       </c>
       <c r="L20" s="2">
         <f>IF(G20="",DATA!B5-(D20-C20),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M20" s="1">
         <f>IF(E20&gt;DATA!B6,E20-DATA!B6,0)</f>
@@ -11348,7 +11338,7 @@
       </c>
       <c r="L21" s="2">
         <f>IF(G21="",DATA!B5-(D21-C21),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M21" s="1">
         <f>IF(E21&gt;DATA!B6,E21-DATA!B6,0)</f>
@@ -11371,7 +11361,7 @@
       </c>
       <c r="L22" s="2">
         <f>IF(G22="",DATA!B5-(D22-C22),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M22" s="1">
         <f>IF(E22&gt;DATA!B6,E22-DATA!B6,0)</f>
@@ -11394,7 +11384,7 @@
       </c>
       <c r="L23" s="2">
         <f>IF(G23="",DATA!B5-(D23-C23),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M23" s="1">
         <f>IF(E23&gt;DATA!B6,E23-DATA!B6,0)</f>
@@ -11417,7 +11407,7 @@
       </c>
       <c r="L24" s="2">
         <f>IF(G24="",DATA!B5-(D24-C24),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M24" s="1">
         <f>IF(E24&gt;DATA!B6,E24-DATA!B6,0)</f>
@@ -11440,7 +11430,7 @@
       </c>
       <c r="L25" s="2">
         <f>IF(G25="",DATA!B5-(D25-C25),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M25" s="1">
         <f>IF(E25&gt;DATA!B6,E25-DATA!B6,0)</f>
@@ -11463,7 +11453,7 @@
       </c>
       <c r="L26" s="2">
         <f>IF(G26="",DATA!B5-(D26-C26),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M26" s="1">
         <f>IF(E26&gt;DATA!B6,E26-DATA!B6,0)</f>
@@ -11486,7 +11476,7 @@
       </c>
       <c r="L27" s="2">
         <f>IF(G27="",DATA!B5-(D27-C27),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M27" s="1">
         <f>IF(E27&gt;DATA!B6,E27-DATA!B6,0)</f>
@@ -11509,7 +11499,7 @@
       </c>
       <c r="L28" s="2">
         <f>IF(G28="",DATA!B5-(D28-C28),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M28" s="1">
         <f>IF(E28&gt;DATA!B6,E28-DATA!B6,0)</f>
@@ -11532,7 +11522,7 @@
       </c>
       <c r="L29" s="2">
         <f>IF(G29="",DATA!B5-(D29-C29),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M29" s="1">
         <f>IF(E29&gt;DATA!B6,E29-DATA!B6,0)</f>
@@ -11555,7 +11545,7 @@
       </c>
       <c r="L30" s="2">
         <f>IF(G30="",DATA!B5-(D30-C30),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M30" s="1">
         <f>IF(E30&gt;DATA!B6,E30-DATA!B6,0)</f>
@@ -11578,7 +11568,7 @@
       </c>
       <c r="L31" s="2">
         <f>IF(G31="",DATA!B5-(D31-C31),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M31" s="1">
         <f>IF(E31&gt;DATA!B6,E31-DATA!B6,0)</f>
@@ -11601,7 +11591,7 @@
       </c>
       <c r="L32" s="2">
         <f>IF(G32="",DATA!B5-(D32-C32),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M32" s="1">
         <f>IF(E32&gt;DATA!B6,E32-DATA!B6,0)</f>
@@ -11613,7 +11603,7 @@
     </row>
     <row r="34" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J34" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K34" s="4">
         <f>IF(G2="",K2)+IF(G3="",K3)+IF(G4="",K4)+IF(G5="",K5)+IF(G6="",K6)+IF(G7="",K7)+IF(G8="",K8)+IF(G9="",K9)+IF(G10="",K10)+IF(G11="",K11)+IF(G12="",K12)+IF(G13="",K13)+IF(G14="",K14)+IF(G15="",K15)+IF(G16="",K16)+IF(G17="",K17)+IF(G18="",K18)+IF(G19="",K19)+IF(G20="",K20)+IF(G21="",K21)+IF(G22="",K22)+IF(G23="",K23)+IF(G24="",K24)+IF(G25="",K25)+IF(G26="",K26)+IF(G27="",K27)+IF(G28="",K28)+IF(G29="",K29)+IF(G30="",K30)+IF(G31="",K31)+IF(G32="",K32)</f>
@@ -11621,7 +11611,7 @@
       </c>
       <c r="L34" s="4">
         <f>IF(G2="",L2)+IF(G3="",L3)+IF(G4="",L4)+IF(G5="",L5)+IF(G6="",L6)+IF(G7="",L7)+IF(G8="",L8)+IF(G9="",L9)+IF(G10="",L10)+IF(G11="",L11)+IF(G12="",L12)+IF(G13="",L13)+IF(G14="",L14)+IF(G15="",L15)+IF(G16="",L16)+IF(G17="",L17)+IF(G18="",L18)+IF(G19="",L19)+IF(G20="",L20)+IF(G21="",L21)+IF(G22="",L22)+IF(G23="",L23)+IF(G24="",L24)+IF(G25="",L25)+IF(G26="",L26)+IF(G27="",L27)+IF(G28="",L28)+IF(G29="",L29)+IF(G30="",L30)+IF(G31="",L31)+IF(G32="",L32)</f>
-        <v>1.2916666666666667</v>
+        <v>1.2916666666666665</v>
       </c>
       <c r="M34" s="4">
         <f>SUM(M2:M32)</f>
@@ -11640,17 +11630,863 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G32" xr:uid="{C0169280-B495-4E5E-BE00-395627E663BC}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G2:G32" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"FOLGA,ATESTADO,FALTA,DOBRA,DOMINGO,NÃO EXISTE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972A8D40-A192-478E-A15C-C6415E39A14F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:Q37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.88671875" customWidth="1"/>
+    <col min="13" max="13" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
+      <c r="K2" s="2">
+        <f>IF(G2="",E2-B2-DATA!B4-DATA!B5,"")</f>
+        <v>-0.34722222222222221</v>
+      </c>
+      <c r="L2" s="2">
+        <f>IF(G2="",DATA!B5-(D2-C2),"")</f>
+        <v>4.1666666666666657E-2</v>
+      </c>
+      <c r="M2" s="1">
+        <f>IF(E2&gt;DATA!B6,E2-DATA!B6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
+      <c r="K3" s="2">
+        <f>IF(G3="",E3-B3-DATA!B4-DATA!B5,"")</f>
+        <v>-0.34722222222222221</v>
+      </c>
+      <c r="L3" s="2">
+        <f>IF(G3="",DATA!B5-(D3-C3),"")</f>
+        <v>4.1666666666666657E-2</v>
+      </c>
+      <c r="M3" s="1">
+        <f>IF(E3&gt;DATA!B6,E3-DATA!B6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f>DATA!B1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+      <c r="K4" s="2">
+        <f>IF(G4="",E4-B4-DATA!B4-DATA!B5,"")</f>
+        <v>-0.34722222222222221</v>
+      </c>
+      <c r="L4" s="2">
+        <f>IF(G4="",DATA!B5-(D4-C4),"")</f>
+        <v>4.1666666666666657E-2</v>
+      </c>
+      <c r="M4" s="1">
+        <f>IF(E4&gt;DATA!B6,E4-DATA!B6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <f>DATA!B2</f>
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+      <c r="K5" s="2">
+        <f>IF(G5="",E5-B5-DATA!B4-DATA!B5,"")</f>
+        <v>-0.34722222222222221</v>
+      </c>
+      <c r="L5" s="2">
+        <f>IF(G5="",DATA!B5-(D5-C5),"")</f>
+        <v>4.1666666666666657E-2</v>
+      </c>
+      <c r="M5" s="1">
+        <f>IF(E5&gt;DATA!B6,E5-DATA!B6,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+      <c r="K6" s="2">
+        <f>IF(G6="",E6-B6-DATA!B4-DATA!B5,"")</f>
+        <v>-0.34722222222222221</v>
+      </c>
+      <c r="L6" s="2">
+        <f>IF(G6="",DATA!B5-(D6-C6),"")</f>
+        <v>4.1666666666666657E-2</v>
+      </c>
+      <c r="M6" s="1">
+        <f>IF(E6&gt;DATA!B6,E6-DATA!B6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P6" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q6" s="4">
+        <f>K34+L34</f>
+        <v>-9.4722222222222179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="K7" s="2">
+        <f>IF(G7="",E7-B7-DATA!B4-DATA!B5,"")</f>
+        <v>-0.34722222222222221</v>
+      </c>
+      <c r="L7" s="2">
+        <f>IF(G7="",DATA!B5-(D7-C7),"")</f>
+        <v>4.1666666666666657E-2</v>
+      </c>
+      <c r="M7" s="1">
+        <f>IF(E7&gt;DATA!B6,E7-DATA!B6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="4"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+      <c r="K8" s="2">
+        <f>IF(G8="",E8-B8-DATA!B4-DATA!B5,"")</f>
+        <v>-0.34722222222222221</v>
+      </c>
+      <c r="L8" s="2">
+        <f>IF(G8="",DATA!B5-(D8-C8),"")</f>
+        <v>4.1666666666666657E-2</v>
+      </c>
+      <c r="M8" s="1">
+        <f>IF(E8&gt;DATA!B6,E8-DATA!B6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="4">
+        <f>M34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="K9" s="2">
+        <f>IF(G9="",E9-B9-DATA!B4-DATA!B5,"")</f>
+        <v>-0.34722222222222221</v>
+      </c>
+      <c r="L9" s="2">
+        <f>IF(G9="",DATA!B5-(D9-C9),"")</f>
+        <v>4.1666666666666657E-2</v>
+      </c>
+      <c r="M9" s="1">
+        <f>IF(E9&gt;DATA!B6,E9-DATA!B6,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+      <c r="K10" s="2">
+        <f>IF(G10="",E10-B10-DATA!B4-DATA!B5,"")</f>
+        <v>-0.34722222222222221</v>
+      </c>
+      <c r="L10" s="2">
+        <f>IF(G10="",DATA!B5-(D10-C10),"")</f>
+        <v>4.1666666666666657E-2</v>
+      </c>
+      <c r="M10" s="1">
+        <f>IF(E10&gt;DATA!B6,E10-DATA!B6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8"/>
+      <c r="K11" s="2">
+        <f>IF(G11="",E11-B11-DATA!B4-DATA!B5,"")</f>
+        <v>-0.34722222222222221</v>
+      </c>
+      <c r="L11" s="2">
+        <f>IF(G11="",DATA!B5-(D11-C11),"")</f>
+        <v>4.1666666666666657E-2</v>
+      </c>
+      <c r="M11" s="1">
+        <f>IF(E11&gt;DATA!B6,E11-DATA!B6,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="8"/>
+      <c r="K12" s="2">
+        <f>IF(G12="",E12-B12-DATA!B4-DATA!B5,"")</f>
+        <v>-0.34722222222222221</v>
+      </c>
+      <c r="L12" s="2">
+        <f>IF(G12="",DATA!B5-(D12-C12),"")</f>
+        <v>4.1666666666666657E-2</v>
+      </c>
+      <c r="M12" s="1">
+        <f>IF(E12&gt;DATA!B6,E12-DATA!B6,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="8"/>
+      <c r="K13" s="2">
+        <f>IF(G13="",E13-B13-DATA!B4-DATA!B5,"")</f>
+        <v>-0.34722222222222221</v>
+      </c>
+      <c r="L13" s="2">
+        <f>IF(G13="",DATA!B5-(D13-C13),"")</f>
+        <v>4.1666666666666657E-2</v>
+      </c>
+      <c r="M13" s="1">
+        <f>IF(E13&gt;DATA!B6,E13-DATA!B6,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="8"/>
+      <c r="K14" s="2">
+        <f>IF(G14="",E14-B14-DATA!B4-DATA!B5,"")</f>
+        <v>-0.34722222222222221</v>
+      </c>
+      <c r="L14" s="2">
+        <f>IF(G14="",DATA!B5-(D14-C14),"")</f>
+        <v>4.1666666666666657E-2</v>
+      </c>
+      <c r="M14" s="1">
+        <f>IF(E14&gt;DATA!B6,E14-DATA!B6,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="8"/>
+      <c r="K15" s="2">
+        <f>IF(G15="",E15-B15-DATA!B4-DATA!B5,"")</f>
+        <v>-0.34722222222222221</v>
+      </c>
+      <c r="L15" s="2">
+        <f>IF(G15="",DATA!B5-(D15-C15),"")</f>
+        <v>4.1666666666666657E-2</v>
+      </c>
+      <c r="M15" s="1">
+        <f>IF(E15&gt;DATA!B6,E15-DATA!B6,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="8"/>
+      <c r="K16" s="2">
+        <f>IF(G16="",E16-B16-DATA!B4-DATA!B5,"")</f>
+        <v>-0.34722222222222221</v>
+      </c>
+      <c r="L16" s="2">
+        <f>IF(G16="",DATA!B5-(D16-C16),"")</f>
+        <v>4.1666666666666657E-2</v>
+      </c>
+      <c r="M16" s="1">
+        <f>IF(E16&gt;DATA!B6,E16-DATA!B6,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="8"/>
+      <c r="K17" s="2">
+        <f>IF(G17="",E17-B17-DATA!B4-DATA!B5,"")</f>
+        <v>-0.34722222222222221</v>
+      </c>
+      <c r="L17" s="2">
+        <f>IF(G17="",DATA!B5-(D17-C17),"")</f>
+        <v>4.1666666666666657E-2</v>
+      </c>
+      <c r="M17" s="1">
+        <f>IF(E17&gt;DATA!B6,E17-DATA!B6,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="8"/>
+      <c r="K18" s="2">
+        <f>IF(G18="",E18-B18-DATA!B4-DATA!B5,"")</f>
+        <v>-0.34722222222222221</v>
+      </c>
+      <c r="L18" s="2">
+        <f>IF(G18="",DATA!B5-(D18-C18),"")</f>
+        <v>4.1666666666666657E-2</v>
+      </c>
+      <c r="M18" s="1">
+        <f>IF(E18&gt;DATA!B6,E18-DATA!B6,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="8"/>
+      <c r="K19" s="2">
+        <f>IF(G19="",E19-B19-DATA!B4-DATA!B5,"")</f>
+        <v>-0.34722222222222221</v>
+      </c>
+      <c r="L19" s="2">
+        <f>IF(G19="",DATA!B5-(D19-C19),"")</f>
+        <v>4.1666666666666657E-2</v>
+      </c>
+      <c r="M19" s="1">
+        <f>IF(E19&gt;DATA!B6,E19-DATA!B6,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="8"/>
+      <c r="K20" s="2">
+        <f>IF(G20="",E20-B20-DATA!B4-DATA!B5,"")</f>
+        <v>-0.34722222222222221</v>
+      </c>
+      <c r="L20" s="2">
+        <f>IF(G20="",DATA!B5-(D20-C20),"")</f>
+        <v>4.1666666666666657E-2</v>
+      </c>
+      <c r="M20" s="1">
+        <f>IF(E20&gt;DATA!B6,E20-DATA!B6,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="8"/>
+      <c r="K21" s="2">
+        <f>IF(G21="",E21-B21-DATA!B4-DATA!B5,"")</f>
+        <v>-0.34722222222222221</v>
+      </c>
+      <c r="L21" s="2">
+        <f>IF(G21="",DATA!B5-(D21-C21),"")</f>
+        <v>4.1666666666666657E-2</v>
+      </c>
+      <c r="M21" s="1">
+        <f>IF(E21&gt;DATA!B6,E21-DATA!B6,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="8"/>
+      <c r="K22" s="2">
+        <f>IF(G22="",E22-B22-DATA!B4-DATA!B5,"")</f>
+        <v>-0.34722222222222221</v>
+      </c>
+      <c r="L22" s="2">
+        <f>IF(G22="",DATA!B5-(D22-C22),"")</f>
+        <v>4.1666666666666657E-2</v>
+      </c>
+      <c r="M22" s="1">
+        <f>IF(E22&gt;DATA!B6,E22-DATA!B6,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="8"/>
+      <c r="K23" s="2">
+        <f>IF(G23="",E23-B23-DATA!B4-DATA!B5,"")</f>
+        <v>-0.34722222222222221</v>
+      </c>
+      <c r="L23" s="2">
+        <f>IF(G23="",DATA!B5-(D23-C23),"")</f>
+        <v>4.1666666666666657E-2</v>
+      </c>
+      <c r="M23" s="1">
+        <f>IF(E23&gt;DATA!B6,E23-DATA!B6,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="8"/>
+      <c r="K24" s="2">
+        <f>IF(G24="",E24-B24-DATA!B4-DATA!B5,"")</f>
+        <v>-0.34722222222222221</v>
+      </c>
+      <c r="L24" s="2">
+        <f>IF(G24="",DATA!B5-(D24-C24),"")</f>
+        <v>4.1666666666666657E-2</v>
+      </c>
+      <c r="M24" s="1">
+        <f>IF(E24&gt;DATA!B6,E24-DATA!B6,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="8"/>
+      <c r="K25" s="2">
+        <f>IF(G25="",E25-B25-DATA!B4-DATA!B5,"")</f>
+        <v>-0.34722222222222221</v>
+      </c>
+      <c r="L25" s="2">
+        <f>IF(G25="",DATA!B5-(D25-C25),"")</f>
+        <v>4.1666666666666657E-2</v>
+      </c>
+      <c r="M25" s="1">
+        <f>IF(E25&gt;DATA!B6,E25-DATA!B6,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="8"/>
+      <c r="K26" s="2">
+        <f>IF(G26="",E26-B26-DATA!B4-DATA!B5,"")</f>
+        <v>-0.34722222222222221</v>
+      </c>
+      <c r="L26" s="2">
+        <f>IF(G26="",DATA!B5-(D26-C26),"")</f>
+        <v>4.1666666666666657E-2</v>
+      </c>
+      <c r="M26" s="1">
+        <f>IF(E26&gt;DATA!B6,E26-DATA!B6,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="8"/>
+      <c r="K27" s="2">
+        <f>IF(G27="",E27-B27-DATA!B4-DATA!B5,"")</f>
+        <v>-0.34722222222222221</v>
+      </c>
+      <c r="L27" s="2">
+        <f>IF(G27="",DATA!B5-(D27-C27),"")</f>
+        <v>4.1666666666666657E-2</v>
+      </c>
+      <c r="M27" s="1">
+        <f>IF(E27&gt;DATA!B6,E27-DATA!B6,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="8"/>
+      <c r="K28" s="2">
+        <f>IF(G28="",E28-B28-DATA!B4-DATA!B5,"")</f>
+        <v>-0.34722222222222221</v>
+      </c>
+      <c r="L28" s="2">
+        <f>IF(G28="",DATA!B5-(D28-C28),"")</f>
+        <v>4.1666666666666657E-2</v>
+      </c>
+      <c r="M28" s="1">
+        <f>IF(E28&gt;DATA!B6,E28-DATA!B6,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="8"/>
+      <c r="K29" s="2">
+        <f>IF(G29="",E29-B29-DATA!B4-DATA!B5,"")</f>
+        <v>-0.34722222222222221</v>
+      </c>
+      <c r="L29" s="2">
+        <f>IF(G29="",DATA!B5-(D29-C29),"")</f>
+        <v>4.1666666666666657E-2</v>
+      </c>
+      <c r="M29" s="1">
+        <f>IF(E29&gt;DATA!B6,E29-DATA!B6,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="8"/>
+      <c r="K30" s="2">
+        <f>IF(G30="",E30-B30-DATA!B4-DATA!B5,"")</f>
+        <v>-0.34722222222222221</v>
+      </c>
+      <c r="L30" s="2">
+        <f>IF(G30="",DATA!B5-(D30-C30),"")</f>
+        <v>4.1666666666666657E-2</v>
+      </c>
+      <c r="M30" s="1">
+        <f>IF(E30&gt;DATA!B6,E30-DATA!B6,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
+        <v>30</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="8"/>
+      <c r="K31" s="2">
+        <f>IF(G31="",E31-B31-DATA!B4-DATA!B5,"")</f>
+        <v>-0.34722222222222221</v>
+      </c>
+      <c r="L31" s="2">
+        <f>IF(G31="",DATA!B5-(D31-C31),"")</f>
+        <v>4.1666666666666657E-2</v>
+      </c>
+      <c r="M31" s="1">
+        <f>IF(E31&gt;DATA!B6,E31-DATA!B6,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
+        <v>31</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="8"/>
+      <c r="K32" s="2">
+        <f>IF(G32="",E32-B32-DATA!B4-DATA!B5,"")</f>
+        <v>-0.34722222222222221</v>
+      </c>
+      <c r="L32" s="2">
+        <f>IF(G32="",DATA!B5-(D32-C32),"")</f>
+        <v>4.1666666666666657E-2</v>
+      </c>
+      <c r="M32" s="1">
+        <f>IF(E32&gt;DATA!B6,E32-DATA!B6,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="K33" s="2"/>
+    </row>
+    <row r="34" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K34" s="4">
+        <f>IF(G2="",K2)+IF(G3="",K3)+IF(G4="",K4)+IF(G5="",K5)+IF(G6="",K6)+IF(G7="",K7)+IF(G8="",K8)+IF(G9="",K9)+IF(G10="",K10)+IF(G11="",K11)+IF(G12="",K12)+IF(G13="",K13)+IF(G14="",K14)+IF(G15="",K15)+IF(G16="",K16)+IF(G17="",K17)+IF(G18="",K18)+IF(G19="",K19)+IF(G20="",K20)+IF(G21="",K21)+IF(G22="",K22)+IF(G23="",K23)+IF(G24="",K24)+IF(G25="",K25)+IF(G26="",K26)+IF(G27="",K27)+IF(G28="",K28)+IF(G29="",K29)+IF(G30="",K30)+IF(G31="",K31)+IF(G32="",K32)</f>
+        <v>-10.763888888888884</v>
+      </c>
+      <c r="L34" s="4">
+        <f>IF(G2="",L2)+IF(G3="",L3)+IF(G4="",L4)+IF(G5="",L5)+IF(G6="",L6)+IF(G7="",L7)+IF(G8="",L8)+IF(G9="",L9)+IF(G10="",L10)+IF(G11="",L11)+IF(G12="",L12)+IF(G13="",L13)+IF(G14="",L14)+IF(G15="",L15)+IF(G16="",L16)+IF(G17="",L17)+IF(G18="",L18)+IF(G19="",L19)+IF(G20="",L20)+IF(G21="",L21)+IF(G22="",L22)+IF(G23="",L23)+IF(G24="",L24)+IF(G25="",L25)+IF(G26="",L26)+IF(G27="",L27)+IF(G28="",L28)+IF(G29="",L29)+IF(G30="",L30)+IF(G31="",L31)+IF(G32="",L32)</f>
+        <v>1.2916666666666665</v>
+      </c>
+      <c r="M34" s="4">
+        <f>SUM(M2:M32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="K36" s="3"/>
+    </row>
+    <row r="37" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="K37" s="3"/>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G2:G32" xr:uid="{00000000-0002-0000-0300-000000000000}">
+      <formula1>"FOLGA,ATESTADO,FALTA,DOBRA,DOMINGO,NÃO EXISTE"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11674,34 +12510,34 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -11720,17 +12556,17 @@
       </c>
       <c r="L2" s="2">
         <f>IF(G2="",DATA!B5-(D2-C2),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M2" s="1">
         <f>IF(E2&gt;DATA!B6,E2-DATA!B6,0)</f>
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -11749,7 +12585,7 @@
       </c>
       <c r="L3" s="2">
         <f>IF(G3="",DATA!B5-(D3-C3),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M3" s="1">
         <f>IF(E3&gt;DATA!B6,E3-DATA!B6,0)</f>
@@ -11760,7 +12596,7 @@
       </c>
       <c r="P3">
         <f>DATA!B1</f>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -11779,7 +12615,7 @@
       </c>
       <c r="L4" s="2">
         <f>IF(G4="",DATA!B5-(D4-C4),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M4" s="1">
         <f>IF(E4&gt;DATA!B6,E4-DATA!B6,0)</f>
@@ -11790,7 +12626,7 @@
       </c>
       <c r="P4">
         <f>DATA!B2</f>
-        <v>2025</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -11809,7 +12645,7 @@
       </c>
       <c r="L5" s="2">
         <f>IF(G5="",DATA!B5-(D5-C5),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M5" s="1">
         <f>IF(E5&gt;DATA!B6,E5-DATA!B6,0)</f>
@@ -11832,14 +12668,14 @@
       </c>
       <c r="L6" s="2">
         <f>IF(G6="",DATA!B5-(D6-C6),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M6" s="1">
         <f>IF(E6&gt;DATA!B6,E6-DATA!B6,0)</f>
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q6" s="4">
         <f>K34+L34</f>
@@ -11862,7 +12698,7 @@
       </c>
       <c r="L7" s="2">
         <f>IF(G7="",DATA!B5-(D7-C7),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M7" s="1">
         <f>IF(E7&gt;DATA!B6,E7-DATA!B6,0)</f>
@@ -11886,14 +12722,14 @@
       </c>
       <c r="L8" s="2">
         <f>IF(G8="",DATA!B5-(D8-C8),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M8" s="1">
         <f>IF(E8&gt;DATA!B6,E8-DATA!B6,0)</f>
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q8" s="4">
         <f>M34</f>
@@ -11916,7 +12752,7 @@
       </c>
       <c r="L9" s="2">
         <f>IF(G9="",DATA!B5-(D9-C9),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M9" s="1">
         <f>IF(E9&gt;DATA!B6,E9-DATA!B6,0)</f>
@@ -11939,14 +12775,14 @@
       </c>
       <c r="L10" s="2">
         <f>IF(G10="",DATA!B5-(D10-C10),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M10" s="1">
         <f>IF(E10&gt;DATA!B6,E10-DATA!B6,0)</f>
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -11965,7 +12801,7 @@
       </c>
       <c r="L11" s="2">
         <f>IF(G11="",DATA!B5-(D11-C11),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M11" s="1">
         <f>IF(E11&gt;DATA!B6,E11-DATA!B6,0)</f>
@@ -11988,7 +12824,7 @@
       </c>
       <c r="L12" s="2">
         <f>IF(G12="",DATA!B5-(D12-C12),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M12" s="1">
         <f>IF(E12&gt;DATA!B6,E12-DATA!B6,0)</f>
@@ -12011,7 +12847,7 @@
       </c>
       <c r="L13" s="2">
         <f>IF(G13="",DATA!B5-(D13-C13),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M13" s="1">
         <f>IF(E13&gt;DATA!B6,E13-DATA!B6,0)</f>
@@ -12034,7 +12870,7 @@
       </c>
       <c r="L14" s="2">
         <f>IF(G14="",DATA!B5-(D14-C14),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M14" s="1">
         <f>IF(E14&gt;DATA!B6,E14-DATA!B6,0)</f>
@@ -12057,7 +12893,7 @@
       </c>
       <c r="L15" s="2">
         <f>IF(G15="",DATA!B5-(D15-C15),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M15" s="1">
         <f>IF(E15&gt;DATA!B6,E15-DATA!B6,0)</f>
@@ -12080,7 +12916,7 @@
       </c>
       <c r="L16" s="2">
         <f>IF(G16="",DATA!B5-(D16-C16),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M16" s="1">
         <f>IF(E16&gt;DATA!B6,E16-DATA!B6,0)</f>
@@ -12103,7 +12939,7 @@
       </c>
       <c r="L17" s="2">
         <f>IF(G17="",DATA!B5-(D17-C17),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M17" s="1">
         <f>IF(E17&gt;DATA!B6,E17-DATA!B6,0)</f>
@@ -12126,7 +12962,7 @@
       </c>
       <c r="L18" s="2">
         <f>IF(G18="",DATA!B5-(D18-C18),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M18" s="1">
         <f>IF(E18&gt;DATA!B6,E18-DATA!B6,0)</f>
@@ -12149,7 +12985,7 @@
       </c>
       <c r="L19" s="2">
         <f>IF(G19="",DATA!B5-(D19-C19),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M19" s="1">
         <f>IF(E19&gt;DATA!B6,E19-DATA!B6,0)</f>
@@ -12172,7 +13008,7 @@
       </c>
       <c r="L20" s="2">
         <f>IF(G20="",DATA!B5-(D20-C20),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M20" s="1">
         <f>IF(E20&gt;DATA!B6,E20-DATA!B6,0)</f>
@@ -12195,7 +13031,7 @@
       </c>
       <c r="L21" s="2">
         <f>IF(G21="",DATA!B5-(D21-C21),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M21" s="1">
         <f>IF(E21&gt;DATA!B6,E21-DATA!B6,0)</f>
@@ -12218,7 +13054,7 @@
       </c>
       <c r="L22" s="2">
         <f>IF(G22="",DATA!B5-(D22-C22),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M22" s="1">
         <f>IF(E22&gt;DATA!B6,E22-DATA!B6,0)</f>
@@ -12241,7 +13077,7 @@
       </c>
       <c r="L23" s="2">
         <f>IF(G23="",DATA!B5-(D23-C23),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M23" s="1">
         <f>IF(E23&gt;DATA!B6,E23-DATA!B6,0)</f>
@@ -12264,7 +13100,7 @@
       </c>
       <c r="L24" s="2">
         <f>IF(G24="",DATA!B5-(D24-C24),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M24" s="1">
         <f>IF(E24&gt;DATA!B6,E24-DATA!B6,0)</f>
@@ -12287,7 +13123,7 @@
       </c>
       <c r="L25" s="2">
         <f>IF(G25="",DATA!B5-(D25-C25),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M25" s="1">
         <f>IF(E25&gt;DATA!B6,E25-DATA!B6,0)</f>
@@ -12310,7 +13146,7 @@
       </c>
       <c r="L26" s="2">
         <f>IF(G26="",DATA!B5-(D26-C26),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M26" s="1">
         <f>IF(E26&gt;DATA!B6,E26-DATA!B6,0)</f>
@@ -12333,7 +13169,7 @@
       </c>
       <c r="L27" s="2">
         <f>IF(G27="",DATA!B5-(D27-C27),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M27" s="1">
         <f>IF(E27&gt;DATA!B6,E27-DATA!B6,0)</f>
@@ -12356,7 +13192,7 @@
       </c>
       <c r="L28" s="2">
         <f>IF(G28="",DATA!B5-(D28-C28),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M28" s="1">
         <f>IF(E28&gt;DATA!B6,E28-DATA!B6,0)</f>
@@ -12379,7 +13215,7 @@
       </c>
       <c r="L29" s="2">
         <f>IF(G29="",DATA!B5-(D29-C29),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M29" s="1">
         <f>IF(E29&gt;DATA!B6,E29-DATA!B6,0)</f>
@@ -12402,7 +13238,7 @@
       </c>
       <c r="L30" s="2">
         <f>IF(G30="",DATA!B5-(D30-C30),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M30" s="1">
         <f>IF(E30&gt;DATA!B6,E30-DATA!B6,0)</f>
@@ -12425,7 +13261,7 @@
       </c>
       <c r="L31" s="2">
         <f>IF(G31="",DATA!B5-(D31-C31),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M31" s="1">
         <f>IF(E31&gt;DATA!B6,E31-DATA!B6,0)</f>
@@ -12448,7 +13284,7 @@
       </c>
       <c r="L32" s="2">
         <f>IF(G32="",DATA!B5-(D32-C32),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M32" s="1">
         <f>IF(E32&gt;DATA!B6,E32-DATA!B6,0)</f>
@@ -12460,7 +13296,7 @@
     </row>
     <row r="34" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J34" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K34" s="4">
         <f>IF(G2="",K2)+IF(G3="",K3)+IF(G4="",K4)+IF(G5="",K5)+IF(G6="",K6)+IF(G7="",K7)+IF(G8="",K8)+IF(G9="",K9)+IF(G10="",K10)+IF(G11="",K11)+IF(G12="",K12)+IF(G13="",K13)+IF(G14="",K14)+IF(G15="",K15)+IF(G16="",K16)+IF(G17="",K17)+IF(G18="",K18)+IF(G19="",K19)+IF(G20="",K20)+IF(G21="",K21)+IF(G22="",K22)+IF(G23="",K23)+IF(G24="",K24)+IF(G25="",K25)+IF(G26="",K26)+IF(G27="",K27)+IF(G28="",K28)+IF(G29="",K29)+IF(G30="",K30)+IF(G31="",K31)+IF(G32="",K32)</f>
@@ -12468,7 +13304,7 @@
       </c>
       <c r="L34" s="4">
         <f>IF(G2="",L2)+IF(G3="",L3)+IF(G4="",L4)+IF(G5="",L5)+IF(G6="",L6)+IF(G7="",L7)+IF(G8="",L8)+IF(G9="",L9)+IF(G10="",L10)+IF(G11="",L11)+IF(G12="",L12)+IF(G13="",L13)+IF(G14="",L14)+IF(G15="",L15)+IF(G16="",L16)+IF(G17="",L17)+IF(G18="",L18)+IF(G19="",L19)+IF(G20="",L20)+IF(G21="",L21)+IF(G22="",L22)+IF(G23="",L23)+IF(G24="",L24)+IF(G25="",L25)+IF(G26="",L26)+IF(G27="",L27)+IF(G28="",L28)+IF(G29="",L29)+IF(G30="",L30)+IF(G31="",L31)+IF(G32="",L32)</f>
-        <v>1.2916666666666667</v>
+        <v>1.2916666666666665</v>
       </c>
       <c r="M34" s="4">
         <f>SUM(M2:M32)</f>
@@ -12487,7 +13323,7 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G32" xr:uid="{37C5DD57-E51A-46CF-9F79-9C6208956859}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G2:G32" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"FOLGA,ATESTADO,FALTA,DOBRA,DOMINGO,NÃO EXISTE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12495,8 +13331,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A6B398-4F3C-4F9D-AC28-37318B968EC0}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12520,34 +13356,34 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -12566,17 +13402,17 @@
       </c>
       <c r="L2" s="2">
         <f>IF(G2="",DATA!B5-(D2-C2),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M2" s="1">
         <f>IF(E2&gt;DATA!B6,E2-DATA!B6,0)</f>
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="P2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -12595,7 +13431,7 @@
       </c>
       <c r="L3" s="2">
         <f>IF(G3="",DATA!B5-(D3-C3),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M3" s="1">
         <f>IF(E3&gt;DATA!B6,E3-DATA!B6,0)</f>
@@ -12606,7 +13442,7 @@
       </c>
       <c r="P3">
         <f>DATA!B1</f>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -12625,7 +13461,7 @@
       </c>
       <c r="L4" s="2">
         <f>IF(G4="",DATA!B5-(D4-C4),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M4" s="1">
         <f>IF(E4&gt;DATA!B6,E4-DATA!B6,0)</f>
@@ -12636,7 +13472,7 @@
       </c>
       <c r="P4">
         <f>DATA!B2</f>
-        <v>2025</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -12655,7 +13491,7 @@
       </c>
       <c r="L5" s="2">
         <f>IF(G5="",DATA!B5-(D5-C5),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M5" s="1">
         <f>IF(E5&gt;DATA!B6,E5-DATA!B6,0)</f>
@@ -12678,14 +13514,14 @@
       </c>
       <c r="L6" s="2">
         <f>IF(G6="",DATA!B5-(D6-C6),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M6" s="1">
         <f>IF(E6&gt;DATA!B6,E6-DATA!B6,0)</f>
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q6" s="4">
         <f>K34+L34</f>
@@ -12708,7 +13544,7 @@
       </c>
       <c r="L7" s="2">
         <f>IF(G7="",DATA!B5-(D7-C7),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M7" s="1">
         <f>IF(E7&gt;DATA!B6,E7-DATA!B6,0)</f>
@@ -12732,14 +13568,14 @@
       </c>
       <c r="L8" s="2">
         <f>IF(G8="",DATA!B5-(D8-C8),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M8" s="1">
         <f>IF(E8&gt;DATA!B6,E8-DATA!B6,0)</f>
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q8" s="4">
         <f>M34</f>
@@ -12762,7 +13598,7 @@
       </c>
       <c r="L9" s="2">
         <f>IF(G9="",DATA!B5-(D9-C9),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M9" s="1">
         <f>IF(E9&gt;DATA!B6,E9-DATA!B6,0)</f>
@@ -12785,14 +13621,14 @@
       </c>
       <c r="L10" s="2">
         <f>IF(G10="",DATA!B5-(D10-C10),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M10" s="1">
         <f>IF(E10&gt;DATA!B6,E10-DATA!B6,0)</f>
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -12811,7 +13647,7 @@
       </c>
       <c r="L11" s="2">
         <f>IF(G11="",DATA!B5-(D11-C11),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M11" s="1">
         <f>IF(E11&gt;DATA!B6,E11-DATA!B6,0)</f>
@@ -12834,7 +13670,7 @@
       </c>
       <c r="L12" s="2">
         <f>IF(G12="",DATA!B5-(D12-C12),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M12" s="1">
         <f>IF(E12&gt;DATA!B6,E12-DATA!B6,0)</f>
@@ -12857,7 +13693,7 @@
       </c>
       <c r="L13" s="2">
         <f>IF(G13="",DATA!B5-(D13-C13),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M13" s="1">
         <f>IF(E13&gt;DATA!B6,E13-DATA!B6,0)</f>
@@ -12880,7 +13716,7 @@
       </c>
       <c r="L14" s="2">
         <f>IF(G14="",DATA!B5-(D14-C14),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M14" s="1">
         <f>IF(E14&gt;DATA!B6,E14-DATA!B6,0)</f>
@@ -12903,7 +13739,7 @@
       </c>
       <c r="L15" s="2">
         <f>IF(G15="",DATA!B5-(D15-C15),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M15" s="1">
         <f>IF(E15&gt;DATA!B6,E15-DATA!B6,0)</f>
@@ -12926,7 +13762,7 @@
       </c>
       <c r="L16" s="2">
         <f>IF(G16="",DATA!B5-(D16-C16),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M16" s="1">
         <f>IF(E16&gt;DATA!B6,E16-DATA!B6,0)</f>
@@ -12949,7 +13785,7 @@
       </c>
       <c r="L17" s="2">
         <f>IF(G17="",DATA!B5-(D17-C17),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M17" s="1">
         <f>IF(E17&gt;DATA!B6,E17-DATA!B6,0)</f>
@@ -12972,7 +13808,7 @@
       </c>
       <c r="L18" s="2">
         <f>IF(G18="",DATA!B5-(D18-C18),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M18" s="1">
         <f>IF(E18&gt;DATA!B6,E18-DATA!B6,0)</f>
@@ -12995,7 +13831,7 @@
       </c>
       <c r="L19" s="2">
         <f>IF(G19="",DATA!B5-(D19-C19),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M19" s="1">
         <f>IF(E19&gt;DATA!B6,E19-DATA!B6,0)</f>
@@ -13018,7 +13854,7 @@
       </c>
       <c r="L20" s="2">
         <f>IF(G20="",DATA!B5-(D20-C20),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M20" s="1">
         <f>IF(E20&gt;DATA!B6,E20-DATA!B6,0)</f>
@@ -13041,7 +13877,7 @@
       </c>
       <c r="L21" s="2">
         <f>IF(G21="",DATA!B5-(D21-C21),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M21" s="1">
         <f>IF(E21&gt;DATA!B6,E21-DATA!B6,0)</f>
@@ -13064,7 +13900,7 @@
       </c>
       <c r="L22" s="2">
         <f>IF(G22="",DATA!B5-(D22-C22),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M22" s="1">
         <f>IF(E22&gt;DATA!B6,E22-DATA!B6,0)</f>
@@ -13087,7 +13923,7 @@
       </c>
       <c r="L23" s="2">
         <f>IF(G23="",DATA!B5-(D23-C23),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M23" s="1">
         <f>IF(E23&gt;DATA!B6,E23-DATA!B6,0)</f>
@@ -13110,7 +13946,7 @@
       </c>
       <c r="L24" s="2">
         <f>IF(G24="",DATA!B5-(D24-C24),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M24" s="1">
         <f>IF(E24&gt;DATA!B6,E24-DATA!B6,0)</f>
@@ -13133,7 +13969,7 @@
       </c>
       <c r="L25" s="2">
         <f>IF(G25="",DATA!B5-(D25-C25),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M25" s="1">
         <f>IF(E25&gt;DATA!B6,E25-DATA!B6,0)</f>
@@ -13156,7 +13992,7 @@
       </c>
       <c r="L26" s="2">
         <f>IF(G26="",DATA!B5-(D26-C26),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M26" s="1">
         <f>IF(E26&gt;DATA!B6,E26-DATA!B6,0)</f>
@@ -13179,7 +14015,7 @@
       </c>
       <c r="L27" s="2">
         <f>IF(G27="",DATA!B5-(D27-C27),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M27" s="1">
         <f>IF(E27&gt;DATA!B6,E27-DATA!B6,0)</f>
@@ -13202,7 +14038,7 @@
       </c>
       <c r="L28" s="2">
         <f>IF(G28="",DATA!B5-(D28-C28),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M28" s="1">
         <f>IF(E28&gt;DATA!B6,E28-DATA!B6,0)</f>
@@ -13225,7 +14061,7 @@
       </c>
       <c r="L29" s="2">
         <f>IF(G29="",DATA!B5-(D29-C29),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M29" s="1">
         <f>IF(E29&gt;DATA!B6,E29-DATA!B6,0)</f>
@@ -13248,7 +14084,7 @@
       </c>
       <c r="L30" s="2">
         <f>IF(G30="",DATA!B5-(D30-C30),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M30" s="1">
         <f>IF(E30&gt;DATA!B6,E30-DATA!B6,0)</f>
@@ -13271,7 +14107,7 @@
       </c>
       <c r="L31" s="2">
         <f>IF(G31="",DATA!B5-(D31-C31),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M31" s="1">
         <f>IF(E31&gt;DATA!B6,E31-DATA!B6,0)</f>
@@ -13294,7 +14130,7 @@
       </c>
       <c r="L32" s="2">
         <f>IF(G32="",DATA!B5-(D32-C32),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M32" s="1">
         <f>IF(E32&gt;DATA!B6,E32-DATA!B6,0)</f>
@@ -13306,7 +14142,7 @@
     </row>
     <row r="34" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J34" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K34" s="4">
         <f>IF(G2="",K2)+IF(G3="",K3)+IF(G4="",K4)+IF(G5="",K5)+IF(G6="",K6)+IF(G7="",K7)+IF(G8="",K8)+IF(G9="",K9)+IF(G10="",K10)+IF(G11="",K11)+IF(G12="",K12)+IF(G13="",K13)+IF(G14="",K14)+IF(G15="",K15)+IF(G16="",K16)+IF(G17="",K17)+IF(G18="",K18)+IF(G19="",K19)+IF(G20="",K20)+IF(G21="",K21)+IF(G22="",K22)+IF(G23="",K23)+IF(G24="",K24)+IF(G25="",K25)+IF(G26="",K26)+IF(G27="",K27)+IF(G28="",K28)+IF(G29="",K29)+IF(G30="",K30)+IF(G31="",K31)+IF(G32="",K32)</f>
@@ -13314,7 +14150,7 @@
       </c>
       <c r="L34" s="4">
         <f>IF(G2="",L2)+IF(G3="",L3)+IF(G4="",L4)+IF(G5="",L5)+IF(G6="",L6)+IF(G7="",L7)+IF(G8="",L8)+IF(G9="",L9)+IF(G10="",L10)+IF(G11="",L11)+IF(G12="",L12)+IF(G13="",L13)+IF(G14="",L14)+IF(G15="",L15)+IF(G16="",L16)+IF(G17="",L17)+IF(G18="",L18)+IF(G19="",L19)+IF(G20="",L20)+IF(G21="",L21)+IF(G22="",L22)+IF(G23="",L23)+IF(G24="",L24)+IF(G25="",L25)+IF(G26="",L26)+IF(G27="",L27)+IF(G28="",L28)+IF(G29="",L29)+IF(G30="",L30)+IF(G31="",L31)+IF(G32="",L32)</f>
-        <v>1.2916666666666667</v>
+        <v>1.2916666666666665</v>
       </c>
       <c r="M34" s="4">
         <f>SUM(M2:M32)</f>
@@ -13333,7 +14169,7 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G32" xr:uid="{0C0388BE-FCAC-44EB-B7FE-71008D63749A}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G2:G32" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"FOLGA,ATESTADO,FALTA,DOBRA,DOMINGO,NÃO EXISTE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13341,8 +14177,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC62E81-23E6-43E3-B35E-BEA5F942C426}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13366,34 +14202,34 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -13412,17 +14248,17 @@
       </c>
       <c r="L2" s="2">
         <f>IF(G2="",DATA!B5-(D2-C2),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M2" s="1">
         <f>IF(E2&gt;DATA!B6,E2-DATA!B6,0)</f>
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="P2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -13441,7 +14277,7 @@
       </c>
       <c r="L3" s="2">
         <f>IF(G3="",DATA!B5-(D3-C3),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M3" s="1">
         <f>IF(E3&gt;DATA!B6,E3-DATA!B6,0)</f>
@@ -13452,7 +14288,7 @@
       </c>
       <c r="P3">
         <f>DATA!B1</f>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -13471,7 +14307,7 @@
       </c>
       <c r="L4" s="2">
         <f>IF(G4="",DATA!B5-(D4-C4),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M4" s="1">
         <f>IF(E4&gt;DATA!B6,E4-DATA!B6,0)</f>
@@ -13482,7 +14318,7 @@
       </c>
       <c r="P4">
         <f>DATA!B2</f>
-        <v>2025</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -13501,7 +14337,7 @@
       </c>
       <c r="L5" s="2">
         <f>IF(G5="",DATA!B5-(D5-C5),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M5" s="1">
         <f>IF(E5&gt;DATA!B6,E5-DATA!B6,0)</f>
@@ -13524,14 +14360,14 @@
       </c>
       <c r="L6" s="2">
         <f>IF(G6="",DATA!B5-(D6-C6),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M6" s="1">
         <f>IF(E6&gt;DATA!B6,E6-DATA!B6,0)</f>
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q6" s="4">
         <f>K34+L34</f>
@@ -13554,7 +14390,7 @@
       </c>
       <c r="L7" s="2">
         <f>IF(G7="",DATA!B5-(D7-C7),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M7" s="1">
         <f>IF(E7&gt;DATA!B6,E7-DATA!B6,0)</f>
@@ -13578,14 +14414,14 @@
       </c>
       <c r="L8" s="2">
         <f>IF(G8="",DATA!B5-(D8-C8),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M8" s="1">
         <f>IF(E8&gt;DATA!B6,E8-DATA!B6,0)</f>
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q8" s="4">
         <f>M34</f>
@@ -13608,7 +14444,7 @@
       </c>
       <c r="L9" s="2">
         <f>IF(G9="",DATA!B5-(D9-C9),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M9" s="1">
         <f>IF(E9&gt;DATA!B6,E9-DATA!B6,0)</f>
@@ -13631,14 +14467,14 @@
       </c>
       <c r="L10" s="2">
         <f>IF(G10="",DATA!B5-(D10-C10),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M10" s="1">
         <f>IF(E10&gt;DATA!B6,E10-DATA!B6,0)</f>
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -13657,7 +14493,7 @@
       </c>
       <c r="L11" s="2">
         <f>IF(G11="",DATA!B5-(D11-C11),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M11" s="1">
         <f>IF(E11&gt;DATA!B6,E11-DATA!B6,0)</f>
@@ -13680,7 +14516,7 @@
       </c>
       <c r="L12" s="2">
         <f>IF(G12="",DATA!B5-(D12-C12),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M12" s="1">
         <f>IF(E12&gt;DATA!B6,E12-DATA!B6,0)</f>
@@ -13703,7 +14539,7 @@
       </c>
       <c r="L13" s="2">
         <f>IF(G13="",DATA!B5-(D13-C13),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M13" s="1">
         <f>IF(E13&gt;DATA!B6,E13-DATA!B6,0)</f>
@@ -13726,7 +14562,7 @@
       </c>
       <c r="L14" s="2">
         <f>IF(G14="",DATA!B5-(D14-C14),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M14" s="1">
         <f>IF(E14&gt;DATA!B6,E14-DATA!B6,0)</f>
@@ -13749,7 +14585,7 @@
       </c>
       <c r="L15" s="2">
         <f>IF(G15="",DATA!B5-(D15-C15),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M15" s="1">
         <f>IF(E15&gt;DATA!B6,E15-DATA!B6,0)</f>
@@ -13772,7 +14608,7 @@
       </c>
       <c r="L16" s="2">
         <f>IF(G16="",DATA!B5-(D16-C16),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M16" s="1">
         <f>IF(E16&gt;DATA!B6,E16-DATA!B6,0)</f>
@@ -13795,7 +14631,7 @@
       </c>
       <c r="L17" s="2">
         <f>IF(G17="",DATA!B5-(D17-C17),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M17" s="1">
         <f>IF(E17&gt;DATA!B6,E17-DATA!B6,0)</f>
@@ -13818,7 +14654,7 @@
       </c>
       <c r="L18" s="2">
         <f>IF(G18="",DATA!B5-(D18-C18),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M18" s="1">
         <f>IF(E18&gt;DATA!B6,E18-DATA!B6,0)</f>
@@ -13841,7 +14677,7 @@
       </c>
       <c r="L19" s="2">
         <f>IF(G19="",DATA!B5-(D19-C19),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M19" s="1">
         <f>IF(E19&gt;DATA!B6,E19-DATA!B6,0)</f>
@@ -13864,7 +14700,7 @@
       </c>
       <c r="L20" s="2">
         <f>IF(G20="",DATA!B5-(D20-C20),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M20" s="1">
         <f>IF(E20&gt;DATA!B6,E20-DATA!B6,0)</f>
@@ -13887,7 +14723,7 @@
       </c>
       <c r="L21" s="2">
         <f>IF(G21="",DATA!B5-(D21-C21),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M21" s="1">
         <f>IF(E21&gt;DATA!B6,E21-DATA!B6,0)</f>
@@ -13910,7 +14746,7 @@
       </c>
       <c r="L22" s="2">
         <f>IF(G22="",DATA!B5-(D22-C22),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M22" s="1">
         <f>IF(E22&gt;DATA!B6,E22-DATA!B6,0)</f>
@@ -13933,7 +14769,7 @@
       </c>
       <c r="L23" s="2">
         <f>IF(G23="",DATA!B5-(D23-C23),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M23" s="1">
         <f>IF(E23&gt;DATA!B6,E23-DATA!B6,0)</f>
@@ -13956,7 +14792,7 @@
       </c>
       <c r="L24" s="2">
         <f>IF(G24="",DATA!B5-(D24-C24),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M24" s="1">
         <f>IF(E24&gt;DATA!B6,E24-DATA!B6,0)</f>
@@ -13979,7 +14815,7 @@
       </c>
       <c r="L25" s="2">
         <f>IF(G25="",DATA!B5-(D25-C25),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M25" s="1">
         <f>IF(E25&gt;DATA!B6,E25-DATA!B6,0)</f>
@@ -14002,7 +14838,7 @@
       </c>
       <c r="L26" s="2">
         <f>IF(G26="",DATA!B5-(D26-C26),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M26" s="1">
         <f>IF(E26&gt;DATA!B6,E26-DATA!B6,0)</f>
@@ -14025,7 +14861,7 @@
       </c>
       <c r="L27" s="2">
         <f>IF(G27="",DATA!B5-(D27-C27),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M27" s="1">
         <f>IF(E27&gt;DATA!B6,E27-DATA!B6,0)</f>
@@ -14048,7 +14884,7 @@
       </c>
       <c r="L28" s="2">
         <f>IF(G28="",DATA!B5-(D28-C28),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M28" s="1">
         <f>IF(E28&gt;DATA!B6,E28-DATA!B6,0)</f>
@@ -14071,7 +14907,7 @@
       </c>
       <c r="L29" s="2">
         <f>IF(G29="",DATA!B5-(D29-C29),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M29" s="1">
         <f>IF(E29&gt;DATA!B6,E29-DATA!B6,0)</f>
@@ -14094,7 +14930,7 @@
       </c>
       <c r="L30" s="2">
         <f>IF(G30="",DATA!B5-(D30-C30),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M30" s="1">
         <f>IF(E30&gt;DATA!B6,E30-DATA!B6,0)</f>
@@ -14117,7 +14953,7 @@
       </c>
       <c r="L31" s="2">
         <f>IF(G31="",DATA!B5-(D31-C31),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M31" s="1">
         <f>IF(E31&gt;DATA!B6,E31-DATA!B6,0)</f>
@@ -14140,7 +14976,7 @@
       </c>
       <c r="L32" s="2">
         <f>IF(G32="",DATA!B5-(D32-C32),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M32" s="1">
         <f>IF(E32&gt;DATA!B6,E32-DATA!B6,0)</f>
@@ -14152,7 +14988,7 @@
     </row>
     <row r="34" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J34" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K34" s="4">
         <f>IF(G2="",K2)+IF(G3="",K3)+IF(G4="",K4)+IF(G5="",K5)+IF(G6="",K6)+IF(G7="",K7)+IF(G8="",K8)+IF(G9="",K9)+IF(G10="",K10)+IF(G11="",K11)+IF(G12="",K12)+IF(G13="",K13)+IF(G14="",K14)+IF(G15="",K15)+IF(G16="",K16)+IF(G17="",K17)+IF(G18="",K18)+IF(G19="",K19)+IF(G20="",K20)+IF(G21="",K21)+IF(G22="",K22)+IF(G23="",K23)+IF(G24="",K24)+IF(G25="",K25)+IF(G26="",K26)+IF(G27="",K27)+IF(G28="",K28)+IF(G29="",K29)+IF(G30="",K30)+IF(G31="",K31)+IF(G32="",K32)</f>
@@ -14160,7 +14996,7 @@
       </c>
       <c r="L34" s="4">
         <f>IF(G2="",L2)+IF(G3="",L3)+IF(G4="",L4)+IF(G5="",L5)+IF(G6="",L6)+IF(G7="",L7)+IF(G8="",L8)+IF(G9="",L9)+IF(G10="",L10)+IF(G11="",L11)+IF(G12="",L12)+IF(G13="",L13)+IF(G14="",L14)+IF(G15="",L15)+IF(G16="",L16)+IF(G17="",L17)+IF(G18="",L18)+IF(G19="",L19)+IF(G20="",L20)+IF(G21="",L21)+IF(G22="",L22)+IF(G23="",L23)+IF(G24="",L24)+IF(G25="",L25)+IF(G26="",L26)+IF(G27="",L27)+IF(G28="",L28)+IF(G29="",L29)+IF(G30="",L30)+IF(G31="",L31)+IF(G32="",L32)</f>
-        <v>1.2916666666666667</v>
+        <v>1.2916666666666665</v>
       </c>
       <c r="M34" s="4">
         <f>SUM(M2:M32)</f>
@@ -14179,7 +15015,7 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G32" xr:uid="{3F2C187E-5104-454E-B381-454023132258}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G2:G32" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>"FOLGA,ATESTADO,FALTA,DOBRA,DOMINGO,NÃO EXISTE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14187,8 +15023,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D6936E0-3F68-4997-8AA0-5543B65A819B}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14212,34 +15048,34 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -14258,17 +15094,17 @@
       </c>
       <c r="L2" s="2">
         <f>IF(G2="",DATA!B5-(D2-C2),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M2" s="1">
         <f>IF(E2&gt;DATA!B6,E2-DATA!B6,0)</f>
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="P2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -14287,7 +15123,7 @@
       </c>
       <c r="L3" s="2">
         <f>IF(G3="",DATA!B5-(D3-C3),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M3" s="1">
         <f>IF(E3&gt;DATA!B6,E3-DATA!B6,0)</f>
@@ -14298,7 +15134,7 @@
       </c>
       <c r="P3">
         <f>DATA!B1</f>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -14317,7 +15153,7 @@
       </c>
       <c r="L4" s="2">
         <f>IF(G4="",DATA!B5-(D4-C4),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M4" s="1">
         <f>IF(E4&gt;DATA!B6,E4-DATA!B6,0)</f>
@@ -14328,7 +15164,7 @@
       </c>
       <c r="P4">
         <f>DATA!B2</f>
-        <v>2025</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -14347,7 +15183,7 @@
       </c>
       <c r="L5" s="2">
         <f>IF(G5="",DATA!B5-(D5-C5),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M5" s="1">
         <f>IF(E5&gt;DATA!B6,E5-DATA!B6,0)</f>
@@ -14370,14 +15206,14 @@
       </c>
       <c r="L6" s="2">
         <f>IF(G6="",DATA!B5-(D6-C6),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M6" s="1">
         <f>IF(E6&gt;DATA!B6,E6-DATA!B6,0)</f>
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q6" s="4">
         <f>K34+L34</f>
@@ -14400,7 +15236,7 @@
       </c>
       <c r="L7" s="2">
         <f>IF(G7="",DATA!B5-(D7-C7),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M7" s="1">
         <f>IF(E7&gt;DATA!B6,E7-DATA!B6,0)</f>
@@ -14424,14 +15260,14 @@
       </c>
       <c r="L8" s="2">
         <f>IF(G8="",DATA!B5-(D8-C8),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M8" s="1">
         <f>IF(E8&gt;DATA!B6,E8-DATA!B6,0)</f>
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q8" s="4">
         <f>M34</f>
@@ -14454,7 +15290,7 @@
       </c>
       <c r="L9" s="2">
         <f>IF(G9="",DATA!B5-(D9-C9),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M9" s="1">
         <f>IF(E9&gt;DATA!B6,E9-DATA!B6,0)</f>
@@ -14477,14 +15313,14 @@
       </c>
       <c r="L10" s="2">
         <f>IF(G10="",DATA!B5-(D10-C10),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M10" s="1">
         <f>IF(E10&gt;DATA!B6,E10-DATA!B6,0)</f>
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -14503,7 +15339,7 @@
       </c>
       <c r="L11" s="2">
         <f>IF(G11="",DATA!B5-(D11-C11),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M11" s="1">
         <f>IF(E11&gt;DATA!B6,E11-DATA!B6,0)</f>
@@ -14526,7 +15362,7 @@
       </c>
       <c r="L12" s="2">
         <f>IF(G12="",DATA!B5-(D12-C12),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M12" s="1">
         <f>IF(E12&gt;DATA!B6,E12-DATA!B6,0)</f>
@@ -14549,7 +15385,7 @@
       </c>
       <c r="L13" s="2">
         <f>IF(G13="",DATA!B5-(D13-C13),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M13" s="1">
         <f>IF(E13&gt;DATA!B6,E13-DATA!B6,0)</f>
@@ -14572,7 +15408,7 @@
       </c>
       <c r="L14" s="2">
         <f>IF(G14="",DATA!B5-(D14-C14),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M14" s="1">
         <f>IF(E14&gt;DATA!B6,E14-DATA!B6,0)</f>
@@ -14595,7 +15431,7 @@
       </c>
       <c r="L15" s="2">
         <f>IF(G15="",DATA!B5-(D15-C15),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M15" s="1">
         <f>IF(E15&gt;DATA!B6,E15-DATA!B6,0)</f>
@@ -14618,7 +15454,7 @@
       </c>
       <c r="L16" s="2">
         <f>IF(G16="",DATA!B5-(D16-C16),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M16" s="1">
         <f>IF(E16&gt;DATA!B6,E16-DATA!B6,0)</f>
@@ -14641,7 +15477,7 @@
       </c>
       <c r="L17" s="2">
         <f>IF(G17="",DATA!B5-(D17-C17),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M17" s="1">
         <f>IF(E17&gt;DATA!B6,E17-DATA!B6,0)</f>
@@ -14664,7 +15500,7 @@
       </c>
       <c r="L18" s="2">
         <f>IF(G18="",DATA!B5-(D18-C18),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M18" s="1">
         <f>IF(E18&gt;DATA!B6,E18-DATA!B6,0)</f>
@@ -14687,7 +15523,7 @@
       </c>
       <c r="L19" s="2">
         <f>IF(G19="",DATA!B5-(D19-C19),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M19" s="1">
         <f>IF(E19&gt;DATA!B6,E19-DATA!B6,0)</f>
@@ -14710,7 +15546,7 @@
       </c>
       <c r="L20" s="2">
         <f>IF(G20="",DATA!B5-(D20-C20),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M20" s="1">
         <f>IF(E20&gt;DATA!B6,E20-DATA!B6,0)</f>
@@ -14733,7 +15569,7 @@
       </c>
       <c r="L21" s="2">
         <f>IF(G21="",DATA!B5-(D21-C21),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M21" s="1">
         <f>IF(E21&gt;DATA!B6,E21-DATA!B6,0)</f>
@@ -14756,7 +15592,7 @@
       </c>
       <c r="L22" s="2">
         <f>IF(G22="",DATA!B5-(D22-C22),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M22" s="1">
         <f>IF(E22&gt;DATA!B6,E22-DATA!B6,0)</f>
@@ -14779,7 +15615,7 @@
       </c>
       <c r="L23" s="2">
         <f>IF(G23="",DATA!B5-(D23-C23),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M23" s="1">
         <f>IF(E23&gt;DATA!B6,E23-DATA!B6,0)</f>
@@ -14802,7 +15638,7 @@
       </c>
       <c r="L24" s="2">
         <f>IF(G24="",DATA!B5-(D24-C24),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M24" s="1">
         <f>IF(E24&gt;DATA!B6,E24-DATA!B6,0)</f>
@@ -14825,7 +15661,7 @@
       </c>
       <c r="L25" s="2">
         <f>IF(G25="",DATA!B5-(D25-C25),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M25" s="1">
         <f>IF(E25&gt;DATA!B6,E25-DATA!B6,0)</f>
@@ -14848,7 +15684,7 @@
       </c>
       <c r="L26" s="2">
         <f>IF(G26="",DATA!B5-(D26-C26),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M26" s="1">
         <f>IF(E26&gt;DATA!B6,E26-DATA!B6,0)</f>
@@ -14871,7 +15707,7 @@
       </c>
       <c r="L27" s="2">
         <f>IF(G27="",DATA!B5-(D27-C27),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M27" s="1">
         <f>IF(E27&gt;DATA!B6,E27-DATA!B6,0)</f>
@@ -14894,7 +15730,7 @@
       </c>
       <c r="L28" s="2">
         <f>IF(G28="",DATA!B5-(D28-C28),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M28" s="1">
         <f>IF(E28&gt;DATA!B6,E28-DATA!B6,0)</f>
@@ -14917,7 +15753,7 @@
       </c>
       <c r="L29" s="2">
         <f>IF(G29="",DATA!B5-(D29-C29),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M29" s="1">
         <f>IF(E29&gt;DATA!B6,E29-DATA!B6,0)</f>
@@ -14940,7 +15776,7 @@
       </c>
       <c r="L30" s="2">
         <f>IF(G30="",DATA!B5-(D30-C30),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M30" s="1">
         <f>IF(E30&gt;DATA!B6,E30-DATA!B6,0)</f>
@@ -14963,7 +15799,7 @@
       </c>
       <c r="L31" s="2">
         <f>IF(G31="",DATA!B5-(D31-C31),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M31" s="1">
         <f>IF(E31&gt;DATA!B6,E31-DATA!B6,0)</f>
@@ -14986,7 +15822,7 @@
       </c>
       <c r="L32" s="2">
         <f>IF(G32="",DATA!B5-(D32-C32),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M32" s="1">
         <f>IF(E32&gt;DATA!B6,E32-DATA!B6,0)</f>
@@ -14998,7 +15834,7 @@
     </row>
     <row r="34" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J34" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K34" s="4">
         <f>IF(G2="",K2)+IF(G3="",K3)+IF(G4="",K4)+IF(G5="",K5)+IF(G6="",K6)+IF(G7="",K7)+IF(G8="",K8)+IF(G9="",K9)+IF(G10="",K10)+IF(G11="",K11)+IF(G12="",K12)+IF(G13="",K13)+IF(G14="",K14)+IF(G15="",K15)+IF(G16="",K16)+IF(G17="",K17)+IF(G18="",K18)+IF(G19="",K19)+IF(G20="",K20)+IF(G21="",K21)+IF(G22="",K22)+IF(G23="",K23)+IF(G24="",K24)+IF(G25="",K25)+IF(G26="",K26)+IF(G27="",K27)+IF(G28="",K28)+IF(G29="",K29)+IF(G30="",K30)+IF(G31="",K31)+IF(G32="",K32)</f>
@@ -15006,7 +15842,7 @@
       </c>
       <c r="L34" s="4">
         <f>IF(G2="",L2)+IF(G3="",L3)+IF(G4="",L4)+IF(G5="",L5)+IF(G6="",L6)+IF(G7="",L7)+IF(G8="",L8)+IF(G9="",L9)+IF(G10="",L10)+IF(G11="",L11)+IF(G12="",L12)+IF(G13="",L13)+IF(G14="",L14)+IF(G15="",L15)+IF(G16="",L16)+IF(G17="",L17)+IF(G18="",L18)+IF(G19="",L19)+IF(G20="",L20)+IF(G21="",L21)+IF(G22="",L22)+IF(G23="",L23)+IF(G24="",L24)+IF(G25="",L25)+IF(G26="",L26)+IF(G27="",L27)+IF(G28="",L28)+IF(G29="",L29)+IF(G30="",L30)+IF(G31="",L31)+IF(G32="",L32)</f>
-        <v>1.2916666666666667</v>
+        <v>1.2916666666666665</v>
       </c>
       <c r="M34" s="4">
         <f>SUM(M2:M32)</f>
@@ -15025,853 +15861,7 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G32" xr:uid="{B82FE075-55E0-4166-9E56-759843A65CD9}">
-      <formula1>"FOLGA,ATESTADO,FALTA,DOBRA,DOMINGO,NÃO EXISTE"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D16A1F-FD8E-4E90-B259-C9B2C752463F}">
-  <dimension ref="A1:Q37"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="12.5546875" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.88671875" customWidth="1"/>
-    <col min="13" max="13" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="K2" s="2">
-        <f>IF(G2="",E2-B2-DATA!B4-DATA!B5,"")</f>
-        <v>-0.34722222222222221</v>
-      </c>
-      <c r="L2" s="2">
-        <f>IF(G2="",DATA!B5-(D2-C2),"")</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="M2" s="1">
-        <f>IF(E2&gt;DATA!B6,E2-DATA!B6,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O2" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8"/>
-      <c r="K3" s="2">
-        <f>IF(G3="",E3-B3-DATA!B4-DATA!B5,"")</f>
-        <v>-0.34722222222222221</v>
-      </c>
-      <c r="L3" s="2">
-        <f>IF(G3="",DATA!B5-(D3-C3),"")</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="M3" s="1">
-        <f>IF(E3&gt;DATA!B6,E3-DATA!B6,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <f>DATA!B1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
-      <c r="K4" s="2">
-        <f>IF(G4="",E4-B4-DATA!B4-DATA!B5,"")</f>
-        <v>-0.34722222222222221</v>
-      </c>
-      <c r="L4" s="2">
-        <f>IF(G4="",DATA!B5-(D4-C4),"")</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="M4" s="1">
-        <f>IF(E4&gt;DATA!B6,E4-DATA!B6,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O4" t="s">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <f>DATA!B2</f>
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
-      <c r="K5" s="2">
-        <f>IF(G5="",E5-B5-DATA!B4-DATA!B5,"")</f>
-        <v>-0.34722222222222221</v>
-      </c>
-      <c r="L5" s="2">
-        <f>IF(G5="",DATA!B5-(D5-C5),"")</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="M5" s="1">
-        <f>IF(E5&gt;DATA!B6,E5-DATA!B6,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
-      <c r="K6" s="2">
-        <f>IF(G6="",E6-B6-DATA!B4-DATA!B5,"")</f>
-        <v>-0.34722222222222221</v>
-      </c>
-      <c r="L6" s="2">
-        <f>IF(G6="",DATA!B5-(D6-C6),"")</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="M6" s="1">
-        <f>IF(E6&gt;DATA!B6,E6-DATA!B6,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P6" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q6" s="4">
-        <f>K34+L34</f>
-        <v>-9.4722222222222179</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
-      <c r="K7" s="2">
-        <f>IF(G7="",E7-B7-DATA!B4-DATA!B5,"")</f>
-        <v>-0.34722222222222221</v>
-      </c>
-      <c r="L7" s="2">
-        <f>IF(G7="",DATA!B5-(D7-C7),"")</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="M7" s="1">
-        <f>IF(E7&gt;DATA!B6,E7-DATA!B6,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="4"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
-      <c r="K8" s="2">
-        <f>IF(G8="",E8-B8-DATA!B4-DATA!B5,"")</f>
-        <v>-0.34722222222222221</v>
-      </c>
-      <c r="L8" s="2">
-        <f>IF(G8="",DATA!B5-(D8-C8),"")</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="M8" s="1">
-        <f>IF(E8&gt;DATA!B6,E8-DATA!B6,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P8" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q8" s="4">
-        <f>M34</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
-      <c r="K9" s="2">
-        <f>IF(G9="",E9-B9-DATA!B4-DATA!B5,"")</f>
-        <v>-0.34722222222222221</v>
-      </c>
-      <c r="L9" s="2">
-        <f>IF(G9="",DATA!B5-(D9-C9),"")</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="M9" s="1">
-        <f>IF(E9&gt;DATA!B6,E9-DATA!B6,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8"/>
-      <c r="K10" s="2">
-        <f>IF(G10="",E10-B10-DATA!B4-DATA!B5,"")</f>
-        <v>-0.34722222222222221</v>
-      </c>
-      <c r="L10" s="2">
-        <f>IF(G10="",DATA!B5-(D10-C10),"")</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="M10" s="1">
-        <f>IF(E10&gt;DATA!B6,E10-DATA!B6,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
-      <c r="K11" s="2">
-        <f>IF(G11="",E11-B11-DATA!B4-DATA!B5,"")</f>
-        <v>-0.34722222222222221</v>
-      </c>
-      <c r="L11" s="2">
-        <f>IF(G11="",DATA!B5-(D11-C11),"")</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="M11" s="1">
-        <f>IF(E11&gt;DATA!B6,E11-DATA!B6,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="8"/>
-      <c r="K12" s="2">
-        <f>IF(G12="",E12-B12-DATA!B4-DATA!B5,"")</f>
-        <v>-0.34722222222222221</v>
-      </c>
-      <c r="L12" s="2">
-        <f>IF(G12="",DATA!B5-(D12-C12),"")</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="M12" s="1">
-        <f>IF(E12&gt;DATA!B6,E12-DATA!B6,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="8"/>
-      <c r="K13" s="2">
-        <f>IF(G13="",E13-B13-DATA!B4-DATA!B5,"")</f>
-        <v>-0.34722222222222221</v>
-      </c>
-      <c r="L13" s="2">
-        <f>IF(G13="",DATA!B5-(D13-C13),"")</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="M13" s="1">
-        <f>IF(E13&gt;DATA!B6,E13-DATA!B6,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="8"/>
-      <c r="K14" s="2">
-        <f>IF(G14="",E14-B14-DATA!B4-DATA!B5,"")</f>
-        <v>-0.34722222222222221</v>
-      </c>
-      <c r="L14" s="2">
-        <f>IF(G14="",DATA!B5-(D14-C14),"")</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="M14" s="1">
-        <f>IF(E14&gt;DATA!B6,E14-DATA!B6,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
-        <v>14</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="8"/>
-      <c r="K15" s="2">
-        <f>IF(G15="",E15-B15-DATA!B4-DATA!B5,"")</f>
-        <v>-0.34722222222222221</v>
-      </c>
-      <c r="L15" s="2">
-        <f>IF(G15="",DATA!B5-(D15-C15),"")</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="M15" s="1">
-        <f>IF(E15&gt;DATA!B6,E15-DATA!B6,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
-        <v>15</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="8"/>
-      <c r="K16" s="2">
-        <f>IF(G16="",E16-B16-DATA!B4-DATA!B5,"")</f>
-        <v>-0.34722222222222221</v>
-      </c>
-      <c r="L16" s="2">
-        <f>IF(G16="",DATA!B5-(D16-C16),"")</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="M16" s="1">
-        <f>IF(E16&gt;DATA!B6,E16-DATA!B6,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
-        <v>16</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="8"/>
-      <c r="K17" s="2">
-        <f>IF(G17="",E17-B17-DATA!B4-DATA!B5,"")</f>
-        <v>-0.34722222222222221</v>
-      </c>
-      <c r="L17" s="2">
-        <f>IF(G17="",DATA!B5-(D17-C17),"")</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="M17" s="1">
-        <f>IF(E17&gt;DATA!B6,E17-DATA!B6,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
-        <v>17</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="8"/>
-      <c r="K18" s="2">
-        <f>IF(G18="",E18-B18-DATA!B4-DATA!B5,"")</f>
-        <v>-0.34722222222222221</v>
-      </c>
-      <c r="L18" s="2">
-        <f>IF(G18="",DATA!B5-(D18-C18),"")</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="M18" s="1">
-        <f>IF(E18&gt;DATA!B6,E18-DATA!B6,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
-        <v>18</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="8"/>
-      <c r="K19" s="2">
-        <f>IF(G19="",E19-B19-DATA!B4-DATA!B5,"")</f>
-        <v>-0.34722222222222221</v>
-      </c>
-      <c r="L19" s="2">
-        <f>IF(G19="",DATA!B5-(D19-C19),"")</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="M19" s="1">
-        <f>IF(E19&gt;DATA!B6,E19-DATA!B6,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
-        <v>19</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="8"/>
-      <c r="K20" s="2">
-        <f>IF(G20="",E20-B20-DATA!B4-DATA!B5,"")</f>
-        <v>-0.34722222222222221</v>
-      </c>
-      <c r="L20" s="2">
-        <f>IF(G20="",DATA!B5-(D20-C20),"")</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="M20" s="1">
-        <f>IF(E20&gt;DATA!B6,E20-DATA!B6,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
-        <v>20</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="8"/>
-      <c r="K21" s="2">
-        <f>IF(G21="",E21-B21-DATA!B4-DATA!B5,"")</f>
-        <v>-0.34722222222222221</v>
-      </c>
-      <c r="L21" s="2">
-        <f>IF(G21="",DATA!B5-(D21-C21),"")</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="M21" s="1">
-        <f>IF(E21&gt;DATA!B6,E21-DATA!B6,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
-        <v>21</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="8"/>
-      <c r="K22" s="2">
-        <f>IF(G22="",E22-B22-DATA!B4-DATA!B5,"")</f>
-        <v>-0.34722222222222221</v>
-      </c>
-      <c r="L22" s="2">
-        <f>IF(G22="",DATA!B5-(D22-C22),"")</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="M22" s="1">
-        <f>IF(E22&gt;DATA!B6,E22-DATA!B6,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
-        <v>22</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="8"/>
-      <c r="K23" s="2">
-        <f>IF(G23="",E23-B23-DATA!B4-DATA!B5,"")</f>
-        <v>-0.34722222222222221</v>
-      </c>
-      <c r="L23" s="2">
-        <f>IF(G23="",DATA!B5-(D23-C23),"")</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="M23" s="1">
-        <f>IF(E23&gt;DATA!B6,E23-DATA!B6,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
-        <v>23</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="8"/>
-      <c r="K24" s="2">
-        <f>IF(G24="",E24-B24-DATA!B4-DATA!B5,"")</f>
-        <v>-0.34722222222222221</v>
-      </c>
-      <c r="L24" s="2">
-        <f>IF(G24="",DATA!B5-(D24-C24),"")</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="M24" s="1">
-        <f>IF(E24&gt;DATA!B6,E24-DATA!B6,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
-        <v>24</v>
-      </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="8"/>
-      <c r="K25" s="2">
-        <f>IF(G25="",E25-B25-DATA!B4-DATA!B5,"")</f>
-        <v>-0.34722222222222221</v>
-      </c>
-      <c r="L25" s="2">
-        <f>IF(G25="",DATA!B5-(D25-C25),"")</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="M25" s="1">
-        <f>IF(E25&gt;DATA!B6,E25-DATA!B6,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="5">
-        <v>25</v>
-      </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="8"/>
-      <c r="K26" s="2">
-        <f>IF(G26="",E26-B26-DATA!B4-DATA!B5,"")</f>
-        <v>-0.34722222222222221</v>
-      </c>
-      <c r="L26" s="2">
-        <f>IF(G26="",DATA!B5-(D26-C26),"")</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="M26" s="1">
-        <f>IF(E26&gt;DATA!B6,E26-DATA!B6,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
-        <v>26</v>
-      </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="8"/>
-      <c r="K27" s="2">
-        <f>IF(G27="",E27-B27-DATA!B4-DATA!B5,"")</f>
-        <v>-0.34722222222222221</v>
-      </c>
-      <c r="L27" s="2">
-        <f>IF(G27="",DATA!B5-(D27-C27),"")</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="M27" s="1">
-        <f>IF(E27&gt;DATA!B6,E27-DATA!B6,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="5">
-        <v>27</v>
-      </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="8"/>
-      <c r="K28" s="2">
-        <f>IF(G28="",E28-B28-DATA!B4-DATA!B5,"")</f>
-        <v>-0.34722222222222221</v>
-      </c>
-      <c r="L28" s="2">
-        <f>IF(G28="",DATA!B5-(D28-C28),"")</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="M28" s="1">
-        <f>IF(E28&gt;DATA!B6,E28-DATA!B6,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="5">
-        <v>28</v>
-      </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="8"/>
-      <c r="K29" s="2">
-        <f>IF(G29="",E29-B29-DATA!B4-DATA!B5,"")</f>
-        <v>-0.34722222222222221</v>
-      </c>
-      <c r="L29" s="2">
-        <f>IF(G29="",DATA!B5-(D29-C29),"")</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="M29" s="1">
-        <f>IF(E29&gt;DATA!B6,E29-DATA!B6,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="5">
-        <v>29</v>
-      </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="8"/>
-      <c r="K30" s="2">
-        <f>IF(G30="",E30-B30-DATA!B4-DATA!B5,"")</f>
-        <v>-0.34722222222222221</v>
-      </c>
-      <c r="L30" s="2">
-        <f>IF(G30="",DATA!B5-(D30-C30),"")</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="M30" s="1">
-        <f>IF(E30&gt;DATA!B6,E30-DATA!B6,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="5">
-        <v>30</v>
-      </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="8"/>
-      <c r="K31" s="2">
-        <f>IF(G31="",E31-B31-DATA!B4-DATA!B5,"")</f>
-        <v>-0.34722222222222221</v>
-      </c>
-      <c r="L31" s="2">
-        <f>IF(G31="",DATA!B5-(D31-C31),"")</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="M31" s="1">
-        <f>IF(E31&gt;DATA!B6,E31-DATA!B6,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="5">
-        <v>31</v>
-      </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="8"/>
-      <c r="K32" s="2">
-        <f>IF(G32="",E32-B32-DATA!B4-DATA!B5,"")</f>
-        <v>-0.34722222222222221</v>
-      </c>
-      <c r="L32" s="2">
-        <f>IF(G32="",DATA!B5-(D32-C32),"")</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="M32" s="1">
-        <f>IF(E32&gt;DATA!B6,E32-DATA!B6,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="K33" s="2"/>
-    </row>
-    <row r="34" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J34" t="s">
-        <v>16</v>
-      </c>
-      <c r="K34" s="4">
-        <f>IF(G2="",K2)+IF(G3="",K3)+IF(G4="",K4)+IF(G5="",K5)+IF(G6="",K6)+IF(G7="",K7)+IF(G8="",K8)+IF(G9="",K9)+IF(G10="",K10)+IF(G11="",K11)+IF(G12="",K12)+IF(G13="",K13)+IF(G14="",K14)+IF(G15="",K15)+IF(G16="",K16)+IF(G17="",K17)+IF(G18="",K18)+IF(G19="",K19)+IF(G20="",K20)+IF(G21="",K21)+IF(G22="",K22)+IF(G23="",K23)+IF(G24="",K24)+IF(G25="",K25)+IF(G26="",K26)+IF(G27="",K27)+IF(G28="",K28)+IF(G29="",K29)+IF(G30="",K30)+IF(G31="",K31)+IF(G32="",K32)</f>
-        <v>-10.763888888888884</v>
-      </c>
-      <c r="L34" s="4">
-        <f>IF(G2="",L2)+IF(G3="",L3)+IF(G4="",L4)+IF(G5="",L5)+IF(G6="",L6)+IF(G7="",L7)+IF(G8="",L8)+IF(G9="",L9)+IF(G10="",L10)+IF(G11="",L11)+IF(G12="",L12)+IF(G13="",L13)+IF(G14="",L14)+IF(G15="",L15)+IF(G16="",L16)+IF(G17="",L17)+IF(G18="",L18)+IF(G19="",L19)+IF(G20="",L20)+IF(G21="",L21)+IF(G22="",L22)+IF(G23="",L23)+IF(G24="",L24)+IF(G25="",L25)+IF(G26="",L26)+IF(G27="",L27)+IF(G28="",L28)+IF(G29="",L29)+IF(G30="",L30)+IF(G31="",L31)+IF(G32="",L32)</f>
-        <v>1.2916666666666667</v>
-      </c>
-      <c r="M34" s="4">
-        <f>SUM(M2:M32)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="K35" s="2"/>
-    </row>
-    <row r="36" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="K36" s="3"/>
-    </row>
-    <row r="37" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="K37" s="3"/>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G32" xr:uid="{217E4896-D5E6-4125-8E98-DD58B40A52A0}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G2:G32" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>"FOLGA,ATESTADO,FALTA,DOBRA,DOMINGO,NÃO EXISTE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15880,7 +15870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B98ECE8B-B213-4432-B03E-624BBAC7519E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15904,34 +15894,34 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -15950,14 +15940,14 @@
       </c>
       <c r="L2" s="2">
         <f>IF(G2="",DATA!B5-(D2-C2),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M2" s="1">
         <f>IF(E2&gt;DATA!B6,E2-DATA!B6,0)</f>
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="P2" t="s">
         <v>21</v>
@@ -15979,7 +15969,7 @@
       </c>
       <c r="L3" s="2">
         <f>IF(G3="",DATA!B5-(D3-C3),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M3" s="1">
         <f>IF(E3&gt;DATA!B6,E3-DATA!B6,0)</f>
@@ -15990,7 +15980,7 @@
       </c>
       <c r="P3">
         <f>DATA!B1</f>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -16009,7 +15999,7 @@
       </c>
       <c r="L4" s="2">
         <f>IF(G4="",DATA!B5-(D4-C4),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M4" s="1">
         <f>IF(E4&gt;DATA!B6,E4-DATA!B6,0)</f>
@@ -16020,7 +16010,7 @@
       </c>
       <c r="P4">
         <f>DATA!B2</f>
-        <v>2025</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -16039,7 +16029,7 @@
       </c>
       <c r="L5" s="2">
         <f>IF(G5="",DATA!B5-(D5-C5),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M5" s="1">
         <f>IF(E5&gt;DATA!B6,E5-DATA!B6,0)</f>
@@ -16062,14 +16052,14 @@
       </c>
       <c r="L6" s="2">
         <f>IF(G6="",DATA!B5-(D6-C6),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M6" s="1">
         <f>IF(E6&gt;DATA!B6,E6-DATA!B6,0)</f>
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q6" s="4">
         <f>K34+L34</f>
@@ -16092,7 +16082,7 @@
       </c>
       <c r="L7" s="2">
         <f>IF(G7="",DATA!B5-(D7-C7),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M7" s="1">
         <f>IF(E7&gt;DATA!B6,E7-DATA!B6,0)</f>
@@ -16116,14 +16106,14 @@
       </c>
       <c r="L8" s="2">
         <f>IF(G8="",DATA!B5-(D8-C8),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M8" s="1">
         <f>IF(E8&gt;DATA!B6,E8-DATA!B6,0)</f>
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q8" s="4">
         <f>M34</f>
@@ -16146,7 +16136,7 @@
       </c>
       <c r="L9" s="2">
         <f>IF(G9="",DATA!B5-(D9-C9),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M9" s="1">
         <f>IF(E9&gt;DATA!B6,E9-DATA!B6,0)</f>
@@ -16169,14 +16159,14 @@
       </c>
       <c r="L10" s="2">
         <f>IF(G10="",DATA!B5-(D10-C10),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M10" s="1">
         <f>IF(E10&gt;DATA!B6,E10-DATA!B6,0)</f>
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -16195,7 +16185,7 @@
       </c>
       <c r="L11" s="2">
         <f>IF(G11="",DATA!B5-(D11-C11),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M11" s="1">
         <f>IF(E11&gt;DATA!B6,E11-DATA!B6,0)</f>
@@ -16218,7 +16208,7 @@
       </c>
       <c r="L12" s="2">
         <f>IF(G12="",DATA!B5-(D12-C12),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M12" s="1">
         <f>IF(E12&gt;DATA!B6,E12-DATA!B6,0)</f>
@@ -16241,7 +16231,7 @@
       </c>
       <c r="L13" s="2">
         <f>IF(G13="",DATA!B5-(D13-C13),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M13" s="1">
         <f>IF(E13&gt;DATA!B6,E13-DATA!B6,0)</f>
@@ -16264,7 +16254,7 @@
       </c>
       <c r="L14" s="2">
         <f>IF(G14="",DATA!B5-(D14-C14),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M14" s="1">
         <f>IF(E14&gt;DATA!B6,E14-DATA!B6,0)</f>
@@ -16287,7 +16277,7 @@
       </c>
       <c r="L15" s="2">
         <f>IF(G15="",DATA!B5-(D15-C15),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M15" s="1">
         <f>IF(E15&gt;DATA!B6,E15-DATA!B6,0)</f>
@@ -16310,7 +16300,7 @@
       </c>
       <c r="L16" s="2">
         <f>IF(G16="",DATA!B5-(D16-C16),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M16" s="1">
         <f>IF(E16&gt;DATA!B6,E16-DATA!B6,0)</f>
@@ -16333,7 +16323,7 @@
       </c>
       <c r="L17" s="2">
         <f>IF(G17="",DATA!B5-(D17-C17),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M17" s="1">
         <f>IF(E17&gt;DATA!B6,E17-DATA!B6,0)</f>
@@ -16356,7 +16346,7 @@
       </c>
       <c r="L18" s="2">
         <f>IF(G18="",DATA!B5-(D18-C18),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M18" s="1">
         <f>IF(E18&gt;DATA!B6,E18-DATA!B6,0)</f>
@@ -16379,7 +16369,7 @@
       </c>
       <c r="L19" s="2">
         <f>IF(G19="",DATA!B5-(D19-C19),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M19" s="1">
         <f>IF(E19&gt;DATA!B6,E19-DATA!B6,0)</f>
@@ -16402,7 +16392,7 @@
       </c>
       <c r="L20" s="2">
         <f>IF(G20="",DATA!B5-(D20-C20),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M20" s="1">
         <f>IF(E20&gt;DATA!B6,E20-DATA!B6,0)</f>
@@ -16425,7 +16415,7 @@
       </c>
       <c r="L21" s="2">
         <f>IF(G21="",DATA!B5-(D21-C21),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M21" s="1">
         <f>IF(E21&gt;DATA!B6,E21-DATA!B6,0)</f>
@@ -16448,7 +16438,7 @@
       </c>
       <c r="L22" s="2">
         <f>IF(G22="",DATA!B5-(D22-C22),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M22" s="1">
         <f>IF(E22&gt;DATA!B6,E22-DATA!B6,0)</f>
@@ -16471,7 +16461,7 @@
       </c>
       <c r="L23" s="2">
         <f>IF(G23="",DATA!B5-(D23-C23),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M23" s="1">
         <f>IF(E23&gt;DATA!B6,E23-DATA!B6,0)</f>
@@ -16494,7 +16484,7 @@
       </c>
       <c r="L24" s="2">
         <f>IF(G24="",DATA!B5-(D24-C24),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M24" s="1">
         <f>IF(E24&gt;DATA!B6,E24-DATA!B6,0)</f>
@@ -16517,7 +16507,7 @@
       </c>
       <c r="L25" s="2">
         <f>IF(G25="",DATA!B5-(D25-C25),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M25" s="1">
         <f>IF(E25&gt;DATA!B6,E25-DATA!B6,0)</f>
@@ -16540,7 +16530,7 @@
       </c>
       <c r="L26" s="2">
         <f>IF(G26="",DATA!B5-(D26-C26),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M26" s="1">
         <f>IF(E26&gt;DATA!B6,E26-DATA!B6,0)</f>
@@ -16563,7 +16553,7 @@
       </c>
       <c r="L27" s="2">
         <f>IF(G27="",DATA!B5-(D27-C27),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M27" s="1">
         <f>IF(E27&gt;DATA!B6,E27-DATA!B6,0)</f>
@@ -16586,7 +16576,7 @@
       </c>
       <c r="L28" s="2">
         <f>IF(G28="",DATA!B5-(D28-C28),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M28" s="1">
         <f>IF(E28&gt;DATA!B6,E28-DATA!B6,0)</f>
@@ -16609,7 +16599,7 @@
       </c>
       <c r="L29" s="2">
         <f>IF(G29="",DATA!B5-(D29-C29),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M29" s="1">
         <f>IF(E29&gt;DATA!B6,E29-DATA!B6,0)</f>
@@ -16632,7 +16622,7 @@
       </c>
       <c r="L30" s="2">
         <f>IF(G30="",DATA!B5-(D30-C30),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M30" s="1">
         <f>IF(E30&gt;DATA!B6,E30-DATA!B6,0)</f>
@@ -16655,7 +16645,7 @@
       </c>
       <c r="L31" s="2">
         <f>IF(G31="",DATA!B5-(D31-C31),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M31" s="1">
         <f>IF(E31&gt;DATA!B6,E31-DATA!B6,0)</f>
@@ -16678,7 +16668,7 @@
       </c>
       <c r="L32" s="2">
         <f>IF(G32="",DATA!B5-(D32-C32),"")</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="M32" s="1">
         <f>IF(E32&gt;DATA!B6,E32-DATA!B6,0)</f>
@@ -16690,7 +16680,7 @@
     </row>
     <row r="34" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J34" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K34" s="4">
         <f>IF(G2="",K2)+IF(G3="",K3)+IF(G4="",K4)+IF(G5="",K5)+IF(G6="",K6)+IF(G7="",K7)+IF(G8="",K8)+IF(G9="",K9)+IF(G10="",K10)+IF(G11="",K11)+IF(G12="",K12)+IF(G13="",K13)+IF(G14="",K14)+IF(G15="",K15)+IF(G16="",K16)+IF(G17="",K17)+IF(G18="",K18)+IF(G19="",K19)+IF(G20="",K20)+IF(G21="",K21)+IF(G22="",K22)+IF(G23="",K23)+IF(G24="",K24)+IF(G25="",K25)+IF(G26="",K26)+IF(G27="",K27)+IF(G28="",K28)+IF(G29="",K29)+IF(G30="",K30)+IF(G31="",K31)+IF(G32="",K32)</f>
@@ -16698,7 +16688,7 @@
       </c>
       <c r="L34" s="4">
         <f>IF(G2="",L2)+IF(G3="",L3)+IF(G4="",L4)+IF(G5="",L5)+IF(G6="",L6)+IF(G7="",L7)+IF(G8="",L8)+IF(G9="",L9)+IF(G10="",L10)+IF(G11="",L11)+IF(G12="",L12)+IF(G13="",L13)+IF(G14="",L14)+IF(G15="",L15)+IF(G16="",L16)+IF(G17="",L17)+IF(G18="",L18)+IF(G19="",L19)+IF(G20="",L20)+IF(G21="",L21)+IF(G22="",L22)+IF(G23="",L23)+IF(G24="",L24)+IF(G25="",L25)+IF(G26="",L26)+IF(G27="",L27)+IF(G28="",L28)+IF(G29="",L29)+IF(G30="",L30)+IF(G31="",L31)+IF(G32="",L32)</f>
-        <v>1.2916666666666667</v>
+        <v>1.2916666666666665</v>
       </c>
       <c r="M34" s="4">
         <f>SUM(M2:M32)</f>
@@ -16717,7 +16707,7 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G32" xr:uid="{2452B9FC-E47E-4874-8A7F-DD3A991A350F}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G2:G32" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>"FOLGA,ATESTADO,FALTA,DOBRA,DOMINGO,NÃO EXISTE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/file.xlsx
+++ b/file.xlsx
@@ -494,7 +494,7 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="26.33203125" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="29.6640625" customWidth="1" min="2" max="2"/>
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B1" s="9" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B2" s="9" t="n">
-        <v>2021</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="3">
@@ -602,7 +602,7 @@
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -1488,7 +1488,7 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -2374,7 +2374,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -3260,7 +3260,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -4146,7 +4146,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -5032,7 +5032,7 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -5918,7 +5918,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -6804,7 +6804,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -7690,7 +7690,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -8576,7 +8576,7 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -9461,7 +9461,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -10347,7 +10347,7 @@
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -11233,7 +11233,7 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -12120,7 +12120,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -13008,7 +13008,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -13894,7 +13894,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -14780,7 +14780,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -15666,7 +15666,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -16552,7 +16552,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>

--- a/file.xlsx
+++ b/file.xlsx
@@ -495,7 +495,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="26.33203125" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="29.6640625" customWidth="1" min="2" max="2"/>
@@ -603,7 +603,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -1673,7 +1673,7 @@
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -2559,7 +2559,7 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -3621,7 +3621,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -3693,16 +3693,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="n">
-        <v>0.3770833333333333</v>
+        <v>0.375</v>
       </c>
       <c r="C2" s="6" t="n">
-        <v>0.6347222222222222</v>
+        <v>0.5</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>0.6777777777777778</v>
+        <v>0.5423611111111111</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>0.7201388888888889</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="F2" s="7" t="n"/>
       <c r="G2" s="8" t="n"/>
@@ -3734,16 +3734,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="n">
-        <v>0.3805555555555555</v>
+        <v>0.625</v>
       </c>
       <c r="C3" s="6" t="n">
-        <v>0.5305555555555556</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>0.5763888888888888</v>
+        <v>0.7645833333333333</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>0.9208333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="F3" s="7" t="n"/>
       <c r="G3" s="8" t="n"/>
@@ -4675,7 +4675,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -5561,7 +5561,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -6607,7 +6607,7 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -7657,7 +7657,7 @@
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -8719,7 +8719,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -9781,7 +9781,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -10843,7 +10843,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -11729,7 +11729,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -12810,7 +12810,7 @@
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -13864,7 +13864,7 @@
       <selection activeCell="A1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -14751,7 +14751,7 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -15812,7 +15812,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -16874,7 +16874,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -17760,7 +17760,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -18822,7 +18822,7 @@
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -19884,7 +19884,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>

--- a/file.xlsx
+++ b/file.xlsx
@@ -495,7 +495,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="26.33203125" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="29.6640625" customWidth="1" min="2" max="2"/>
@@ -603,7 +603,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -1673,7 +1673,7 @@
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -2559,7 +2559,7 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -3621,7 +3621,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -4675,7 +4675,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -5561,7 +5561,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -6607,7 +6607,7 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -7657,7 +7657,7 @@
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -8719,7 +8719,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -9781,7 +9781,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -10843,7 +10843,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -11729,7 +11729,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -12810,7 +12810,7 @@
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -13864,7 +13864,7 @@
       <selection activeCell="A1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -14751,7 +14751,7 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -15812,7 +15812,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -15884,16 +15884,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="n">
-        <v>0.04236111111111111</v>
+        <v>0.3409722222222222</v>
       </c>
       <c r="C2" s="6" t="n">
-        <v>0.04236111111111111</v>
+        <v>0.5</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>0.04236111111111111</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>0.04236111111111111</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="F2" s="7" t="n"/>
       <c r="G2" s="8" t="n"/>
@@ -16874,7 +16874,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -17760,7 +17760,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -18822,7 +18822,7 @@
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -19884,7 +19884,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>

--- a/file.xlsx
+++ b/file.xlsx
@@ -15884,16 +15884,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="n">
-        <v>0.3409722222222222</v>
+        <v>0.04930555555555555</v>
       </c>
       <c r="C2" s="6" t="n">
-        <v>0.5</v>
+        <v>0.1041666666666667</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.1527777777777778</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="F2" s="7" t="n"/>
       <c r="G2" s="8" t="n"/>

--- a/file.xlsx
+++ b/file.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="9" activeTab="16" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="1" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" state="visible" r:id="rId1"/>
@@ -495,7 +495,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="26.33203125" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="29.6640625" customWidth="1" min="2" max="2"/>
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B1" s="9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
@@ -603,7 +603,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -1673,7 +1673,7 @@
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -2559,7 +2559,7 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -3621,7 +3621,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -4675,7 +4675,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -5561,7 +5561,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -6607,7 +6607,7 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -7653,11 +7653,11 @@
   </sheetPr>
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -8719,7 +8719,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -9781,7 +9781,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -10843,7 +10843,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -11729,7 +11729,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -12810,7 +12810,7 @@
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -13864,7 +13864,7 @@
       <selection activeCell="A1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -14751,7 +14751,7 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -15808,11 +15808,11 @@
   </sheetPr>
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -15883,18 +15883,10 @@
       <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="n">
-        <v>0.04930555555555555</v>
-      </c>
-      <c r="C2" s="6" t="n">
-        <v>0.1041666666666667</v>
-      </c>
-      <c r="D2" s="6" t="n">
-        <v>0.1527777777777778</v>
-      </c>
-      <c r="E2" s="6" t="n">
-        <v>0.6111111111111112</v>
-      </c>
+      <c r="B2" s="6" t="n"/>
+      <c r="C2" s="6" t="n"/>
+      <c r="D2" s="6" t="n"/>
+      <c r="E2" s="6" t="n"/>
       <c r="F2" s="7" t="n"/>
       <c r="G2" s="8" t="n"/>
       <c r="K2" s="2">
@@ -15925,16 +15917,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="n">
-        <v>0.3583333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="C3" s="6" t="n">
-        <v>0.4694444444444444</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>0.5138888888888888</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>0.9173611111111111</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="F3" s="7" t="n"/>
       <c r="G3" s="8" t="n"/>
@@ -15964,10 +15956,18 @@
       <c r="A4" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="n"/>
-      <c r="C4" s="6" t="n"/>
-      <c r="D4" s="6" t="n"/>
-      <c r="E4" s="6" t="n"/>
+      <c r="B4" s="6" t="n">
+        <v>0.2152777777777778</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.7222222222222222</v>
+      </c>
       <c r="F4" s="7" t="n"/>
       <c r="G4" s="8" t="n"/>
       <c r="K4" s="2">
@@ -15996,18 +15996,10 @@
       <c r="A5" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="n">
-        <v>0.6118055555555556</v>
-      </c>
-      <c r="C5" s="6" t="n">
-        <v>0.6638888888888889</v>
-      </c>
-      <c r="D5" s="6" t="n">
-        <v>0.6979166666666666</v>
-      </c>
-      <c r="E5" s="6" t="n">
-        <v>0.9236111111111112</v>
-      </c>
+      <c r="B5" s="6" t="n"/>
+      <c r="C5" s="6" t="n"/>
+      <c r="D5" s="6" t="n"/>
+      <c r="E5" s="6" t="n"/>
       <c r="F5" s="7" t="n"/>
       <c r="G5" s="8" t="n"/>
       <c r="K5" s="2">
@@ -16027,18 +16019,10 @@
       <c r="A6" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="n">
-        <v>0.6027777777777777</v>
-      </c>
-      <c r="C6" s="6" t="n">
-        <v>0.6604166666666667</v>
-      </c>
-      <c r="D6" s="6" t="n">
-        <v>0.6972222222222222</v>
-      </c>
-      <c r="E6" s="6" t="n">
-        <v>0.925</v>
-      </c>
+      <c r="B6" s="6" t="n"/>
+      <c r="C6" s="6" t="n"/>
+      <c r="D6" s="6" t="n"/>
+      <c r="E6" s="6" t="n"/>
       <c r="F6" s="7" t="n"/>
       <c r="G6" s="8" t="n"/>
       <c r="K6" s="2">
@@ -16067,18 +16051,10 @@
       <c r="A7" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="n">
-        <v>0.6034722222222222</v>
-      </c>
-      <c r="C7" s="6" t="n">
-        <v>0.6597222222222222</v>
-      </c>
-      <c r="D7" s="6" t="n">
-        <v>0.7097222222222223</v>
-      </c>
-      <c r="E7" s="6" t="n">
-        <v>0.925</v>
-      </c>
+      <c r="B7" s="6" t="n"/>
+      <c r="C7" s="6" t="n"/>
+      <c r="D7" s="6" t="n"/>
+      <c r="E7" s="6" t="n"/>
       <c r="F7" s="7" t="n"/>
       <c r="G7" s="8" t="n"/>
       <c r="K7" s="2">
@@ -16099,18 +16075,10 @@
       <c r="A8" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="n">
-        <v>0.6055555555555555</v>
-      </c>
-      <c r="C8" s="6" t="n">
-        <v>0.65625</v>
-      </c>
-      <c r="D8" s="6" t="n">
-        <v>0.6916666666666667</v>
-      </c>
-      <c r="E8" s="6" t="n">
-        <v>0.9256944444444445</v>
-      </c>
+      <c r="B8" s="6" t="n"/>
+      <c r="C8" s="6" t="n"/>
+      <c r="D8" s="6" t="n"/>
+      <c r="E8" s="6" t="n"/>
       <c r="F8" s="7" t="n"/>
       <c r="G8" s="8" t="n"/>
       <c r="K8" s="2">
@@ -16139,18 +16107,10 @@
       <c r="A9" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="n">
-        <v>0.6069444444444444</v>
-      </c>
-      <c r="C9" s="6" t="n">
-        <v>0.6631944444444444</v>
-      </c>
-      <c r="D9" s="6" t="n">
-        <v>0.6993055555555555</v>
-      </c>
-      <c r="E9" s="6" t="n">
-        <v>0.9229166666666667</v>
-      </c>
+      <c r="B9" s="6" t="n"/>
+      <c r="C9" s="6" t="n"/>
+      <c r="D9" s="6" t="n"/>
+      <c r="E9" s="6" t="n"/>
       <c r="F9" s="7" t="n"/>
       <c r="G9" s="8" t="n"/>
       <c r="K9" s="2">
@@ -16221,18 +16181,10 @@
       <c r="A12" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="n">
-        <v>0.6076388888888888</v>
-      </c>
-      <c r="C12" s="6" t="n">
-        <v>0.6590277777777778</v>
-      </c>
-      <c r="D12" s="6" t="n">
-        <v>0.7048611111111112</v>
-      </c>
-      <c r="E12" s="6" t="n">
-        <v>0.9277777777777778</v>
-      </c>
+      <c r="B12" s="6" t="n"/>
+      <c r="C12" s="6" t="n"/>
+      <c r="D12" s="6" t="n"/>
+      <c r="E12" s="6" t="n"/>
       <c r="F12" s="7" t="n"/>
       <c r="G12" s="8" t="n"/>
       <c r="K12" s="2">
@@ -16252,18 +16204,10 @@
       <c r="A13" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="n">
-        <v>0.6034722222222222</v>
-      </c>
-      <c r="C13" s="6" t="n">
-        <v>0.6527777777777778</v>
-      </c>
-      <c r="D13" s="6" t="n">
-        <v>0.6965277777777777</v>
-      </c>
-      <c r="E13" s="6" t="n">
-        <v>0.9263888888888889</v>
-      </c>
+      <c r="B13" s="6" t="n"/>
+      <c r="C13" s="6" t="n"/>
+      <c r="D13" s="6" t="n"/>
+      <c r="E13" s="6" t="n"/>
       <c r="F13" s="7" t="n"/>
       <c r="G13" s="8" t="n"/>
       <c r="K13" s="2">
@@ -16283,18 +16227,10 @@
       <c r="A14" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="n">
-        <v>0.6048611111111111</v>
-      </c>
-      <c r="C14" s="6" t="n">
-        <v>0.65625</v>
-      </c>
-      <c r="D14" s="6" t="n">
-        <v>0.7020833333333333</v>
-      </c>
-      <c r="E14" s="6" t="n">
-        <v>0.9256944444444445</v>
-      </c>
+      <c r="B14" s="6" t="n"/>
+      <c r="C14" s="6" t="n"/>
+      <c r="D14" s="6" t="n"/>
+      <c r="E14" s="6" t="n"/>
       <c r="F14" s="7" t="n"/>
       <c r="G14" s="8" t="n"/>
       <c r="K14" s="2">
@@ -16314,18 +16250,10 @@
       <c r="A15" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="n">
-        <v>0.6104166666666667</v>
-      </c>
-      <c r="C15" s="6" t="n">
-        <v>0.6555555555555556</v>
-      </c>
-      <c r="D15" s="6" t="n">
-        <v>0.6916666666666667</v>
-      </c>
-      <c r="E15" s="6" t="n">
-        <v>0.9298611111111111</v>
-      </c>
+      <c r="B15" s="6" t="n"/>
+      <c r="C15" s="6" t="n"/>
+      <c r="D15" s="6" t="n"/>
+      <c r="E15" s="6" t="n"/>
       <c r="F15" s="7" t="n"/>
       <c r="G15" s="8" t="n"/>
       <c r="K15" s="2">
@@ -16346,16 +16274,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="n">
-        <v>0.6</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C16" s="6" t="n">
-        <v>0.6694444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>0.7111111111111111</v>
+        <v>0.5486111111111112</v>
       </c>
       <c r="E16" s="6" t="n">
-        <v>0.9298611111111111</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="F16" s="7" t="n"/>
       <c r="G16" s="8" t="n"/>
@@ -16377,16 +16305,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="n">
-        <v>0.3430555555555556</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C17" s="6" t="n">
-        <v>0.4625</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>0.5006944444444444</v>
+        <v>0.7090277777777778</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>0.9229166666666667</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="F17" s="7" t="n"/>
       <c r="G17" s="8" t="n"/>
@@ -16407,10 +16335,18 @@
       <c r="A18" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="n"/>
-      <c r="C18" s="6" t="n"/>
-      <c r="D18" s="6" t="n"/>
-      <c r="E18" s="6" t="n"/>
+      <c r="B18" s="6" t="n">
+        <v>0.6034722222222222</v>
+      </c>
+      <c r="C18" s="6" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="D18" s="6" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>0.7493055555555556</v>
+      </c>
       <c r="F18" s="7" t="n"/>
       <c r="G18" s="8" t="n"/>
       <c r="K18" s="2">
@@ -16430,18 +16366,10 @@
       <c r="A19" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="n">
-        <v>0.6041666666666666</v>
-      </c>
-      <c r="C19" s="6" t="n">
-        <v>0.6541666666666667</v>
-      </c>
-      <c r="D19" s="6" t="n">
-        <v>0.7055555555555556</v>
-      </c>
-      <c r="E19" s="6" t="n">
-        <v>0.925</v>
-      </c>
+      <c r="B19" s="6" t="n"/>
+      <c r="C19" s="6" t="n"/>
+      <c r="D19" s="6" t="n"/>
+      <c r="E19" s="6" t="n"/>
       <c r="F19" s="7" t="n"/>
       <c r="G19" s="8" t="n"/>
       <c r="K19" s="2">
@@ -16461,18 +16389,10 @@
       <c r="A20" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="n">
-        <v>0.6055555555555555</v>
-      </c>
-      <c r="C20" s="6" t="n">
-        <v>0.6611111111111111</v>
-      </c>
-      <c r="D20" s="6" t="n">
-        <v>0.7006944444444444</v>
-      </c>
-      <c r="E20" s="6" t="n">
-        <v>0.9291666666666667</v>
-      </c>
+      <c r="B20" s="6" t="n"/>
+      <c r="C20" s="6" t="n"/>
+      <c r="D20" s="6" t="n"/>
+      <c r="E20" s="6" t="n"/>
       <c r="F20" s="7" t="n"/>
       <c r="G20" s="8" t="n"/>
       <c r="K20" s="2">
@@ -16492,18 +16412,10 @@
       <c r="A21" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="n">
-        <v>0.6048611111111111</v>
-      </c>
-      <c r="C21" s="6" t="n">
-        <v>0.6618055555555555</v>
-      </c>
-      <c r="D21" s="6" t="n">
-        <v>0.7020833333333333</v>
-      </c>
-      <c r="E21" s="6" t="n">
-        <v>0.925</v>
-      </c>
+      <c r="B21" s="6" t="n"/>
+      <c r="C21" s="6" t="n"/>
+      <c r="D21" s="6" t="n"/>
+      <c r="E21" s="6" t="n"/>
       <c r="F21" s="7" t="n"/>
       <c r="G21" s="8" t="n"/>
       <c r="K21" s="2">
@@ -16523,18 +16435,10 @@
       <c r="A22" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="n">
-        <v>0.6069444444444444</v>
-      </c>
-      <c r="C22" s="6" t="n">
-        <v>0.6583333333333333</v>
-      </c>
-      <c r="D22" s="6" t="n">
-        <v>0.7097222222222223</v>
-      </c>
-      <c r="E22" s="6" t="n">
-        <v>0.9284722222222223</v>
-      </c>
+      <c r="B22" s="6" t="n"/>
+      <c r="C22" s="6" t="n"/>
+      <c r="D22" s="6" t="n"/>
+      <c r="E22" s="6" t="n"/>
       <c r="F22" s="7" t="n"/>
       <c r="G22" s="8" t="n"/>
       <c r="K22" s="2">
@@ -16554,18 +16458,10 @@
       <c r="A23" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="n">
-        <v>0.6013888888888889</v>
-      </c>
-      <c r="C23" s="6" t="n">
-        <v>0.6784722222222223</v>
-      </c>
-      <c r="D23" s="6" t="n">
-        <v>0.7166666666666667</v>
-      </c>
-      <c r="E23" s="6" t="n">
-        <v>0.925</v>
-      </c>
+      <c r="B23" s="6" t="n"/>
+      <c r="C23" s="6" t="n"/>
+      <c r="D23" s="6" t="n"/>
+      <c r="E23" s="6" t="n"/>
       <c r="F23" s="7" t="n"/>
       <c r="G23" s="8" t="n"/>
       <c r="K23" s="2">
@@ -16631,18 +16527,10 @@
       <c r="A26" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="6" t="n">
-        <v>0.6034722222222222</v>
-      </c>
-      <c r="C26" s="6" t="n">
-        <v>0.6583333333333333</v>
-      </c>
-      <c r="D26" s="6" t="n">
-        <v>0.7013888888888888</v>
-      </c>
-      <c r="E26" s="6" t="n">
-        <v>0.93125</v>
-      </c>
+      <c r="B26" s="6" t="n"/>
+      <c r="C26" s="6" t="n"/>
+      <c r="D26" s="6" t="n"/>
+      <c r="E26" s="6" t="n"/>
       <c r="F26" s="7" t="n"/>
       <c r="G26" s="8" t="n"/>
       <c r="K26" s="2">
@@ -16662,18 +16550,10 @@
       <c r="A27" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="6" t="n">
-        <v>0.6048611111111111</v>
-      </c>
-      <c r="C27" s="6" t="n">
-        <v>0.6576388888888889</v>
-      </c>
-      <c r="D27" s="6" t="n">
-        <v>0.7048611111111112</v>
-      </c>
-      <c r="E27" s="6" t="n">
-        <v>0.9277777777777778</v>
-      </c>
+      <c r="B27" s="6" t="n"/>
+      <c r="C27" s="6" t="n"/>
+      <c r="D27" s="6" t="n"/>
+      <c r="E27" s="6" t="n"/>
       <c r="F27" s="7" t="n"/>
       <c r="G27" s="8" t="n"/>
       <c r="K27" s="2">
@@ -16693,18 +16573,10 @@
       <c r="A28" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="6" t="n">
-        <v>0.6048611111111111</v>
-      </c>
-      <c r="C28" s="6" t="n">
-        <v>0.6638888888888889</v>
-      </c>
-      <c r="D28" s="6" t="n">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="E28" s="6" t="n">
-        <v>0.9256944444444445</v>
-      </c>
+      <c r="B28" s="6" t="n"/>
+      <c r="C28" s="6" t="n"/>
+      <c r="D28" s="6" t="n"/>
+      <c r="E28" s="6" t="n"/>
       <c r="F28" s="7" t="n"/>
       <c r="G28" s="8" t="n"/>
       <c r="K28" s="2">
@@ -16724,18 +16596,10 @@
       <c r="A29" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="6" t="n">
-        <v>0.6131944444444445</v>
-      </c>
-      <c r="C29" s="6" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="D29" s="6" t="n">
-        <v>0.6256944444444444</v>
-      </c>
-      <c r="E29" s="6" t="n">
-        <v>0.6666666666666666</v>
-      </c>
+      <c r="B29" s="6" t="n"/>
+      <c r="C29" s="6" t="n"/>
+      <c r="D29" s="6" t="n"/>
+      <c r="E29" s="6" t="n"/>
       <c r="F29" s="7" t="n"/>
       <c r="G29" s="8" t="n"/>
       <c r="K29" s="2">
@@ -16874,7 +16738,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -17760,7 +17624,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -18822,7 +18686,7 @@
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
@@ -19884,7 +19748,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="12.5546875" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>

--- a/file.xlsx
+++ b/file.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="1" activeTab="4" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="13" activeTab="20" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" state="visible" r:id="rId1"/>
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B1" s="9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
@@ -600,7 +600,7 @@
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B2" sqref="B2:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
@@ -674,18 +674,10 @@
       <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="n">
-        <v>0.3659722222222222</v>
-      </c>
-      <c r="C2" s="6" t="n">
-        <v>0.6097222222222223</v>
-      </c>
-      <c r="D2" s="6" t="n">
-        <v>0.6590277777777778</v>
-      </c>
-      <c r="E2" s="6" t="n">
-        <v>0.6888888888888889</v>
-      </c>
+      <c r="B2" s="6" t="n"/>
+      <c r="C2" s="6" t="n"/>
+      <c r="D2" s="6" t="n"/>
+      <c r="E2" s="6" t="n"/>
       <c r="F2" s="7" t="n"/>
       <c r="G2" s="8" t="n"/>
       <c r="K2" s="2">
@@ -715,18 +707,10 @@
       <c r="A3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="n">
-        <v>0.5097222222222222</v>
-      </c>
-      <c r="C3" s="6" t="n">
-        <v>0.6493055555555556</v>
-      </c>
-      <c r="D3" s="6" t="n">
-        <v>0.6965277777777777</v>
-      </c>
-      <c r="E3" s="6" t="n">
-        <v>0.8402777777777778</v>
-      </c>
+      <c r="B3" s="6" t="n"/>
+      <c r="C3" s="6" t="n"/>
+      <c r="D3" s="6" t="n"/>
+      <c r="E3" s="6" t="n"/>
       <c r="F3" s="7" t="n"/>
       <c r="G3" s="8" t="n"/>
       <c r="K3" s="2">
@@ -755,18 +739,10 @@
       <c r="A4" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="n">
-        <v>0.4486111111111111</v>
-      </c>
-      <c r="C4" s="6" t="n">
-        <v>0.6159722222222223</v>
-      </c>
-      <c r="D4" s="6" t="n">
-        <v>0.6576388888888889</v>
-      </c>
-      <c r="E4" s="6" t="n">
-        <v>0.7972222222222223</v>
-      </c>
+      <c r="B4" s="6" t="n"/>
+      <c r="C4" s="6" t="n"/>
+      <c r="D4" s="6" t="n"/>
+      <c r="E4" s="6" t="n"/>
       <c r="F4" s="7" t="n"/>
       <c r="G4" s="8" t="n"/>
       <c r="K4" s="2">
@@ -795,18 +771,10 @@
       <c r="A5" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="n">
-        <v>0.4569444444444444</v>
-      </c>
-      <c r="C5" s="6" t="n">
-        <v>0.6159722222222223</v>
-      </c>
-      <c r="D5" s="6" t="n">
-        <v>0.6625</v>
-      </c>
-      <c r="E5" s="6" t="n">
-        <v>0.7944444444444444</v>
-      </c>
+      <c r="B5" s="6" t="n"/>
+      <c r="C5" s="6" t="n"/>
+      <c r="D5" s="6" t="n"/>
+      <c r="E5" s="6" t="n"/>
       <c r="F5" s="7" t="n"/>
       <c r="G5" s="8" t="n"/>
       <c r="K5" s="2">
@@ -826,18 +794,10 @@
       <c r="A6" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="n">
-        <v>0.3958333333333333</v>
-      </c>
-      <c r="C6" s="6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D6" s="6" t="n">
-        <v>0.5361111111111111</v>
-      </c>
-      <c r="E6" s="6" t="n">
-        <v>0.7152777777777778</v>
-      </c>
+      <c r="B6" s="6" t="n"/>
+      <c r="C6" s="6" t="n"/>
+      <c r="D6" s="6" t="n"/>
+      <c r="E6" s="6" t="n"/>
       <c r="F6" s="7" t="n"/>
       <c r="G6" s="8" t="n"/>
       <c r="K6" s="2">
@@ -890,18 +850,10 @@
       <c r="A8" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="n">
-        <v>0.5048611111111111</v>
-      </c>
-      <c r="C8" s="6" t="n">
-        <v>0.6173611111111111</v>
-      </c>
-      <c r="D8" s="6" t="n">
-        <v>0.6659722222222222</v>
-      </c>
-      <c r="E8" s="6" t="n">
-        <v>0.8479166666666667</v>
-      </c>
+      <c r="B8" s="6" t="n"/>
+      <c r="C8" s="6" t="n"/>
+      <c r="D8" s="6" t="n"/>
+      <c r="E8" s="6" t="n"/>
       <c r="F8" s="7" t="n"/>
       <c r="G8" s="8" t="n"/>
       <c r="K8" s="2">
@@ -930,18 +882,10 @@
       <c r="A9" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="n">
-        <v>0.3652777777777778</v>
-      </c>
-      <c r="C9" s="6" t="n">
-        <v>0.5972222222222222</v>
-      </c>
-      <c r="D9" s="6" t="n">
-        <v>0.6486111111111111</v>
-      </c>
-      <c r="E9" s="6" t="n">
-        <v>0.7131944444444445</v>
-      </c>
+      <c r="B9" s="6" t="n"/>
+      <c r="C9" s="6" t="n"/>
+      <c r="D9" s="6" t="n"/>
+      <c r="E9" s="6" t="n"/>
       <c r="F9" s="7" t="n"/>
       <c r="G9" s="8" t="n"/>
       <c r="K9" s="2">
@@ -989,18 +933,10 @@
       <c r="A11" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="n">
-        <v>0.4729166666666667</v>
-      </c>
-      <c r="C11" s="6" t="n">
-        <v>0.6145833333333334</v>
-      </c>
-      <c r="D11" s="6" t="n">
-        <v>0.6590277777777778</v>
-      </c>
-      <c r="E11" s="6" t="n">
-        <v>0.8</v>
-      </c>
+      <c r="B11" s="6" t="n"/>
+      <c r="C11" s="6" t="n"/>
+      <c r="D11" s="6" t="n"/>
+      <c r="E11" s="6" t="n"/>
       <c r="F11" s="7" t="n"/>
       <c r="G11" s="8" t="n"/>
       <c r="K11" s="2">
@@ -1020,18 +956,10 @@
       <c r="A12" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="n">
-        <v>0.4784722222222222</v>
-      </c>
-      <c r="C12" s="6" t="n">
-        <v>0.6097222222222223</v>
-      </c>
-      <c r="D12" s="6" t="n">
-        <v>0.6569444444444444</v>
-      </c>
-      <c r="E12" s="6" t="n">
-        <v>0.8027777777777778</v>
-      </c>
+      <c r="B12" s="6" t="n"/>
+      <c r="C12" s="6" t="n"/>
+      <c r="D12" s="6" t="n"/>
+      <c r="E12" s="6" t="n"/>
       <c r="F12" s="7" t="n"/>
       <c r="G12" s="8" t="n"/>
       <c r="K12" s="2">
@@ -1051,18 +979,10 @@
       <c r="A13" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="n">
-        <v>0.3909722222222222</v>
-      </c>
-      <c r="C13" s="6" t="n">
-        <v>0.4923611111111111</v>
-      </c>
-      <c r="D13" s="6" t="n">
-        <v>0.5326388888888889</v>
-      </c>
-      <c r="E13" s="6" t="n">
-        <v>0.7180555555555556</v>
-      </c>
+      <c r="B13" s="6" t="n"/>
+      <c r="C13" s="6" t="n"/>
+      <c r="D13" s="6" t="n"/>
+      <c r="E13" s="6" t="n"/>
       <c r="F13" s="7" t="n"/>
       <c r="G13" s="8" t="n"/>
       <c r="K13" s="2">
@@ -1105,18 +1025,10 @@
       <c r="A15" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="n">
-        <v>0.5013888888888889</v>
-      </c>
-      <c r="C15" s="6" t="n">
-        <v>0.6083333333333333</v>
-      </c>
-      <c r="D15" s="6" t="n">
-        <v>0.6493055555555556</v>
-      </c>
-      <c r="E15" s="6" t="n">
-        <v>0.8666666666666667</v>
-      </c>
+      <c r="B15" s="6" t="n"/>
+      <c r="C15" s="6" t="n"/>
+      <c r="D15" s="6" t="n"/>
+      <c r="E15" s="6" t="n"/>
       <c r="F15" s="7" t="n"/>
       <c r="G15" s="8" t="n"/>
       <c r="K15" s="2">
@@ -1136,18 +1048,10 @@
       <c r="A16" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="n">
-        <v>0.3680555555555556</v>
-      </c>
-      <c r="C16" s="6" t="n">
-        <v>0.6041666666666666</v>
-      </c>
-      <c r="D16" s="6" t="n">
-        <v>0.6506944444444445</v>
-      </c>
-      <c r="E16" s="6" t="n">
-        <v>0.7076388888888889</v>
-      </c>
+      <c r="B16" s="6" t="n"/>
+      <c r="C16" s="6" t="n"/>
+      <c r="D16" s="6" t="n"/>
+      <c r="E16" s="6" t="n"/>
       <c r="F16" s="7" t="n"/>
       <c r="G16" s="8" t="n"/>
       <c r="K16" s="2">
@@ -1167,18 +1071,10 @@
       <c r="A17" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="n">
-        <v>0.5125</v>
-      </c>
-      <c r="C17" s="6" t="n">
-        <v>0.6708333333333333</v>
-      </c>
-      <c r="D17" s="6" t="n">
-        <v>0.7159722222222222</v>
-      </c>
-      <c r="E17" s="6" t="n">
-        <v>0.8409722222222222</v>
-      </c>
+      <c r="B17" s="6" t="n"/>
+      <c r="C17" s="6" t="n"/>
+      <c r="D17" s="6" t="n"/>
+      <c r="E17" s="6" t="n"/>
       <c r="F17" s="7" t="n"/>
       <c r="G17" s="8" t="n"/>
       <c r="K17" s="2">
@@ -1198,18 +1094,10 @@
       <c r="A18" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="n">
-        <v>0.4625</v>
-      </c>
-      <c r="C18" s="6" t="n">
-        <v>0.6180555555555556</v>
-      </c>
-      <c r="D18" s="6" t="n">
-        <v>0.6604166666666667</v>
-      </c>
-      <c r="E18" s="6" t="n">
-        <v>0.7993055555555556</v>
-      </c>
+      <c r="B18" s="6" t="n"/>
+      <c r="C18" s="6" t="n"/>
+      <c r="D18" s="6" t="n"/>
+      <c r="E18" s="6" t="n"/>
       <c r="F18" s="7" t="n"/>
       <c r="G18" s="8" t="n"/>
       <c r="K18" s="2">
@@ -1229,18 +1117,10 @@
       <c r="A19" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="n">
-        <v>0.4611111111111111</v>
-      </c>
-      <c r="C19" s="6" t="n">
-        <v>0.6076388888888888</v>
-      </c>
-      <c r="D19" s="6" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="E19" s="6" t="n">
-        <v>0.7993055555555556</v>
-      </c>
+      <c r="B19" s="6" t="n"/>
+      <c r="C19" s="6" t="n"/>
+      <c r="D19" s="6" t="n"/>
+      <c r="E19" s="6" t="n"/>
       <c r="F19" s="7" t="n"/>
       <c r="G19" s="8" t="n"/>
       <c r="K19" s="2">
@@ -1260,18 +1140,10 @@
       <c r="A20" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="n">
-        <v>0.4076388888888889</v>
-      </c>
-      <c r="C20" s="6" t="n">
-        <v>0.4902777777777778</v>
-      </c>
-      <c r="D20" s="6" t="n">
-        <v>0.5354166666666667</v>
-      </c>
-      <c r="E20" s="6" t="n">
-        <v>0.7229166666666667</v>
-      </c>
+      <c r="B20" s="6" t="n"/>
+      <c r="C20" s="6" t="n"/>
+      <c r="D20" s="6" t="n"/>
+      <c r="E20" s="6" t="n"/>
       <c r="F20" s="7" t="n"/>
       <c r="G20" s="8" t="n"/>
       <c r="K20" s="2">
@@ -1314,18 +1186,10 @@
       <c r="A22" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="n">
-        <v>0.5020833333333333</v>
-      </c>
-      <c r="C22" s="6" t="n">
-        <v>0.6173611111111111</v>
-      </c>
-      <c r="D22" s="6" t="n">
-        <v>0.6590277777777778</v>
-      </c>
-      <c r="E22" s="6" t="n">
-        <v>0.8465277777777778</v>
-      </c>
+      <c r="B22" s="6" t="n"/>
+      <c r="C22" s="6" t="n"/>
+      <c r="D22" s="6" t="n"/>
+      <c r="E22" s="6" t="n"/>
       <c r="F22" s="7" t="n"/>
       <c r="G22" s="8" t="n"/>
       <c r="K22" s="2">
@@ -1345,18 +1209,10 @@
       <c r="A23" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="n">
-        <v>0.3597222222222222</v>
-      </c>
-      <c r="C23" s="6" t="n">
-        <v>0.6111111111111112</v>
-      </c>
-      <c r="D23" s="6" t="n">
-        <v>0.6569444444444444</v>
-      </c>
-      <c r="E23" s="6" t="n">
-        <v>0.7201388888888889</v>
-      </c>
+      <c r="B23" s="6" t="n"/>
+      <c r="C23" s="6" t="n"/>
+      <c r="D23" s="6" t="n"/>
+      <c r="E23" s="6" t="n"/>
       <c r="F23" s="7" t="n"/>
       <c r="G23" s="8" t="n"/>
       <c r="K23" s="2">
@@ -1376,18 +1232,10 @@
       <c r="A24" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="6" t="n">
-        <v>0.5069444444444444</v>
-      </c>
-      <c r="C24" s="6" t="n">
-        <v>0.6805555555555556</v>
-      </c>
-      <c r="D24" s="6" t="n">
-        <v>0.73125</v>
-      </c>
-      <c r="E24" s="6" t="n">
-        <v>0.8409722222222222</v>
-      </c>
+      <c r="B24" s="6" t="n"/>
+      <c r="C24" s="6" t="n"/>
+      <c r="D24" s="6" t="n"/>
+      <c r="E24" s="6" t="n"/>
       <c r="F24" s="7" t="n"/>
       <c r="G24" s="8" t="n"/>
       <c r="K24" s="2">
@@ -1407,18 +1255,10 @@
       <c r="A25" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="6" t="n">
-        <v>0.4569444444444444</v>
-      </c>
-      <c r="C25" s="6" t="n">
-        <v>0.6215277777777778</v>
-      </c>
-      <c r="D25" s="6" t="n">
-        <v>0.6604166666666667</v>
-      </c>
-      <c r="E25" s="6" t="n">
-        <v>0.7951388888888888</v>
-      </c>
+      <c r="B25" s="6" t="n"/>
+      <c r="C25" s="6" t="n"/>
+      <c r="D25" s="6" t="n"/>
+      <c r="E25" s="6" t="n"/>
       <c r="F25" s="7" t="n"/>
       <c r="G25" s="8" t="n"/>
       <c r="K25" s="2">
@@ -1438,18 +1278,10 @@
       <c r="A26" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="6" t="n">
-        <v>0.4638888888888889</v>
-      </c>
-      <c r="C26" s="6" t="n">
-        <v>0.6118055555555556</v>
-      </c>
-      <c r="D26" s="6" t="n">
-        <v>0.6548611111111111</v>
-      </c>
-      <c r="E26" s="6" t="n">
-        <v>0.7965277777777777</v>
-      </c>
+      <c r="B26" s="6" t="n"/>
+      <c r="C26" s="6" t="n"/>
+      <c r="D26" s="6" t="n"/>
+      <c r="E26" s="6" t="n"/>
       <c r="F26" s="7" t="n"/>
       <c r="G26" s="8" t="n"/>
       <c r="K26" s="2">
@@ -1469,18 +1301,10 @@
       <c r="A27" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="6" t="n">
-        <v>0.3979166666666666</v>
-      </c>
-      <c r="C27" s="6" t="n">
-        <v>0.4972222222222222</v>
-      </c>
-      <c r="D27" s="6" t="n">
-        <v>0.5409722222222222</v>
-      </c>
-      <c r="E27" s="6" t="n">
-        <v>0.7229166666666667</v>
-      </c>
+      <c r="B27" s="6" t="n"/>
+      <c r="C27" s="6" t="n"/>
+      <c r="D27" s="6" t="n"/>
+      <c r="E27" s="6" t="n"/>
       <c r="F27" s="7" t="n"/>
       <c r="G27" s="8" t="n"/>
       <c r="K27" s="2">
@@ -1523,18 +1347,10 @@
       <c r="A29" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="6" t="n">
-        <v>0.49375</v>
-      </c>
-      <c r="C29" s="6" t="n">
-        <v>0.6152777777777778</v>
-      </c>
-      <c r="D29" s="6" t="n">
-        <v>0.6604166666666667</v>
-      </c>
-      <c r="E29" s="6" t="n">
-        <v>0.8423611111111111</v>
-      </c>
+      <c r="B29" s="6" t="n"/>
+      <c r="C29" s="6" t="n"/>
+      <c r="D29" s="6" t="n"/>
+      <c r="E29" s="6" t="n"/>
       <c r="F29" s="7" t="n"/>
       <c r="G29" s="8" t="n"/>
       <c r="K29" s="2">
@@ -1669,7 +1485,7 @@
   </sheetPr>
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
@@ -2556,7 +2372,7 @@
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="B2" sqref="B2:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
@@ -2630,18 +2446,10 @@
       <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="n">
-        <v>0.4659722222222222</v>
-      </c>
-      <c r="C2" s="6" t="n">
-        <v>0.6423611111111112</v>
-      </c>
-      <c r="D2" s="6" t="n">
-        <v>0.6840277777777778</v>
-      </c>
-      <c r="E2" s="6" t="n">
-        <v>0.7770833333333333</v>
-      </c>
+      <c r="B2" s="6" t="n"/>
+      <c r="C2" s="6" t="n"/>
+      <c r="D2" s="6" t="n"/>
+      <c r="E2" s="6" t="n"/>
       <c r="F2" s="7" t="n"/>
       <c r="G2" s="8" t="n"/>
       <c r="K2" s="2">
@@ -2671,18 +2479,10 @@
       <c r="A3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="n">
-        <v>0.3784722222222222</v>
-      </c>
-      <c r="C3" s="6" t="n">
-        <v>0.4840277777777778</v>
-      </c>
-      <c r="D3" s="6" t="n">
-        <v>0.5263888888888889</v>
-      </c>
-      <c r="E3" s="6" t="n">
-        <v>0.8722222222222222</v>
-      </c>
+      <c r="B3" s="6" t="n"/>
+      <c r="C3" s="6" t="n"/>
+      <c r="D3" s="6" t="n"/>
+      <c r="E3" s="6" t="n"/>
       <c r="F3" s="7" t="n"/>
       <c r="G3" s="8" t="n"/>
       <c r="K3" s="2">
@@ -2743,18 +2543,10 @@
       <c r="A5" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="n">
-        <v>0.4423611111111111</v>
-      </c>
-      <c r="C5" s="6" t="n">
-        <v>0.6270833333333333</v>
-      </c>
-      <c r="D5" s="6" t="n">
-        <v>0.66875</v>
-      </c>
-      <c r="E5" s="6" t="n">
-        <v>0.7770833333333333</v>
-      </c>
+      <c r="B5" s="6" t="n"/>
+      <c r="C5" s="6" t="n"/>
+      <c r="D5" s="6" t="n"/>
+      <c r="E5" s="6" t="n"/>
       <c r="F5" s="7" t="n"/>
       <c r="G5" s="8" t="n"/>
       <c r="K5" s="2">
@@ -2774,18 +2566,10 @@
       <c r="A6" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="n">
-        <v>0.4326388888888889</v>
-      </c>
-      <c r="C6" s="6" t="n">
-        <v>0.6256944444444444</v>
-      </c>
-      <c r="D6" s="6" t="n">
-        <v>0.6680555555555555</v>
-      </c>
-      <c r="E6" s="6" t="n">
-        <v>0.7680555555555556</v>
-      </c>
+      <c r="B6" s="6" t="n"/>
+      <c r="C6" s="6" t="n"/>
+      <c r="D6" s="6" t="n"/>
+      <c r="E6" s="6" t="n"/>
       <c r="F6" s="7" t="n"/>
       <c r="G6" s="8" t="n"/>
       <c r="K6" s="2">
@@ -2814,18 +2598,10 @@
       <c r="A7" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="n">
-        <v>0.45625</v>
-      </c>
-      <c r="C7" s="6" t="n">
-        <v>0.6236111111111111</v>
-      </c>
-      <c r="D7" s="6" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="E7" s="6" t="n">
-        <v>0.7694444444444445</v>
-      </c>
+      <c r="B7" s="6" t="n"/>
+      <c r="C7" s="6" t="n"/>
+      <c r="D7" s="6" t="n"/>
+      <c r="E7" s="6" t="n"/>
       <c r="F7" s="7" t="n"/>
       <c r="G7" s="8" t="n"/>
       <c r="K7" s="2">
@@ -2846,18 +2622,10 @@
       <c r="A8" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="n">
-        <v>0.4576388888888889</v>
-      </c>
-      <c r="C8" s="6" t="n">
-        <v>0.61875</v>
-      </c>
-      <c r="D8" s="6" t="n">
-        <v>0.6590277777777778</v>
-      </c>
-      <c r="E8" s="12" t="n">
-        <v>0.7756944444444445</v>
-      </c>
+      <c r="B8" s="6" t="n"/>
+      <c r="C8" s="6" t="n"/>
+      <c r="D8" s="6" t="n"/>
+      <c r="E8" s="12" t="n"/>
       <c r="F8" s="7" t="n"/>
       <c r="G8" s="8" t="n"/>
       <c r="K8" s="2">
@@ -2886,18 +2654,10 @@
       <c r="A9" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="n">
-        <v>0.44375</v>
-      </c>
-      <c r="C9" s="6" t="n">
-        <v>0.6354166666666666</v>
-      </c>
-      <c r="D9" s="6" t="n">
-        <v>0.6777777777777778</v>
-      </c>
-      <c r="E9" s="6" t="n">
-        <v>0.775</v>
-      </c>
+      <c r="B9" s="6" t="n"/>
+      <c r="C9" s="6" t="n"/>
+      <c r="D9" s="6" t="n"/>
+      <c r="E9" s="6" t="n"/>
       <c r="F9" s="7" t="n"/>
       <c r="G9" s="8" t="n"/>
       <c r="K9" s="2">
@@ -2968,18 +2728,10 @@
       <c r="A12" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="n">
-        <v>0.4333333333333333</v>
-      </c>
-      <c r="C12" s="6" t="n">
-        <v>0.6243055555555556</v>
-      </c>
-      <c r="D12" s="6" t="n">
-        <v>0.6597222222222222</v>
-      </c>
-      <c r="E12" s="6" t="n">
-        <v>0.7729166666666667</v>
-      </c>
+      <c r="B12" s="6" t="n"/>
+      <c r="C12" s="6" t="n"/>
+      <c r="D12" s="6" t="n"/>
+      <c r="E12" s="6" t="n"/>
       <c r="F12" s="7" t="n"/>
       <c r="G12" s="8" t="n"/>
       <c r="K12" s="2">
@@ -2999,18 +2751,10 @@
       <c r="A13" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="n">
-        <v>0.3930555555555555</v>
-      </c>
-      <c r="C13" s="6" t="n">
-        <v>0.6243055555555556</v>
-      </c>
-      <c r="D13" s="6" t="n">
-        <v>0.6597222222222222</v>
-      </c>
-      <c r="E13" s="6" t="n">
-        <v>0.7729166666666667</v>
-      </c>
+      <c r="B13" s="6" t="n"/>
+      <c r="C13" s="6" t="n"/>
+      <c r="D13" s="6" t="n"/>
+      <c r="E13" s="6" t="n"/>
       <c r="F13" s="7" t="n"/>
       <c r="G13" s="8" t="n"/>
       <c r="K13" s="2">
@@ -3030,18 +2774,10 @@
       <c r="A14" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="n">
-        <v>0.4465277777777778</v>
-      </c>
-      <c r="C14" s="6" t="n">
-        <v>0.6319444444444444</v>
-      </c>
-      <c r="D14" s="6" t="n">
-        <v>0.6701388888888888</v>
-      </c>
-      <c r="E14" s="6" t="n">
-        <v>0.7798611111111111</v>
-      </c>
+      <c r="B14" s="6" t="n"/>
+      <c r="C14" s="6" t="n"/>
+      <c r="D14" s="6" t="n"/>
+      <c r="E14" s="6" t="n"/>
       <c r="F14" s="7" t="n"/>
       <c r="G14" s="8" t="n"/>
       <c r="K14" s="2">
@@ -3061,18 +2797,10 @@
       <c r="A15" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="n">
-        <v>0.4409722222222222</v>
-      </c>
-      <c r="C15" s="6" t="n">
-        <v>0.6111111111111112</v>
-      </c>
-      <c r="D15" s="6" t="n">
-        <v>0.6541666666666667</v>
-      </c>
-      <c r="E15" s="6" t="n">
-        <v>0.7694444444444445</v>
-      </c>
+      <c r="B15" s="6" t="n"/>
+      <c r="C15" s="6" t="n"/>
+      <c r="D15" s="6" t="n"/>
+      <c r="E15" s="6" t="n"/>
       <c r="F15" s="7" t="n"/>
       <c r="G15" s="8" t="n"/>
       <c r="K15" s="2">
@@ -3092,18 +2820,10 @@
       <c r="A16" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="n">
-        <v>0.4486111111111111</v>
-      </c>
-      <c r="C16" s="6" t="n">
-        <v>0.6236111111111111</v>
-      </c>
-      <c r="D16" s="6" t="n">
-        <v>0.6645833333333333</v>
-      </c>
-      <c r="E16" s="6" t="n">
-        <v>0.7722222222222223</v>
-      </c>
+      <c r="B16" s="6" t="n"/>
+      <c r="C16" s="6" t="n"/>
+      <c r="D16" s="6" t="n"/>
+      <c r="E16" s="6" t="n"/>
       <c r="F16" s="7" t="n"/>
       <c r="G16" s="8" t="n"/>
       <c r="K16" s="2">
@@ -3123,18 +2843,10 @@
       <c r="A17" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="n">
-        <v>0.3611111111111111</v>
-      </c>
-      <c r="C17" s="6" t="n">
-        <v>0.4791666666666667</v>
-      </c>
-      <c r="D17" s="6" t="n">
-        <v>0.5229166666666667</v>
-      </c>
-      <c r="E17" s="6" t="n">
-        <v>0.8625</v>
-      </c>
+      <c r="B17" s="6" t="n"/>
+      <c r="C17" s="6" t="n"/>
+      <c r="D17" s="6" t="n"/>
+      <c r="E17" s="6" t="n"/>
       <c r="F17" s="7" t="n"/>
       <c r="G17" s="8" t="n"/>
       <c r="K17" s="2">
@@ -3154,18 +2866,10 @@
       <c r="A18" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="n">
-        <v>0.3590277777777778</v>
-      </c>
-      <c r="C18" s="6" t="n">
-        <v>0.6305555555555555</v>
-      </c>
-      <c r="D18" s="6" t="n">
-        <v>0.6722222222222223</v>
-      </c>
-      <c r="E18" s="6" t="n">
-        <v>0.7</v>
-      </c>
+      <c r="B18" s="6" t="n"/>
+      <c r="C18" s="6" t="n"/>
+      <c r="D18" s="6" t="n"/>
+      <c r="E18" s="6" t="n"/>
       <c r="F18" s="7" t="n"/>
       <c r="G18" s="8" t="n"/>
       <c r="K18" s="2">
@@ -3208,18 +2912,10 @@
       <c r="A20" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="n">
-        <v>0.4333333333333333</v>
-      </c>
-      <c r="C20" s="6" t="n">
-        <v>0.6270833333333333</v>
-      </c>
-      <c r="D20" s="6" t="n">
-        <v>0.68125</v>
-      </c>
-      <c r="E20" s="6" t="n">
-        <v>0.7826388888888889</v>
-      </c>
+      <c r="B20" s="6" t="n"/>
+      <c r="C20" s="6" t="n"/>
+      <c r="D20" s="6" t="n"/>
+      <c r="E20" s="6" t="n"/>
       <c r="F20" s="7" t="n"/>
       <c r="G20" s="8" t="n"/>
       <c r="K20" s="2">
@@ -3239,18 +2935,10 @@
       <c r="A21" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="n">
-        <v>0.4611111111111111</v>
-      </c>
-      <c r="C21" s="6" t="n">
-        <v>0.6256944444444444</v>
-      </c>
-      <c r="D21" s="6" t="n">
-        <v>0.6673611111111111</v>
-      </c>
-      <c r="E21" s="6" t="n">
-        <v>0.7840277777777778</v>
-      </c>
+      <c r="B21" s="6" t="n"/>
+      <c r="C21" s="6" t="n"/>
+      <c r="D21" s="6" t="n"/>
+      <c r="E21" s="6" t="n"/>
       <c r="F21" s="7" t="n"/>
       <c r="G21" s="8" t="n"/>
       <c r="K21" s="2">
@@ -3270,18 +2958,10 @@
       <c r="A22" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="n">
-        <v>0.5097222222222222</v>
-      </c>
-      <c r="C22" s="6" t="n">
-        <v>0.6236111111111111</v>
-      </c>
-      <c r="D22" s="6" t="n">
-        <v>0.6652777777777777</v>
-      </c>
-      <c r="E22" s="6" t="n">
-        <v>0.7770833333333333</v>
-      </c>
+      <c r="B22" s="6" t="n"/>
+      <c r="C22" s="6" t="n"/>
+      <c r="D22" s="6" t="n"/>
+      <c r="E22" s="6" t="n"/>
       <c r="F22" s="7" t="n"/>
       <c r="G22" s="8" t="n"/>
       <c r="K22" s="2">
@@ -3301,18 +2981,10 @@
       <c r="A23" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="C23" s="6" t="n">
-        <v>0.6319444444444444</v>
-      </c>
-      <c r="D23" s="6" t="n">
-        <v>0.6777777777777778</v>
-      </c>
-      <c r="E23" s="6" t="n">
-        <v>0.7847222222222222</v>
-      </c>
+      <c r="B23" s="6" t="n"/>
+      <c r="C23" s="6" t="n"/>
+      <c r="D23" s="6" t="n"/>
+      <c r="E23" s="6" t="n"/>
       <c r="F23" s="7" t="n"/>
       <c r="G23" s="8" t="n"/>
       <c r="K23" s="2">
@@ -3378,18 +3050,10 @@
       <c r="A26" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="6" t="n">
-        <v>0.4708333333333333</v>
-      </c>
-      <c r="C26" s="6" t="n">
-        <v>0.6236111111111111</v>
-      </c>
-      <c r="D26" s="6" t="n">
-        <v>0.6645833333333333</v>
-      </c>
-      <c r="E26" s="6" t="n">
-        <v>0.7902777777777777</v>
-      </c>
+      <c r="B26" s="6" t="n"/>
+      <c r="C26" s="6" t="n"/>
+      <c r="D26" s="6" t="n"/>
+      <c r="E26" s="6" t="n"/>
       <c r="F26" s="7" t="n"/>
       <c r="G26" s="8" t="n"/>
       <c r="K26" s="2">
@@ -3409,18 +3073,10 @@
       <c r="A27" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="6" t="n">
-        <v>0.3645833333333333</v>
-      </c>
-      <c r="C27" s="6" t="n">
-        <v>0.6277777777777778</v>
-      </c>
-      <c r="D27" s="6" t="n">
-        <v>0.6611111111111111</v>
-      </c>
-      <c r="E27" s="6" t="n">
-        <v>0.7055555555555556</v>
-      </c>
+      <c r="B27" s="6" t="n"/>
+      <c r="C27" s="6" t="n"/>
+      <c r="D27" s="6" t="n"/>
+      <c r="E27" s="6" t="n"/>
       <c r="F27" s="7" t="n"/>
       <c r="G27" s="8" t="n"/>
       <c r="K27" s="2">
@@ -3440,18 +3096,10 @@
       <c r="A28" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="6" t="n">
-        <v>0.4256944444444444</v>
-      </c>
-      <c r="C28" s="6" t="n">
-        <v>0.6194444444444445</v>
-      </c>
-      <c r="D28" s="6" t="n">
-        <v>0.6576388888888889</v>
-      </c>
-      <c r="E28" s="6" t="n">
-        <v>0.7729166666666667</v>
-      </c>
+      <c r="B28" s="6" t="n"/>
+      <c r="C28" s="6" t="n"/>
+      <c r="D28" s="6" t="n"/>
+      <c r="E28" s="6" t="n"/>
       <c r="F28" s="7" t="n"/>
       <c r="G28" s="8" t="n"/>
       <c r="K28" s="2">
@@ -3471,18 +3119,10 @@
       <c r="A29" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="6" t="n">
-        <v>0.4673611111111111</v>
-      </c>
-      <c r="C29" s="6" t="n">
-        <v>0.61875</v>
-      </c>
-      <c r="D29" s="6" t="n">
-        <v>0.6625</v>
-      </c>
-      <c r="E29" s="6" t="n">
-        <v>0.7736111111111111</v>
-      </c>
+      <c r="B29" s="6" t="n"/>
+      <c r="C29" s="6" t="n"/>
+      <c r="D29" s="6" t="n"/>
+      <c r="E29" s="6" t="n"/>
       <c r="F29" s="7" t="n"/>
       <c r="G29" s="8" t="n"/>
       <c r="K29" s="2">
@@ -3618,7 +3258,7 @@
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B2" sqref="B2:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
@@ -3693,16 +3333,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="n">
-        <v>0.375</v>
+        <v>0.3770833333333333</v>
       </c>
       <c r="C2" s="6" t="n">
-        <v>0.5</v>
+        <v>0.6152777777777778</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>0.5423611111111111</v>
+        <v>0.6590277777777778</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="F2" s="7" t="n"/>
       <c r="G2" s="8" t="n"/>
@@ -3734,16 +3374,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="n">
-        <v>0.625</v>
+        <v>0.3694444444444445</v>
       </c>
       <c r="C3" s="6" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.6194444444444445</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>0.7645833333333333</v>
+        <v>0.6569444444444444</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.7104166666666667</v>
       </c>
       <c r="F3" s="7" t="n"/>
       <c r="G3" s="8" t="n"/>
@@ -3774,16 +3414,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="n">
-        <v>0.3819444444444444</v>
+        <v>0</v>
       </c>
       <c r="C4" s="6" t="n">
-        <v>0.6208333333333333</v>
+        <v>0</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.6618055555555555</v>
+        <v>0</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0.7166666666666667</v>
+        <v>0</v>
       </c>
       <c r="F4" s="7" t="n"/>
       <c r="G4" s="8" t="n"/>
@@ -3814,16 +3454,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="n">
-        <v>0.3631944444444444</v>
+        <v>0.3736111111111111</v>
       </c>
       <c r="C5" s="6" t="n">
-        <v>0.6125</v>
+        <v>0.61875</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>0.6548611111111111</v>
+        <v>0.6631944444444444</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0.7131944444444445</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="F5" s="7" t="n"/>
       <c r="G5" s="8" t="n"/>
@@ -3845,16 +3485,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="n">
-        <v>0.3756944444444444</v>
+        <v>0.3673611111111111</v>
       </c>
       <c r="C6" s="6" t="n">
-        <v>0.6173611111111111</v>
+        <v>0.6319444444444444</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>0.6576388888888889</v>
+        <v>0.6694444444444444</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.7118055555555556</v>
+        <v>0.7256944444444444</v>
       </c>
       <c r="F6" s="7" t="n"/>
       <c r="G6" s="8" t="n"/>
@@ -3884,10 +3524,18 @@
       <c r="A7" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="n"/>
-      <c r="C7" s="6" t="n"/>
-      <c r="D7" s="6" t="n"/>
-      <c r="E7" s="6" t="n"/>
+      <c r="B7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0</v>
+      </c>
       <c r="F7" s="7" t="n"/>
       <c r="G7" s="8" t="n"/>
       <c r="K7" s="2">
@@ -3908,18 +3556,10 @@
       <c r="A8" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="n">
-        <v>0.3625</v>
-      </c>
-      <c r="C8" s="6" t="n">
-        <v>0.61875</v>
-      </c>
-      <c r="D8" s="6" t="n">
-        <v>0.6590277777777778</v>
-      </c>
-      <c r="E8" s="6" t="n">
-        <v>0.7159722222222222</v>
-      </c>
+      <c r="B8" s="6" t="n"/>
+      <c r="C8" s="6" t="n"/>
+      <c r="D8" s="6" t="n"/>
+      <c r="E8" s="6" t="n"/>
       <c r="F8" s="7" t="n"/>
       <c r="G8" s="8" t="n"/>
       <c r="K8" s="2">
@@ -3949,16 +3589,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="n">
-        <v>0.3673611111111111</v>
+        <v>0.3631944444444444</v>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.625</v>
+        <v>0.6263888888888889</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.6625</v>
+        <v>0.6645833333333333</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.7256944444444444</v>
+        <v>0.7194444444444444</v>
       </c>
       <c r="F9" s="7" t="n"/>
       <c r="G9" s="8" t="n"/>
@@ -3979,10 +3619,18 @@
       <c r="A10" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="n"/>
-      <c r="C10" s="6" t="n"/>
-      <c r="D10" s="6" t="n"/>
-      <c r="E10" s="6" t="n"/>
+      <c r="B10" s="6" t="n">
+        <v>0.3701388888888889</v>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>0.6173611111111111</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>0.6583333333333333</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.7131944444444445</v>
+      </c>
       <c r="F10" s="7" t="n"/>
       <c r="G10" s="8" t="n"/>
       <c r="K10" s="2">
@@ -4008,16 +3656,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="n">
-        <v>0.6173611111111111</v>
+        <v>0</v>
       </c>
       <c r="C11" s="6" t="n">
-        <v>0.7083333333333334</v>
+        <v>0</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>0.93125</v>
+        <v>0</v>
       </c>
       <c r="F11" s="7" t="n"/>
       <c r="G11" s="8" t="n"/>
@@ -4039,16 +3687,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="n">
-        <v>0.38125</v>
+        <v>0.3673611111111111</v>
       </c>
       <c r="C12" s="6" t="n">
-        <v>0.6145833333333334</v>
+        <v>0.6208333333333333</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>0.6555555555555556</v>
+        <v>0.6611111111111111</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>0.7104166666666667</v>
+        <v>0.71875</v>
       </c>
       <c r="F12" s="7" t="n"/>
       <c r="G12" s="8" t="n"/>
@@ -4070,16 +3718,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="n">
-        <v>0.3743055555555556</v>
+        <v>0.3708333333333333</v>
       </c>
       <c r="C13" s="6" t="n">
-        <v>0.6201388888888889</v>
+        <v>0.6270833333333333</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.6659722222222222</v>
+        <v>0.6673611111111111</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.7138888888888889</v>
+        <v>0.7208333333333333</v>
       </c>
       <c r="F13" s="7" t="n"/>
       <c r="G13" s="8" t="n"/>
@@ -4100,10 +3748,18 @@
       <c r="A14" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="n"/>
-      <c r="C14" s="6" t="n"/>
-      <c r="D14" s="6" t="n"/>
-      <c r="E14" s="6" t="n"/>
+      <c r="B14" s="6" t="n">
+        <v>0.3965277777777778</v>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>0.5395833333333333</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>0.5798611111111112</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>0.91875</v>
+      </c>
       <c r="F14" s="7" t="n"/>
       <c r="G14" s="8" t="n"/>
       <c r="K14" s="2">
@@ -4124,16 +3780,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="n">
-        <v>0.3645833333333333</v>
+        <v>0.3763888888888889</v>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.6194444444444445</v>
+        <v>0.6243055555555556</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.6541666666666667</v>
+        <v>0.6611111111111111</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.7111111111111111</v>
+        <v>0.7159722222222222</v>
       </c>
       <c r="F15" s="7" t="n"/>
       <c r="G15" s="8" t="n"/>
@@ -4155,16 +3811,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="n">
-        <v>0.3729166666666667</v>
+        <v>0.3854166666666667</v>
       </c>
       <c r="C16" s="6" t="n">
-        <v>0.6125</v>
+        <v>0.6118055555555556</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>0.6569444444444444</v>
+        <v>0.6541666666666667</v>
       </c>
       <c r="E16" s="6" t="n">
-        <v>0.7159722222222222</v>
+        <v>0.7090277777777778</v>
       </c>
       <c r="F16" s="7" t="n"/>
       <c r="G16" s="8" t="n"/>
@@ -4208,18 +3864,10 @@
       <c r="A18" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="n">
-        <v>0.6340277777777777</v>
-      </c>
-      <c r="C18" s="6" t="n">
-        <v>0.7243055555555555</v>
-      </c>
-      <c r="D18" s="6" t="n">
-        <v>0.7708333333333334</v>
-      </c>
-      <c r="E18" s="6" t="n">
-        <v>0.9284722222222223</v>
-      </c>
+      <c r="B18" s="6" t="n"/>
+      <c r="C18" s="6" t="n"/>
+      <c r="D18" s="6" t="n"/>
+      <c r="E18" s="6" t="n"/>
       <c r="F18" s="7" t="n"/>
       <c r="G18" s="8" t="n"/>
       <c r="K18" s="2">
@@ -4239,18 +3887,10 @@
       <c r="A19" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="n">
-        <v>0.3763888888888889</v>
-      </c>
-      <c r="C19" s="6" t="n">
-        <v>0.6173611111111111</v>
-      </c>
-      <c r="D19" s="6" t="n">
-        <v>0.6604166666666667</v>
-      </c>
-      <c r="E19" s="6" t="n">
-        <v>0.7111111111111111</v>
-      </c>
+      <c r="B19" s="6" t="n"/>
+      <c r="C19" s="6" t="n"/>
+      <c r="D19" s="6" t="n"/>
+      <c r="E19" s="6" t="n"/>
       <c r="F19" s="7" t="n"/>
       <c r="G19" s="8" t="n"/>
       <c r="K19" s="2">
@@ -4270,18 +3910,10 @@
       <c r="A20" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="n">
-        <v>0.3708333333333333</v>
-      </c>
-      <c r="C20" s="6" t="n">
-        <v>0.6215277777777778</v>
-      </c>
-      <c r="D20" s="6" t="n">
-        <v>0.6590277777777778</v>
-      </c>
-      <c r="E20" s="6" t="n">
-        <v>0.7152777777777778</v>
-      </c>
+      <c r="B20" s="6" t="n"/>
+      <c r="C20" s="6" t="n"/>
+      <c r="D20" s="6" t="n"/>
+      <c r="E20" s="6" t="n"/>
       <c r="F20" s="7" t="n"/>
       <c r="G20" s="8" t="n"/>
       <c r="K20" s="2">
@@ -4324,18 +3956,10 @@
       <c r="A22" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="n">
-        <v>0.3701388888888889</v>
-      </c>
-      <c r="C22" s="6" t="n">
-        <v>0.6215277777777778</v>
-      </c>
-      <c r="D22" s="6" t="n">
-        <v>0.6631944444444444</v>
-      </c>
-      <c r="E22" s="6" t="n">
-        <v>0.7173611111111111</v>
-      </c>
+      <c r="B22" s="6" t="n"/>
+      <c r="C22" s="6" t="n"/>
+      <c r="D22" s="6" t="n"/>
+      <c r="E22" s="6" t="n"/>
       <c r="F22" s="7" t="n"/>
       <c r="G22" s="8" t="n"/>
       <c r="K22" s="2">
@@ -4355,18 +3979,10 @@
       <c r="A23" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="n">
-        <v>0.3736111111111111</v>
-      </c>
-      <c r="C23" s="6" t="n">
-        <v>0.6229166666666667</v>
-      </c>
-      <c r="D23" s="6" t="n">
-        <v>0.6638888888888889</v>
-      </c>
-      <c r="E23" s="6" t="n">
-        <v>0.7166666666666667</v>
-      </c>
+      <c r="B23" s="6" t="n"/>
+      <c r="C23" s="6" t="n"/>
+      <c r="D23" s="6" t="n"/>
+      <c r="E23" s="6" t="n"/>
       <c r="F23" s="7" t="n"/>
       <c r="G23" s="8" t="n"/>
       <c r="K23" s="2">
@@ -4409,18 +4025,10 @@
       <c r="A25" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="6" t="n">
-        <v>0.5916666666666667</v>
-      </c>
-      <c r="C25" s="6" t="n">
-        <v>0.7104166666666667</v>
-      </c>
-      <c r="D25" s="6" t="n">
-        <v>0.7597222222222222</v>
-      </c>
-      <c r="E25" s="6" t="n">
-        <v>0.9305555555555556</v>
-      </c>
+      <c r="B25" s="6" t="n"/>
+      <c r="C25" s="6" t="n"/>
+      <c r="D25" s="6" t="n"/>
+      <c r="E25" s="6" t="n"/>
       <c r="F25" s="7" t="n"/>
       <c r="G25" s="8" t="n"/>
       <c r="K25" s="2">
@@ -4440,18 +4048,10 @@
       <c r="A26" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="6" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="C26" s="6" t="n">
-        <v>0.6173611111111111</v>
-      </c>
-      <c r="D26" s="6" t="n">
-        <v>0.6583333333333333</v>
-      </c>
-      <c r="E26" s="6" t="n">
-        <v>0.7131944444444445</v>
-      </c>
+      <c r="B26" s="6" t="n"/>
+      <c r="C26" s="6" t="n"/>
+      <c r="D26" s="6" t="n"/>
+      <c r="E26" s="6" t="n"/>
       <c r="F26" s="7" t="n"/>
       <c r="G26" s="8" t="n"/>
       <c r="K26" s="2">
@@ -4471,18 +4071,10 @@
       <c r="A27" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="6" t="n">
-        <v>0.3666666666666666</v>
-      </c>
-      <c r="C27" s="6" t="n">
-        <v>0.6215277777777778</v>
-      </c>
-      <c r="D27" s="6" t="n">
-        <v>0.6590277777777778</v>
-      </c>
-      <c r="E27" s="6" t="n">
-        <v>0.7125</v>
-      </c>
+      <c r="B27" s="6" t="n"/>
+      <c r="C27" s="6" t="n"/>
+      <c r="D27" s="6" t="n"/>
+      <c r="E27" s="6" t="n"/>
       <c r="F27" s="7" t="n"/>
       <c r="G27" s="8" t="n"/>
       <c r="K27" s="2">
@@ -4525,18 +4117,10 @@
       <c r="A29" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="6" t="n">
-        <v>0.3826388888888889</v>
-      </c>
-      <c r="C29" s="6" t="n">
-        <v>0.6125</v>
-      </c>
-      <c r="D29" s="6" t="n">
-        <v>0.6583333333333333</v>
-      </c>
-      <c r="E29" s="6" t="n">
-        <v>0.7166666666666667</v>
-      </c>
+      <c r="B29" s="6" t="n"/>
+      <c r="C29" s="6" t="n"/>
+      <c r="D29" s="6" t="n"/>
+      <c r="E29" s="6" t="n"/>
       <c r="F29" s="7" t="n"/>
       <c r="G29" s="8" t="n"/>
       <c r="K29" s="2">
@@ -5558,7 +5142,7 @@
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B2" sqref="B2:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
@@ -5632,18 +5216,10 @@
       <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="n">
-        <v>0.4909722222222222</v>
-      </c>
-      <c r="C2" s="6" t="n">
-        <v>0.6361111111111111</v>
-      </c>
-      <c r="D2" s="6" t="n">
-        <v>0.6777777777777778</v>
-      </c>
-      <c r="E2" s="6" t="n">
-        <v>0.8375</v>
-      </c>
+      <c r="B2" s="6" t="n"/>
+      <c r="C2" s="6" t="n"/>
+      <c r="D2" s="6" t="n"/>
+      <c r="E2" s="6" t="n"/>
       <c r="F2" s="7" t="n"/>
       <c r="G2" s="8" t="n"/>
       <c r="K2" s="2">
@@ -5760,18 +5336,10 @@
       <c r="A6" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="n">
-        <v>0.6027777777777777</v>
-      </c>
-      <c r="C6" s="6" t="n">
-        <v>0.6638888888888889</v>
-      </c>
-      <c r="D6" s="6" t="n">
-        <v>0.7034722222222223</v>
-      </c>
-      <c r="E6" s="6" t="n">
-        <v>0.925</v>
-      </c>
+      <c r="B6" s="6" t="n"/>
+      <c r="C6" s="6" t="n"/>
+      <c r="D6" s="6" t="n"/>
+      <c r="E6" s="6" t="n"/>
       <c r="F6" s="7" t="n"/>
       <c r="G6" s="8" t="n"/>
       <c r="K6" s="2">
@@ -5800,18 +5368,10 @@
       <c r="A7" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="C7" s="6" t="n">
-        <v>0.6180555555555556</v>
-      </c>
-      <c r="D7" s="6" t="n">
-        <v>0.6673611111111111</v>
-      </c>
-      <c r="E7" s="6" t="n">
-        <v>0.8395833333333333</v>
-      </c>
+      <c r="B7" s="6" t="n"/>
+      <c r="C7" s="6" t="n"/>
+      <c r="D7" s="6" t="n"/>
+      <c r="E7" s="6" t="n"/>
       <c r="F7" s="7" t="n"/>
       <c r="G7" s="8" t="n"/>
       <c r="K7" s="2">
@@ -5832,18 +5392,10 @@
       <c r="A8" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="n">
-        <v>0.4993055555555556</v>
-      </c>
-      <c r="C8" s="6" t="n">
-        <v>0.6208333333333333</v>
-      </c>
-      <c r="D8" s="6" t="n">
-        <v>0.6673611111111111</v>
-      </c>
-      <c r="E8" s="6" t="n">
-        <v>0.8395833333333333</v>
-      </c>
+      <c r="B8" s="6" t="n"/>
+      <c r="C8" s="6" t="n"/>
+      <c r="D8" s="6" t="n"/>
+      <c r="E8" s="6" t="n"/>
       <c r="F8" s="7" t="n"/>
       <c r="G8" s="8" t="n"/>
       <c r="K8" s="2">
@@ -5872,18 +5424,10 @@
       <c r="A9" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="n">
-        <v>0.6166666666666667</v>
-      </c>
-      <c r="C9" s="6" t="n">
-        <v>0.6694444444444444</v>
-      </c>
-      <c r="D9" s="6" t="n">
-        <v>0.7131944444444445</v>
-      </c>
-      <c r="E9" s="6" t="n">
-        <v>0.9229166666666667</v>
-      </c>
+      <c r="B9" s="6" t="n"/>
+      <c r="C9" s="6" t="n"/>
+      <c r="D9" s="6" t="n"/>
+      <c r="E9" s="6" t="n"/>
       <c r="F9" s="7" t="n"/>
       <c r="G9" s="8" t="n"/>
       <c r="K9" s="2">
@@ -5931,18 +5475,10 @@
       <c r="A11" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="n">
-        <v>0.3736111111111111</v>
-      </c>
-      <c r="C11" s="6" t="n">
-        <v>0.6180555555555556</v>
-      </c>
-      <c r="D11" s="6" t="n">
-        <v>0.6597222222222222</v>
-      </c>
-      <c r="E11" s="6" t="n">
-        <v>0.7083333333333334</v>
-      </c>
+      <c r="B11" s="6" t="n"/>
+      <c r="C11" s="6" t="n"/>
+      <c r="D11" s="6" t="n"/>
+      <c r="E11" s="6" t="n"/>
       <c r="F11" s="7" t="n"/>
       <c r="G11" s="8" t="n"/>
       <c r="K11" s="2">
@@ -5985,18 +5521,10 @@
       <c r="A13" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="n">
-        <v>0.6104166666666667</v>
-      </c>
-      <c r="C13" s="6" t="n">
-        <v>0.6659722222222222</v>
-      </c>
-      <c r="D13" s="6" t="n">
-        <v>0.70625</v>
-      </c>
-      <c r="E13" s="6" t="n">
-        <v>0.9263888888888889</v>
-      </c>
+      <c r="B13" s="6" t="n"/>
+      <c r="C13" s="6" t="n"/>
+      <c r="D13" s="6" t="n"/>
+      <c r="E13" s="6" t="n"/>
       <c r="F13" s="7" t="n"/>
       <c r="G13" s="8" t="n"/>
       <c r="K13" s="2">
@@ -6016,18 +5544,10 @@
       <c r="A14" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="n">
-        <v>0.3743055555555556</v>
-      </c>
-      <c r="C14" s="6" t="n">
-        <v>0.6159722222222223</v>
-      </c>
-      <c r="D14" s="6" t="n">
-        <v>0.6590277777777778</v>
-      </c>
-      <c r="E14" s="6" t="n">
-        <v>0.7229166666666667</v>
-      </c>
+      <c r="B14" s="6" t="n"/>
+      <c r="C14" s="6" t="n"/>
+      <c r="D14" s="6" t="n"/>
+      <c r="E14" s="6" t="n"/>
       <c r="F14" s="7" t="n"/>
       <c r="G14" s="8" t="n"/>
       <c r="K14" s="2">
@@ -6047,18 +5567,10 @@
       <c r="A15" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="n">
-        <v>0.4944444444444445</v>
-      </c>
-      <c r="C15" s="6" t="n">
-        <v>0.6201388888888889</v>
-      </c>
-      <c r="D15" s="6" t="n">
-        <v>0.6659722222222222</v>
-      </c>
-      <c r="E15" s="6" t="n">
-        <v>0.8368055555555556</v>
-      </c>
+      <c r="B15" s="6" t="n"/>
+      <c r="C15" s="6" t="n"/>
+      <c r="D15" s="6" t="n"/>
+      <c r="E15" s="6" t="n"/>
       <c r="F15" s="7" t="n"/>
       <c r="G15" s="8" t="n"/>
       <c r="K15" s="2">
@@ -6078,18 +5590,10 @@
       <c r="A16" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="n">
-        <v>0.5006944444444444</v>
-      </c>
-      <c r="C16" s="6" t="n">
-        <v>0.6680555555555555</v>
-      </c>
-      <c r="D16" s="6" t="n">
-        <v>0.7118055555555556</v>
-      </c>
-      <c r="E16" s="6" t="n">
-        <v>0.8395833333333333</v>
-      </c>
+      <c r="B16" s="6" t="n"/>
+      <c r="C16" s="6" t="n"/>
+      <c r="D16" s="6" t="n"/>
+      <c r="E16" s="6" t="n"/>
       <c r="F16" s="7" t="n"/>
       <c r="G16" s="8" t="n"/>
       <c r="K16" s="2">
@@ -6109,18 +5613,10 @@
       <c r="A17" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="n">
-        <v>0.3715277777777778</v>
-      </c>
-      <c r="C17" s="6" t="n">
-        <v>0.4805555555555556</v>
-      </c>
-      <c r="D17" s="6" t="n">
-        <v>0.5222222222222223</v>
-      </c>
-      <c r="E17" s="6" t="n">
-        <v>0.9229166666666667</v>
-      </c>
+      <c r="B17" s="6" t="n"/>
+      <c r="C17" s="6" t="n"/>
+      <c r="D17" s="6" t="n"/>
+      <c r="E17" s="6" t="n"/>
       <c r="F17" s="7" t="n"/>
       <c r="G17" s="8" t="n"/>
       <c r="K17" s="2">
@@ -6140,18 +5636,10 @@
       <c r="A18" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="n">
-        <v>0.3756944444444444</v>
-      </c>
-      <c r="C18" s="6" t="n">
-        <v>0.6173611111111111</v>
-      </c>
-      <c r="D18" s="6" t="n">
-        <v>0.6590277777777778</v>
-      </c>
-      <c r="E18" s="6" t="n">
-        <v>0.7194444444444444</v>
-      </c>
+      <c r="B18" s="6" t="n"/>
+      <c r="C18" s="6" t="n"/>
+      <c r="D18" s="6" t="n"/>
+      <c r="E18" s="6" t="n"/>
       <c r="F18" s="7" t="n"/>
       <c r="G18" s="8" t="n"/>
       <c r="K18" s="2">
@@ -6194,18 +5682,10 @@
       <c r="A20" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="n">
-        <v>0.6055555555555555</v>
-      </c>
-      <c r="C20" s="6" t="n">
-        <v>0.6645833333333333</v>
-      </c>
-      <c r="D20" s="6" t="n">
-        <v>0.7090277777777778</v>
-      </c>
-      <c r="E20" s="6" t="n">
-        <v>0.9291666666666667</v>
-      </c>
+      <c r="B20" s="6" t="n"/>
+      <c r="C20" s="6" t="n"/>
+      <c r="D20" s="6" t="n"/>
+      <c r="E20" s="6" t="n"/>
       <c r="F20" s="7" t="n"/>
       <c r="G20" s="8" t="n"/>
       <c r="K20" s="2">
@@ -6225,18 +5705,10 @@
       <c r="A21" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="n">
-        <v>0.38125</v>
-      </c>
-      <c r="C21" s="6" t="n">
-        <v>0.6125</v>
-      </c>
-      <c r="D21" s="6" t="n">
-        <v>0.6548611111111111</v>
-      </c>
-      <c r="E21" s="6" t="n">
-        <v>0.7222222222222222</v>
-      </c>
+      <c r="B21" s="6" t="n"/>
+      <c r="C21" s="6" t="n"/>
+      <c r="D21" s="6" t="n"/>
+      <c r="E21" s="6" t="n"/>
       <c r="F21" s="7" t="n"/>
       <c r="G21" s="8" t="n"/>
       <c r="K21" s="2">
@@ -6256,18 +5728,10 @@
       <c r="A22" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="n">
-        <v>0.4951388888888889</v>
-      </c>
-      <c r="C22" s="6" t="n">
-        <v>0.6597222222222222</v>
-      </c>
-      <c r="D22" s="6" t="n">
-        <v>0.7013888888888888</v>
-      </c>
-      <c r="E22" s="6" t="n">
-        <v>0.8416666666666667</v>
-      </c>
+      <c r="B22" s="6" t="n"/>
+      <c r="C22" s="6" t="n"/>
+      <c r="D22" s="6" t="n"/>
+      <c r="E22" s="6" t="n"/>
       <c r="F22" s="7" t="n"/>
       <c r="G22" s="8" t="n"/>
       <c r="K22" s="2">
@@ -6287,18 +5751,10 @@
       <c r="A23" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="n">
-        <v>0.4993055555555556</v>
-      </c>
-      <c r="C23" s="6" t="n">
-        <v>0.6256944444444444</v>
-      </c>
-      <c r="D23" s="6" t="n">
-        <v>0.6708333333333333</v>
-      </c>
-      <c r="E23" s="6" t="n">
-        <v>0.8333333333333334</v>
-      </c>
+      <c r="B23" s="6" t="n"/>
+      <c r="C23" s="6" t="n"/>
+      <c r="D23" s="6" t="n"/>
+      <c r="E23" s="6" t="n"/>
       <c r="F23" s="7" t="n"/>
       <c r="G23" s="8" t="n"/>
       <c r="K23" s="2">
@@ -6341,18 +5797,10 @@
       <c r="A25" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="6" t="n">
-        <v>0.3819444444444444</v>
-      </c>
-      <c r="C25" s="6" t="n">
-        <v>0.6180555555555556</v>
-      </c>
-      <c r="D25" s="6" t="n">
-        <v>0.6597222222222222</v>
-      </c>
-      <c r="E25" s="6" t="n">
-        <v>0.7166666666666667</v>
-      </c>
+      <c r="B25" s="6" t="n"/>
+      <c r="C25" s="6" t="n"/>
+      <c r="D25" s="6" t="n"/>
+      <c r="E25" s="6" t="n"/>
       <c r="F25" s="7" t="n"/>
       <c r="G25" s="8" t="n"/>
       <c r="K25" s="2">
@@ -6395,18 +5843,10 @@
       <c r="A27" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="6" t="n">
-        <v>0.6111111111111112</v>
-      </c>
-      <c r="C27" s="6" t="n">
-        <v>0.6645833333333333</v>
-      </c>
-      <c r="D27" s="6" t="n">
-        <v>0.7013888888888888</v>
-      </c>
-      <c r="E27" s="6" t="n">
-        <v>0.9277777777777778</v>
-      </c>
+      <c r="B27" s="6" t="n"/>
+      <c r="C27" s="6" t="n"/>
+      <c r="D27" s="6" t="n"/>
+      <c r="E27" s="6" t="n"/>
       <c r="F27" s="7" t="n"/>
       <c r="G27" s="8" t="n"/>
       <c r="K27" s="2">
@@ -6426,18 +5866,10 @@
       <c r="A28" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="6" t="n">
-        <v>0.3875</v>
-      </c>
-      <c r="C28" s="6" t="n">
-        <v>0.6138888888888889</v>
-      </c>
-      <c r="D28" s="6" t="n">
-        <v>0.6583333333333333</v>
-      </c>
-      <c r="E28" s="6" t="n">
-        <v>0.7152777777777778</v>
-      </c>
+      <c r="B28" s="6" t="n"/>
+      <c r="C28" s="6" t="n"/>
+      <c r="D28" s="6" t="n"/>
+      <c r="E28" s="6" t="n"/>
       <c r="F28" s="7" t="n"/>
       <c r="G28" s="8" t="n"/>
       <c r="K28" s="2">
@@ -6457,18 +5889,10 @@
       <c r="A29" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="6" t="n">
-        <v>0.4833333333333333</v>
-      </c>
-      <c r="C29" s="6" t="n">
-        <v>0.6277777777777778</v>
-      </c>
-      <c r="D29" s="6" t="n">
-        <v>0.6805555555555556</v>
-      </c>
-      <c r="E29" s="6" t="n">
-        <v>0.8395833333333333</v>
-      </c>
+      <c r="B29" s="6" t="n"/>
+      <c r="C29" s="6" t="n"/>
+      <c r="D29" s="6" t="n"/>
+      <c r="E29" s="6" t="n"/>
       <c r="F29" s="7" t="n"/>
       <c r="G29" s="8" t="n"/>
       <c r="K29" s="2">
@@ -6603,8 +6027,8 @@
   </sheetPr>
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
@@ -6775,18 +6199,10 @@
       <c r="A5" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="n">
-        <v>0.6159722222222223</v>
-      </c>
-      <c r="C5" s="6" t="n">
-        <v>0.7118055555555556</v>
-      </c>
-      <c r="D5" s="6" t="n">
-        <v>0.7534722222222222</v>
-      </c>
-      <c r="E5" s="6" t="n">
-        <v>0.9326388888888889</v>
-      </c>
+      <c r="B5" s="6" t="n"/>
+      <c r="C5" s="6" t="n"/>
+      <c r="D5" s="6" t="n"/>
+      <c r="E5" s="6" t="n"/>
       <c r="F5" s="7" t="n"/>
       <c r="G5" s="8" t="n"/>
       <c r="K5" s="2">
@@ -6806,18 +6222,10 @@
       <c r="A6" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="n">
-        <v>0.5979166666666667</v>
-      </c>
-      <c r="C6" s="6" t="n">
-        <v>0.6652777777777777</v>
-      </c>
-      <c r="D6" s="6" t="n">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="E6" s="6" t="n">
-        <v>0.925</v>
-      </c>
+      <c r="B6" s="6" t="n"/>
+      <c r="C6" s="6" t="n"/>
+      <c r="D6" s="6" t="n"/>
+      <c r="E6" s="6" t="n"/>
       <c r="F6" s="7" t="n"/>
       <c r="G6" s="8" t="n"/>
       <c r="K6" s="2">
@@ -6846,18 +6254,10 @@
       <c r="A7" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="n">
-        <v>0.6173611111111111</v>
-      </c>
-      <c r="C7" s="6" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="D7" s="6" t="n">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="E7" s="6" t="n">
-        <v>0.9256944444444445</v>
-      </c>
+      <c r="B7" s="6" t="n"/>
+      <c r="C7" s="6" t="n"/>
+      <c r="D7" s="6" t="n"/>
+      <c r="E7" s="6" t="n"/>
       <c r="F7" s="7" t="n"/>
       <c r="G7" s="8" t="n"/>
       <c r="K7" s="2">
@@ -6878,18 +6278,10 @@
       <c r="A8" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="n">
-        <v>0.6125</v>
-      </c>
-      <c r="C8" s="6" t="n">
-        <v>0.7138888888888889</v>
-      </c>
-      <c r="D8" s="6" t="n">
-        <v>0.75625</v>
-      </c>
-      <c r="E8" s="6" t="n">
-        <v>0.9305555555555556</v>
-      </c>
+      <c r="B8" s="6" t="n"/>
+      <c r="C8" s="6" t="n"/>
+      <c r="D8" s="6" t="n"/>
+      <c r="E8" s="6" t="n"/>
       <c r="F8" s="7" t="n"/>
       <c r="G8" s="8" t="n"/>
       <c r="K8" s="2">
@@ -6918,18 +6310,10 @@
       <c r="A9" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="n">
-        <v>0.60625</v>
-      </c>
-      <c r="C9" s="6" t="n">
-        <v>0.6784722222222223</v>
-      </c>
-      <c r="D9" s="6" t="n">
-        <v>0.7201388888888889</v>
-      </c>
-      <c r="E9" s="6" t="n">
-        <v>0.9229166666666667</v>
-      </c>
+      <c r="B9" s="6" t="n"/>
+      <c r="C9" s="6" t="n"/>
+      <c r="D9" s="6" t="n"/>
+      <c r="E9" s="6" t="n"/>
       <c r="F9" s="7" t="n"/>
       <c r="G9" s="8" t="n"/>
       <c r="K9" s="2">
@@ -6949,18 +6333,10 @@
       <c r="A10" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="n">
-        <v>0.3958333333333333</v>
-      </c>
-      <c r="C10" s="6" t="n">
-        <v>0.5284722222222222</v>
-      </c>
-      <c r="D10" s="6" t="n">
-        <v>0.5729166666666666</v>
-      </c>
-      <c r="E10" s="6" t="n">
-        <v>0.9270833333333334</v>
-      </c>
+      <c r="B10" s="6" t="n"/>
+      <c r="C10" s="6" t="n"/>
+      <c r="D10" s="6" t="n"/>
+      <c r="E10" s="6" t="n"/>
       <c r="F10" s="7" t="n"/>
       <c r="G10" s="8" t="n"/>
       <c r="K10" s="2">
@@ -7031,18 +6407,10 @@
       <c r="A13" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="n">
-        <v>0.6034722222222222</v>
-      </c>
-      <c r="C13" s="6" t="n">
-        <v>0.6659722222222222</v>
-      </c>
-      <c r="D13" s="6" t="n">
-        <v>0.7090277777777778</v>
-      </c>
-      <c r="E13" s="6" t="n">
-        <v>0.9263888888888889</v>
-      </c>
+      <c r="B13" s="6" t="n"/>
+      <c r="C13" s="6" t="n"/>
+      <c r="D13" s="6" t="n"/>
+      <c r="E13" s="6" t="n"/>
       <c r="F13" s="7" t="n"/>
       <c r="G13" s="8" t="n"/>
       <c r="K13" s="2">
@@ -7062,18 +6430,10 @@
       <c r="A14" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="n">
-        <v>0.6201388888888889</v>
-      </c>
-      <c r="C14" s="6" t="n">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="D14" s="6" t="n">
-        <v>0.7506944444444444</v>
-      </c>
-      <c r="E14" s="6" t="n">
-        <v>0.9291666666666667</v>
-      </c>
+      <c r="B14" s="6" t="n"/>
+      <c r="C14" s="6" t="n"/>
+      <c r="D14" s="6" t="n"/>
+      <c r="E14" s="6" t="n"/>
       <c r="F14" s="7" t="n"/>
       <c r="G14" s="8" t="n"/>
       <c r="K14" s="2">
@@ -7093,18 +6453,10 @@
       <c r="A15" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="n">
-        <v>0.6131944444444445</v>
-      </c>
-      <c r="C15" s="6" t="n">
-        <v>0.6625</v>
-      </c>
-      <c r="D15" s="6" t="n">
-        <v>0.70625</v>
-      </c>
-      <c r="E15" s="6" t="n">
-        <v>0.9291666666666667</v>
-      </c>
+      <c r="B15" s="6" t="n"/>
+      <c r="C15" s="6" t="n"/>
+      <c r="D15" s="6" t="n"/>
+      <c r="E15" s="6" t="n"/>
       <c r="F15" s="7" t="n"/>
       <c r="G15" s="8" t="n"/>
       <c r="K15" s="2">
@@ -7193,18 +6545,10 @@
       <c r="A19" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="n">
-        <v>0.6069444444444444</v>
-      </c>
-      <c r="C19" s="6" t="n">
-        <v>0.7097222222222223</v>
-      </c>
-      <c r="D19" s="6" t="n">
-        <v>0.7506944444444444</v>
-      </c>
-      <c r="E19" s="6" t="n">
-        <v>0.925</v>
-      </c>
+      <c r="B19" s="6" t="n"/>
+      <c r="C19" s="6" t="n"/>
+      <c r="D19" s="6" t="n"/>
+      <c r="E19" s="6" t="n"/>
       <c r="F19" s="7" t="n"/>
       <c r="G19" s="8" t="n"/>
       <c r="K19" s="2">
@@ -7224,18 +6568,10 @@
       <c r="A20" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="n">
-        <v>0.6118055555555556</v>
-      </c>
-      <c r="C20" s="6" t="n">
-        <v>0.6673611111111111</v>
-      </c>
-      <c r="D20" s="6" t="n">
-        <v>0.7097222222222223</v>
-      </c>
-      <c r="E20" s="6" t="n">
-        <v>0.9291666666666667</v>
-      </c>
+      <c r="B20" s="6" t="n"/>
+      <c r="C20" s="6" t="n"/>
+      <c r="D20" s="6" t="n"/>
+      <c r="E20" s="6" t="n"/>
       <c r="F20" s="7" t="n"/>
       <c r="G20" s="8" t="n"/>
       <c r="K20" s="2">
@@ -7255,18 +6591,10 @@
       <c r="A21" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="n">
-        <v>0.6131944444444445</v>
-      </c>
-      <c r="C21" s="6" t="n">
-        <v>0.6638888888888889</v>
-      </c>
-      <c r="D21" s="6" t="n">
-        <v>0.7055555555555556</v>
-      </c>
-      <c r="E21" s="6" t="n">
-        <v>0.9256944444444445</v>
-      </c>
+      <c r="B21" s="6" t="n"/>
+      <c r="C21" s="6" t="n"/>
+      <c r="D21" s="6" t="n"/>
+      <c r="E21" s="6" t="n"/>
       <c r="F21" s="7" t="n"/>
       <c r="G21" s="8" t="n"/>
       <c r="K21" s="2">
@@ -7286,18 +6614,10 @@
       <c r="A22" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="n">
-        <v>0.6173611111111111</v>
-      </c>
-      <c r="C22" s="6" t="n">
-        <v>0.7125</v>
-      </c>
-      <c r="D22" s="6" t="n">
-        <v>0.75625</v>
-      </c>
-      <c r="E22" s="6" t="n">
-        <v>0.93125</v>
-      </c>
+      <c r="B22" s="6" t="n"/>
+      <c r="C22" s="6" t="n"/>
+      <c r="D22" s="6" t="n"/>
+      <c r="E22" s="6" t="n"/>
       <c r="F22" s="7" t="n"/>
       <c r="G22" s="8" t="n"/>
       <c r="K22" s="2">
@@ -7317,18 +6637,10 @@
       <c r="A23" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="n">
-        <v>0.6145833333333334</v>
-      </c>
-      <c r="C23" s="6" t="n">
-        <v>0.6736111111111112</v>
-      </c>
-      <c r="D23" s="6" t="n">
-        <v>0.7166666666666667</v>
-      </c>
-      <c r="E23" s="6" t="n">
-        <v>0.9243055555555556</v>
-      </c>
+      <c r="B23" s="6" t="n"/>
+      <c r="C23" s="6" t="n"/>
+      <c r="D23" s="6" t="n"/>
+      <c r="E23" s="6" t="n"/>
       <c r="F23" s="7" t="n"/>
       <c r="G23" s="8" t="n"/>
       <c r="K23" s="2">
@@ -7348,18 +6660,10 @@
       <c r="A24" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="6" t="n">
-        <v>0.4076388888888889</v>
-      </c>
-      <c r="C24" s="6" t="n">
-        <v>0.5451388888888888</v>
-      </c>
-      <c r="D24" s="6" t="n">
-        <v>0.5881944444444445</v>
-      </c>
-      <c r="E24" s="6" t="n">
-        <v>0.9284722222222223</v>
-      </c>
+      <c r="B24" s="6" t="n"/>
+      <c r="C24" s="6" t="n"/>
+      <c r="D24" s="6" t="n"/>
+      <c r="E24" s="6" t="n"/>
       <c r="F24" s="7" t="n"/>
       <c r="G24" s="8" t="n"/>
       <c r="K24" s="2">
@@ -7402,18 +6706,10 @@
       <c r="A26" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="6" t="n">
-        <v>0.6069444444444444</v>
-      </c>
-      <c r="C26" s="6" t="n">
-        <v>0.7069444444444445</v>
-      </c>
-      <c r="D26" s="6" t="n">
-        <v>0.7513888888888889</v>
-      </c>
-      <c r="E26" s="6" t="n">
-        <v>0.9305555555555556</v>
-      </c>
+      <c r="B26" s="6" t="n"/>
+      <c r="C26" s="6" t="n"/>
+      <c r="D26" s="6" t="n"/>
+      <c r="E26" s="6" t="n"/>
       <c r="F26" s="7" t="n"/>
       <c r="G26" s="8" t="n"/>
       <c r="K26" s="2">
@@ -7433,18 +6729,10 @@
       <c r="A27" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="6" t="n">
-        <v>0.6159722222222223</v>
-      </c>
-      <c r="C27" s="6" t="n">
-        <v>0.7138888888888889</v>
-      </c>
-      <c r="D27" s="6" t="n">
-        <v>0.7555555555555555</v>
-      </c>
-      <c r="E27" s="6" t="n">
-        <v>0.9277777777777778</v>
-      </c>
+      <c r="B27" s="6" t="n"/>
+      <c r="C27" s="6" t="n"/>
+      <c r="D27" s="6" t="n"/>
+      <c r="E27" s="6" t="n"/>
       <c r="F27" s="7" t="n"/>
       <c r="G27" s="8" t="n"/>
       <c r="K27" s="2">
@@ -7464,18 +6752,10 @@
       <c r="A28" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="6" t="n">
-        <v>0.6131944444444445</v>
-      </c>
-      <c r="C28" s="6" t="n">
-        <v>0.6680555555555555</v>
-      </c>
-      <c r="D28" s="6" t="n">
-        <v>0.7111111111111111</v>
-      </c>
-      <c r="E28" s="6" t="n">
-        <v>0.9263888888888889</v>
-      </c>
+      <c r="B28" s="6" t="n"/>
+      <c r="C28" s="6" t="n"/>
+      <c r="D28" s="6" t="n"/>
+      <c r="E28" s="6" t="n"/>
       <c r="F28" s="7" t="n"/>
       <c r="G28" s="8" t="n"/>
       <c r="K28" s="2">
@@ -7495,18 +6775,10 @@
       <c r="A29" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="6" t="n">
-        <v>0.6180555555555556</v>
-      </c>
-      <c r="C29" s="6" t="n">
-        <v>0.7145833333333333</v>
-      </c>
-      <c r="D29" s="6" t="n">
-        <v>0.75625</v>
-      </c>
-      <c r="E29" s="6" t="n">
-        <v>0.9298611111111111</v>
-      </c>
+      <c r="B29" s="6" t="n"/>
+      <c r="C29" s="6" t="n"/>
+      <c r="D29" s="6" t="n"/>
+      <c r="E29" s="6" t="n"/>
       <c r="F29" s="7" t="n"/>
       <c r="G29" s="8" t="n"/>
       <c r="K29" s="2">
@@ -7653,8 +6925,8 @@
   </sheetPr>
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
@@ -7728,18 +7000,10 @@
       <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="n">
-        <v>0.6125</v>
-      </c>
-      <c r="C2" s="6" t="n">
-        <v>0.7125</v>
-      </c>
-      <c r="D2" s="6" t="n">
-        <v>0.7569444444444444</v>
-      </c>
-      <c r="E2" s="6" t="n">
-        <v>0.9305555555555556</v>
-      </c>
+      <c r="B2" s="6" t="n"/>
+      <c r="C2" s="6" t="n"/>
+      <c r="D2" s="6" t="n"/>
+      <c r="E2" s="6" t="n"/>
       <c r="F2" s="7" t="n"/>
       <c r="G2" s="8" t="n"/>
       <c r="K2" s="2">
@@ -7769,18 +7033,10 @@
       <c r="A3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="n">
-        <v>0.3819444444444444</v>
-      </c>
-      <c r="C3" s="6" t="n">
-        <v>0.4840277777777778</v>
-      </c>
-      <c r="D3" s="6" t="n">
-        <v>0.5263888888888889</v>
-      </c>
-      <c r="E3" s="6" t="n">
-        <v>0.9201388888888888</v>
-      </c>
+      <c r="B3" s="6" t="n"/>
+      <c r="C3" s="6" t="n"/>
+      <c r="D3" s="6" t="n"/>
+      <c r="E3" s="6" t="n"/>
       <c r="F3" s="7" t="n"/>
       <c r="G3" s="8" t="n"/>
       <c r="K3" s="2">
@@ -7809,18 +7065,10 @@
       <c r="A4" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="n">
-        <v>0.6118055555555556</v>
-      </c>
-      <c r="C4" s="6" t="n">
-        <v>0.7131944444444445</v>
-      </c>
-      <c r="D4" s="6" t="n">
-        <v>0.7583333333333333</v>
-      </c>
-      <c r="E4" s="6" t="n">
-        <v>0.9305555555555556</v>
-      </c>
+      <c r="B4" s="6" t="n"/>
+      <c r="C4" s="6" t="n"/>
+      <c r="D4" s="6" t="n"/>
+      <c r="E4" s="6" t="n"/>
       <c r="F4" s="7" t="n"/>
       <c r="G4" s="8" t="n"/>
       <c r="K4" s="2">
@@ -7849,18 +7097,10 @@
       <c r="A5" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="n">
-        <v>0.6111111111111112</v>
-      </c>
-      <c r="C5" s="6" t="n">
-        <v>0.6694444444444444</v>
-      </c>
-      <c r="D5" s="6" t="n">
-        <v>0.7125</v>
-      </c>
-      <c r="E5" s="6" t="n">
-        <v>0.9326388888888889</v>
-      </c>
+      <c r="B5" s="6" t="n"/>
+      <c r="C5" s="6" t="n"/>
+      <c r="D5" s="6" t="n"/>
+      <c r="E5" s="6" t="n"/>
       <c r="F5" s="7" t="n"/>
       <c r="G5" s="8" t="n"/>
       <c r="K5" s="2">
@@ -7912,18 +7152,10 @@
       <c r="A7" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="n">
-        <v>0.6055555555555555</v>
-      </c>
-      <c r="C7" s="6" t="n">
-        <v>0.6777777777777778</v>
-      </c>
-      <c r="D7" s="6" t="n">
-        <v>0.7104166666666667</v>
-      </c>
-      <c r="E7" s="6" t="n">
-        <v>0.9263888888888889</v>
-      </c>
+      <c r="B7" s="6" t="n"/>
+      <c r="C7" s="6" t="n"/>
+      <c r="D7" s="6" t="n"/>
+      <c r="E7" s="6" t="n"/>
       <c r="F7" s="7" t="n"/>
       <c r="G7" s="8" t="n"/>
       <c r="K7" s="2">
@@ -7944,18 +7176,10 @@
       <c r="A8" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="n">
-        <v>0.6069444444444444</v>
-      </c>
-      <c r="C8" s="6" t="n">
-        <v>0.6673611111111111</v>
-      </c>
-      <c r="D8" s="6" t="n">
-        <v>0.7090277777777778</v>
-      </c>
-      <c r="E8" s="6" t="n">
-        <v>0.93125</v>
-      </c>
+      <c r="B8" s="6" t="n"/>
+      <c r="C8" s="6" t="n"/>
+      <c r="D8" s="6" t="n"/>
+      <c r="E8" s="6" t="n"/>
       <c r="F8" s="7" t="n"/>
       <c r="G8" s="8" t="n"/>
       <c r="K8" s="2">
@@ -7984,18 +7208,10 @@
       <c r="A9" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="n">
-        <v>0.6083333333333333</v>
-      </c>
-      <c r="C9" s="6" t="n">
-        <v>0.7138888888888889</v>
-      </c>
-      <c r="D9" s="6" t="n">
-        <v>0.7583333333333333</v>
-      </c>
-      <c r="E9" s="6" t="n">
-        <v>0.9229166666666667</v>
-      </c>
+      <c r="B9" s="6" t="n"/>
+      <c r="C9" s="6" t="n"/>
+      <c r="D9" s="6" t="n"/>
+      <c r="E9" s="6" t="n"/>
       <c r="F9" s="7" t="n"/>
       <c r="G9" s="8" t="n"/>
       <c r="K9" s="2">
@@ -8043,18 +7259,10 @@
       <c r="A11" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="n">
-        <v>0.6159722222222223</v>
-      </c>
-      <c r="C11" s="6" t="n">
-        <v>0.6625</v>
-      </c>
-      <c r="D11" s="6" t="n">
-        <v>0.7006944444444444</v>
-      </c>
-      <c r="E11" s="6" t="n">
-        <v>0.93125</v>
-      </c>
+      <c r="B11" s="6" t="n"/>
+      <c r="C11" s="6" t="n"/>
+      <c r="D11" s="6" t="n"/>
+      <c r="E11" s="6" t="n"/>
       <c r="F11" s="7" t="n"/>
       <c r="G11" s="8" t="n"/>
       <c r="K11" s="2">
@@ -8074,18 +7282,10 @@
       <c r="A12" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="n">
-        <v>0.61875</v>
-      </c>
-      <c r="C12" s="6" t="n">
-        <v>0.7104166666666667</v>
-      </c>
-      <c r="D12" s="6" t="n">
-        <v>0.7555555555555555</v>
-      </c>
-      <c r="E12" s="6" t="n">
-        <v>0.9291666666666667</v>
-      </c>
+      <c r="B12" s="6" t="n"/>
+      <c r="C12" s="6" t="n"/>
+      <c r="D12" s="6" t="n"/>
+      <c r="E12" s="6" t="n"/>
       <c r="F12" s="7" t="n"/>
       <c r="G12" s="8" t="n"/>
       <c r="K12" s="2">
@@ -8128,18 +7328,10 @@
       <c r="A14" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="n">
-        <v>0.6076388888888888</v>
-      </c>
-      <c r="C14" s="6" t="n">
-        <v>0.6708333333333333</v>
-      </c>
-      <c r="D14" s="6" t="n">
-        <v>0.7125</v>
-      </c>
-      <c r="E14" s="6" t="n">
-        <v>0.9291666666666667</v>
-      </c>
+      <c r="B14" s="6" t="n"/>
+      <c r="C14" s="6" t="n"/>
+      <c r="D14" s="6" t="n"/>
+      <c r="E14" s="6" t="n"/>
       <c r="F14" s="7" t="n"/>
       <c r="G14" s="8" t="n"/>
       <c r="K14" s="2">
@@ -8159,18 +7351,10 @@
       <c r="A15" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="n">
-        <v>0.6201388888888889</v>
-      </c>
-      <c r="C15" s="6" t="n">
-        <v>0.7111111111111111</v>
-      </c>
-      <c r="D15" s="6" t="n">
-        <v>0.7548611111111111</v>
-      </c>
-      <c r="E15" s="6" t="n">
-        <v>0.9291666666666667</v>
-      </c>
+      <c r="B15" s="6" t="n"/>
+      <c r="C15" s="6" t="n"/>
+      <c r="D15" s="6" t="n"/>
+      <c r="E15" s="6" t="n"/>
       <c r="F15" s="7" t="n"/>
       <c r="G15" s="8" t="n"/>
       <c r="K15" s="2">
@@ -8190,18 +7374,10 @@
       <c r="A16" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="n">
-        <v>0.6090277777777777</v>
-      </c>
-      <c r="C16" s="6" t="n">
-        <v>0.7131944444444445</v>
-      </c>
-      <c r="D16" s="6" t="n">
-        <v>0.7715277777777778</v>
-      </c>
-      <c r="E16" s="6" t="n">
-        <v>0.9298611111111111</v>
-      </c>
+      <c r="B16" s="6" t="n"/>
+      <c r="C16" s="6" t="n"/>
+      <c r="D16" s="6" t="n"/>
+      <c r="E16" s="6" t="n"/>
       <c r="F16" s="7" t="n"/>
       <c r="G16" s="8" t="n"/>
       <c r="K16" s="2">
@@ -8221,18 +7397,10 @@
       <c r="A17" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="n">
-        <v>0.3770833333333333</v>
-      </c>
-      <c r="C17" s="6" t="n">
-        <v>0.4791666666666667</v>
-      </c>
-      <c r="D17" s="6" t="n">
-        <v>0.5229166666666667</v>
-      </c>
-      <c r="E17" s="6" t="n">
-        <v>0.9229166666666667</v>
-      </c>
+      <c r="B17" s="6" t="n"/>
+      <c r="C17" s="6" t="n"/>
+      <c r="D17" s="6" t="n"/>
+      <c r="E17" s="6" t="n"/>
       <c r="F17" s="7" t="n"/>
       <c r="G17" s="8" t="n"/>
       <c r="K17" s="2">
@@ -8252,18 +7420,10 @@
       <c r="A18" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="n">
-        <v>0.6152777777777778</v>
-      </c>
-      <c r="C18" s="6" t="n">
-        <v>0.6722222222222223</v>
-      </c>
-      <c r="D18" s="6" t="n">
-        <v>0.7166666666666667</v>
-      </c>
-      <c r="E18" s="6" t="n">
-        <v>0.9284722222222223</v>
-      </c>
+      <c r="B18" s="6" t="n"/>
+      <c r="C18" s="6" t="n"/>
+      <c r="D18" s="6" t="n"/>
+      <c r="E18" s="6" t="n"/>
       <c r="F18" s="7" t="n"/>
       <c r="G18" s="8" t="n"/>
       <c r="K18" s="2">
@@ -8283,18 +7443,10 @@
       <c r="A19" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="n">
-        <v>0.6138888888888889</v>
-      </c>
-      <c r="C19" s="6" t="n">
-        <v>0.6631944444444444</v>
-      </c>
-      <c r="D19" s="6" t="n">
-        <v>0.7048611111111112</v>
-      </c>
-      <c r="E19" s="6" t="n">
-        <v>0.925</v>
-      </c>
+      <c r="B19" s="6" t="n"/>
+      <c r="C19" s="6" t="n"/>
+      <c r="D19" s="6" t="n"/>
+      <c r="E19" s="6" t="n"/>
       <c r="F19" s="7" t="n"/>
       <c r="G19" s="8" t="n"/>
       <c r="K19" s="2">
@@ -8337,18 +7489,10 @@
       <c r="A21" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="n">
-        <v>0.6145833333333334</v>
-      </c>
-      <c r="C21" s="6" t="n">
-        <v>0.7145833333333333</v>
-      </c>
-      <c r="D21" s="6" t="n">
-        <v>0.7583333333333333</v>
-      </c>
-      <c r="E21" s="6" t="n">
-        <v>0.9256944444444445</v>
-      </c>
+      <c r="B21" s="6" t="n"/>
+      <c r="C21" s="6" t="n"/>
+      <c r="D21" s="6" t="n"/>
+      <c r="E21" s="6" t="n"/>
       <c r="F21" s="7" t="n"/>
       <c r="G21" s="8" t="n"/>
       <c r="K21" s="2">
@@ -8368,18 +7512,10 @@
       <c r="A22" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="n">
-        <v>0.6125</v>
-      </c>
-      <c r="C22" s="6" t="n">
-        <v>0.6701388888888888</v>
-      </c>
-      <c r="D22" s="6" t="n">
-        <v>0.7138888888888889</v>
-      </c>
-      <c r="E22" s="6" t="n">
-        <v>0.93125</v>
-      </c>
+      <c r="B22" s="6" t="n"/>
+      <c r="C22" s="6" t="n"/>
+      <c r="D22" s="6" t="n"/>
+      <c r="E22" s="6" t="n"/>
       <c r="F22" s="7" t="n"/>
       <c r="G22" s="8" t="n"/>
       <c r="K22" s="2">
@@ -8399,18 +7535,10 @@
       <c r="A23" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="n">
-        <v>0.6097222222222223</v>
-      </c>
-      <c r="C23" s="6" t="n">
-        <v>0.7138888888888889</v>
-      </c>
-      <c r="D23" s="6" t="n">
-        <v>0.7590277777777777</v>
-      </c>
-      <c r="E23" s="6" t="n">
-        <v>0.9243055555555556</v>
-      </c>
+      <c r="B23" s="6" t="n"/>
+      <c r="C23" s="6" t="n"/>
+      <c r="D23" s="6" t="n"/>
+      <c r="E23" s="6" t="n"/>
       <c r="F23" s="7" t="n"/>
       <c r="G23" s="8" t="n"/>
       <c r="K23" s="2">
@@ -8453,18 +7581,10 @@
       <c r="A25" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="6" t="n">
-        <v>0.6090277777777777</v>
-      </c>
-      <c r="C25" s="6" t="n">
-        <v>0.6611111111111111</v>
-      </c>
-      <c r="D25" s="6" t="n">
-        <v>0.7027777777777777</v>
-      </c>
-      <c r="E25" s="6" t="n">
-        <v>0.9305555555555556</v>
-      </c>
+      <c r="B25" s="6" t="n"/>
+      <c r="C25" s="6" t="n"/>
+      <c r="D25" s="6" t="n"/>
+      <c r="E25" s="6" t="n"/>
       <c r="F25" s="7" t="n"/>
       <c r="G25" s="8" t="n"/>
       <c r="K25" s="2">
@@ -8484,18 +7604,10 @@
       <c r="A26" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="6" t="n">
-        <v>0.6097222222222223</v>
-      </c>
-      <c r="C26" s="6" t="n">
-        <v>0.6638888888888889</v>
-      </c>
-      <c r="D26" s="6" t="n">
-        <v>0.7076388888888889</v>
-      </c>
-      <c r="E26" s="6" t="n">
-        <v>0.9305555555555556</v>
-      </c>
+      <c r="B26" s="6" t="n"/>
+      <c r="C26" s="6" t="n"/>
+      <c r="D26" s="6" t="n"/>
+      <c r="E26" s="6" t="n"/>
       <c r="F26" s="7" t="n"/>
       <c r="G26" s="8" t="n"/>
       <c r="K26" s="2">
@@ -8538,18 +7650,10 @@
       <c r="A28" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="6" t="n">
-        <v>0.6125</v>
-      </c>
-      <c r="C28" s="6" t="n">
-        <v>0.7111111111111111</v>
-      </c>
-      <c r="D28" s="6" t="n">
-        <v>0.7569444444444444</v>
-      </c>
-      <c r="E28" s="6" t="n">
-        <v>0.9256944444444445</v>
-      </c>
+      <c r="B28" s="6" t="n"/>
+      <c r="C28" s="6" t="n"/>
+      <c r="D28" s="6" t="n"/>
+      <c r="E28" s="6" t="n"/>
       <c r="F28" s="7" t="n"/>
       <c r="G28" s="8" t="n"/>
       <c r="K28" s="2">
@@ -8569,18 +7673,10 @@
       <c r="A29" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="6" t="n">
-        <v>0.6104166666666667</v>
-      </c>
-      <c r="C29" s="6" t="n">
-        <v>0.6625</v>
-      </c>
-      <c r="D29" s="6" t="n">
-        <v>0.7041666666666667</v>
-      </c>
-      <c r="E29" s="6" t="n">
-        <v>0.9305555555555556</v>
-      </c>
+      <c r="B29" s="6" t="n"/>
+      <c r="C29" s="6" t="n"/>
+      <c r="D29" s="6" t="n"/>
+      <c r="E29" s="6" t="n"/>
       <c r="F29" s="7" t="n"/>
       <c r="G29" s="8" t="n"/>
       <c r="K29" s="2">
@@ -8716,7 +7812,7 @@
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B2" sqref="B2:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
@@ -8790,18 +7886,10 @@
       <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="n">
-        <v>0.3680555555555556</v>
-      </c>
-      <c r="C2" s="6" t="n">
-        <v>0.6291666666666667</v>
-      </c>
-      <c r="D2" s="6" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="E2" s="6" t="n">
-        <v>0.6972222222222222</v>
-      </c>
+      <c r="B2" s="6" t="n"/>
+      <c r="C2" s="6" t="n"/>
+      <c r="D2" s="6" t="n"/>
+      <c r="E2" s="6" t="n"/>
       <c r="F2" s="7" t="n"/>
       <c r="G2" s="8" t="n"/>
       <c r="K2" s="2">
@@ -8831,18 +7919,10 @@
       <c r="A3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="n">
-        <v>0.3548611111111111</v>
-      </c>
-      <c r="C3" s="6" t="n">
-        <v>0.5243055555555556</v>
-      </c>
-      <c r="D3" s="6" t="n">
-        <v>0.5625</v>
-      </c>
-      <c r="E3" s="6" t="n">
-        <v>0.9131944444444444</v>
-      </c>
+      <c r="B3" s="6" t="n"/>
+      <c r="C3" s="6" t="n"/>
+      <c r="D3" s="6" t="n"/>
+      <c r="E3" s="6" t="n"/>
       <c r="F3" s="7" t="n"/>
       <c r="G3" s="8" t="n"/>
       <c r="K3" s="2">
@@ -8903,18 +7983,10 @@
       <c r="A5" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="n">
-        <v>0.3430555555555556</v>
-      </c>
-      <c r="C5" s="6" t="n">
-        <v>0.5625</v>
-      </c>
-      <c r="D5" s="6" t="n">
-        <v>0.6013888888888889</v>
-      </c>
-      <c r="E5" s="6" t="n">
-        <v>0.6965277777777777</v>
-      </c>
+      <c r="B5" s="6" t="n"/>
+      <c r="C5" s="6" t="n"/>
+      <c r="D5" s="6" t="n"/>
+      <c r="E5" s="6" t="n"/>
       <c r="F5" s="7" t="n"/>
       <c r="G5" s="8" t="n"/>
       <c r="K5" s="2">
@@ -8934,18 +8006,10 @@
       <c r="A6" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="n">
-        <v>0.3604166666666667</v>
-      </c>
-      <c r="C6" s="6" t="n">
-        <v>0.6090277777777777</v>
-      </c>
-      <c r="D6" s="6" t="n">
-        <v>0.6590277777777778</v>
-      </c>
-      <c r="E6" s="6" t="n">
-        <v>0.6902777777777778</v>
-      </c>
+      <c r="B6" s="6" t="n"/>
+      <c r="C6" s="6" t="n"/>
+      <c r="D6" s="6" t="n"/>
+      <c r="E6" s="6" t="n"/>
       <c r="F6" s="7" t="n"/>
       <c r="G6" s="8" t="n"/>
       <c r="K6" s="2">
@@ -8974,18 +8038,10 @@
       <c r="A7" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="n">
-        <v>0.3513888888888889</v>
-      </c>
-      <c r="C7" s="6" t="n">
-        <v>0.6090277777777777</v>
-      </c>
-      <c r="D7" s="6" t="n">
-        <v>0.6541666666666667</v>
-      </c>
-      <c r="E7" s="6" t="n">
-        <v>0.6875</v>
-      </c>
+      <c r="B7" s="6" t="n"/>
+      <c r="C7" s="6" t="n"/>
+      <c r="D7" s="6" t="n"/>
+      <c r="E7" s="6" t="n"/>
       <c r="F7" s="7" t="n"/>
       <c r="G7" s="8" t="n"/>
       <c r="K7" s="2">
@@ -9006,18 +8062,10 @@
       <c r="A8" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="n">
-        <v>0.3576388888888889</v>
-      </c>
-      <c r="C8" s="6" t="n">
-        <v>0.5472222222222223</v>
-      </c>
-      <c r="D8" s="6" t="n">
-        <v>0.5881944444444445</v>
-      </c>
-      <c r="E8" s="6" t="n">
-        <v>0.6881944444444444</v>
-      </c>
+      <c r="B8" s="6" t="n"/>
+      <c r="C8" s="6" t="n"/>
+      <c r="D8" s="6" t="n"/>
+      <c r="E8" s="6" t="n"/>
       <c r="F8" s="7" t="n"/>
       <c r="G8" s="8" t="n"/>
       <c r="K8" s="2">
@@ -9046,18 +8094,10 @@
       <c r="A9" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="n">
-        <v>0.3590277777777778</v>
-      </c>
-      <c r="C9" s="6" t="n">
-        <v>0.6180555555555556</v>
-      </c>
-      <c r="D9" s="6" t="n">
-        <v>0.6611111111111111</v>
-      </c>
-      <c r="E9" s="6" t="n">
-        <v>0.7208333333333333</v>
-      </c>
+      <c r="B9" s="6" t="n"/>
+      <c r="C9" s="6" t="n"/>
+      <c r="D9" s="6" t="n"/>
+      <c r="E9" s="6" t="n"/>
       <c r="F9" s="7" t="n"/>
       <c r="G9" s="8" t="n"/>
       <c r="K9" s="2">
@@ -9105,18 +8145,10 @@
       <c r="A11" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="n">
-        <v>0.3520833333333334</v>
-      </c>
-      <c r="C11" s="6" t="n">
-        <v>0.5701388888888889</v>
-      </c>
-      <c r="D11" s="6" t="n">
-        <v>0.6131944444444445</v>
-      </c>
-      <c r="E11" s="6" t="n">
-        <v>0.6854166666666667</v>
-      </c>
+      <c r="B11" s="6" t="n"/>
+      <c r="C11" s="6" t="n"/>
+      <c r="D11" s="6" t="n"/>
+      <c r="E11" s="6" t="n"/>
       <c r="F11" s="7" t="n"/>
       <c r="G11" s="8" t="n"/>
       <c r="K11" s="2">
@@ -9159,18 +8191,10 @@
       <c r="A13" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="n">
-        <v>0.35625</v>
-      </c>
-      <c r="C13" s="6" t="n">
-        <v>0.6076388888888888</v>
-      </c>
-      <c r="D13" s="6" t="n">
-        <v>0.6506944444444445</v>
-      </c>
-      <c r="E13" s="6" t="n">
-        <v>0.6902777777777778</v>
-      </c>
+      <c r="B13" s="6" t="n"/>
+      <c r="C13" s="6" t="n"/>
+      <c r="D13" s="6" t="n"/>
+      <c r="E13" s="6" t="n"/>
       <c r="F13" s="7" t="n"/>
       <c r="G13" s="8" t="n"/>
       <c r="K13" s="2">
@@ -9190,18 +8214,10 @@
       <c r="A14" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="n">
-        <v>0.3506944444444444</v>
-      </c>
-      <c r="C14" s="6" t="n">
-        <v>0.6131944444444445</v>
-      </c>
-      <c r="D14" s="6" t="n">
-        <v>0.6555555555555556</v>
-      </c>
-      <c r="E14" s="6" t="n">
-        <v>0.6895833333333333</v>
-      </c>
+      <c r="B14" s="6" t="n"/>
+      <c r="C14" s="6" t="n"/>
+      <c r="D14" s="6" t="n"/>
+      <c r="E14" s="6" t="n"/>
       <c r="F14" s="7" t="n"/>
       <c r="G14" s="8" t="n"/>
       <c r="K14" s="2">
@@ -9221,18 +8237,10 @@
       <c r="A15" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="n">
-        <v>0.3680555555555556</v>
-      </c>
-      <c r="C15" s="6" t="n">
-        <v>0.5597222222222222</v>
-      </c>
-      <c r="D15" s="6" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="E15" s="6" t="n">
-        <v>0.7118055555555556</v>
-      </c>
+      <c r="B15" s="6" t="n"/>
+      <c r="C15" s="6" t="n"/>
+      <c r="D15" s="6" t="n"/>
+      <c r="E15" s="6" t="n"/>
       <c r="F15" s="7" t="n"/>
       <c r="G15" s="8" t="n"/>
       <c r="K15" s="2">
@@ -9252,18 +8260,10 @@
       <c r="A16" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="n">
-        <v>0.3756944444444444</v>
-      </c>
-      <c r="C16" s="6" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="D16" s="6" t="n">
-        <v>0.6680555555555555</v>
-      </c>
-      <c r="E16" s="6" t="n">
-        <v>0.7236111111111111</v>
-      </c>
+      <c r="B16" s="6" t="n"/>
+      <c r="C16" s="6" t="n"/>
+      <c r="D16" s="6" t="n"/>
+      <c r="E16" s="6" t="n"/>
       <c r="F16" s="7" t="n"/>
       <c r="G16" s="8" t="n"/>
       <c r="K16" s="2">
@@ -9283,18 +8283,10 @@
       <c r="A17" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="n">
-        <v>0.34375</v>
-      </c>
-      <c r="C17" s="6" t="n">
-        <v>0.5770833333333333</v>
-      </c>
-      <c r="D17" s="6" t="n">
-        <v>0.6236111111111111</v>
-      </c>
-      <c r="E17" s="6" t="n">
-        <v>0.9159722222222222</v>
-      </c>
+      <c r="B17" s="6" t="n"/>
+      <c r="C17" s="6" t="n"/>
+      <c r="D17" s="6" t="n"/>
+      <c r="E17" s="6" t="n"/>
       <c r="F17" s="7" t="n"/>
       <c r="G17" s="8" t="n"/>
       <c r="K17" s="2">
@@ -9314,18 +8306,10 @@
       <c r="A18" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="n">
-        <v>0.3416666666666667</v>
-      </c>
-      <c r="C18" s="6" t="n">
-        <v>0.5375</v>
-      </c>
-      <c r="D18" s="6" t="n">
-        <v>0.5784722222222223</v>
-      </c>
-      <c r="E18" s="6" t="n">
-        <v>0.6854166666666667</v>
-      </c>
+      <c r="B18" s="6" t="n"/>
+      <c r="C18" s="6" t="n"/>
+      <c r="D18" s="6" t="n"/>
+      <c r="E18" s="6" t="n"/>
       <c r="F18" s="7" t="n"/>
       <c r="G18" s="8" t="n"/>
       <c r="K18" s="2">
@@ -9368,18 +8352,10 @@
       <c r="A20" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="n">
-        <v>0.3451388888888889</v>
-      </c>
-      <c r="C20" s="6" t="n">
-        <v>0.6104166666666667</v>
-      </c>
-      <c r="D20" s="6" t="n">
-        <v>0.6534722222222222</v>
-      </c>
-      <c r="E20" s="6" t="n">
-        <v>0.6854166666666667</v>
-      </c>
+      <c r="B20" s="6" t="n"/>
+      <c r="C20" s="6" t="n"/>
+      <c r="D20" s="6" t="n"/>
+      <c r="E20" s="6" t="n"/>
       <c r="F20" s="7" t="n"/>
       <c r="G20" s="8" t="n"/>
       <c r="K20" s="2">
@@ -9399,18 +8375,10 @@
       <c r="A21" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="n">
-        <v>0.3506944444444444</v>
-      </c>
-      <c r="C21" s="6" t="n">
-        <v>0.6111111111111112</v>
-      </c>
-      <c r="D21" s="6" t="n">
-        <v>0.6569444444444444</v>
-      </c>
-      <c r="E21" s="6" t="n">
-        <v>0.6902777777777778</v>
-      </c>
+      <c r="B21" s="6" t="n"/>
+      <c r="C21" s="6" t="n"/>
+      <c r="D21" s="6" t="n"/>
+      <c r="E21" s="6" t="n"/>
       <c r="F21" s="7" t="n"/>
       <c r="G21" s="8" t="n"/>
       <c r="K21" s="2">
@@ -9430,18 +8398,10 @@
       <c r="A22" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="n">
-        <v>0.3479166666666667</v>
-      </c>
-      <c r="C22" s="6" t="n">
-        <v>0.5638888888888889</v>
-      </c>
-      <c r="D22" s="6" t="n">
-        <v>0.6048611111111111</v>
-      </c>
-      <c r="E22" s="6" t="n">
-        <v>0.6826388888888889</v>
-      </c>
+      <c r="B22" s="6" t="n"/>
+      <c r="C22" s="6" t="n"/>
+      <c r="D22" s="6" t="n"/>
+      <c r="E22" s="6" t="n"/>
       <c r="F22" s="7" t="n"/>
       <c r="G22" s="8" t="n"/>
       <c r="K22" s="2">
@@ -9461,18 +8421,10 @@
       <c r="A23" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="n">
-        <v>0.3597222222222222</v>
-      </c>
-      <c r="C23" s="6" t="n">
-        <v>0.6256944444444444</v>
-      </c>
-      <c r="D23" s="6" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="E23" s="6" t="n">
-        <v>0.6965277777777777</v>
-      </c>
+      <c r="B23" s="6" t="n"/>
+      <c r="C23" s="6" t="n"/>
+      <c r="D23" s="6" t="n"/>
+      <c r="E23" s="6" t="n"/>
       <c r="F23" s="7" t="n"/>
       <c r="G23" s="8" t="n"/>
       <c r="K23" s="2">
@@ -9515,18 +8467,10 @@
       <c r="A25" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="6" t="n">
-        <v>0.3541666666666667</v>
-      </c>
-      <c r="C25" s="6" t="n">
-        <v>0.5506944444444445</v>
-      </c>
-      <c r="D25" s="6" t="n">
-        <v>0.59375</v>
-      </c>
-      <c r="E25" s="6" t="n">
-        <v>0.6881944444444444</v>
-      </c>
+      <c r="B25" s="6" t="n"/>
+      <c r="C25" s="6" t="n"/>
+      <c r="D25" s="6" t="n"/>
+      <c r="E25" s="6" t="n"/>
       <c r="F25" s="7" t="n"/>
       <c r="G25" s="8" t="n"/>
       <c r="K25" s="2">
@@ -9569,18 +8513,10 @@
       <c r="A27" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="6" t="n">
-        <v>0.3451388888888889</v>
-      </c>
-      <c r="C27" s="6" t="n">
-        <v>0.6173611111111111</v>
-      </c>
-      <c r="D27" s="6" t="n">
-        <v>0.6576388888888889</v>
-      </c>
-      <c r="E27" s="6" t="n">
-        <v>0.6909722222222222</v>
-      </c>
+      <c r="B27" s="6" t="n"/>
+      <c r="C27" s="6" t="n"/>
+      <c r="D27" s="6" t="n"/>
+      <c r="E27" s="6" t="n"/>
       <c r="F27" s="7" t="n"/>
       <c r="G27" s="8" t="n"/>
       <c r="K27" s="2">
@@ -9600,18 +8536,10 @@
       <c r="A28" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="6" t="n">
-        <v>0.35625</v>
-      </c>
-      <c r="C28" s="6" t="n">
-        <v>0.6104166666666667</v>
-      </c>
-      <c r="D28" s="6" t="n">
-        <v>0.6541666666666667</v>
-      </c>
-      <c r="E28" s="6" t="n">
-        <v>0.6930555555555555</v>
-      </c>
+      <c r="B28" s="6" t="n"/>
+      <c r="C28" s="6" t="n"/>
+      <c r="D28" s="6" t="n"/>
+      <c r="E28" s="6" t="n"/>
       <c r="F28" s="7" t="n"/>
       <c r="G28" s="8" t="n"/>
       <c r="K28" s="2">
@@ -9631,18 +8559,10 @@
       <c r="A29" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="6" t="n">
-        <v>0.3555555555555556</v>
-      </c>
-      <c r="C29" s="6" t="n">
-        <v>0.5618055555555556</v>
-      </c>
-      <c r="D29" s="6" t="n">
-        <v>0.6069444444444444</v>
-      </c>
-      <c r="E29" s="12" t="n">
-        <v>0.6888888888888889</v>
-      </c>
+      <c r="B29" s="6" t="n"/>
+      <c r="C29" s="6" t="n"/>
+      <c r="D29" s="6" t="n"/>
+      <c r="E29" s="12" t="n"/>
       <c r="F29" s="7" t="n"/>
       <c r="G29" s="8" t="n"/>
       <c r="K29" s="2">
@@ -9778,7 +8698,7 @@
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B2" sqref="B2:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
@@ -9852,18 +8772,10 @@
       <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="n">
-        <v>0.6111111111111112</v>
-      </c>
-      <c r="C2" s="6" t="n">
-        <v>0.6875</v>
-      </c>
-      <c r="D2" s="6" t="n">
-        <v>0.7291666666666666</v>
-      </c>
-      <c r="E2" s="6" t="n">
-        <v>0.9166666666666666</v>
-      </c>
+      <c r="B2" s="6" t="n"/>
+      <c r="C2" s="6" t="n"/>
+      <c r="D2" s="6" t="n"/>
+      <c r="E2" s="6" t="n"/>
       <c r="F2" s="7" t="n"/>
       <c r="G2" s="8" t="n"/>
       <c r="K2" s="2">
@@ -9925,18 +8837,10 @@
       <c r="A4" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="n">
-        <v>0.3854166666666667</v>
-      </c>
-      <c r="C4" s="6" t="n">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="D4" s="6" t="n">
-        <v>0.6180555555555556</v>
-      </c>
-      <c r="E4" s="6" t="n">
-        <v>0.6666666666666666</v>
-      </c>
+      <c r="B4" s="6" t="n"/>
+      <c r="C4" s="6" t="n"/>
+      <c r="D4" s="6" t="n"/>
+      <c r="E4" s="6" t="n"/>
       <c r="F4" s="7" t="n"/>
       <c r="G4" s="8" t="n"/>
       <c r="K4" s="2">
@@ -9988,18 +8892,10 @@
       <c r="A6" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="n">
-        <v>0.6034722222222222</v>
-      </c>
-      <c r="C6" s="6" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="D6" s="6" t="n">
-        <v>0.6673611111111111</v>
-      </c>
-      <c r="E6" s="6" t="n">
-        <v>0.875</v>
-      </c>
+      <c r="B6" s="6" t="n"/>
+      <c r="C6" s="6" t="n"/>
+      <c r="D6" s="6" t="n"/>
+      <c r="E6" s="6" t="n"/>
       <c r="F6" s="7" t="n"/>
       <c r="G6" s="8" t="n"/>
       <c r="K6" s="2">
@@ -10028,18 +8924,10 @@
       <c r="A7" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="n">
-        <v>0.6069444444444444</v>
-      </c>
-      <c r="C7" s="6" t="n">
-        <v>0.7138888888888889</v>
-      </c>
-      <c r="D7" s="6" t="n">
-        <v>0.7430555555555556</v>
-      </c>
-      <c r="E7" s="6" t="n">
-        <v>0.9166666666666666</v>
-      </c>
+      <c r="B7" s="6" t="n"/>
+      <c r="C7" s="6" t="n"/>
+      <c r="D7" s="6" t="n"/>
+      <c r="E7" s="6" t="n"/>
       <c r="F7" s="7" t="n"/>
       <c r="G7" s="8" t="n"/>
       <c r="K7" s="2">
@@ -10060,18 +8948,10 @@
       <c r="A8" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="n">
-        <v>0.6076388888888888</v>
-      </c>
-      <c r="C8" s="6" t="n">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="D8" s="6" t="n">
-        <v>0.7534722222222222</v>
-      </c>
-      <c r="E8" s="6" t="n">
-        <v>0.91875</v>
-      </c>
+      <c r="B8" s="6" t="n"/>
+      <c r="C8" s="6" t="n"/>
+      <c r="D8" s="6" t="n"/>
+      <c r="E8" s="6" t="n"/>
       <c r="F8" s="7" t="n"/>
       <c r="G8" s="8" t="n"/>
       <c r="K8" s="2">
@@ -10100,18 +8980,10 @@
       <c r="A9" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="n">
-        <v>0.60625</v>
-      </c>
-      <c r="C9" s="6" t="n">
-        <v>0.7111111111111111</v>
-      </c>
-      <c r="D9" s="6" t="n">
-        <v>0.7534722222222222</v>
-      </c>
-      <c r="E9" s="6" t="n">
-        <v>0.9173611111111111</v>
-      </c>
+      <c r="B9" s="6" t="n"/>
+      <c r="C9" s="6" t="n"/>
+      <c r="D9" s="6" t="n"/>
+      <c r="E9" s="6" t="n"/>
       <c r="F9" s="7" t="n"/>
       <c r="G9" s="8" t="n"/>
       <c r="K9" s="2">
@@ -10131,18 +9003,10 @@
       <c r="A10" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="n">
-        <v>0.3256944444444445</v>
-      </c>
-      <c r="C10" s="6" t="n">
-        <v>0.5048611111111111</v>
-      </c>
-      <c r="D10" s="6" t="n">
-        <v>0.5486111111111112</v>
-      </c>
-      <c r="E10" s="6" t="n">
-        <v>0.9180555555555555</v>
-      </c>
+      <c r="B10" s="6" t="n"/>
+      <c r="C10" s="6" t="n"/>
+      <c r="D10" s="6" t="n"/>
+      <c r="E10" s="6" t="n"/>
       <c r="F10" s="7" t="n"/>
       <c r="G10" s="8" t="n"/>
       <c r="K10" s="2">
@@ -10190,18 +9054,10 @@
       <c r="A12" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="n">
-        <v>0.3131944444444444</v>
-      </c>
-      <c r="C12" s="6" t="n">
-        <v>0.5840277777777778</v>
-      </c>
-      <c r="D12" s="6" t="n">
-        <v>0.61875</v>
-      </c>
-      <c r="E12" s="6" t="n">
-        <v>0.6666666666666666</v>
-      </c>
+      <c r="B12" s="6" t="n"/>
+      <c r="C12" s="6" t="n"/>
+      <c r="D12" s="6" t="n"/>
+      <c r="E12" s="6" t="n"/>
       <c r="F12" s="7" t="n"/>
       <c r="G12" s="8" t="n"/>
       <c r="K12" s="2">
@@ -10221,18 +9077,10 @@
       <c r="A13" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="n">
-        <v>0.6034722222222222</v>
-      </c>
-      <c r="C13" s="6" t="n">
-        <v>0.7090277777777778</v>
-      </c>
-      <c r="D13" s="6" t="n">
-        <v>0.7513888888888889</v>
-      </c>
-      <c r="E13" s="6" t="n">
-        <v>0.9208333333333333</v>
-      </c>
+      <c r="B13" s="6" t="n"/>
+      <c r="C13" s="6" t="n"/>
+      <c r="D13" s="6" t="n"/>
+      <c r="E13" s="6" t="n"/>
       <c r="F13" s="7" t="n"/>
       <c r="G13" s="8" t="n"/>
       <c r="K13" s="2">
@@ -10252,18 +9100,10 @@
       <c r="A14" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="n">
-        <v>0.6027777777777777</v>
-      </c>
-      <c r="C14" s="6" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="D14" s="6" t="n">
-        <v>0.6673611111111111</v>
-      </c>
-      <c r="E14" s="6" t="n">
-        <v>0.8736111111111111</v>
-      </c>
+      <c r="B14" s="6" t="n"/>
+      <c r="C14" s="6" t="n"/>
+      <c r="D14" s="6" t="n"/>
+      <c r="E14" s="6" t="n"/>
       <c r="F14" s="7" t="n"/>
       <c r="G14" s="8" t="n"/>
       <c r="K14" s="2">
@@ -10283,18 +9123,10 @@
       <c r="A15" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="n">
-        <v>0.3229166666666667</v>
-      </c>
-      <c r="C15" s="6" t="n">
-        <v>0.5840277777777778</v>
-      </c>
-      <c r="D15" s="6" t="n">
-        <v>0.5847222222222223</v>
-      </c>
-      <c r="E15" s="6" t="n">
-        <v>0.6666666666666666</v>
-      </c>
+      <c r="B15" s="6" t="n"/>
+      <c r="C15" s="6" t="n"/>
+      <c r="D15" s="6" t="n"/>
+      <c r="E15" s="6" t="n"/>
       <c r="F15" s="7" t="n"/>
       <c r="G15" s="8" t="n"/>
       <c r="K15" s="2">
@@ -10314,18 +9146,10 @@
       <c r="A16" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="n">
-        <v>0.6041666666666666</v>
-      </c>
-      <c r="C16" s="6" t="n">
-        <v>0.6784722222222223</v>
-      </c>
-      <c r="D16" s="6" t="n">
-        <v>0.7111111111111111</v>
-      </c>
-      <c r="E16" s="6" t="n">
-        <v>0.9229166666666667</v>
-      </c>
+      <c r="B16" s="6" t="n"/>
+      <c r="C16" s="6" t="n"/>
+      <c r="D16" s="6" t="n"/>
+      <c r="E16" s="6" t="n"/>
       <c r="F16" s="7" t="n"/>
       <c r="G16" s="8" t="n"/>
       <c r="K16" s="2">
@@ -10391,18 +9215,10 @@
       <c r="A19" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="n">
-        <v>0.3215277777777778</v>
-      </c>
-      <c r="C19" s="6" t="n">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="D19" s="6" t="n">
-        <v>0.61875</v>
-      </c>
-      <c r="E19" s="6" t="n">
-        <v>0.6666666666666666</v>
-      </c>
+      <c r="B19" s="6" t="n"/>
+      <c r="C19" s="6" t="n"/>
+      <c r="D19" s="6" t="n"/>
+      <c r="E19" s="6" t="n"/>
       <c r="F19" s="7" t="n"/>
       <c r="G19" s="8" t="n"/>
       <c r="K19" s="2">
@@ -10422,18 +9238,10 @@
       <c r="A20" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="n">
-        <v>0.6055555555555555</v>
-      </c>
-      <c r="C20" s="6" t="n">
-        <v>0.6715277777777777</v>
-      </c>
-      <c r="D20" s="6" t="n">
-        <v>0.7090277777777778</v>
-      </c>
-      <c r="E20" s="6" t="n">
-        <v>0.9201388888888888</v>
-      </c>
+      <c r="B20" s="6" t="n"/>
+      <c r="C20" s="6" t="n"/>
+      <c r="D20" s="6" t="n"/>
+      <c r="E20" s="6" t="n"/>
       <c r="F20" s="7" t="n"/>
       <c r="G20" s="8" t="n"/>
       <c r="K20" s="2">
@@ -10453,18 +9261,10 @@
       <c r="A21" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="n">
-        <v>0.60625</v>
-      </c>
-      <c r="C21" s="6" t="n">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="D21" s="6" t="n">
-        <v>0.7479166666666667</v>
-      </c>
-      <c r="E21" s="6" t="n">
-        <v>0.9166666666666666</v>
-      </c>
+      <c r="B21" s="6" t="n"/>
+      <c r="C21" s="6" t="n"/>
+      <c r="D21" s="6" t="n"/>
+      <c r="E21" s="6" t="n"/>
       <c r="F21" s="7" t="n"/>
       <c r="G21" s="8" t="n"/>
       <c r="K21" s="2">
@@ -10484,18 +9284,10 @@
       <c r="A22" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="n">
-        <v>0.6069444444444444</v>
-      </c>
-      <c r="C22" s="6" t="n">
-        <v>0.6673611111111111</v>
-      </c>
-      <c r="D22" s="6" t="n">
-        <v>0.6680555555555555</v>
-      </c>
-      <c r="E22" s="6" t="n">
-        <v>0.875</v>
-      </c>
+      <c r="B22" s="6" t="n"/>
+      <c r="C22" s="6" t="n"/>
+      <c r="D22" s="6" t="n"/>
+      <c r="E22" s="6" t="n"/>
       <c r="F22" s="7" t="n"/>
       <c r="G22" s="8" t="n"/>
       <c r="K22" s="2">
@@ -10515,18 +9307,10 @@
       <c r="A23" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="n">
-        <v>0.6076388888888888</v>
-      </c>
-      <c r="C23" s="6" t="n">
-        <v>0.6680555555555555</v>
-      </c>
-      <c r="D23" s="6" t="n">
-        <v>0.7104166666666667</v>
-      </c>
-      <c r="E23" s="6" t="n">
-        <v>0.9208333333333333</v>
-      </c>
+      <c r="B23" s="6" t="n"/>
+      <c r="C23" s="6" t="n"/>
+      <c r="D23" s="6" t="n"/>
+      <c r="E23" s="6" t="n"/>
       <c r="F23" s="7" t="n"/>
       <c r="G23" s="8" t="n"/>
       <c r="K23" s="2">
@@ -10546,18 +9330,10 @@
       <c r="A24" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="6" t="n">
-        <v>0.3180555555555555</v>
-      </c>
-      <c r="C24" s="6" t="n">
-        <v>0.5020833333333333</v>
-      </c>
-      <c r="D24" s="6" t="n">
-        <v>0.5416666666666666</v>
-      </c>
-      <c r="E24" s="6" t="n">
-        <v>0.9194444444444444</v>
-      </c>
+      <c r="B24" s="6" t="n"/>
+      <c r="C24" s="6" t="n"/>
+      <c r="D24" s="6" t="n"/>
+      <c r="E24" s="6" t="n"/>
       <c r="F24" s="7" t="n"/>
       <c r="G24" s="8" t="n"/>
       <c r="K24" s="2">
@@ -10600,18 +9376,10 @@
       <c r="A26" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="6" t="n">
-        <v>0.31875</v>
-      </c>
-      <c r="C26" s="6" t="n">
-        <v>0.5840277777777778</v>
-      </c>
-      <c r="D26" s="6" t="n">
-        <v>0.63125</v>
-      </c>
-      <c r="E26" s="6" t="n">
-        <v>0.6708333333333333</v>
-      </c>
+      <c r="B26" s="6" t="n"/>
+      <c r="C26" s="6" t="n"/>
+      <c r="D26" s="6" t="n"/>
+      <c r="E26" s="6" t="n"/>
       <c r="F26" s="7" t="n"/>
       <c r="G26" s="8" t="n"/>
       <c r="K26" s="2">
@@ -10631,18 +9399,10 @@
       <c r="A27" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="6" t="n">
-        <v>0.6076388888888888</v>
-      </c>
-      <c r="C27" s="6" t="n">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="D27" s="6" t="n">
-        <v>0.7506944444444444</v>
-      </c>
-      <c r="E27" s="6" t="n">
-        <v>0.9208333333333333</v>
-      </c>
+      <c r="B27" s="6" t="n"/>
+      <c r="C27" s="6" t="n"/>
+      <c r="D27" s="6" t="n"/>
+      <c r="E27" s="6" t="n"/>
       <c r="F27" s="7" t="n"/>
       <c r="G27" s="8" t="n"/>
       <c r="K27" s="2">
@@ -10662,18 +9422,10 @@
       <c r="A28" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="6" t="n">
-        <v>0.6055555555555555</v>
-      </c>
-      <c r="C28" s="6" t="n">
-        <v>0.7013888888888888</v>
-      </c>
-      <c r="D28" s="6" t="n">
-        <v>0.7423611111111111</v>
-      </c>
-      <c r="E28" s="6" t="n">
-        <v>0.9194444444444444</v>
-      </c>
+      <c r="B28" s="6" t="n"/>
+      <c r="C28" s="6" t="n"/>
+      <c r="D28" s="6" t="n"/>
+      <c r="E28" s="6" t="n"/>
       <c r="F28" s="7" t="n"/>
       <c r="G28" s="8" t="n"/>
       <c r="K28" s="2">
@@ -10693,18 +9445,10 @@
       <c r="A29" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="6" t="n">
-        <v>0.6069444444444444</v>
-      </c>
-      <c r="C29" s="6" t="n">
-        <v>0.7090277777777778</v>
-      </c>
-      <c r="D29" s="6" t="n">
-        <v>0.7513888888888889</v>
-      </c>
-      <c r="E29" s="6" t="n">
-        <v>0.9194444444444444</v>
-      </c>
+      <c r="B29" s="6" t="n"/>
+      <c r="C29" s="6" t="n"/>
+      <c r="D29" s="6" t="n"/>
+      <c r="E29" s="6" t="n"/>
       <c r="F29" s="7" t="n"/>
       <c r="G29" s="8" t="n"/>
       <c r="K29" s="2">
@@ -11726,7 +10470,7 @@
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B2" sqref="B2:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
@@ -11800,18 +10544,10 @@
       <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="n">
-        <v>0.40625</v>
-      </c>
-      <c r="C2" s="6" t="n">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="D2" s="6" t="n">
-        <v>0.5965277777777778</v>
-      </c>
-      <c r="E2" s="6" t="n">
-        <v>0.6888888888888889</v>
-      </c>
+      <c r="B2" s="6" t="n"/>
+      <c r="C2" s="6" t="n"/>
+      <c r="D2" s="6" t="n"/>
+      <c r="E2" s="6" t="n"/>
       <c r="F2" s="7" t="n"/>
       <c r="G2" s="8" t="n"/>
       <c r="K2" s="2">
@@ -11841,18 +10577,10 @@
       <c r="A3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="n">
-        <v>0.5381944444444444</v>
-      </c>
-      <c r="C3" s="6" t="n">
-        <v>0.6763888888888889</v>
-      </c>
-      <c r="D3" s="6" t="n">
-        <v>0.7138888888888889</v>
-      </c>
-      <c r="E3" s="6" t="n">
-        <v>0.8173611111111111</v>
-      </c>
+      <c r="B3" s="6" t="n"/>
+      <c r="C3" s="6" t="n"/>
+      <c r="D3" s="6" t="n"/>
+      <c r="E3" s="6" t="n"/>
       <c r="F3" s="7" t="n"/>
       <c r="G3" s="8" t="n"/>
       <c r="K3" s="2">
@@ -11913,18 +10641,10 @@
       <c r="A5" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="n">
-        <v>0.4111111111111111</v>
-      </c>
-      <c r="C5" s="6" t="n">
-        <v>0.5416666666666666</v>
-      </c>
-      <c r="D5" s="6" t="n">
-        <v>0.5840277777777778</v>
-      </c>
-      <c r="E5" s="6" t="n">
-        <v>0.7152777777777778</v>
-      </c>
+      <c r="B5" s="6" t="n"/>
+      <c r="C5" s="6" t="n"/>
+      <c r="D5" s="6" t="n"/>
+      <c r="E5" s="6" t="n"/>
       <c r="F5" s="7" t="n"/>
       <c r="G5" s="8" t="n"/>
       <c r="K5" s="2">
@@ -11944,18 +10664,10 @@
       <c r="A6" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="n">
-        <v>0.4076388888888889</v>
-      </c>
-      <c r="C6" s="6" t="n">
-        <v>0.5034722222222222</v>
-      </c>
-      <c r="D6" s="6" t="n">
-        <v>0.5430555555555555</v>
-      </c>
-      <c r="E6" s="6" t="n">
-        <v>0.6534722222222222</v>
-      </c>
+      <c r="B6" s="6" t="n"/>
+      <c r="C6" s="6" t="n"/>
+      <c r="D6" s="6" t="n"/>
+      <c r="E6" s="6" t="n"/>
       <c r="F6" s="7" t="n"/>
       <c r="G6" s="8" t="n"/>
       <c r="K6" s="2">
@@ -11984,18 +10696,10 @@
       <c r="A7" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="n">
-        <v>0.4055555555555556</v>
-      </c>
-      <c r="C7" s="6" t="n">
-        <v>0.5020833333333333</v>
-      </c>
-      <c r="D7" s="6" t="n">
-        <v>0.5465277777777777</v>
-      </c>
-      <c r="E7" s="6" t="n">
-        <v>0.7145833333333333</v>
-      </c>
+      <c r="B7" s="6" t="n"/>
+      <c r="C7" s="6" t="n"/>
+      <c r="D7" s="6" t="n"/>
+      <c r="E7" s="6" t="n"/>
       <c r="F7" s="7" t="n"/>
       <c r="G7" s="8" t="n"/>
       <c r="K7" s="2">
@@ -12016,18 +10720,10 @@
       <c r="A8" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="n">
-        <v>0.39375</v>
-      </c>
-      <c r="C8" s="6" t="n">
-        <v>0.5090277777777777</v>
-      </c>
-      <c r="D8" s="6" t="n">
-        <v>0.5527777777777778</v>
-      </c>
-      <c r="E8" s="6" t="n">
-        <v>0.6881944444444444</v>
-      </c>
+      <c r="B8" s="6" t="n"/>
+      <c r="C8" s="6" t="n"/>
+      <c r="D8" s="6" t="n"/>
+      <c r="E8" s="6" t="n"/>
       <c r="F8" s="7" t="n"/>
       <c r="G8" s="8" t="n"/>
       <c r="K8" s="2">
@@ -12056,18 +10752,10 @@
       <c r="A9" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="n">
-        <v>0.4090277777777778</v>
-      </c>
-      <c r="C9" s="6" t="n">
-        <v>0.5263888888888889</v>
-      </c>
-      <c r="D9" s="6" t="n">
-        <v>0.56875</v>
-      </c>
-      <c r="E9" s="6" t="n">
-        <v>0.7020833333333333</v>
-      </c>
+      <c r="B9" s="6" t="n"/>
+      <c r="C9" s="6" t="n"/>
+      <c r="D9" s="6" t="n"/>
+      <c r="E9" s="6" t="n"/>
       <c r="F9" s="7" t="n"/>
       <c r="G9" s="8" t="n"/>
       <c r="K9" s="2">
@@ -12087,18 +10775,10 @@
       <c r="A10" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="n">
-        <v>0.55625</v>
-      </c>
-      <c r="C10" s="6" t="n">
-        <v>0.6722222222222223</v>
-      </c>
-      <c r="D10" s="6" t="n">
-        <v>0.7180555555555556</v>
-      </c>
-      <c r="E10" s="6" t="n">
-        <v>0.8270833333333333</v>
-      </c>
+      <c r="B10" s="6" t="n"/>
+      <c r="C10" s="6" t="n"/>
+      <c r="D10" s="6" t="n"/>
+      <c r="E10" s="6" t="n"/>
       <c r="F10" s="7" t="n"/>
       <c r="G10" s="8" t="n"/>
       <c r="K10" s="2">
@@ -12146,18 +10826,10 @@
       <c r="A12" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="n">
-        <v>0.4090277777777778</v>
-      </c>
-      <c r="C12" s="6" t="n">
-        <v>0.5270833333333333</v>
-      </c>
-      <c r="D12" s="6" t="n">
-        <v>0.5652777777777778</v>
-      </c>
-      <c r="E12" s="6" t="n">
-        <v>0.6736111111111112</v>
-      </c>
+      <c r="B12" s="6" t="n"/>
+      <c r="C12" s="6" t="n"/>
+      <c r="D12" s="6" t="n"/>
+      <c r="E12" s="6" t="n"/>
       <c r="F12" s="7" t="n"/>
       <c r="G12" s="8" t="n"/>
       <c r="K12" s="2">
@@ -12177,18 +10849,10 @@
       <c r="A13" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="n">
-        <v>0.4118055555555555</v>
-      </c>
-      <c r="C13" s="6" t="n">
-        <v>0.5458333333333333</v>
-      </c>
-      <c r="D13" s="6" t="n">
-        <v>0.5895833333333333</v>
-      </c>
-      <c r="E13" s="6" t="n">
-        <v>0.6722222222222223</v>
-      </c>
+      <c r="B13" s="6" t="n"/>
+      <c r="C13" s="6" t="n"/>
+      <c r="D13" s="6" t="n"/>
+      <c r="E13" s="6" t="n"/>
       <c r="F13" s="7" t="n"/>
       <c r="G13" s="8" t="n"/>
       <c r="K13" s="2">
@@ -12208,18 +10872,10 @@
       <c r="A14" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="n">
-        <v>0.4131944444444444</v>
-      </c>
-      <c r="C14" s="6" t="n">
-        <v>0.50625</v>
-      </c>
-      <c r="D14" s="6" t="n">
-        <v>0.5472222222222223</v>
-      </c>
-      <c r="E14" s="6" t="n">
-        <v>0.6666666666666666</v>
-      </c>
+      <c r="B14" s="6" t="n"/>
+      <c r="C14" s="6" t="n"/>
+      <c r="D14" s="6" t="n"/>
+      <c r="E14" s="6" t="n"/>
       <c r="F14" s="7" t="n"/>
       <c r="G14" s="8" t="n"/>
       <c r="K14" s="2">
@@ -12239,18 +10895,10 @@
       <c r="A15" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="n">
-        <v>0.425</v>
-      </c>
-      <c r="C15" s="6" t="n">
-        <v>0.5291666666666667</v>
-      </c>
-      <c r="D15" s="6" t="n">
-        <v>0.5722222222222222</v>
-      </c>
-      <c r="E15" s="6" t="n">
-        <v>0.6798611111111111</v>
-      </c>
+      <c r="B15" s="6" t="n"/>
+      <c r="C15" s="6" t="n"/>
+      <c r="D15" s="6" t="n"/>
+      <c r="E15" s="6" t="n"/>
       <c r="F15" s="7" t="n"/>
       <c r="G15" s="8" t="n"/>
       <c r="K15" s="2">
@@ -12270,18 +10918,10 @@
       <c r="A16" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="n">
-        <v>0.4090277777777778</v>
-      </c>
-      <c r="C16" s="6" t="n">
-        <v>0.5034722222222222</v>
-      </c>
-      <c r="D16" s="6" t="n">
-        <v>0.5465277777777777</v>
-      </c>
-      <c r="E16" s="6" t="n">
-        <v>0.6722222222222223</v>
-      </c>
+      <c r="B16" s="6" t="n"/>
+      <c r="C16" s="6" t="n"/>
+      <c r="D16" s="6" t="n"/>
+      <c r="E16" s="6" t="n"/>
       <c r="F16" s="7" t="n"/>
       <c r="G16" s="8" t="n"/>
       <c r="K16" s="2">
@@ -12347,18 +10987,10 @@
       <c r="A19" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="n">
-        <v>0.4041666666666667</v>
-      </c>
-      <c r="C19" s="6" t="n">
-        <v>0.5138888888888888</v>
-      </c>
-      <c r="D19" s="6" t="n">
-        <v>0.5576388888888889</v>
-      </c>
-      <c r="E19" s="6" t="n">
-        <v>0.6805555555555556</v>
-      </c>
+      <c r="B19" s="6" t="n"/>
+      <c r="C19" s="6" t="n"/>
+      <c r="D19" s="6" t="n"/>
+      <c r="E19" s="6" t="n"/>
       <c r="F19" s="7" t="n"/>
       <c r="G19" s="8" t="n"/>
       <c r="K19" s="2">
@@ -12378,18 +11010,10 @@
       <c r="A20" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="n">
-        <v>0.4034722222222222</v>
-      </c>
-      <c r="C20" s="6" t="n">
-        <v>0.51875</v>
-      </c>
-      <c r="D20" s="6" t="n">
-        <v>0.5611111111111111</v>
-      </c>
-      <c r="E20" s="6" t="n">
-        <v>0.6770833333333334</v>
-      </c>
+      <c r="B20" s="6" t="n"/>
+      <c r="C20" s="6" t="n"/>
+      <c r="D20" s="6" t="n"/>
+      <c r="E20" s="6" t="n"/>
       <c r="F20" s="7" t="n"/>
       <c r="G20" s="8" t="n"/>
       <c r="K20" s="2">
@@ -12409,18 +11033,10 @@
       <c r="A21" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="n">
-        <v>0.3993055555555556</v>
-      </c>
-      <c r="C21" s="6" t="n">
-        <v>0.5048611111111111</v>
-      </c>
-      <c r="D21" s="6" t="n">
-        <v>0.5423611111111111</v>
-      </c>
-      <c r="E21" s="6" t="n">
-        <v>0.6694444444444444</v>
-      </c>
+      <c r="B21" s="6" t="n"/>
+      <c r="C21" s="6" t="n"/>
+      <c r="D21" s="6" t="n"/>
+      <c r="E21" s="6" t="n"/>
       <c r="F21" s="7" t="n"/>
       <c r="G21" s="8" t="n"/>
       <c r="K21" s="2">
@@ -12440,18 +11056,10 @@
       <c r="A22" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="n">
-        <v>0.4041666666666667</v>
-      </c>
-      <c r="C22" s="6" t="n">
-        <v>0.5034722222222222</v>
-      </c>
-      <c r="D22" s="6" t="n">
-        <v>0.5451388888888888</v>
-      </c>
-      <c r="E22" s="6" t="n">
-        <v>0.6708333333333333</v>
-      </c>
+      <c r="B22" s="6" t="n"/>
+      <c r="C22" s="6" t="n"/>
+      <c r="D22" s="6" t="n"/>
+      <c r="E22" s="6" t="n"/>
       <c r="F22" s="7" t="n"/>
       <c r="G22" s="8" t="n"/>
       <c r="K22" s="2">
@@ -12471,18 +11079,10 @@
       <c r="A23" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="n">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="C23" s="6" t="n">
-        <v>0.5069444444444444</v>
-      </c>
-      <c r="D23" s="6" t="n">
-        <v>0.5493055555555556</v>
-      </c>
-      <c r="E23" s="6" t="n">
-        <v>0.6729166666666667</v>
-      </c>
+      <c r="B23" s="6" t="n"/>
+      <c r="C23" s="6" t="n"/>
+      <c r="D23" s="6" t="n"/>
+      <c r="E23" s="6" t="n"/>
       <c r="F23" s="7" t="n"/>
       <c r="G23" s="8" t="n"/>
       <c r="K23" s="2">
@@ -12502,18 +11102,10 @@
       <c r="A24" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="6" t="n">
-        <v>0.5381944444444444</v>
-      </c>
-      <c r="C24" s="6" t="n">
-        <v>0.6791666666666667</v>
-      </c>
-      <c r="D24" s="6" t="n">
-        <v>0.71875</v>
-      </c>
-      <c r="E24" s="6" t="n">
-        <v>0.8125</v>
-      </c>
+      <c r="B24" s="6" t="n"/>
+      <c r="C24" s="6" t="n"/>
+      <c r="D24" s="6" t="n"/>
+      <c r="E24" s="6" t="n"/>
       <c r="F24" s="7" t="n"/>
       <c r="G24" s="8" t="n"/>
       <c r="K24" s="2">
@@ -12556,18 +11148,10 @@
       <c r="A26" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="6" t="n">
-        <v>0.4159722222222222</v>
-      </c>
-      <c r="C26" s="6" t="n">
-        <v>0.5041666666666667</v>
-      </c>
-      <c r="D26" s="6" t="n">
-        <v>0.5430555555555555</v>
-      </c>
-      <c r="E26" s="6" t="n">
-        <v>0.6798611111111111</v>
-      </c>
+      <c r="B26" s="6" t="n"/>
+      <c r="C26" s="6" t="n"/>
+      <c r="D26" s="6" t="n"/>
+      <c r="E26" s="6" t="n"/>
       <c r="F26" s="7" t="n"/>
       <c r="G26" s="8" t="n"/>
       <c r="K26" s="2">
@@ -12587,18 +11171,10 @@
       <c r="A27" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="6" t="n">
-        <v>0.4173611111111111</v>
-      </c>
-      <c r="C27" s="6" t="n">
-        <v>0.5625</v>
-      </c>
-      <c r="D27" s="6" t="n">
-        <v>0.6048611111111111</v>
-      </c>
-      <c r="E27" s="6" t="n">
-        <v>0.69375</v>
-      </c>
+      <c r="B27" s="6" t="n"/>
+      <c r="C27" s="6" t="n"/>
+      <c r="D27" s="6" t="n"/>
+      <c r="E27" s="6" t="n"/>
       <c r="F27" s="7" t="n"/>
       <c r="G27" s="8" t="n"/>
       <c r="K27" s="2">
@@ -12618,18 +11194,10 @@
       <c r="A28" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="6" t="n">
-        <v>0.4027777777777778</v>
-      </c>
-      <c r="C28" s="6" t="n">
-        <v>0.5138888888888888</v>
-      </c>
-      <c r="D28" s="6" t="n">
-        <v>0.5479166666666667</v>
-      </c>
-      <c r="E28" s="6" t="n">
-        <v>0.66875</v>
-      </c>
+      <c r="B28" s="6" t="n"/>
+      <c r="C28" s="6" t="n"/>
+      <c r="D28" s="6" t="n"/>
+      <c r="E28" s="6" t="n"/>
       <c r="F28" s="7" t="n"/>
       <c r="G28" s="8" t="n"/>
       <c r="K28" s="2">
@@ -12649,18 +11217,10 @@
       <c r="A29" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="6" t="n">
-        <v>0.4020833333333333</v>
-      </c>
-      <c r="C29" s="6" t="n">
-        <v>0.50625</v>
-      </c>
-      <c r="D29" s="6" t="n">
-        <v>0.5472222222222223</v>
-      </c>
-      <c r="E29" s="6" t="n">
-        <v>0.7069444444444445</v>
-      </c>
+      <c r="B29" s="6" t="n"/>
+      <c r="C29" s="6" t="n"/>
+      <c r="D29" s="6" t="n"/>
+      <c r="E29" s="6" t="n"/>
       <c r="F29" s="7" t="n"/>
       <c r="G29" s="8" t="n"/>
       <c r="K29" s="2">
@@ -12806,8 +11366,8 @@
   </sheetPr>
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
@@ -12881,18 +11441,10 @@
       <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="n">
-        <v>0.6263888888888889</v>
-      </c>
-      <c r="C2" s="6" t="n">
-        <v>0.675</v>
-      </c>
-      <c r="D2" s="6" t="n">
-        <v>0.7111111111111111</v>
-      </c>
-      <c r="E2" s="6" t="n">
-        <v>0.9222222222222223</v>
-      </c>
+      <c r="B2" s="6" t="n"/>
+      <c r="C2" s="6" t="n"/>
+      <c r="D2" s="6" t="n"/>
+      <c r="E2" s="6" t="n"/>
       <c r="F2" s="7" t="n"/>
       <c r="G2" s="8" t="n"/>
       <c r="K2" s="2">
@@ -12954,18 +11506,10 @@
       <c r="A4" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="n">
-        <v>0.6118055555555556</v>
-      </c>
-      <c r="C4" s="6" t="n">
-        <v>0.6729166666666667</v>
-      </c>
-      <c r="D4" s="6" t="n">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="E4" s="6" t="n">
-        <v>0.9166666666666666</v>
-      </c>
+      <c r="B4" s="6" t="n"/>
+      <c r="C4" s="6" t="n"/>
+      <c r="D4" s="6" t="n"/>
+      <c r="E4" s="6" t="n"/>
       <c r="F4" s="7" t="n"/>
       <c r="G4" s="8" t="n"/>
       <c r="K4" s="2">
@@ -12994,18 +11538,10 @@
       <c r="A5" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="n">
-        <v>0.5972222222222222</v>
-      </c>
-      <c r="C5" s="6" t="n">
-        <v>0.6659722222222222</v>
-      </c>
-      <c r="D5" s="6" t="n">
-        <v>0.7013888888888888</v>
-      </c>
-      <c r="E5" s="6" t="n">
-        <v>0.9319444444444445</v>
-      </c>
+      <c r="B5" s="6" t="n"/>
+      <c r="C5" s="6" t="n"/>
+      <c r="D5" s="6" t="n"/>
+      <c r="E5" s="6" t="n"/>
       <c r="F5" s="7" t="n"/>
       <c r="G5" s="8" t="n"/>
       <c r="K5" s="2">
@@ -13057,18 +11593,10 @@
       <c r="A7" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="n">
-        <v>0.6076388888888888</v>
-      </c>
-      <c r="C7" s="6" t="n">
-        <v>0.6652777777777777</v>
-      </c>
-      <c r="D7" s="6" t="n">
-        <v>0.7097222222222223</v>
-      </c>
-      <c r="E7" s="6" t="n">
-        <v>0.9263888888888889</v>
-      </c>
+      <c r="B7" s="6" t="n"/>
+      <c r="C7" s="6" t="n"/>
+      <c r="D7" s="6" t="n"/>
+      <c r="E7" s="6" t="n"/>
       <c r="F7" s="7" t="n"/>
       <c r="G7" s="8" t="n"/>
       <c r="K7" s="2">
@@ -13089,18 +11617,10 @@
       <c r="A8" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="n">
-        <v>0.6104166666666667</v>
-      </c>
-      <c r="C8" s="6" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="D8" s="6" t="n">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="E8" s="6" t="n">
-        <v>0.9305555555555556</v>
-      </c>
+      <c r="B8" s="6" t="n"/>
+      <c r="C8" s="6" t="n"/>
+      <c r="D8" s="6" t="n"/>
+      <c r="E8" s="6" t="n"/>
       <c r="F8" s="7" t="n"/>
       <c r="G8" s="8" t="n"/>
       <c r="K8" s="2">
@@ -13152,18 +11672,10 @@
       <c r="A10" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="n">
-        <v>0.3743055555555556</v>
-      </c>
-      <c r="C10" s="6" t="n">
-        <v>0.4819444444444445</v>
-      </c>
-      <c r="D10" s="6" t="n">
-        <v>0.5256944444444445</v>
-      </c>
-      <c r="E10" s="6" t="n">
-        <v>0.9270833333333334</v>
-      </c>
+      <c r="B10" s="6" t="n"/>
+      <c r="C10" s="6" t="n"/>
+      <c r="D10" s="6" t="n"/>
+      <c r="E10" s="6" t="n"/>
       <c r="F10" s="7" t="n"/>
       <c r="G10" s="8" t="n"/>
       <c r="K10" s="2">
@@ -13188,18 +11700,10 @@
       <c r="A11" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="n">
-        <v>0.6048611111111111</v>
-      </c>
-      <c r="C11" s="6" t="n">
-        <v>0.6604166666666667</v>
-      </c>
-      <c r="D11" s="6" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="E11" s="6" t="n">
-        <v>0.93125</v>
-      </c>
+      <c r="B11" s="6" t="n"/>
+      <c r="C11" s="6" t="n"/>
+      <c r="D11" s="6" t="n"/>
+      <c r="E11" s="6" t="n"/>
       <c r="F11" s="7" t="n"/>
       <c r="G11" s="8" t="n"/>
       <c r="K11" s="2">
@@ -13219,18 +11723,10 @@
       <c r="A12" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="n">
-        <v>0.6083333333333333</v>
-      </c>
-      <c r="C12" s="6" t="n">
-        <v>0.6659722222222222</v>
-      </c>
-      <c r="D12" s="6" t="n">
-        <v>0.70625</v>
-      </c>
-      <c r="E12" s="6" t="n">
-        <v>0.9298611111111111</v>
-      </c>
+      <c r="B12" s="6" t="n"/>
+      <c r="C12" s="6" t="n"/>
+      <c r="D12" s="6" t="n"/>
+      <c r="E12" s="6" t="n"/>
       <c r="F12" s="7" t="n"/>
       <c r="G12" s="8" t="n"/>
       <c r="K12" s="2">
@@ -13273,18 +11769,10 @@
       <c r="A14" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="n">
-        <v>0.6097222222222223</v>
-      </c>
-      <c r="C14" s="6" t="n">
-        <v>0.6701388888888888</v>
-      </c>
-      <c r="D14" s="6" t="n">
-        <v>0.7104166666666667</v>
-      </c>
-      <c r="E14" s="6" t="n">
-        <v>0.9291666666666667</v>
-      </c>
+      <c r="B14" s="6" t="n"/>
+      <c r="C14" s="6" t="n"/>
+      <c r="D14" s="6" t="n"/>
+      <c r="E14" s="6" t="n"/>
       <c r="F14" s="7" t="n"/>
       <c r="G14" s="8" t="n"/>
       <c r="K14" s="2">
@@ -13304,18 +11792,10 @@
       <c r="A15" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="n">
-        <v>0.6465277777777778</v>
-      </c>
-      <c r="C15" s="6" t="n">
-        <v>0.6659722222222222</v>
-      </c>
-      <c r="D15" s="6" t="n">
-        <v>0.7041666666666667</v>
-      </c>
-      <c r="E15" s="6" t="n">
-        <v>0.9291666666666667</v>
-      </c>
+      <c r="B15" s="6" t="n"/>
+      <c r="C15" s="6" t="n"/>
+      <c r="D15" s="6" t="n"/>
+      <c r="E15" s="6" t="n"/>
       <c r="F15" s="7" t="n"/>
       <c r="G15" s="8" t="n"/>
       <c r="K15" s="2">
@@ -13335,18 +11815,10 @@
       <c r="A16" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="n">
-        <v>0.6034722222222222</v>
-      </c>
-      <c r="C16" s="6" t="n">
-        <v>0.6625</v>
-      </c>
-      <c r="D16" s="6" t="n">
-        <v>0.7020833333333333</v>
-      </c>
-      <c r="E16" s="6" t="n">
-        <v>0.9298611111111111</v>
-      </c>
+      <c r="B16" s="6" t="n"/>
+      <c r="C16" s="6" t="n"/>
+      <c r="D16" s="6" t="n"/>
+      <c r="E16" s="6" t="n"/>
       <c r="F16" s="7" t="n"/>
       <c r="G16" s="8" t="n"/>
       <c r="K16" s="2">
@@ -13389,18 +11861,10 @@
       <c r="A18" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="n">
-        <v>0.60625</v>
-      </c>
-      <c r="C18" s="6" t="n">
-        <v>0.6604166666666667</v>
-      </c>
-      <c r="D18" s="6" t="n">
-        <v>0.7069444444444445</v>
-      </c>
-      <c r="E18" s="6" t="n">
-        <v>0.9284722222222223</v>
-      </c>
+      <c r="B18" s="6" t="n"/>
+      <c r="C18" s="6" t="n"/>
+      <c r="D18" s="6" t="n"/>
+      <c r="E18" s="6" t="n"/>
       <c r="F18" s="7" t="n"/>
       <c r="G18" s="8" t="n"/>
       <c r="K18" s="2">
@@ -13420,18 +11884,10 @@
       <c r="A19" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="n">
-        <v>0.6125</v>
-      </c>
-      <c r="C19" s="6" t="n">
-        <v>0.6611111111111111</v>
-      </c>
-      <c r="D19" s="6" t="n">
-        <v>0.7048611111111112</v>
-      </c>
-      <c r="E19" s="6" t="n">
-        <v>0.925</v>
-      </c>
+      <c r="B19" s="6" t="n"/>
+      <c r="C19" s="6" t="n"/>
+      <c r="D19" s="6" t="n"/>
+      <c r="E19" s="6" t="n"/>
       <c r="F19" s="7" t="n"/>
       <c r="G19" s="8" t="n"/>
       <c r="K19" s="2">
@@ -13474,18 +11930,10 @@
       <c r="A21" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="n">
-        <v>0.6048611111111111</v>
-      </c>
-      <c r="C21" s="6" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="D21" s="6" t="n">
-        <v>0.7055555555555556</v>
-      </c>
-      <c r="E21" s="6" t="n">
-        <v>0.9256944444444445</v>
-      </c>
+      <c r="B21" s="6" t="n"/>
+      <c r="C21" s="6" t="n"/>
+      <c r="D21" s="6" t="n"/>
+      <c r="E21" s="6" t="n"/>
       <c r="F21" s="7" t="n"/>
       <c r="G21" s="8" t="n"/>
       <c r="K21" s="2">
@@ -13505,18 +11953,10 @@
       <c r="A22" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="n">
-        <v>0.6055555555555555</v>
-      </c>
-      <c r="C22" s="6" t="n">
-        <v>0.6680555555555555</v>
-      </c>
-      <c r="D22" s="6" t="n">
-        <v>0.7138888888888889</v>
-      </c>
-      <c r="E22" s="6" t="n">
-        <v>0.93125</v>
-      </c>
+      <c r="B22" s="6" t="n"/>
+      <c r="C22" s="6" t="n"/>
+      <c r="D22" s="6" t="n"/>
+      <c r="E22" s="6" t="n"/>
       <c r="F22" s="7" t="n"/>
       <c r="G22" s="8" t="n"/>
       <c r="K22" s="2">
@@ -13536,18 +11976,10 @@
       <c r="A23" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="n">
-        <v>0.6145833333333334</v>
-      </c>
-      <c r="C23" s="6" t="n">
-        <v>0.66875</v>
-      </c>
-      <c r="D23" s="6" t="n">
-        <v>0.7104166666666667</v>
-      </c>
-      <c r="E23" s="6" t="n">
-        <v>0.9243055555555556</v>
-      </c>
+      <c r="B23" s="6" t="n"/>
+      <c r="C23" s="6" t="n"/>
+      <c r="D23" s="6" t="n"/>
+      <c r="E23" s="6" t="n"/>
       <c r="F23" s="7" t="n"/>
       <c r="G23" s="8" t="n"/>
       <c r="K23" s="2">
@@ -13567,18 +11999,10 @@
       <c r="A24" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="6" t="n">
-        <v>0.3798611111111111</v>
-      </c>
-      <c r="C24" s="6" t="n">
-        <v>0.4847222222222222</v>
-      </c>
-      <c r="D24" s="6" t="n">
-        <v>0.5326388888888889</v>
-      </c>
-      <c r="E24" s="6" t="n">
-        <v>0.9284722222222223</v>
-      </c>
+      <c r="B24" s="6" t="n"/>
+      <c r="C24" s="6" t="n"/>
+      <c r="D24" s="6" t="n"/>
+      <c r="E24" s="6" t="n"/>
       <c r="F24" s="7" t="n"/>
       <c r="G24" s="8" t="n"/>
       <c r="K24" s="2">
@@ -13598,18 +12022,10 @@
       <c r="A25" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="6" t="n">
-        <v>0.6076388888888888</v>
-      </c>
-      <c r="C25" s="6" t="n">
-        <v>0.6625</v>
-      </c>
-      <c r="D25" s="6" t="n">
-        <v>0.70625</v>
-      </c>
-      <c r="E25" s="6" t="n">
-        <v>0.9298611111111111</v>
-      </c>
+      <c r="B25" s="6" t="n"/>
+      <c r="C25" s="6" t="n"/>
+      <c r="D25" s="6" t="n"/>
+      <c r="E25" s="6" t="n"/>
       <c r="F25" s="7" t="n"/>
       <c r="G25" s="8" t="n"/>
       <c r="K25" s="2">
@@ -13629,18 +12045,10 @@
       <c r="A26" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="6" t="n">
-        <v>0.6034722222222222</v>
-      </c>
-      <c r="C26" s="6" t="n">
-        <v>0.6638888888888889</v>
-      </c>
-      <c r="D26" s="6" t="n">
-        <v>0.7076388888888889</v>
-      </c>
-      <c r="E26" s="6" t="n">
-        <v>0.9305555555555556</v>
-      </c>
+      <c r="B26" s="6" t="n"/>
+      <c r="C26" s="6" t="n"/>
+      <c r="D26" s="6" t="n"/>
+      <c r="E26" s="6" t="n"/>
       <c r="F26" s="7" t="n"/>
       <c r="G26" s="8" t="n"/>
       <c r="K26" s="2">
@@ -13683,18 +12091,10 @@
       <c r="A28" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="6" t="n">
-        <v>0.6055555555555555</v>
-      </c>
-      <c r="C28" s="6" t="n">
-        <v>0.6694444444444444</v>
-      </c>
-      <c r="D28" s="6" t="n">
-        <v>0.7111111111111111</v>
-      </c>
-      <c r="E28" s="6" t="n">
-        <v>0.9263888888888889</v>
-      </c>
+      <c r="B28" s="6" t="n"/>
+      <c r="C28" s="6" t="n"/>
+      <c r="D28" s="6" t="n"/>
+      <c r="E28" s="6" t="n"/>
       <c r="F28" s="7" t="n"/>
       <c r="G28" s="8" t="n"/>
       <c r="K28" s="2">
@@ -13714,18 +12114,10 @@
       <c r="A29" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="6" t="n">
-        <v>0.6048611111111111</v>
-      </c>
-      <c r="C29" s="6" t="n">
-        <v>0.6631944444444444</v>
-      </c>
-      <c r="D29" s="6" t="n">
-        <v>0.7048611111111112</v>
-      </c>
-      <c r="E29" s="6" t="n">
-        <v>0.9305555555555556</v>
-      </c>
+      <c r="B29" s="6" t="n"/>
+      <c r="C29" s="6" t="n"/>
+      <c r="D29" s="6" t="n"/>
+      <c r="E29" s="6" t="n"/>
       <c r="F29" s="7" t="n"/>
       <c r="G29" s="8" t="n"/>
       <c r="K29" s="2">
@@ -14748,7 +13140,7 @@
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B2" sqref="B2:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
@@ -14822,18 +13214,10 @@
       <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="n">
-        <v>0.6048611111111111</v>
-      </c>
-      <c r="C2" s="6" t="n">
-        <v>0.6861111111111111</v>
-      </c>
-      <c r="D2" s="6" t="n">
-        <v>0.7236111111111111</v>
-      </c>
-      <c r="E2" s="6" t="n">
-        <v>0.9222222222222223</v>
-      </c>
+      <c r="B2" s="6" t="n"/>
+      <c r="C2" s="6" t="n"/>
+      <c r="D2" s="6" t="n"/>
+      <c r="E2" s="6" t="n"/>
       <c r="F2" s="7" t="n"/>
       <c r="G2" s="8" t="n"/>
       <c r="K2" s="2">
@@ -14895,18 +13279,10 @@
       <c r="A4" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="n">
-        <v>0.6034722222222222</v>
-      </c>
-      <c r="C4" s="6" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="D4" s="6" t="n">
-        <v>0.7090277777777778</v>
-      </c>
-      <c r="E4" s="6" t="n">
-        <v>0.9166666666666666</v>
-      </c>
+      <c r="B4" s="6" t="n"/>
+      <c r="C4" s="6" t="n"/>
+      <c r="D4" s="6" t="n"/>
+      <c r="E4" s="6" t="n"/>
       <c r="F4" s="7" t="n"/>
       <c r="G4" s="8" t="n"/>
       <c r="K4" s="2">
@@ -14958,18 +13334,10 @@
       <c r="A6" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="n">
-        <v>0.6041666666666666</v>
-      </c>
-      <c r="C6" s="6" t="n">
-        <v>0.7104166666666667</v>
-      </c>
-      <c r="D6" s="6" t="n">
-        <v>0.7527777777777778</v>
-      </c>
-      <c r="E6" s="6" t="n">
-        <v>0.925</v>
-      </c>
+      <c r="B6" s="6" t="n"/>
+      <c r="C6" s="6" t="n"/>
+      <c r="D6" s="6" t="n"/>
+      <c r="E6" s="6" t="n"/>
       <c r="F6" s="7" t="n"/>
       <c r="G6" s="8" t="n"/>
       <c r="K6" s="2">
@@ -14998,18 +13366,10 @@
       <c r="A7" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="n">
-        <v>0.6041666666666666</v>
-      </c>
-      <c r="C7" s="6" t="n">
-        <v>0.6652777777777777</v>
-      </c>
-      <c r="D7" s="6" t="n">
-        <v>0.7097222222222223</v>
-      </c>
-      <c r="E7" s="6" t="n">
-        <v>0.9263888888888889</v>
-      </c>
+      <c r="B7" s="6" t="n"/>
+      <c r="C7" s="6" t="n"/>
+      <c r="D7" s="6" t="n"/>
+      <c r="E7" s="6" t="n"/>
       <c r="F7" s="7" t="n"/>
       <c r="G7" s="8" t="n"/>
       <c r="K7" s="2">
@@ -15030,18 +13390,10 @@
       <c r="A8" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="n">
-        <v>0.6069444444444444</v>
-      </c>
-      <c r="C8" s="6" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="D8" s="6" t="n">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="E8" s="6" t="n">
-        <v>0.93125</v>
-      </c>
+      <c r="B8" s="6" t="n"/>
+      <c r="C8" s="6" t="n"/>
+      <c r="D8" s="6" t="n"/>
+      <c r="E8" s="6" t="n"/>
       <c r="F8" s="7" t="n"/>
       <c r="G8" s="8" t="n"/>
       <c r="K8" s="2">
@@ -15070,18 +13422,10 @@
       <c r="A9" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="n">
-        <v>0.60625</v>
-      </c>
-      <c r="C9" s="6" t="n">
-        <v>0.7215277777777778</v>
-      </c>
-      <c r="D9" s="6" t="n">
-        <v>0.7611111111111111</v>
-      </c>
-      <c r="E9" s="6" t="n">
-        <v>0.9229166666666667</v>
-      </c>
+      <c r="B9" s="6" t="n"/>
+      <c r="C9" s="6" t="n"/>
+      <c r="D9" s="6" t="n"/>
+      <c r="E9" s="6" t="n"/>
       <c r="F9" s="7" t="n"/>
       <c r="G9" s="8" t="n"/>
       <c r="K9" s="2">
@@ -15101,18 +13445,10 @@
       <c r="A10" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="n">
-        <v>0.3770833333333333</v>
-      </c>
-      <c r="C10" s="6" t="n">
-        <v>0.4715277777777778</v>
-      </c>
-      <c r="D10" s="6" t="n">
-        <v>0.5118055555555555</v>
-      </c>
-      <c r="E10" s="6" t="n">
-        <v>0.9270833333333334</v>
-      </c>
+      <c r="B10" s="6" t="n"/>
+      <c r="C10" s="6" t="n"/>
+      <c r="D10" s="6" t="n"/>
+      <c r="E10" s="6" t="n"/>
       <c r="F10" s="7" t="n"/>
       <c r="G10" s="8" t="n"/>
       <c r="K10" s="2">
@@ -15160,18 +13496,10 @@
       <c r="A12" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="n">
-        <v>0.6048611111111111</v>
-      </c>
-      <c r="C12" s="6" t="n">
-        <v>0.6611111111111111</v>
-      </c>
-      <c r="D12" s="6" t="n">
-        <v>0.70625</v>
-      </c>
-      <c r="E12" s="6" t="n">
-        <v>0.9298611111111111</v>
-      </c>
+      <c r="B12" s="6" t="n"/>
+      <c r="C12" s="6" t="n"/>
+      <c r="D12" s="6" t="n"/>
+      <c r="E12" s="6" t="n"/>
       <c r="F12" s="7" t="n"/>
       <c r="G12" s="8" t="n"/>
       <c r="K12" s="2">
@@ -15191,18 +13519,10 @@
       <c r="A13" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="n">
-        <v>0.6034722222222222</v>
-      </c>
-      <c r="C13" s="6" t="n">
-        <v>0.7118055555555556</v>
-      </c>
-      <c r="D13" s="6" t="n">
-        <v>0.7534722222222222</v>
-      </c>
-      <c r="E13" s="6" t="n">
-        <v>0.9263888888888889</v>
-      </c>
+      <c r="B13" s="6" t="n"/>
+      <c r="C13" s="6" t="n"/>
+      <c r="D13" s="6" t="n"/>
+      <c r="E13" s="6" t="n"/>
       <c r="F13" s="7" t="n"/>
       <c r="G13" s="8" t="n"/>
       <c r="K13" s="2">
@@ -15222,18 +13542,10 @@
       <c r="A14" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="n">
-        <v>0.6055555555555555</v>
-      </c>
-      <c r="C14" s="6" t="n">
-        <v>0.6611111111111111</v>
-      </c>
-      <c r="D14" s="6" t="n">
-        <v>0.7055555555555556</v>
-      </c>
-      <c r="E14" s="6" t="n">
-        <v>0.9291666666666667</v>
-      </c>
+      <c r="B14" s="6" t="n"/>
+      <c r="C14" s="6" t="n"/>
+      <c r="D14" s="6" t="n"/>
+      <c r="E14" s="6" t="n"/>
       <c r="F14" s="7" t="n"/>
       <c r="G14" s="8" t="n"/>
       <c r="K14" s="2">
@@ -15253,18 +13565,10 @@
       <c r="A15" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="n">
-        <v>0.6069444444444444</v>
-      </c>
-      <c r="C15" s="6" t="n">
-        <v>0.6652777777777777</v>
-      </c>
-      <c r="D15" s="6" t="n">
-        <v>0.7048611111111112</v>
-      </c>
-      <c r="E15" s="6" t="n">
-        <v>0.9291666666666667</v>
-      </c>
+      <c r="B15" s="6" t="n"/>
+      <c r="C15" s="6" t="n"/>
+      <c r="D15" s="6" t="n"/>
+      <c r="E15" s="6" t="n"/>
       <c r="F15" s="7" t="n"/>
       <c r="G15" s="8" t="n"/>
       <c r="K15" s="2">
@@ -15284,18 +13588,10 @@
       <c r="A16" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="n">
-        <v>0.6104166666666667</v>
-      </c>
-      <c r="C16" s="6" t="n">
-        <v>0.6708333333333333</v>
-      </c>
-      <c r="D16" s="6" t="n">
-        <v>0.7111111111111111</v>
-      </c>
-      <c r="E16" s="6" t="n">
-        <v>0.9298611111111111</v>
-      </c>
+      <c r="B16" s="6" t="n"/>
+      <c r="C16" s="6" t="n"/>
+      <c r="D16" s="6" t="n"/>
+      <c r="E16" s="6" t="n"/>
       <c r="F16" s="7" t="n"/>
       <c r="G16" s="8" t="n"/>
       <c r="K16" s="2">
@@ -15361,18 +13657,10 @@
       <c r="A19" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="n">
-        <v>0.6048611111111111</v>
-      </c>
-      <c r="C19" s="6" t="n">
-        <v>0.6631944444444444</v>
-      </c>
-      <c r="D19" s="6" t="n">
-        <v>0.7048611111111112</v>
-      </c>
-      <c r="E19" s="6" t="n">
-        <v>0.925</v>
-      </c>
+      <c r="B19" s="6" t="n"/>
+      <c r="C19" s="6" t="n"/>
+      <c r="D19" s="6" t="n"/>
+      <c r="E19" s="6" t="n"/>
       <c r="F19" s="7" t="n"/>
       <c r="G19" s="8" t="n"/>
       <c r="K19" s="2">
@@ -15392,18 +13680,10 @@
       <c r="A20" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="n">
-        <v>0.6041666666666666</v>
-      </c>
-      <c r="C20" s="6" t="n">
-        <v>0.7125</v>
-      </c>
-      <c r="D20" s="6" t="n">
-        <v>0.7520833333333333</v>
-      </c>
-      <c r="E20" s="6" t="n">
-        <v>0.9291666666666667</v>
-      </c>
+      <c r="B20" s="6" t="n"/>
+      <c r="C20" s="6" t="n"/>
+      <c r="D20" s="6" t="n"/>
+      <c r="E20" s="6" t="n"/>
       <c r="F20" s="7" t="n"/>
       <c r="G20" s="8" t="n"/>
       <c r="K20" s="2">
@@ -15423,18 +13703,10 @@
       <c r="A21" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="n">
-        <v>0.6041666666666666</v>
-      </c>
-      <c r="C21" s="6" t="n">
-        <v>0.6569444444444444</v>
-      </c>
-      <c r="D21" s="6" t="n">
-        <v>0.6986111111111111</v>
-      </c>
-      <c r="E21" s="6" t="n">
-        <v>0.9256944444444445</v>
-      </c>
+      <c r="B21" s="6" t="n"/>
+      <c r="C21" s="6" t="n"/>
+      <c r="D21" s="6" t="n"/>
+      <c r="E21" s="6" t="n"/>
       <c r="F21" s="7" t="n"/>
       <c r="G21" s="8" t="n"/>
       <c r="K21" s="2">
@@ -15454,18 +13726,10 @@
       <c r="A22" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="n">
-        <v>0.60625</v>
-      </c>
-      <c r="C22" s="6" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="D22" s="6" t="n">
-        <v>0.7090277777777778</v>
-      </c>
-      <c r="E22" s="6" t="n">
-        <v>0.93125</v>
-      </c>
+      <c r="B22" s="6" t="n"/>
+      <c r="C22" s="6" t="n"/>
+      <c r="D22" s="6" t="n"/>
+      <c r="E22" s="6" t="n"/>
       <c r="F22" s="7" t="n"/>
       <c r="G22" s="8" t="n"/>
       <c r="K22" s="2">
@@ -15485,18 +13749,10 @@
       <c r="A23" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="n">
-        <v>0.6041666666666666</v>
-      </c>
-      <c r="C23" s="6" t="n">
-        <v>0.7208333333333333</v>
-      </c>
-      <c r="D23" s="6" t="n">
-        <v>0.7590277777777777</v>
-      </c>
-      <c r="E23" s="6" t="n">
-        <v>0.925</v>
-      </c>
+      <c r="B23" s="6" t="n"/>
+      <c r="C23" s="6" t="n"/>
+      <c r="D23" s="6" t="n"/>
+      <c r="E23" s="6" t="n"/>
       <c r="F23" s="7" t="n"/>
       <c r="G23" s="8" t="n"/>
       <c r="K23" s="2">
@@ -15516,18 +13772,10 @@
       <c r="A24" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="6" t="n">
-        <v>0.3798611111111111</v>
-      </c>
-      <c r="C24" s="6" t="n">
-        <v>0.4798611111111111</v>
-      </c>
-      <c r="D24" s="6" t="n">
-        <v>0.5236111111111111</v>
-      </c>
-      <c r="E24" s="6" t="n">
-        <v>0.9284722222222223</v>
-      </c>
+      <c r="B24" s="6" t="n"/>
+      <c r="C24" s="6" t="n"/>
+      <c r="D24" s="6" t="n"/>
+      <c r="E24" s="6" t="n"/>
       <c r="F24" s="7" t="n"/>
       <c r="G24" s="8" t="n"/>
       <c r="K24" s="2">
@@ -15570,18 +13818,10 @@
       <c r="A26" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="6" t="n">
-        <v>0.6055555555555555</v>
-      </c>
-      <c r="C26" s="6" t="n">
-        <v>0.6631944444444444</v>
-      </c>
-      <c r="D26" s="6" t="n">
-        <v>0.7055555555555556</v>
-      </c>
-      <c r="E26" s="6" t="n">
-        <v>0.93125</v>
-      </c>
+      <c r="B26" s="6" t="n"/>
+      <c r="C26" s="6" t="n"/>
+      <c r="D26" s="6" t="n"/>
+      <c r="E26" s="6" t="n"/>
       <c r="F26" s="7" t="n"/>
       <c r="G26" s="8" t="n"/>
       <c r="K26" s="2">
@@ -15601,18 +13841,10 @@
       <c r="A27" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="6" t="n">
-        <v>0.6048611111111111</v>
-      </c>
-      <c r="C27" s="6" t="n">
-        <v>0.6673611111111111</v>
-      </c>
-      <c r="D27" s="6" t="n">
-        <v>0.7097222222222223</v>
-      </c>
-      <c r="E27" s="6" t="n">
-        <v>0.9277777777777778</v>
-      </c>
+      <c r="B27" s="6" t="n"/>
+      <c r="C27" s="6" t="n"/>
+      <c r="D27" s="6" t="n"/>
+      <c r="E27" s="6" t="n"/>
       <c r="F27" s="7" t="n"/>
       <c r="G27" s="8" t="n"/>
       <c r="K27" s="2">
@@ -15632,18 +13864,10 @@
       <c r="A28" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="6" t="n">
-        <v>0.6048611111111111</v>
-      </c>
-      <c r="C28" s="6" t="n">
-        <v>0.6604166666666667</v>
-      </c>
-      <c r="D28" s="6" t="n">
-        <v>0.7027777777777777</v>
-      </c>
-      <c r="E28" s="6" t="n">
-        <v>0.9263888888888889</v>
-      </c>
+      <c r="B28" s="6" t="n"/>
+      <c r="C28" s="6" t="n"/>
+      <c r="D28" s="6" t="n"/>
+      <c r="E28" s="6" t="n"/>
       <c r="F28" s="7" t="n"/>
       <c r="G28" s="8" t="n"/>
       <c r="K28" s="2">
@@ -15663,18 +13887,10 @@
       <c r="A29" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="6" t="n">
-        <v>0.6048611111111111</v>
-      </c>
-      <c r="C29" s="6" t="n">
-        <v>0.6631944444444444</v>
-      </c>
-      <c r="D29" s="6" t="n">
-        <v>0.7048611111111112</v>
-      </c>
-      <c r="E29" s="6" t="n">
-        <v>0.9298611111111111</v>
-      </c>
+      <c r="B29" s="6" t="n"/>
+      <c r="C29" s="6" t="n"/>
+      <c r="D29" s="6" t="n"/>
+      <c r="E29" s="6" t="n"/>
       <c r="F29" s="7" t="n"/>
       <c r="G29" s="8" t="n"/>
       <c r="K29" s="2">
@@ -15808,8 +14024,8 @@
   </sheetPr>
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
@@ -15916,18 +14132,10 @@
       <c r="A3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="C3" s="6" t="n">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="D3" s="6" t="n">
-        <v>0.4583333333333333</v>
-      </c>
-      <c r="E3" s="6" t="n">
-        <v>0.7083333333333334</v>
-      </c>
+      <c r="B3" s="6" t="n"/>
+      <c r="C3" s="6" t="n"/>
+      <c r="D3" s="6" t="n"/>
+      <c r="E3" s="6" t="n"/>
       <c r="F3" s="7" t="n"/>
       <c r="G3" s="8" t="n"/>
       <c r="K3" s="2">
@@ -15956,18 +14164,10 @@
       <c r="A4" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="n">
-        <v>0.2152777777777778</v>
-      </c>
-      <c r="C4" s="6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D4" s="6" t="n">
-        <v>0.5416666666666666</v>
-      </c>
-      <c r="E4" s="6" t="n">
-        <v>0.7222222222222222</v>
-      </c>
+      <c r="B4" s="6" t="n"/>
+      <c r="C4" s="6" t="n"/>
+      <c r="D4" s="6" t="n"/>
+      <c r="E4" s="6" t="n"/>
       <c r="F4" s="7" t="n"/>
       <c r="G4" s="8" t="n"/>
       <c r="K4" s="2">
@@ -16273,18 +14473,10 @@
       <c r="A16" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="n">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="C16" s="6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D16" s="6" t="n">
-        <v>0.5486111111111112</v>
-      </c>
-      <c r="E16" s="6" t="n">
-        <v>0.7222222222222222</v>
-      </c>
+      <c r="B16" s="6" t="n"/>
+      <c r="C16" s="6" t="n"/>
+      <c r="D16" s="6" t="n"/>
+      <c r="E16" s="6" t="n"/>
       <c r="F16" s="7" t="n"/>
       <c r="G16" s="8" t="n"/>
       <c r="K16" s="2">
@@ -16304,18 +14496,10 @@
       <c r="A17" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="n">
-        <v>0.6111111111111112</v>
-      </c>
-      <c r="C17" s="6" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="D17" s="6" t="n">
-        <v>0.7090277777777778</v>
-      </c>
-      <c r="E17" s="6" t="n">
-        <v>0.9166666666666666</v>
-      </c>
+      <c r="B17" s="6" t="n"/>
+      <c r="C17" s="6" t="n"/>
+      <c r="D17" s="6" t="n"/>
+      <c r="E17" s="6" t="n"/>
       <c r="F17" s="7" t="n"/>
       <c r="G17" s="8" t="n"/>
       <c r="K17" s="2">
@@ -16335,18 +14519,10 @@
       <c r="A18" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="n">
-        <v>0.6034722222222222</v>
-      </c>
-      <c r="C18" s="6" t="n">
-        <v>0.5416666666666666</v>
-      </c>
-      <c r="D18" s="6" t="n">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="E18" s="6" t="n">
-        <v>0.7493055555555556</v>
-      </c>
+      <c r="B18" s="6" t="n"/>
+      <c r="C18" s="6" t="n"/>
+      <c r="D18" s="6" t="n"/>
+      <c r="E18" s="6" t="n"/>
       <c r="F18" s="7" t="n"/>
       <c r="G18" s="8" t="n"/>
       <c r="K18" s="2">
@@ -16734,7 +14910,7 @@
   </sheetPr>
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -17621,7 +15797,7 @@
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B2" sqref="B2:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
@@ -17695,18 +15871,10 @@
       <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="n">
-        <v>0.3861111111111111</v>
-      </c>
-      <c r="C2" s="6" t="n">
-        <v>0.4854166666666667</v>
-      </c>
-      <c r="D2" s="6" t="n">
-        <v>0.5256944444444445</v>
-      </c>
-      <c r="E2" s="6" t="n">
-        <v>0.7125</v>
-      </c>
+      <c r="B2" s="6" t="n"/>
+      <c r="C2" s="6" t="n"/>
+      <c r="D2" s="6" t="n"/>
+      <c r="E2" s="6" t="n"/>
       <c r="F2" s="7" t="n"/>
       <c r="G2" s="8" t="n"/>
       <c r="K2" s="2">
@@ -17736,18 +15904,10 @@
       <c r="A3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="n">
-        <v>0.3909722222222222</v>
-      </c>
-      <c r="C3" s="6" t="n">
-        <v>0.4888888888888889</v>
-      </c>
-      <c r="D3" s="6" t="n">
-        <v>0.5291666666666667</v>
-      </c>
-      <c r="E3" s="6" t="n">
-        <v>0.9131944444444444</v>
-      </c>
+      <c r="B3" s="6" t="n"/>
+      <c r="C3" s="6" t="n"/>
+      <c r="D3" s="6" t="n"/>
+      <c r="E3" s="6" t="n"/>
       <c r="F3" s="7" t="n"/>
       <c r="G3" s="8" t="n"/>
       <c r="K3" s="2">
@@ -17776,18 +15936,10 @@
       <c r="A4" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="n">
-        <v>0.4118055555555555</v>
-      </c>
-      <c r="C4" s="6" t="n">
-        <v>0.4840277777777778</v>
-      </c>
-      <c r="D4" s="6" t="n">
-        <v>0.5125</v>
-      </c>
-      <c r="E4" s="6" t="n">
-        <v>0.7104166666666667</v>
-      </c>
+      <c r="B4" s="6" t="n"/>
+      <c r="C4" s="6" t="n"/>
+      <c r="D4" s="6" t="n"/>
+      <c r="E4" s="6" t="n"/>
       <c r="F4" s="7" t="n"/>
       <c r="G4" s="8" t="n"/>
       <c r="K4" s="2">
@@ -17816,18 +15968,10 @@
       <c r="A5" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="n">
-        <v>0.39375</v>
-      </c>
-      <c r="C5" s="6" t="n">
-        <v>0.4993055555555556</v>
-      </c>
-      <c r="D5" s="6" t="n">
-        <v>0.5402777777777777</v>
-      </c>
-      <c r="E5" s="6" t="n">
-        <v>0.7125</v>
-      </c>
+      <c r="B5" s="6" t="n"/>
+      <c r="C5" s="6" t="n"/>
+      <c r="D5" s="6" t="n"/>
+      <c r="E5" s="6" t="n"/>
       <c r="F5" s="7" t="n"/>
       <c r="G5" s="8" t="n"/>
       <c r="K5" s="2">
@@ -17879,18 +16023,10 @@
       <c r="A7" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="n">
-        <v>0.3916666666666667</v>
-      </c>
-      <c r="C7" s="6" t="n">
-        <v>0.4972222222222222</v>
-      </c>
-      <c r="D7" s="6" t="n">
-        <v>0.5388888888888889</v>
-      </c>
-      <c r="E7" s="6" t="n">
-        <v>0.7131944444444445</v>
-      </c>
+      <c r="B7" s="6" t="n"/>
+      <c r="C7" s="6" t="n"/>
+      <c r="D7" s="6" t="n"/>
+      <c r="E7" s="6" t="n"/>
       <c r="F7" s="7" t="n"/>
       <c r="G7" s="8" t="n"/>
       <c r="K7" s="2">
@@ -17911,18 +16047,10 @@
       <c r="A8" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="n">
-        <v>0.39375</v>
-      </c>
-      <c r="C8" s="6" t="n">
-        <v>0.4979166666666667</v>
-      </c>
-      <c r="D8" s="6" t="n">
-        <v>0.5388888888888889</v>
-      </c>
-      <c r="E8" s="6" t="n">
-        <v>0.7125</v>
-      </c>
+      <c r="B8" s="6" t="n"/>
+      <c r="C8" s="6" t="n"/>
+      <c r="D8" s="6" t="n"/>
+      <c r="E8" s="6" t="n"/>
       <c r="F8" s="7" t="n"/>
       <c r="G8" s="8" t="n"/>
       <c r="K8" s="2">
@@ -17951,18 +16079,10 @@
       <c r="A9" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="n">
-        <v>0.3909722222222222</v>
-      </c>
-      <c r="C9" s="6" t="n">
-        <v>0.48125</v>
-      </c>
-      <c r="D9" s="6" t="n">
-        <v>0.5222222222222223</v>
-      </c>
-      <c r="E9" s="6" t="n">
-        <v>0.7104166666666667</v>
-      </c>
+      <c r="B9" s="6" t="n"/>
+      <c r="C9" s="6" t="n"/>
+      <c r="D9" s="6" t="n"/>
+      <c r="E9" s="6" t="n"/>
       <c r="F9" s="7" t="n"/>
       <c r="G9" s="8" t="n"/>
       <c r="K9" s="2">
@@ -18010,18 +16130,10 @@
       <c r="A11" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="n">
-        <v>0.3861111111111111</v>
-      </c>
-      <c r="C11" s="6" t="n">
-        <v>0.4819444444444445</v>
-      </c>
-      <c r="D11" s="6" t="n">
-        <v>0.5229166666666667</v>
-      </c>
-      <c r="E11" s="6" t="n">
-        <v>0.7118055555555556</v>
-      </c>
+      <c r="B11" s="6" t="n"/>
+      <c r="C11" s="6" t="n"/>
+      <c r="D11" s="6" t="n"/>
+      <c r="E11" s="6" t="n"/>
       <c r="F11" s="7" t="n"/>
       <c r="G11" s="8" t="n"/>
       <c r="K11" s="2">
@@ -18041,18 +16153,10 @@
       <c r="A12" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="C12" s="6" t="n">
-        <v>0.4861111111111111</v>
-      </c>
-      <c r="D12" s="6" t="n">
-        <v>0.5270833333333333</v>
-      </c>
-      <c r="E12" s="6" t="n">
-        <v>0.7138888888888889</v>
-      </c>
+      <c r="B12" s="6" t="n"/>
+      <c r="C12" s="6" t="n"/>
+      <c r="D12" s="6" t="n"/>
+      <c r="E12" s="6" t="n"/>
       <c r="F12" s="7" t="n"/>
       <c r="G12" s="8" t="n"/>
       <c r="K12" s="2">
@@ -18095,18 +16199,10 @@
       <c r="A14" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="n">
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="C14" s="6" t="n">
-        <v>0.4916666666666666</v>
-      </c>
-      <c r="D14" s="6" t="n">
-        <v>0.5229166666666667</v>
-      </c>
-      <c r="E14" s="6" t="n">
-        <v>0.7145833333333333</v>
-      </c>
+      <c r="B14" s="6" t="n"/>
+      <c r="C14" s="6" t="n"/>
+      <c r="D14" s="6" t="n"/>
+      <c r="E14" s="6" t="n"/>
       <c r="F14" s="7" t="n"/>
       <c r="G14" s="8" t="n"/>
       <c r="K14" s="2">
@@ -18126,18 +16222,10 @@
       <c r="A15" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="n">
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="C15" s="6" t="n">
-        <v>0.4881944444444444</v>
-      </c>
-      <c r="D15" s="6" t="n">
-        <v>0.5284722222222222</v>
-      </c>
-      <c r="E15" s="6" t="n">
-        <v>0.7118055555555556</v>
-      </c>
+      <c r="B15" s="6" t="n"/>
+      <c r="C15" s="6" t="n"/>
+      <c r="D15" s="6" t="n"/>
+      <c r="E15" s="6" t="n"/>
       <c r="F15" s="7" t="n"/>
       <c r="G15" s="8" t="n"/>
       <c r="K15" s="2">
@@ -18157,18 +16245,10 @@
       <c r="A16" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="n">
-        <v>0.3847222222222222</v>
-      </c>
-      <c r="C16" s="6" t="n">
-        <v>0.4854166666666667</v>
-      </c>
-      <c r="D16" s="6" t="n">
-        <v>0.5243055555555556</v>
-      </c>
-      <c r="E16" s="6" t="n">
-        <v>0.7125</v>
-      </c>
+      <c r="B16" s="6" t="n"/>
+      <c r="C16" s="6" t="n"/>
+      <c r="D16" s="6" t="n"/>
+      <c r="E16" s="6" t="n"/>
       <c r="F16" s="7" t="n"/>
       <c r="G16" s="8" t="n"/>
       <c r="K16" s="2">
@@ -18188,18 +16268,10 @@
       <c r="A17" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="n">
-        <v>0.3819444444444444</v>
-      </c>
-      <c r="C17" s="6" t="n">
-        <v>0.45625</v>
-      </c>
-      <c r="D17" s="6" t="n">
-        <v>0.4951388888888889</v>
-      </c>
-      <c r="E17" s="6" t="n">
-        <v>0.9173611111111111</v>
-      </c>
+      <c r="B17" s="6" t="n"/>
+      <c r="C17" s="6" t="n"/>
+      <c r="D17" s="6" t="n"/>
+      <c r="E17" s="6" t="n"/>
       <c r="F17" s="7" t="n"/>
       <c r="G17" s="8" t="n"/>
       <c r="K17" s="2">
@@ -18219,18 +16291,10 @@
       <c r="A18" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="n">
-        <v>0.3875</v>
-      </c>
-      <c r="C18" s="6" t="n">
-        <v>0.4791666666666667</v>
-      </c>
-      <c r="D18" s="6" t="n">
-        <v>0.5180555555555556</v>
-      </c>
-      <c r="E18" s="6" t="n">
-        <v>0.7104166666666667</v>
-      </c>
+      <c r="B18" s="6" t="n"/>
+      <c r="C18" s="6" t="n"/>
+      <c r="D18" s="6" t="n"/>
+      <c r="E18" s="6" t="n"/>
       <c r="F18" s="7" t="n"/>
       <c r="G18" s="8" t="n"/>
       <c r="K18" s="2">
@@ -18250,18 +16314,10 @@
       <c r="A19" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="n">
-        <v>0.3909722222222222</v>
-      </c>
-      <c r="C19" s="6" t="n">
-        <v>0.4854166666666667</v>
-      </c>
-      <c r="D19" s="6" t="n">
-        <v>0.5236111111111111</v>
-      </c>
-      <c r="E19" s="6" t="n">
-        <v>0.7097222222222223</v>
-      </c>
+      <c r="B19" s="6" t="n"/>
+      <c r="C19" s="6" t="n"/>
+      <c r="D19" s="6" t="n"/>
+      <c r="E19" s="6" t="n"/>
       <c r="F19" s="7" t="n"/>
       <c r="G19" s="8" t="n"/>
       <c r="K19" s="2">
@@ -18304,18 +16360,10 @@
       <c r="A21" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="n">
-        <v>0.3958333333333333</v>
-      </c>
-      <c r="C21" s="6" t="n">
-        <v>0.4930555555555556</v>
-      </c>
-      <c r="D21" s="6" t="n">
-        <v>0.5305555555555556</v>
-      </c>
-      <c r="E21" s="6" t="n">
-        <v>0.7104166666666667</v>
-      </c>
+      <c r="B21" s="6" t="n"/>
+      <c r="C21" s="6" t="n"/>
+      <c r="D21" s="6" t="n"/>
+      <c r="E21" s="6" t="n"/>
       <c r="F21" s="7" t="n"/>
       <c r="G21" s="8" t="n"/>
       <c r="K21" s="2">
@@ -18335,18 +16383,10 @@
       <c r="A22" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="n">
-        <v>0.3965277777777778</v>
-      </c>
-      <c r="C22" s="6" t="n">
-        <v>0.4993055555555556</v>
-      </c>
-      <c r="D22" s="6" t="n">
-        <v>0.5375</v>
-      </c>
-      <c r="E22" s="6" t="n">
-        <v>0.7111111111111111</v>
-      </c>
+      <c r="B22" s="6" t="n"/>
+      <c r="C22" s="6" t="n"/>
+      <c r="D22" s="6" t="n"/>
+      <c r="E22" s="6" t="n"/>
       <c r="F22" s="7" t="n"/>
       <c r="G22" s="8" t="n"/>
       <c r="K22" s="2">
@@ -18366,18 +16406,10 @@
       <c r="A23" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="n">
-        <v>0.3923611111111111</v>
-      </c>
-      <c r="C23" s="6" t="n">
-        <v>0.4916666666666666</v>
-      </c>
-      <c r="D23" s="6" t="n">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="E23" s="6" t="n">
-        <v>0.7104166666666667</v>
-      </c>
+      <c r="B23" s="6" t="n"/>
+      <c r="C23" s="6" t="n"/>
+      <c r="D23" s="6" t="n"/>
+      <c r="E23" s="6" t="n"/>
       <c r="F23" s="7" t="n"/>
       <c r="G23" s="8" t="n"/>
       <c r="K23" s="2">
@@ -18420,18 +16452,10 @@
       <c r="A25" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="6" t="n">
-        <v>0.3979166666666666</v>
-      </c>
-      <c r="C25" s="6" t="n">
-        <v>0.48125</v>
-      </c>
-      <c r="D25" s="6" t="n">
-        <v>0.5194444444444445</v>
-      </c>
-      <c r="E25" s="6" t="n">
-        <v>0.7097222222222223</v>
-      </c>
+      <c r="B25" s="6" t="n"/>
+      <c r="C25" s="6" t="n"/>
+      <c r="D25" s="6" t="n"/>
+      <c r="E25" s="6" t="n"/>
       <c r="F25" s="7" t="n"/>
       <c r="G25" s="8" t="n"/>
       <c r="K25" s="2">
@@ -18451,18 +16475,10 @@
       <c r="A26" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="6" t="n">
-        <v>0.4125</v>
-      </c>
-      <c r="C26" s="6" t="n">
-        <v>0.4902777777777778</v>
-      </c>
-      <c r="D26" s="6" t="n">
-        <v>0.5291666666666667</v>
-      </c>
-      <c r="E26" s="6" t="n">
-        <v>0.7152777777777778</v>
-      </c>
+      <c r="B26" s="6" t="n"/>
+      <c r="C26" s="6" t="n"/>
+      <c r="D26" s="6" t="n"/>
+      <c r="E26" s="6" t="n"/>
       <c r="F26" s="7" t="n"/>
       <c r="G26" s="8" t="n"/>
       <c r="K26" s="2">
@@ -18505,18 +16521,10 @@
       <c r="A28" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="6" t="n">
-        <v>0.3930555555555555</v>
-      </c>
-      <c r="C28" s="6" t="n">
-        <v>0.4972222222222222</v>
-      </c>
-      <c r="D28" s="6" t="n">
-        <v>0.5347222222222222</v>
-      </c>
-      <c r="E28" s="6" t="n">
-        <v>0.7118055555555556</v>
-      </c>
+      <c r="B28" s="6" t="n"/>
+      <c r="C28" s="6" t="n"/>
+      <c r="D28" s="6" t="n"/>
+      <c r="E28" s="6" t="n"/>
       <c r="F28" s="7" t="n"/>
       <c r="G28" s="8" t="n"/>
       <c r="K28" s="2">
@@ -18536,18 +16544,10 @@
       <c r="A29" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="6" t="n">
-        <v>0.36875</v>
-      </c>
-      <c r="C29" s="6" t="n">
-        <v>0.48125</v>
-      </c>
-      <c r="D29" s="6" t="n">
-        <v>0.5201388888888889</v>
-      </c>
-      <c r="E29" s="6" t="n">
-        <v>0.7166666666666667</v>
-      </c>
+      <c r="B29" s="6" t="n"/>
+      <c r="C29" s="6" t="n"/>
+      <c r="D29" s="6" t="n"/>
+      <c r="E29" s="6" t="n"/>
       <c r="F29" s="7" t="n"/>
       <c r="G29" s="8" t="n"/>
       <c r="K29" s="2">
@@ -18682,8 +16682,8 @@
   </sheetPr>
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
@@ -18757,18 +16757,10 @@
       <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="n">
-        <v>0.6048611111111111</v>
-      </c>
-      <c r="C2" s="6" t="n">
-        <v>0.6284722222222222</v>
-      </c>
-      <c r="D2" s="6" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="E2" s="6" t="n">
-        <v>0.9222222222222223</v>
-      </c>
+      <c r="B2" s="6" t="n"/>
+      <c r="C2" s="6" t="n"/>
+      <c r="D2" s="6" t="n"/>
+      <c r="E2" s="6" t="n"/>
       <c r="F2" s="7" t="n"/>
       <c r="G2" s="8" t="n"/>
       <c r="K2" s="2">
@@ -18830,18 +16822,10 @@
       <c r="A4" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="n">
-        <v>0.6076388888888888</v>
-      </c>
-      <c r="C4" s="6" t="n">
-        <v>0.6631944444444444</v>
-      </c>
-      <c r="D4" s="6" t="n">
-        <v>0.70625</v>
-      </c>
-      <c r="E4" s="6" t="n">
-        <v>0.9291666666666667</v>
-      </c>
+      <c r="B4" s="6" t="n"/>
+      <c r="C4" s="6" t="n"/>
+      <c r="D4" s="6" t="n"/>
+      <c r="E4" s="6" t="n"/>
       <c r="F4" s="7" t="n"/>
       <c r="G4" s="8" t="n"/>
       <c r="K4" s="2">
@@ -18893,18 +16877,10 @@
       <c r="A6" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="C6" s="6" t="n">
-        <v>0.6097222222222223</v>
-      </c>
-      <c r="D6" s="6" t="n">
-        <v>0.6576388888888889</v>
-      </c>
-      <c r="E6" s="6" t="n">
-        <v>0.7847222222222222</v>
-      </c>
+      <c r="B6" s="6" t="n"/>
+      <c r="C6" s="6" t="n"/>
+      <c r="D6" s="6" t="n"/>
+      <c r="E6" s="6" t="n"/>
       <c r="F6" s="7" t="n"/>
       <c r="G6" s="8" t="n"/>
       <c r="K6" s="2">
@@ -18933,18 +16909,10 @@
       <c r="A7" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="n">
-        <v>0.4506944444444445</v>
-      </c>
-      <c r="C7" s="6" t="n">
-        <v>0.6083333333333333</v>
-      </c>
-      <c r="D7" s="6" t="n">
-        <v>0.6541666666666667</v>
-      </c>
-      <c r="E7" s="6" t="n">
-        <v>0.7840277777777778</v>
-      </c>
+      <c r="B7" s="6" t="n"/>
+      <c r="C7" s="6" t="n"/>
+      <c r="D7" s="6" t="n"/>
+      <c r="E7" s="6" t="n"/>
       <c r="F7" s="7" t="n"/>
       <c r="G7" s="8" t="n"/>
       <c r="K7" s="2">
@@ -18965,18 +16933,10 @@
       <c r="A8" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="n">
-        <v>0.4479166666666667</v>
-      </c>
-      <c r="C8" s="6" t="n">
-        <v>0.6090277777777777</v>
-      </c>
-      <c r="D8" s="6" t="n">
-        <v>0.6541666666666667</v>
-      </c>
-      <c r="E8" s="6" t="n">
-        <v>0.7826388888888889</v>
-      </c>
+      <c r="B8" s="6" t="n"/>
+      <c r="C8" s="6" t="n"/>
+      <c r="D8" s="6" t="n"/>
+      <c r="E8" s="6" t="n"/>
       <c r="F8" s="7" t="n"/>
       <c r="G8" s="8" t="n"/>
       <c r="K8" s="2">
@@ -19005,18 +16965,10 @@
       <c r="A9" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="n">
-        <v>0.5979166666666667</v>
-      </c>
-      <c r="C9" s="6" t="n">
-        <v>0.6125</v>
-      </c>
-      <c r="D9" s="6" t="n">
-        <v>0.6548611111111111</v>
-      </c>
-      <c r="E9" s="6" t="n">
-        <v>0.9229166666666667</v>
-      </c>
+      <c r="B9" s="6" t="n"/>
+      <c r="C9" s="6" t="n"/>
+      <c r="D9" s="6" t="n"/>
+      <c r="E9" s="6" t="n"/>
       <c r="F9" s="7" t="n"/>
       <c r="G9" s="8" t="n"/>
       <c r="K9" s="2">
@@ -19036,18 +16988,10 @@
       <c r="A10" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="n">
-        <v>0.3881944444444445</v>
-      </c>
-      <c r="C10" s="6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D10" s="6" t="n">
-        <v>0.5416666666666666</v>
-      </c>
-      <c r="E10" s="6" t="n">
-        <v>0.9243055555555556</v>
-      </c>
+      <c r="B10" s="6" t="n"/>
+      <c r="C10" s="6" t="n"/>
+      <c r="D10" s="6" t="n"/>
+      <c r="E10" s="6" t="n"/>
       <c r="F10" s="7" t="n"/>
       <c r="G10" s="8" t="n"/>
       <c r="K10" s="2">
@@ -19072,18 +17016,10 @@
       <c r="A11" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="n">
-        <v>0.6090277777777777</v>
-      </c>
-      <c r="C11" s="6" t="n">
-        <v>0.6618055555555555</v>
-      </c>
-      <c r="D11" s="6" t="n">
-        <v>0.7055555555555556</v>
-      </c>
-      <c r="E11" s="6" t="n">
-        <v>0.9284722222222223</v>
-      </c>
+      <c r="B11" s="6" t="n"/>
+      <c r="C11" s="6" t="n"/>
+      <c r="D11" s="6" t="n"/>
+      <c r="E11" s="6" t="n"/>
       <c r="F11" s="7" t="n"/>
       <c r="G11" s="8" t="n"/>
       <c r="K11" s="2">
@@ -19126,18 +17062,10 @@
       <c r="A13" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="n">
-        <v>0.4486111111111111</v>
-      </c>
-      <c r="C13" s="6" t="n">
-        <v>0.6076388888888888</v>
-      </c>
-      <c r="D13" s="6" t="n">
-        <v>0.6506944444444445</v>
-      </c>
-      <c r="E13" s="6" t="n">
-        <v>0.7902777777777777</v>
-      </c>
+      <c r="B13" s="6" t="n"/>
+      <c r="C13" s="6" t="n"/>
+      <c r="D13" s="6" t="n"/>
+      <c r="E13" s="6" t="n"/>
       <c r="F13" s="7" t="n"/>
       <c r="G13" s="8" t="n"/>
       <c r="K13" s="2">
@@ -19157,18 +17085,10 @@
       <c r="A14" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="C14" s="6" t="n">
-        <v>0.6076388888888888</v>
-      </c>
-      <c r="D14" s="6" t="n">
-        <v>0.6493055555555556</v>
-      </c>
-      <c r="E14" s="6" t="n">
-        <v>0.7847222222222222</v>
-      </c>
+      <c r="B14" s="6" t="n"/>
+      <c r="C14" s="6" t="n"/>
+      <c r="D14" s="6" t="n"/>
+      <c r="E14" s="6" t="n"/>
       <c r="F14" s="7" t="n"/>
       <c r="G14" s="8" t="n"/>
       <c r="K14" s="2">
@@ -19188,18 +17108,10 @@
       <c r="A15" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="n">
-        <v>0.4486111111111111</v>
-      </c>
-      <c r="C15" s="6" t="n">
-        <v>0.6131944444444445</v>
-      </c>
-      <c r="D15" s="6" t="n">
-        <v>0.6541666666666667</v>
-      </c>
-      <c r="E15" s="6" t="n">
-        <v>0.7819444444444444</v>
-      </c>
+      <c r="B15" s="6" t="n"/>
+      <c r="C15" s="6" t="n"/>
+      <c r="D15" s="6" t="n"/>
+      <c r="E15" s="6" t="n"/>
       <c r="F15" s="7" t="n"/>
       <c r="G15" s="8" t="n"/>
       <c r="K15" s="2">
@@ -19219,18 +17131,10 @@
       <c r="A16" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="n">
-        <v>0.6006944444444444</v>
-      </c>
-      <c r="C16" s="6" t="n">
-        <v>0.6201388888888889</v>
-      </c>
-      <c r="D16" s="6" t="n">
-        <v>0.6618055555555555</v>
-      </c>
-      <c r="E16" s="6" t="n">
-        <v>0.9277777777777778</v>
-      </c>
+      <c r="B16" s="6" t="n"/>
+      <c r="C16" s="6" t="n"/>
+      <c r="D16" s="6" t="n"/>
+      <c r="E16" s="6" t="n"/>
       <c r="F16" s="7" t="n"/>
       <c r="G16" s="8" t="n"/>
       <c r="K16" s="2">
@@ -19273,18 +17177,10 @@
       <c r="A18" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="n">
-        <v>0.6069444444444444</v>
-      </c>
-      <c r="C18" s="6" t="n">
-        <v>0.6645833333333333</v>
-      </c>
-      <c r="D18" s="6" t="n">
-        <v>0.7069444444444445</v>
-      </c>
-      <c r="E18" s="6" t="n">
-        <v>0.9277777777777778</v>
-      </c>
+      <c r="B18" s="6" t="n"/>
+      <c r="C18" s="6" t="n"/>
+      <c r="D18" s="6" t="n"/>
+      <c r="E18" s="6" t="n"/>
       <c r="F18" s="7" t="n"/>
       <c r="G18" s="8" t="n"/>
       <c r="K18" s="2">
@@ -19327,18 +17223,10 @@
       <c r="A20" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="n">
-        <v>0.4486111111111111</v>
-      </c>
-      <c r="C20" s="6" t="n">
-        <v>0.6104166666666667</v>
-      </c>
-      <c r="D20" s="6" t="n">
-        <v>0.6576388888888889</v>
-      </c>
-      <c r="E20" s="6" t="n">
-        <v>0.7840277777777778</v>
-      </c>
+      <c r="B20" s="6" t="n"/>
+      <c r="C20" s="6" t="n"/>
+      <c r="D20" s="6" t="n"/>
+      <c r="E20" s="6" t="n"/>
       <c r="F20" s="7" t="n"/>
       <c r="G20" s="8" t="n"/>
       <c r="K20" s="2">
@@ -19358,18 +17246,10 @@
       <c r="A21" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="n">
-        <v>0.4548611111111111</v>
-      </c>
-      <c r="C21" s="6" t="n">
-        <v>0.6104166666666667</v>
-      </c>
-      <c r="D21" s="6" t="n">
-        <v>0.65625</v>
-      </c>
-      <c r="E21" s="6" t="n">
-        <v>0.7847222222222222</v>
-      </c>
+      <c r="B21" s="6" t="n"/>
+      <c r="C21" s="6" t="n"/>
+      <c r="D21" s="6" t="n"/>
+      <c r="E21" s="6" t="n"/>
       <c r="F21" s="7" t="n"/>
       <c r="G21" s="8" t="n"/>
       <c r="K21" s="2">
@@ -19389,18 +17269,10 @@
       <c r="A22" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="n">
-        <v>0.4513888888888889</v>
-      </c>
-      <c r="C22" s="6" t="n">
-        <v>0.6090277777777777</v>
-      </c>
-      <c r="D22" s="6" t="n">
-        <v>0.6555555555555556</v>
-      </c>
-      <c r="E22" s="6" t="n">
-        <v>0.7847222222222222</v>
-      </c>
+      <c r="B22" s="6" t="n"/>
+      <c r="C22" s="6" t="n"/>
+      <c r="D22" s="6" t="n"/>
+      <c r="E22" s="6" t="n"/>
       <c r="F22" s="7" t="n"/>
       <c r="G22" s="8" t="n"/>
       <c r="K22" s="2">
@@ -19420,18 +17292,10 @@
       <c r="A23" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="n">
-        <v>0.6013888888888889</v>
-      </c>
-      <c r="C23" s="6" t="n">
-        <v>0.6194444444444445</v>
-      </c>
-      <c r="D23" s="6" t="n">
-        <v>0.66875</v>
-      </c>
-      <c r="E23" s="6" t="n">
-        <v>0.925</v>
-      </c>
+      <c r="B23" s="6" t="n"/>
+      <c r="C23" s="6" t="n"/>
+      <c r="D23" s="6" t="n"/>
+      <c r="E23" s="6" t="n"/>
       <c r="F23" s="7" t="n"/>
       <c r="G23" s="8" t="n"/>
       <c r="K23" s="2">
@@ -19451,18 +17315,10 @@
       <c r="A24" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="6" t="n">
-        <v>0.3944444444444444</v>
-      </c>
-      <c r="C24" s="6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D24" s="6" t="n">
-        <v>0.5416666666666666</v>
-      </c>
-      <c r="E24" s="6" t="n">
-        <v>0.925</v>
-      </c>
+      <c r="B24" s="6" t="n"/>
+      <c r="C24" s="6" t="n"/>
+      <c r="D24" s="6" t="n"/>
+      <c r="E24" s="6" t="n"/>
       <c r="F24" s="7" t="n"/>
       <c r="G24" s="8" t="n"/>
       <c r="K24" s="2">
@@ -19482,18 +17338,10 @@
       <c r="A25" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="6" t="n">
-        <v>0.60625</v>
-      </c>
-      <c r="C25" s="6" t="n">
-        <v>0.6618055555555555</v>
-      </c>
-      <c r="D25" s="6" t="n">
-        <v>0.70625</v>
-      </c>
-      <c r="E25" s="6" t="n">
-        <v>0.9298611111111111</v>
-      </c>
+      <c r="B25" s="6" t="n"/>
+      <c r="C25" s="6" t="n"/>
+      <c r="D25" s="6" t="n"/>
+      <c r="E25" s="6" t="n"/>
       <c r="F25" s="7" t="n"/>
       <c r="G25" s="8" t="n"/>
       <c r="K25" s="2">
@@ -19536,18 +17384,10 @@
       <c r="A27" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="6" t="n">
-        <v>0.4513888888888889</v>
-      </c>
-      <c r="C27" s="6" t="n">
-        <v>0.6111111111111112</v>
-      </c>
-      <c r="D27" s="6" t="n">
-        <v>0.6548611111111111</v>
-      </c>
-      <c r="E27" s="6" t="n">
-        <v>0.7895833333333333</v>
-      </c>
+      <c r="B27" s="6" t="n"/>
+      <c r="C27" s="6" t="n"/>
+      <c r="D27" s="6" t="n"/>
+      <c r="E27" s="6" t="n"/>
       <c r="F27" s="7" t="n"/>
       <c r="G27" s="8" t="n"/>
       <c r="K27" s="2">
@@ -19567,18 +17407,10 @@
       <c r="A28" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="6" t="n">
-        <v>0.4520833333333333</v>
-      </c>
-      <c r="C28" s="6" t="n">
-        <v>0.6097222222222223</v>
-      </c>
-      <c r="D28" s="6" t="n">
-        <v>0.6541666666666667</v>
-      </c>
-      <c r="E28" s="6" t="n">
-        <v>0.7881944444444444</v>
-      </c>
+      <c r="B28" s="6" t="n"/>
+      <c r="C28" s="6" t="n"/>
+      <c r="D28" s="6" t="n"/>
+      <c r="E28" s="6" t="n"/>
       <c r="F28" s="7" t="n"/>
       <c r="G28" s="8" t="n"/>
       <c r="K28" s="2">
@@ -19598,18 +17430,10 @@
       <c r="A29" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="6" t="n">
-        <v>0.4534722222222222</v>
-      </c>
-      <c r="C29" s="6" t="n">
-        <v>0.6159722222222223</v>
-      </c>
-      <c r="D29" s="6" t="n">
-        <v>0.65625</v>
-      </c>
-      <c r="E29" s="6" t="n">
-        <v>0.9166666666666666</v>
-      </c>
+      <c r="B29" s="6" t="n"/>
+      <c r="C29" s="6" t="n"/>
+      <c r="D29" s="6" t="n"/>
+      <c r="E29" s="6" t="n"/>
       <c r="F29" s="7" t="n"/>
       <c r="G29" s="8" t="n"/>
       <c r="K29" s="2">
@@ -19744,8 +17568,8 @@
   </sheetPr>
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
@@ -19819,18 +17643,10 @@
       <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="n">
-        <v>0.3659722222222222</v>
-      </c>
-      <c r="C2" s="6" t="n">
-        <v>0.5972222222222222</v>
-      </c>
-      <c r="D2" s="6" t="n">
-        <v>0.6388888888888888</v>
-      </c>
-      <c r="E2" s="6" t="n">
-        <v>0.7298611111111111</v>
-      </c>
+      <c r="B2" s="6" t="n"/>
+      <c r="C2" s="6" t="n"/>
+      <c r="D2" s="6" t="n"/>
+      <c r="E2" s="6" t="n"/>
       <c r="F2" s="7" t="n"/>
       <c r="G2" s="8" t="n"/>
       <c r="K2" s="2">
@@ -19892,18 +17708,10 @@
       <c r="A4" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="n">
-        <v>0.3618055555555555</v>
-      </c>
-      <c r="C4" s="6" t="n">
-        <v>0.5923611111111111</v>
-      </c>
-      <c r="D4" s="6" t="n">
-        <v>0.6319444444444444</v>
-      </c>
-      <c r="E4" s="6" t="n">
-        <v>0.7090277777777778</v>
-      </c>
+      <c r="B4" s="6" t="n"/>
+      <c r="C4" s="6" t="n"/>
+      <c r="D4" s="6" t="n"/>
+      <c r="E4" s="6" t="n"/>
       <c r="F4" s="7" t="n"/>
       <c r="G4" s="8" t="n"/>
       <c r="K4" s="2">
@@ -19932,18 +17740,10 @@
       <c r="A5" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="n">
-        <v>0.3604166666666667</v>
-      </c>
-      <c r="C5" s="6" t="n">
-        <v>0.6041666666666666</v>
-      </c>
-      <c r="D5" s="6" t="n">
-        <v>0.6458333333333334</v>
-      </c>
-      <c r="E5" s="6" t="n">
-        <v>0.7541666666666667</v>
-      </c>
+      <c r="B5" s="6" t="n"/>
+      <c r="C5" s="6" t="n"/>
+      <c r="D5" s="6" t="n"/>
+      <c r="E5" s="6" t="n"/>
       <c r="F5" s="7" t="n"/>
       <c r="G5" s="8" t="n"/>
       <c r="K5" s="2">
@@ -19963,18 +17763,10 @@
       <c r="A6" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="n">
-        <v>0.3541666666666667</v>
-      </c>
-      <c r="C6" s="6" t="n">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="D6" s="6" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="E6" s="6" t="n">
-        <v>0.7118055555555556</v>
-      </c>
+      <c r="B6" s="6" t="n"/>
+      <c r="C6" s="6" t="n"/>
+      <c r="D6" s="6" t="n"/>
+      <c r="E6" s="6" t="n"/>
       <c r="F6" s="7" t="n"/>
       <c r="G6" s="8" t="n"/>
       <c r="K6" s="2">
@@ -20003,18 +17795,10 @@
       <c r="A7" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="n">
-        <v>0.3590277777777778</v>
-      </c>
-      <c r="C7" s="6" t="n">
-        <v>0.5569444444444445</v>
-      </c>
-      <c r="D7" s="6" t="n">
-        <v>0.5993055555555555</v>
-      </c>
-      <c r="E7" s="6" t="n">
-        <v>0.7506944444444444</v>
-      </c>
+      <c r="B7" s="6" t="n"/>
+      <c r="C7" s="6" t="n"/>
+      <c r="D7" s="6" t="n"/>
+      <c r="E7" s="6" t="n"/>
       <c r="F7" s="7" t="n"/>
       <c r="G7" s="8" t="n"/>
       <c r="K7" s="2">
@@ -20035,18 +17819,10 @@
       <c r="A8" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="n">
-        <v>0.3576388888888889</v>
-      </c>
-      <c r="C8" s="6" t="n">
-        <v>0.5770833333333333</v>
-      </c>
-      <c r="D8" s="6" t="n">
-        <v>0.6270833333333333</v>
-      </c>
-      <c r="E8" s="6" t="n">
-        <v>0.7291666666666666</v>
-      </c>
+      <c r="B8" s="6" t="n"/>
+      <c r="C8" s="6" t="n"/>
+      <c r="D8" s="6" t="n"/>
+      <c r="E8" s="6" t="n"/>
       <c r="F8" s="7" t="n"/>
       <c r="G8" s="8" t="n"/>
       <c r="K8" s="2">
@@ -20075,18 +17851,10 @@
       <c r="A9" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="n">
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="C9" s="6" t="n">
-        <v>0.5895833333333333</v>
-      </c>
-      <c r="D9" s="6" t="n">
-        <v>0.6340277777777777</v>
-      </c>
-      <c r="E9" s="6" t="n">
-        <v>0.8041666666666667</v>
-      </c>
+      <c r="B9" s="6" t="n"/>
+      <c r="C9" s="6" t="n"/>
+      <c r="D9" s="6" t="n"/>
+      <c r="E9" s="6" t="n"/>
       <c r="F9" s="7" t="n"/>
       <c r="G9" s="8" t="n"/>
       <c r="K9" s="2">
@@ -20106,18 +17874,10 @@
       <c r="A10" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="n">
-        <v>0.4402777777777778</v>
-      </c>
-      <c r="C10" s="6" t="n">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="D10" s="6" t="n">
-        <v>0.4451388888888889</v>
-      </c>
-      <c r="E10" s="6" t="n">
-        <v>0.4930555555555556</v>
-      </c>
+      <c r="B10" s="6" t="n"/>
+      <c r="C10" s="6" t="n"/>
+      <c r="D10" s="6" t="n"/>
+      <c r="E10" s="6" t="n"/>
       <c r="F10" s="7" t="n"/>
       <c r="G10" s="8" t="n"/>
       <c r="K10" s="2">
@@ -20142,18 +17902,10 @@
       <c r="A11" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="n">
-        <v>0.3618055555555555</v>
-      </c>
-      <c r="C11" s="6" t="n">
-        <v>0.5243055555555556</v>
-      </c>
-      <c r="D11" s="6" t="n">
-        <v>0.5666666666666667</v>
-      </c>
-      <c r="E11" s="6" t="n">
-        <v>0.7069444444444445</v>
-      </c>
+      <c r="B11" s="6" t="n"/>
+      <c r="C11" s="6" t="n"/>
+      <c r="D11" s="6" t="n"/>
+      <c r="E11" s="6" t="n"/>
       <c r="F11" s="7" t="n"/>
       <c r="G11" s="8" t="n"/>
       <c r="K11" s="2">
@@ -20173,18 +17925,10 @@
       <c r="A12" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="n">
-        <v>0.3604166666666667</v>
-      </c>
-      <c r="C12" s="6" t="n">
-        <v>0.5743055555555555</v>
-      </c>
-      <c r="D12" s="6" t="n">
-        <v>0.6173611111111111</v>
-      </c>
-      <c r="E12" s="6" t="n">
-        <v>0.8618055555555556</v>
-      </c>
+      <c r="B12" s="6" t="n"/>
+      <c r="C12" s="6" t="n"/>
+      <c r="D12" s="6" t="n"/>
+      <c r="E12" s="6" t="n"/>
       <c r="F12" s="7" t="n"/>
       <c r="G12" s="8" t="n"/>
       <c r="K12" s="2">
@@ -20227,18 +17971,10 @@
       <c r="A14" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="n">
-        <v>0.3576388888888889</v>
-      </c>
-      <c r="C14" s="6" t="n">
-        <v>0.5451388888888888</v>
-      </c>
-      <c r="D14" s="6" t="n">
-        <v>0.5944444444444444</v>
-      </c>
-      <c r="E14" s="6" t="n">
-        <v>0.7666666666666667</v>
-      </c>
+      <c r="B14" s="6" t="n"/>
+      <c r="C14" s="6" t="n"/>
+      <c r="D14" s="6" t="n"/>
+      <c r="E14" s="6" t="n"/>
       <c r="F14" s="7" t="n"/>
       <c r="G14" s="8" t="n"/>
       <c r="K14" s="2">
@@ -20258,18 +17994,10 @@
       <c r="A15" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="n">
-        <v>0.3541666666666667</v>
-      </c>
-      <c r="C15" s="6" t="n">
-        <v>0.5652777777777778</v>
-      </c>
-      <c r="D15" s="6" t="n">
-        <v>0.6097222222222223</v>
-      </c>
-      <c r="E15" s="6" t="n">
-        <v>0.7090277777777778</v>
-      </c>
+      <c r="B15" s="6" t="n"/>
+      <c r="C15" s="6" t="n"/>
+      <c r="D15" s="6" t="n"/>
+      <c r="E15" s="6" t="n"/>
       <c r="F15" s="7" t="n"/>
       <c r="G15" s="8" t="n"/>
       <c r="K15" s="2">
@@ -20289,18 +18017,10 @@
       <c r="A16" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="n">
-        <v>0.3569444444444445</v>
-      </c>
-      <c r="C16" s="6" t="n">
-        <v>0.55625</v>
-      </c>
-      <c r="D16" s="6" t="n">
-        <v>0.5930555555555556</v>
-      </c>
-      <c r="E16" s="6" t="n">
-        <v>0.6743055555555556</v>
-      </c>
+      <c r="B16" s="6" t="n"/>
+      <c r="C16" s="6" t="n"/>
+      <c r="D16" s="6" t="n"/>
+      <c r="E16" s="6" t="n"/>
       <c r="F16" s="7" t="n"/>
       <c r="G16" s="8" t="n"/>
       <c r="K16" s="2">
@@ -20343,18 +18063,10 @@
       <c r="A18" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="n">
-        <v>0.3826388888888889</v>
-      </c>
-      <c r="C18" s="6" t="n">
-        <v>0.5493055555555556</v>
-      </c>
-      <c r="D18" s="6" t="n">
-        <v>0.5881944444444445</v>
-      </c>
-      <c r="E18" s="6" t="n">
-        <v>0.7111111111111111</v>
-      </c>
+      <c r="B18" s="6" t="n"/>
+      <c r="C18" s="6" t="n"/>
+      <c r="D18" s="6" t="n"/>
+      <c r="E18" s="6" t="n"/>
       <c r="F18" s="7" t="n"/>
       <c r="G18" s="8" t="n"/>
       <c r="K18" s="2">
@@ -20374,18 +18086,10 @@
       <c r="A19" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="n">
-        <v>0.3534722222222222</v>
-      </c>
-      <c r="C19" s="6" t="n">
-        <v>0.5840277777777778</v>
-      </c>
-      <c r="D19" s="6" t="n">
-        <v>0.6173611111111111</v>
-      </c>
-      <c r="E19" s="6" t="n">
-        <v>0.74375</v>
-      </c>
+      <c r="B19" s="6" t="n"/>
+      <c r="C19" s="6" t="n"/>
+      <c r="D19" s="6" t="n"/>
+      <c r="E19" s="6" t="n"/>
       <c r="F19" s="7" t="n"/>
       <c r="G19" s="8" t="n"/>
       <c r="K19" s="2">
@@ -20405,18 +18109,10 @@
       <c r="A20" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="n">
-        <v>0.3583333333333333</v>
-      </c>
-      <c r="C20" s="6" t="n">
-        <v>0.5756944444444444</v>
-      </c>
-      <c r="D20" s="6" t="n">
-        <v>0.6145833333333334</v>
-      </c>
-      <c r="E20" s="6" t="n">
-        <v>0.7152777777777778</v>
-      </c>
+      <c r="B20" s="6" t="n"/>
+      <c r="C20" s="6" t="n"/>
+      <c r="D20" s="6" t="n"/>
+      <c r="E20" s="6" t="n"/>
       <c r="F20" s="7" t="n"/>
       <c r="G20" s="8" t="n"/>
       <c r="K20" s="2">
@@ -20436,18 +18132,10 @@
       <c r="A21" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="n">
-        <v>0.3659722222222222</v>
-      </c>
-      <c r="C21" s="6" t="n">
-        <v>0.5645833333333333</v>
-      </c>
-      <c r="D21" s="6" t="n">
-        <v>0.6131944444444445</v>
-      </c>
-      <c r="E21" s="6" t="n">
-        <v>0.7729166666666667</v>
-      </c>
+      <c r="B21" s="6" t="n"/>
+      <c r="C21" s="6" t="n"/>
+      <c r="D21" s="6" t="n"/>
+      <c r="E21" s="6" t="n"/>
       <c r="F21" s="7" t="n"/>
       <c r="G21" s="8" t="n"/>
       <c r="K21" s="2">
@@ -20467,18 +18155,10 @@
       <c r="A22" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="n">
-        <v>0.3798611111111111</v>
-      </c>
-      <c r="C22" s="6" t="n">
-        <v>0.5493055555555556</v>
-      </c>
-      <c r="D22" s="6" t="n">
-        <v>0.5909722222222222</v>
-      </c>
-      <c r="E22" s="6" t="n">
-        <v>0.7208333333333333</v>
-      </c>
+      <c r="B22" s="6" t="n"/>
+      <c r="C22" s="6" t="n"/>
+      <c r="D22" s="6" t="n"/>
+      <c r="E22" s="6" t="n"/>
       <c r="F22" s="7" t="n"/>
       <c r="G22" s="8" t="n"/>
       <c r="K22" s="2">
@@ -20498,18 +18178,10 @@
       <c r="A23" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="n">
-        <v>0.3604166666666667</v>
-      </c>
-      <c r="C23" s="6" t="n">
-        <v>0.575</v>
-      </c>
-      <c r="D23" s="6" t="n">
-        <v>0.6166666666666667</v>
-      </c>
-      <c r="E23" s="6" t="n">
-        <v>0.7020833333333333</v>
-      </c>
+      <c r="B23" s="6" t="n"/>
+      <c r="C23" s="6" t="n"/>
+      <c r="D23" s="6" t="n"/>
+      <c r="E23" s="6" t="n"/>
       <c r="F23" s="7" t="n"/>
       <c r="G23" s="8" t="n"/>
       <c r="K23" s="2">
@@ -20529,18 +18201,10 @@
       <c r="A24" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="6" t="n">
-        <v>0.4319444444444445</v>
-      </c>
-      <c r="C24" s="6" t="n">
-        <v>0.4513888888888889</v>
-      </c>
-      <c r="D24" s="6" t="n">
-        <v>0.4520833333333333</v>
-      </c>
-      <c r="E24" s="6" t="n">
-        <v>0.4916666666666666</v>
-      </c>
+      <c r="B24" s="6" t="n"/>
+      <c r="C24" s="6" t="n"/>
+      <c r="D24" s="6" t="n"/>
+      <c r="E24" s="6" t="n"/>
       <c r="F24" s="7" t="n"/>
       <c r="G24" s="8" t="n"/>
       <c r="K24" s="2">
@@ -20560,18 +18224,10 @@
       <c r="A25" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="6" t="n">
-        <v>0.3541666666666667</v>
-      </c>
-      <c r="C25" s="6" t="n">
-        <v>0.5513888888888889</v>
-      </c>
-      <c r="D25" s="6" t="n">
-        <v>0.59375</v>
-      </c>
-      <c r="E25" s="6" t="n">
-        <v>0.7194444444444444</v>
-      </c>
+      <c r="B25" s="6" t="n"/>
+      <c r="C25" s="6" t="n"/>
+      <c r="D25" s="6" t="n"/>
+      <c r="E25" s="6" t="n"/>
       <c r="F25" s="7" t="n"/>
       <c r="G25" s="8" t="n"/>
       <c r="K25" s="2">
@@ -20591,18 +18247,10 @@
       <c r="A26" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="6" t="n">
-        <v>0.3631944444444444</v>
-      </c>
-      <c r="C26" s="6" t="n">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="D26" s="6" t="n">
-        <v>0.5986111111111111</v>
-      </c>
-      <c r="E26" s="6" t="n">
-        <v>0.9041666666666667</v>
-      </c>
+      <c r="B26" s="6" t="n"/>
+      <c r="C26" s="6" t="n"/>
+      <c r="D26" s="6" t="n"/>
+      <c r="E26" s="6" t="n"/>
       <c r="F26" s="7" t="n"/>
       <c r="G26" s="8" t="n"/>
       <c r="K26" s="2">
@@ -20645,18 +18293,10 @@
       <c r="A28" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="6" t="n">
-        <v>0.3659722222222222</v>
-      </c>
-      <c r="C28" s="6" t="n">
-        <v>0.5958333333333333</v>
-      </c>
-      <c r="D28" s="6" t="n">
-        <v>0.6347222222222222</v>
-      </c>
-      <c r="E28" s="6" t="n">
-        <v>0.8194444444444444</v>
-      </c>
+      <c r="B28" s="6" t="n"/>
+      <c r="C28" s="6" t="n"/>
+      <c r="D28" s="6" t="n"/>
+      <c r="E28" s="6" t="n"/>
       <c r="F28" s="7" t="n"/>
       <c r="G28" s="8" t="n"/>
       <c r="K28" s="2">
@@ -20676,18 +18316,10 @@
       <c r="A29" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="6" t="n">
-        <v>0.3541666666666667</v>
-      </c>
-      <c r="C29" s="6" t="n">
-        <v>0.5756944444444444</v>
-      </c>
-      <c r="D29" s="6" t="n">
-        <v>0.6173611111111111</v>
-      </c>
-      <c r="E29" s="6" t="n">
-        <v>0.7347222222222223</v>
-      </c>
+      <c r="B29" s="6" t="n"/>
+      <c r="C29" s="6" t="n"/>
+      <c r="D29" s="6" t="n"/>
+      <c r="E29" s="6" t="n"/>
       <c r="F29" s="7" t="n"/>
       <c r="G29" s="8" t="n"/>
       <c r="K29" s="2">

--- a/file.xlsx
+++ b/file.xlsx
@@ -11474,10 +11474,18 @@
       <c r="A3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="n"/>
-      <c r="C3" s="6" t="n"/>
-      <c r="D3" s="6" t="n"/>
-      <c r="E3" s="6" t="n"/>
+      <c r="B3" s="6" t="n">
+        <v>0.6111111111111112</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>0.7638888888888888</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>0.93125</v>
+      </c>
       <c r="F3" s="7" t="n"/>
       <c r="G3" s="8" t="n"/>
       <c r="K3" s="2">
@@ -11506,10 +11514,18 @@
       <c r="A4" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="n"/>
-      <c r="C4" s="6" t="n"/>
-      <c r="D4" s="6" t="n"/>
-      <c r="E4" s="6" t="n"/>
+      <c r="B4" s="6" t="n">
+        <v>0.6111111111111112</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>0.7645833333333333</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>0.8041666666666667</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.9284722222222223</v>
+      </c>
       <c r="F4" s="7" t="n"/>
       <c r="G4" s="8" t="n"/>
       <c r="K4" s="2">
@@ -11538,10 +11554,18 @@
       <c r="A5" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="n"/>
-      <c r="C5" s="6" t="n"/>
-      <c r="D5" s="6" t="n"/>
-      <c r="E5" s="6" t="n"/>
+      <c r="B5" s="6" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>0.5486111111111112</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>0.7222222222222222</v>
+      </c>
       <c r="F5" s="7" t="n"/>
       <c r="G5" s="8" t="n"/>
       <c r="K5" s="2">
@@ -11561,10 +11585,18 @@
       <c r="A6" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="n"/>
-      <c r="C6" s="6" t="n"/>
-      <c r="D6" s="6" t="n"/>
-      <c r="E6" s="6" t="n"/>
+      <c r="B6" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>0.66875</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>0.7118055555555556</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.8388888888888889</v>
+      </c>
       <c r="F6" s="7" t="n"/>
       <c r="G6" s="8" t="n"/>
       <c r="K6" s="2">
@@ -11617,10 +11649,18 @@
       <c r="A8" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="n"/>
-      <c r="C8" s="6" t="n"/>
-      <c r="D8" s="6" t="n"/>
-      <c r="E8" s="6" t="n"/>
+      <c r="B8" s="6" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>0.6451388888888889</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>0.9326388888888889</v>
+      </c>
       <c r="F8" s="7" t="n"/>
       <c r="G8" s="8" t="n"/>
       <c r="K8" s="2">

--- a/file.xlsx
+++ b/file.xlsx
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B1" s="9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
@@ -13254,10 +13254,18 @@
       <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="n"/>
-      <c r="C2" s="6" t="n"/>
-      <c r="D2" s="6" t="n"/>
-      <c r="E2" s="6" t="n"/>
+      <c r="B2" s="6" t="n">
+        <v>0.6027777777777777</v>
+      </c>
+      <c r="C2" s="6" t="n">
+        <v>0.6722222222222223</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>0.7166666666666667</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>0.9284722222222223</v>
+      </c>
       <c r="F2" s="7" t="n"/>
       <c r="G2" s="8" t="n"/>
       <c r="K2" s="2">
@@ -13287,10 +13295,18 @@
       <c r="A3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="n"/>
-      <c r="C3" s="6" t="n"/>
-      <c r="D3" s="6" t="n"/>
-      <c r="E3" s="6" t="n"/>
+      <c r="B3" s="6" t="n">
+        <v>0.60625</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>0.6770833333333334</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>0.71875</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>0.9291666666666667</v>
+      </c>
       <c r="F3" s="7" t="n"/>
       <c r="G3" s="8" t="n"/>
       <c r="K3" s="2">
@@ -13319,10 +13335,18 @@
       <c r="A4" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="n"/>
-      <c r="C4" s="6" t="n"/>
-      <c r="D4" s="6" t="n"/>
-      <c r="E4" s="6" t="n"/>
+      <c r="B4" s="6" t="n">
+        <v>0.6034722222222222</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>0.7263888888888889</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>0.76875</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.9263888888888889</v>
+      </c>
       <c r="F4" s="7" t="n"/>
       <c r="G4" s="8" t="n"/>
       <c r="K4" s="2">
@@ -13351,10 +13375,18 @@
       <c r="A5" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="n"/>
-      <c r="C5" s="6" t="n"/>
-      <c r="D5" s="6" t="n"/>
-      <c r="E5" s="6" t="n"/>
+      <c r="B5" s="6" t="n">
+        <v>0.3833333333333334</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>0.4854166666666667</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>0.5215277777777778</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>0.925</v>
+      </c>
       <c r="F5" s="7" t="n"/>
       <c r="G5" s="8" t="n"/>
       <c r="K5" s="2">
@@ -13406,10 +13438,18 @@
       <c r="A7" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="n"/>
-      <c r="C7" s="6" t="n"/>
-      <c r="D7" s="6" t="n"/>
-      <c r="E7" s="6" t="n"/>
+      <c r="B7" s="6" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.7201388888888889</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.7625</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.9298611111111111</v>
+      </c>
       <c r="F7" s="7" t="n"/>
       <c r="G7" s="8" t="n"/>
       <c r="K7" s="2">
@@ -13430,10 +13470,18 @@
       <c r="A8" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="n"/>
-      <c r="C8" s="6" t="n"/>
-      <c r="D8" s="6" t="n"/>
-      <c r="E8" s="6" t="n"/>
+      <c r="B8" s="6" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>0.6798611111111111</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>0.7208333333333333</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>0.9340277777777778</v>
+      </c>
       <c r="F8" s="7" t="n"/>
       <c r="G8" s="8" t="n"/>
       <c r="K8" s="2">
@@ -13462,10 +13510,18 @@
       <c r="A9" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="n"/>
-      <c r="C9" s="6" t="n"/>
-      <c r="D9" s="6" t="n"/>
-      <c r="E9" s="6" t="n"/>
+      <c r="B9" s="6" t="n">
+        <v>0.6027777777777777</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.6729166666666667</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.7145833333333333</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.9326388888888889</v>
+      </c>
       <c r="F9" s="7" t="n"/>
       <c r="G9" s="8" t="n"/>
       <c r="K9" s="2">
@@ -13485,10 +13541,18 @@
       <c r="A10" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="n"/>
-      <c r="C10" s="6" t="n"/>
-      <c r="D10" s="6" t="n"/>
-      <c r="E10" s="6" t="n"/>
+      <c r="B10" s="6" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>0.7090277777777778</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>0.7513888888888889</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.9326388888888889</v>
+      </c>
       <c r="F10" s="7" t="n"/>
       <c r="G10" s="8" t="n"/>
       <c r="K10" s="2">
@@ -13513,10 +13577,18 @@
       <c r="A11" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="n"/>
-      <c r="C11" s="6" t="n"/>
-      <c r="D11" s="6" t="n"/>
-      <c r="E11" s="6" t="n"/>
+      <c r="B11" s="6" t="n">
+        <v>0.6125</v>
+      </c>
+      <c r="C11" s="6" t="n">
+        <v>0.6722222222222223</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>0.7125</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>0.9256944444444445</v>
+      </c>
       <c r="F11" s="7" t="n"/>
       <c r="G11" s="8" t="n"/>
       <c r="K11" s="2">
@@ -13559,10 +13631,18 @@
       <c r="A13" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="n"/>
-      <c r="C13" s="6" t="n"/>
-      <c r="D13" s="6" t="n"/>
-      <c r="E13" s="6" t="n"/>
+      <c r="B13" s="6" t="n">
+        <v>0.6048611111111111</v>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.7131944444444445</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>0.7548611111111111</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.93125</v>
+      </c>
       <c r="F13" s="7" t="n"/>
       <c r="G13" s="8" t="n"/>
       <c r="K13" s="2">
@@ -13582,10 +13662,18 @@
       <c r="A14" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="n"/>
-      <c r="C14" s="6" t="n"/>
-      <c r="D14" s="6" t="n"/>
-      <c r="E14" s="6" t="n"/>
+      <c r="B14" s="6" t="n">
+        <v>0.6048611111111111</v>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>0.6854166666666667</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>0.7208333333333333</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>0.9291666666666667</v>
+      </c>
       <c r="F14" s="7" t="n"/>
       <c r="G14" s="8" t="n"/>
       <c r="K14" s="2">
@@ -13605,10 +13693,18 @@
       <c r="A15" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="n"/>
-      <c r="C15" s="6" t="n"/>
-      <c r="D15" s="6" t="n"/>
-      <c r="E15" s="6" t="n"/>
+      <c r="B15" s="6" t="n">
+        <v>0.6027777777777777</v>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.6652777777777777</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.7145833333333333</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.9375</v>
+      </c>
       <c r="F15" s="7" t="n"/>
       <c r="G15" s="8" t="n"/>
       <c r="K15" s="2">
@@ -13651,10 +13747,18 @@
       <c r="A17" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="n"/>
-      <c r="C17" s="6" t="n"/>
-      <c r="D17" s="6" t="n"/>
-      <c r="E17" s="6" t="n"/>
+      <c r="B17" s="6" t="n">
+        <v>0.6048611111111111</v>
+      </c>
+      <c r="C17" s="6" t="n">
+        <v>0.66875</v>
+      </c>
+      <c r="D17" s="6" t="n">
+        <v>0.70625</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>0.9319444444444445</v>
+      </c>
       <c r="F17" s="7" t="n"/>
       <c r="G17" s="8" t="n"/>
       <c r="K17" s="2">
@@ -13674,10 +13778,18 @@
       <c r="A18" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="n"/>
-      <c r="C18" s="6" t="n"/>
-      <c r="D18" s="6" t="n"/>
-      <c r="E18" s="6" t="n"/>
+      <c r="B18" s="6" t="n">
+        <v>0.6027777777777777</v>
+      </c>
+      <c r="C18" s="6" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="D18" s="6" t="n">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>0.9333333333333333</v>
+      </c>
       <c r="F18" s="7" t="n"/>
       <c r="G18" s="8" t="n"/>
       <c r="K18" s="2">
@@ -13697,10 +13809,18 @@
       <c r="A19" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="n"/>
-      <c r="C19" s="6" t="n"/>
-      <c r="D19" s="6" t="n"/>
-      <c r="E19" s="6" t="n"/>
+      <c r="B19" s="6" t="n">
+        <v>0.39375</v>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0.4791666666666667</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.5201388888888889</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.9284722222222223</v>
+      </c>
       <c r="F19" s="7" t="n"/>
       <c r="G19" s="8" t="n"/>
       <c r="K19" s="2">
@@ -13720,10 +13840,18 @@
       <c r="A20" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="n"/>
-      <c r="C20" s="6" t="n"/>
-      <c r="D20" s="6" t="n"/>
-      <c r="E20" s="6" t="n"/>
+      <c r="B20" s="6" t="n">
+        <v>0.6597222222222222</v>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>0.7173611111111111</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>0.7590277777777777</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>0.9319444444444445</v>
+      </c>
       <c r="F20" s="7" t="n"/>
       <c r="G20" s="8" t="n"/>
       <c r="K20" s="2">
@@ -13743,10 +13871,18 @@
       <c r="A21" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="n"/>
-      <c r="C21" s="6" t="n"/>
-      <c r="D21" s="6" t="n"/>
-      <c r="E21" s="6" t="n"/>
+      <c r="B21" s="6" t="n">
+        <v>0.60625</v>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.6715277777777777</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.7118055555555556</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.9326388888888889</v>
+      </c>
       <c r="F21" s="7" t="n"/>
       <c r="G21" s="8" t="n"/>
       <c r="K21" s="2">
@@ -13766,10 +13902,18 @@
       <c r="A22" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="n"/>
-      <c r="C22" s="6" t="n"/>
-      <c r="D22" s="6" t="n"/>
-      <c r="E22" s="6" t="n"/>
+      <c r="B22" s="6" t="n">
+        <v>0.6027777777777777</v>
+      </c>
+      <c r="C22" s="6" t="n">
+        <v>0.6611111111111111</v>
+      </c>
+      <c r="D22" s="6" t="n">
+        <v>0.7034722222222223</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>0.9333333333333333</v>
+      </c>
       <c r="F22" s="7" t="n"/>
       <c r="G22" s="8" t="n"/>
       <c r="K22" s="2">
@@ -13789,10 +13933,18 @@
       <c r="A23" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="n"/>
-      <c r="C23" s="6" t="n"/>
-      <c r="D23" s="6" t="n"/>
-      <c r="E23" s="6" t="n"/>
+      <c r="B23" s="6" t="n">
+        <v>0.6013888888888889</v>
+      </c>
+      <c r="C23" s="6" t="n">
+        <v>0.6645833333333333</v>
+      </c>
+      <c r="D23" s="6" t="n">
+        <v>0.7055555555555556</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>0.9354166666666667</v>
+      </c>
       <c r="F23" s="7" t="n"/>
       <c r="G23" s="8" t="n"/>
       <c r="K23" s="2">
@@ -13812,10 +13964,18 @@
       <c r="A24" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="6" t="n"/>
-      <c r="C24" s="6" t="n"/>
-      <c r="D24" s="6" t="n"/>
-      <c r="E24" s="6" t="n"/>
+      <c r="B24" s="6" t="n">
+        <v>0.6020833333333333</v>
+      </c>
+      <c r="C24" s="6" t="n">
+        <v>0.7076388888888889</v>
+      </c>
+      <c r="D24" s="6" t="n">
+        <v>0.7465277777777778</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>0.9333333333333333</v>
+      </c>
       <c r="F24" s="7" t="n"/>
       <c r="G24" s="8" t="n"/>
       <c r="K24" s="2">
@@ -13835,10 +13995,18 @@
       <c r="A25" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="6" t="n"/>
-      <c r="C25" s="6" t="n"/>
-      <c r="D25" s="6" t="n"/>
-      <c r="E25" s="6" t="n"/>
+      <c r="B25" s="6" t="n">
+        <v>0.6027777777777777</v>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.7201388888888889</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.7618055555555555</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.9277777777777778</v>
+      </c>
       <c r="F25" s="7" t="n"/>
       <c r="G25" s="8" t="n"/>
       <c r="K25" s="2">
@@ -13904,10 +14072,18 @@
       <c r="A28" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="6" t="n"/>
-      <c r="C28" s="6" t="n"/>
-      <c r="D28" s="6" t="n"/>
-      <c r="E28" s="6" t="n"/>
+      <c r="B28" s="6" t="n">
+        <v>0.6027777777777777</v>
+      </c>
+      <c r="C28" s="6" t="n">
+        <v>0.7159722222222222</v>
+      </c>
+      <c r="D28" s="6" t="n">
+        <v>0.7576388888888889</v>
+      </c>
+      <c r="E28" s="6" t="n">
+        <v>0.9361111111111111</v>
+      </c>
       <c r="F28" s="7" t="n"/>
       <c r="G28" s="8" t="n"/>
       <c r="K28" s="2">
@@ -13927,10 +14103,18 @@
       <c r="A29" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="6" t="n"/>
-      <c r="C29" s="6" t="n"/>
-      <c r="D29" s="6" t="n"/>
-      <c r="E29" s="6" t="n"/>
+      <c r="B29" s="6" t="n">
+        <v>0.6013888888888889</v>
+      </c>
+      <c r="C29" s="6" t="n">
+        <v>0.6638888888888889</v>
+      </c>
+      <c r="D29" s="6" t="n">
+        <v>0.7069444444444445</v>
+      </c>
+      <c r="E29" s="6" t="n">
+        <v>0.9326388888888889</v>
+      </c>
       <c r="F29" s="7" t="n"/>
       <c r="G29" s="8" t="n"/>
       <c r="K29" s="2">
@@ -13950,10 +14134,18 @@
       <c r="A30" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="6" t="n"/>
-      <c r="C30" s="6" t="n"/>
-      <c r="D30" s="6" t="n"/>
-      <c r="E30" s="6" t="n"/>
+      <c r="B30" s="6" t="n">
+        <v>0.6027777777777777</v>
+      </c>
+      <c r="C30" s="6" t="n">
+        <v>0.7118055555555556</v>
+      </c>
+      <c r="D30" s="6" t="n">
+        <v>0.7541666666666667</v>
+      </c>
+      <c r="E30" s="6" t="n">
+        <v>0.9347222222222222</v>
+      </c>
       <c r="F30" s="7" t="n"/>
       <c r="G30" s="8" t="n"/>
       <c r="K30" s="2">
@@ -13973,10 +14165,18 @@
       <c r="A31" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="6" t="n"/>
-      <c r="C31" s="6" t="n"/>
-      <c r="D31" s="6" t="n"/>
-      <c r="E31" s="6" t="n"/>
+      <c r="B31" s="6" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>0.6659722222222222</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>0.9305555555555556</v>
+      </c>
       <c r="F31" s="7" t="n"/>
       <c r="G31" s="8" t="n"/>
       <c r="K31" s="2">
@@ -13996,10 +14196,18 @@
       <c r="A32" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="6" t="n"/>
-      <c r="C32" s="6" t="n"/>
-      <c r="D32" s="6" t="n"/>
-      <c r="E32" s="6" t="n"/>
+      <c r="B32" s="6" t="n">
+        <v>0.6097222222222223</v>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>0.7229166666666667</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>0.7638888888888888</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>0.9277777777777778</v>
+      </c>
       <c r="F32" s="7" t="n"/>
       <c r="G32" s="8" t="n"/>
       <c r="K32" s="2">

--- a/file.xlsx
+++ b/file.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="13" activeTab="20" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="6" activeTab="12" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" state="visible" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="REGINALDO" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="WILSON" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="FELIPE" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="DAISE" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="JESSICA" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="ROSE" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="LEIDIANE" sheetId="13" state="visible" r:id="rId13"/>
     <sheet name="VANESSA" sheetId="14" state="visible" r:id="rId14"/>
@@ -600,7 +600,7 @@
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E32"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
@@ -674,10 +674,18 @@
       <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="n"/>
-      <c r="C2" s="6" t="n"/>
-      <c r="D2" s="6" t="n"/>
-      <c r="E2" s="6" t="n"/>
+      <c r="B2" s="6" t="n">
+        <v>0.5236111111111111</v>
+      </c>
+      <c r="C2" s="6" t="n">
+        <v>0.6673611111111111</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>0.8659722222222223</v>
+      </c>
       <c r="F2" s="7" t="n"/>
       <c r="G2" s="8" t="n"/>
       <c r="K2" s="2">
@@ -707,10 +715,18 @@
       <c r="A3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="n"/>
-      <c r="C3" s="6" t="n"/>
-      <c r="D3" s="6" t="n"/>
-      <c r="E3" s="6" t="n"/>
+      <c r="B3" s="6" t="n">
+        <v>0.51875</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>0.6277777777777778</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>0.66875</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>0.9277777777777778</v>
+      </c>
       <c r="F3" s="7" t="n"/>
       <c r="G3" s="8" t="n"/>
       <c r="K3" s="2">
@@ -739,10 +755,18 @@
       <c r="A4" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="n"/>
-      <c r="C4" s="6" t="n"/>
-      <c r="D4" s="6" t="n"/>
-      <c r="E4" s="6" t="n"/>
+      <c r="B4" s="6" t="n">
+        <v>0.5222222222222223</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>0.6395833333333333</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>0.6756944444444445</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.9236111111111112</v>
+      </c>
       <c r="F4" s="7" t="n"/>
       <c r="G4" s="8" t="n"/>
       <c r="K4" s="2">
@@ -771,10 +795,18 @@
       <c r="A5" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="n"/>
-      <c r="C5" s="6" t="n"/>
-      <c r="D5" s="6" t="n"/>
-      <c r="E5" s="6" t="n"/>
+      <c r="B5" s="6" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>0.68125</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>0.7256944444444444</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>0.9222222222222223</v>
+      </c>
       <c r="F5" s="7" t="n"/>
       <c r="G5" s="8" t="n"/>
       <c r="K5" s="2">
@@ -826,10 +858,18 @@
       <c r="A7" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="n"/>
-      <c r="C7" s="6" t="n"/>
-      <c r="D7" s="6" t="n"/>
-      <c r="E7" s="6" t="n"/>
+      <c r="B7" s="6" t="n">
+        <v>0.3694444444444445</v>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.5993055555555555</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.6368055555555555</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.725</v>
+      </c>
       <c r="F7" s="7" t="n"/>
       <c r="G7" s="8" t="n"/>
       <c r="K7" s="2">
@@ -850,10 +890,18 @@
       <c r="A8" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="n"/>
-      <c r="C8" s="6" t="n"/>
-      <c r="D8" s="6" t="n"/>
-      <c r="E8" s="6" t="n"/>
+      <c r="B8" s="6" t="n">
+        <v>0.6090277777777777</v>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>0.6569444444444444</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>0.7013888888888888</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>0.93125</v>
+      </c>
       <c r="F8" s="7" t="n"/>
       <c r="G8" s="8" t="n"/>
       <c r="K8" s="2">
@@ -882,10 +930,18 @@
       <c r="A9" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="n"/>
-      <c r="C9" s="6" t="n"/>
-      <c r="D9" s="6" t="n"/>
-      <c r="E9" s="6" t="n"/>
+      <c r="B9" s="6" t="n">
+        <v>0.4604166666666666</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.6194444444444445</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.6652777777777777</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.7986111111111112</v>
+      </c>
       <c r="F9" s="7" t="n"/>
       <c r="G9" s="8" t="n"/>
       <c r="K9" s="2">
@@ -933,10 +989,18 @@
       <c r="A11" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="n"/>
-      <c r="C11" s="6" t="n"/>
-      <c r="D11" s="6" t="n"/>
-      <c r="E11" s="6" t="n"/>
+      <c r="B11" s="6" t="n">
+        <v>0.5048611111111111</v>
+      </c>
+      <c r="C11" s="6" t="n">
+        <v>0.6326388888888889</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>0.6694444444444444</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>0.8416666666666667</v>
+      </c>
       <c r="F11" s="7" t="n"/>
       <c r="G11" s="8" t="n"/>
       <c r="K11" s="2">
@@ -956,10 +1020,18 @@
       <c r="A12" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="n"/>
-      <c r="C12" s="6" t="n"/>
-      <c r="D12" s="6" t="n"/>
-      <c r="E12" s="6" t="n"/>
+      <c r="B12" s="6" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="C12" s="6" t="n">
+        <v>0.6569444444444444</v>
+      </c>
+      <c r="D12" s="6" t="n">
+        <v>0.6965277777777777</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0.8597222222222223</v>
+      </c>
       <c r="F12" s="7" t="n"/>
       <c r="G12" s="8" t="n"/>
       <c r="K12" s="2">
@@ -979,10 +1051,18 @@
       <c r="A13" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="n"/>
-      <c r="C13" s="6" t="n"/>
-      <c r="D13" s="6" t="n"/>
-      <c r="E13" s="6" t="n"/>
+      <c r="B13" s="6" t="n">
+        <v>0.6090277777777777</v>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.6770833333333334</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>0.7159722222222222</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.925</v>
+      </c>
       <c r="F13" s="7" t="n"/>
       <c r="G13" s="8" t="n"/>
       <c r="K13" s="2">
@@ -1002,10 +1082,18 @@
       <c r="A14" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="n"/>
-      <c r="C14" s="6" t="n"/>
-      <c r="D14" s="6" t="n"/>
-      <c r="E14" s="6" t="n"/>
+      <c r="B14" s="6" t="n">
+        <v>0.3833333333333334</v>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>0.6152777777777778</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>0.6534722222222222</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>0.7097222222222223</v>
+      </c>
       <c r="F14" s="7" t="n"/>
       <c r="G14" s="8" t="n"/>
       <c r="K14" s="2">
@@ -1048,10 +1136,18 @@
       <c r="A16" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="n"/>
-      <c r="C16" s="6" t="n"/>
-      <c r="D16" s="6" t="n"/>
-      <c r="E16" s="6" t="n"/>
+      <c r="B16" s="6" t="n">
+        <v>0.5201388888888889</v>
+      </c>
+      <c r="C16" s="6" t="n">
+        <v>0.6270833333333333</v>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>0.6715277777777777</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>0.8395833333333333</v>
+      </c>
       <c r="F16" s="7" t="n"/>
       <c r="G16" s="8" t="n"/>
       <c r="K16" s="2">
@@ -1071,10 +1167,18 @@
       <c r="A17" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="n"/>
-      <c r="C17" s="6" t="n"/>
-      <c r="D17" s="6" t="n"/>
-      <c r="E17" s="6" t="n"/>
+      <c r="B17" s="6" t="n">
+        <v>0.5222222222222223</v>
+      </c>
+      <c r="C17" s="6" t="n">
+        <v>0.6138888888888889</v>
+      </c>
+      <c r="D17" s="6" t="n">
+        <v>0.6590277777777778</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>0.8472222222222222</v>
+      </c>
       <c r="F17" s="7" t="n"/>
       <c r="G17" s="8" t="n"/>
       <c r="K17" s="2">
@@ -1094,10 +1198,18 @@
       <c r="A18" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="n"/>
-      <c r="C18" s="6" t="n"/>
-      <c r="D18" s="6" t="n"/>
-      <c r="E18" s="6" t="n"/>
+      <c r="B18" s="6" t="n">
+        <v>0.5013888888888889</v>
+      </c>
+      <c r="C18" s="6" t="n">
+        <v>0.6152777777777778</v>
+      </c>
+      <c r="D18" s="6" t="n">
+        <v>0.6590277777777778</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>0.85</v>
+      </c>
       <c r="F18" s="7" t="n"/>
       <c r="G18" s="8" t="n"/>
       <c r="K18" s="2">
@@ -1117,10 +1229,18 @@
       <c r="A19" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="n"/>
-      <c r="C19" s="6" t="n"/>
-      <c r="D19" s="6" t="n"/>
-      <c r="E19" s="6" t="n"/>
+      <c r="B19" s="6" t="n">
+        <v>0.5104166666666666</v>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0.6854166666666667</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.7305555555555555</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.8493055555555555</v>
+      </c>
       <c r="F19" s="7" t="n"/>
       <c r="G19" s="8" t="n"/>
       <c r="K19" s="2">
@@ -1140,10 +1260,18 @@
       <c r="A20" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="n"/>
-      <c r="C20" s="6" t="n"/>
-      <c r="D20" s="6" t="n"/>
-      <c r="E20" s="6" t="n"/>
+      <c r="B20" s="6" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>0.7451388888888889</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>0.7847222222222222</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>0.9270833333333334</v>
+      </c>
       <c r="F20" s="7" t="n"/>
       <c r="G20" s="8" t="n"/>
       <c r="K20" s="2">
@@ -1163,10 +1291,18 @@
       <c r="A21" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="n"/>
-      <c r="C21" s="6" t="n"/>
-      <c r="D21" s="6" t="n"/>
-      <c r="E21" s="6" t="n"/>
+      <c r="B21" s="6" t="n">
+        <v>0.3729166666666667</v>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.6125</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.6625</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.7118055555555556</v>
+      </c>
       <c r="F21" s="7" t="n"/>
       <c r="G21" s="8" t="n"/>
       <c r="K21" s="2">
@@ -1209,10 +1345,18 @@
       <c r="A23" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="n"/>
-      <c r="C23" s="6" t="n"/>
-      <c r="D23" s="6" t="n"/>
-      <c r="E23" s="6" t="n"/>
+      <c r="B23" s="6" t="n">
+        <v>0.5090277777777777</v>
+      </c>
+      <c r="C23" s="6" t="n">
+        <v>0.6069444444444444</v>
+      </c>
+      <c r="D23" s="6" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>0.8416666666666667</v>
+      </c>
       <c r="F23" s="7" t="n"/>
       <c r="G23" s="8" t="n"/>
       <c r="K23" s="2">
@@ -1232,10 +1376,18 @@
       <c r="A24" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="6" t="n"/>
-      <c r="C24" s="6" t="n"/>
-      <c r="D24" s="6" t="n"/>
-      <c r="E24" s="6" t="n"/>
+      <c r="B24" s="6" t="n">
+        <v>0.6368055555555555</v>
+      </c>
+      <c r="C24" s="6" t="n">
+        <v>0.7166666666666667</v>
+      </c>
+      <c r="D24" s="6" t="n">
+        <v>0.7506944444444444</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>0.9270833333333334</v>
+      </c>
       <c r="F24" s="7" t="n"/>
       <c r="G24" s="8" t="n"/>
       <c r="K24" s="2">
@@ -1255,10 +1407,18 @@
       <c r="A25" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="6" t="n"/>
-      <c r="C25" s="6" t="n"/>
-      <c r="D25" s="6" t="n"/>
-      <c r="E25" s="6" t="n"/>
+      <c r="B25" s="6" t="n">
+        <v>0.5118055555555555</v>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.6166666666666667</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.6638888888888889</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.8451388888888889</v>
+      </c>
       <c r="F25" s="7" t="n"/>
       <c r="G25" s="8" t="n"/>
       <c r="K25" s="2">
@@ -1301,10 +1461,18 @@
       <c r="A27" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="6" t="n"/>
-      <c r="C27" s="6" t="n"/>
-      <c r="D27" s="6" t="n"/>
-      <c r="E27" s="6" t="n"/>
+      <c r="B27" s="6" t="n">
+        <v>0.6118055555555556</v>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.6847222222222222</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.7319444444444444</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.9298611111111111</v>
+      </c>
       <c r="F27" s="7" t="n"/>
       <c r="G27" s="8" t="n"/>
       <c r="K27" s="2">
@@ -1324,10 +1492,18 @@
       <c r="A28" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="6" t="n"/>
-      <c r="C28" s="6" t="n"/>
-      <c r="D28" s="6" t="n"/>
-      <c r="E28" s="6" t="n"/>
+      <c r="B28" s="6" t="n">
+        <v>0.6034722222222222</v>
+      </c>
+      <c r="C28" s="6" t="n">
+        <v>0.6868055555555556</v>
+      </c>
+      <c r="D28" s="6" t="n">
+        <v>0.7347222222222223</v>
+      </c>
+      <c r="E28" s="6" t="n">
+        <v>0.9305555555555556</v>
+      </c>
       <c r="F28" s="7" t="n"/>
       <c r="G28" s="8" t="n"/>
       <c r="K28" s="2">
@@ -1370,10 +1546,18 @@
       <c r="A30" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="6" t="n"/>
-      <c r="C30" s="6" t="n"/>
-      <c r="D30" s="6" t="n"/>
-      <c r="E30" s="6" t="n"/>
+      <c r="B30" s="6" t="n">
+        <v>0.5118055555555555</v>
+      </c>
+      <c r="C30" s="6" t="n">
+        <v>0.6090277777777777</v>
+      </c>
+      <c r="D30" s="6" t="n">
+        <v>0.6527777777777778</v>
+      </c>
+      <c r="E30" s="6" t="n">
+        <v>0.8388888888888889</v>
+      </c>
       <c r="F30" s="7" t="n"/>
       <c r="G30" s="8" t="n"/>
       <c r="K30" s="2">
@@ -1393,10 +1577,18 @@
       <c r="A31" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="6" t="n"/>
-      <c r="C31" s="6" t="n"/>
-      <c r="D31" s="6" t="n"/>
-      <c r="E31" s="6" t="n"/>
+      <c r="B31" s="6" t="n">
+        <v>0.50625</v>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>0.6222222222222222</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>0.6555555555555556</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>0.8416666666666667</v>
+      </c>
       <c r="F31" s="7" t="n"/>
       <c r="G31" s="8" t="n"/>
       <c r="K31" s="2">
@@ -1416,10 +1608,18 @@
       <c r="A32" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="6" t="n"/>
-      <c r="C32" s="6" t="n"/>
-      <c r="D32" s="6" t="n"/>
-      <c r="E32" s="6" t="n"/>
+      <c r="B32" s="6" t="n">
+        <v>0.6013888888888889</v>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>0.6673611111111111</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>0.7076388888888889</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>0.9284722222222223</v>
+      </c>
       <c r="F32" s="7" t="n"/>
       <c r="G32" s="8" t="n"/>
       <c r="K32" s="2">
@@ -2049,10 +2249,18 @@
       <c r="A21" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="n"/>
-      <c r="C21" s="6" t="n"/>
-      <c r="D21" s="6" t="n"/>
-      <c r="E21" s="6" t="n"/>
+      <c r="B21" s="6" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.9319444444444445</v>
+      </c>
       <c r="F21" s="7" t="n"/>
       <c r="G21" s="8" t="n"/>
       <c r="K21" s="2">
@@ -2072,10 +2280,18 @@
       <c r="A22" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="n"/>
-      <c r="C22" s="6" t="n"/>
-      <c r="D22" s="6" t="n"/>
-      <c r="E22" s="6" t="n"/>
+      <c r="B22" s="6" t="n">
+        <v>0.6055555555555555</v>
+      </c>
+      <c r="C22" s="6" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="D22" s="6" t="n">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>0.9333333333333333</v>
+      </c>
       <c r="F22" s="7" t="n"/>
       <c r="G22" s="8" t="n"/>
       <c r="K22" s="2">
@@ -2095,10 +2311,18 @@
       <c r="A23" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="n"/>
-      <c r="C23" s="6" t="n"/>
-      <c r="D23" s="6" t="n"/>
-      <c r="E23" s="6" t="n"/>
+      <c r="B23" s="6" t="n">
+        <v>0.6055555555555555</v>
+      </c>
+      <c r="C23" s="6" t="n">
+        <v>0.7090277777777778</v>
+      </c>
+      <c r="D23" s="6" t="n">
+        <v>0.7479166666666667</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>0.9354166666666667</v>
+      </c>
       <c r="F23" s="7" t="n"/>
       <c r="G23" s="8" t="n"/>
       <c r="K23" s="2">
@@ -2118,10 +2342,18 @@
       <c r="A24" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="6" t="n"/>
-      <c r="C24" s="6" t="n"/>
-      <c r="D24" s="6" t="n"/>
-      <c r="E24" s="6" t="n"/>
+      <c r="B24" s="6" t="n">
+        <v>0.6034722222222222</v>
+      </c>
+      <c r="C24" s="6" t="n">
+        <v>0.6638888888888889</v>
+      </c>
+      <c r="D24" s="6" t="n">
+        <v>0.7055555555555556</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>0.9423611111111111</v>
+      </c>
       <c r="F24" s="7" t="n"/>
       <c r="G24" s="8" t="n"/>
       <c r="K24" s="2">
@@ -2141,10 +2373,18 @@
       <c r="A25" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="6" t="n"/>
-      <c r="C25" s="6" t="n"/>
-      <c r="D25" s="6" t="n"/>
-      <c r="E25" s="6" t="n"/>
+      <c r="B25" s="6" t="n">
+        <v>0.6055555555555555</v>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.6736111111111112</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.7138888888888889</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.9284722222222223</v>
+      </c>
       <c r="F25" s="7" t="n"/>
       <c r="G25" s="8" t="n"/>
       <c r="K25" s="2">
@@ -2187,10 +2427,18 @@
       <c r="A27" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="6" t="n"/>
-      <c r="C27" s="6" t="n"/>
-      <c r="D27" s="6" t="n"/>
-      <c r="E27" s="6" t="n"/>
+      <c r="B27" s="6" t="n">
+        <v>0.6048611111111111</v>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.6645833333333333</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.70625</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.9381944444444444</v>
+      </c>
       <c r="F27" s="7" t="n"/>
       <c r="G27" s="8" t="n"/>
       <c r="K27" s="2">
@@ -2210,10 +2458,18 @@
       <c r="A28" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="6" t="n"/>
-      <c r="C28" s="6" t="n"/>
-      <c r="D28" s="6" t="n"/>
-      <c r="E28" s="6" t="n"/>
+      <c r="B28" s="6" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+      <c r="C28" s="6" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="D28" s="6" t="n">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="E28" s="6" t="n">
+        <v>0.9361111111111111</v>
+      </c>
       <c r="F28" s="7" t="n"/>
       <c r="G28" s="8" t="n"/>
       <c r="K28" s="2">
@@ -2256,10 +2512,18 @@
       <c r="A30" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="6" t="n"/>
-      <c r="C30" s="6" t="n"/>
-      <c r="D30" s="6" t="n"/>
-      <c r="E30" s="6" t="n"/>
+      <c r="B30" s="6" t="n">
+        <v>0.6055555555555555</v>
+      </c>
+      <c r="C30" s="6" t="n">
+        <v>0.6569444444444444</v>
+      </c>
+      <c r="D30" s="6" t="n">
+        <v>0.6951388888888889</v>
+      </c>
+      <c r="E30" s="6" t="n">
+        <v>0.9347222222222222</v>
+      </c>
       <c r="F30" s="7" t="n"/>
       <c r="G30" s="8" t="n"/>
       <c r="K30" s="2">
@@ -2279,10 +2543,18 @@
       <c r="A31" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="6" t="n"/>
-      <c r="C31" s="6" t="n"/>
-      <c r="D31" s="6" t="n"/>
-      <c r="E31" s="6" t="n"/>
+      <c r="B31" s="6" t="n">
+        <v>0.6076388888888888</v>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>0.6590277777777778</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>0.7013888888888888</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>0.9305555555555556</v>
+      </c>
       <c r="F31" s="7" t="n"/>
       <c r="G31" s="8" t="n"/>
       <c r="K31" s="2">
@@ -2302,10 +2574,18 @@
       <c r="A32" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="6" t="n"/>
-      <c r="C32" s="6" t="n"/>
-      <c r="D32" s="6" t="n"/>
-      <c r="E32" s="6" t="n"/>
+      <c r="B32" s="6" t="n">
+        <v>0.6104166666666667</v>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>0.7256944444444444</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>0.7673611111111112</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>0.9291666666666667</v>
+      </c>
       <c r="F32" s="7" t="n"/>
       <c r="G32" s="8" t="n"/>
       <c r="K32" s="2">
@@ -2446,10 +2726,18 @@
       <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="n"/>
-      <c r="C2" s="6" t="n"/>
-      <c r="D2" s="6" t="n"/>
-      <c r="E2" s="6" t="n"/>
+      <c r="B2" s="6" t="n">
+        <v>0.4284722222222222</v>
+      </c>
+      <c r="C2" s="6" t="n">
+        <v>0.6277777777777778</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>0.6659722222222222</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>0.7868055555555555</v>
+      </c>
       <c r="F2" s="7" t="n"/>
       <c r="G2" s="8" t="n"/>
       <c r="K2" s="2">
@@ -2479,10 +2767,18 @@
       <c r="A3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="n"/>
-      <c r="C3" s="6" t="n"/>
-      <c r="D3" s="6" t="n"/>
-      <c r="E3" s="6" t="n"/>
+      <c r="B3" s="6" t="n">
+        <v>0.4951388888888889</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>0.6340277777777777</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>0.6763888888888889</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>0.7854166666666667</v>
+      </c>
       <c r="F3" s="7" t="n"/>
       <c r="G3" s="8" t="n"/>
       <c r="K3" s="2">
@@ -2511,10 +2807,18 @@
       <c r="A4" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="n"/>
-      <c r="C4" s="6" t="n"/>
-      <c r="D4" s="6" t="n"/>
-      <c r="E4" s="6" t="n"/>
+      <c r="B4" s="6" t="n">
+        <v>0.45625</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>0.63125</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>0.6715277777777777</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.7847222222222222</v>
+      </c>
       <c r="F4" s="7" t="n"/>
       <c r="G4" s="8" t="n"/>
       <c r="K4" s="2">
@@ -2566,10 +2870,18 @@
       <c r="A6" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="n"/>
-      <c r="C6" s="6" t="n"/>
-      <c r="D6" s="6" t="n"/>
-      <c r="E6" s="6" t="n"/>
+      <c r="B6" s="6" t="n">
+        <v>0.4534722222222222</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>0.6263888888888889</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>0.6680555555555555</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.7770833333333333</v>
+      </c>
       <c r="F6" s="7" t="n"/>
       <c r="G6" s="8" t="n"/>
       <c r="K6" s="2">
@@ -2598,10 +2910,18 @@
       <c r="A7" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="n"/>
-      <c r="C7" s="6" t="n"/>
-      <c r="D7" s="6" t="n"/>
-      <c r="E7" s="6" t="n"/>
+      <c r="B7" s="6" t="n">
+        <v>0.4541666666666667</v>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.6319444444444444</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.6777777777777778</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.7840277777777778</v>
+      </c>
       <c r="F7" s="7" t="n"/>
       <c r="G7" s="8" t="n"/>
       <c r="K7" s="2">
@@ -2654,10 +2974,18 @@
       <c r="A9" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="n"/>
-      <c r="C9" s="6" t="n"/>
-      <c r="D9" s="6" t="n"/>
-      <c r="E9" s="6" t="n"/>
+      <c r="B9" s="6" t="n">
+        <v>0.4458333333333334</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.6222222222222222</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.6708333333333333</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.7826388888888889</v>
+      </c>
       <c r="F9" s="7" t="n"/>
       <c r="G9" s="8" t="n"/>
       <c r="K9" s="2">
@@ -2677,10 +3005,18 @@
       <c r="A10" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="n"/>
-      <c r="C10" s="6" t="n"/>
-      <c r="D10" s="6" t="n"/>
-      <c r="E10" s="6" t="n"/>
+      <c r="B10" s="6" t="n">
+        <v>0.3729166666666667</v>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>0.6236111111111111</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>0.6673611111111111</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.7138888888888889</v>
+      </c>
       <c r="F10" s="7" t="n"/>
       <c r="G10" s="8" t="n"/>
       <c r="K10" s="2">
@@ -2705,10 +3041,18 @@
       <c r="A11" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="n"/>
-      <c r="C11" s="6" t="n"/>
-      <c r="D11" s="6" t="n"/>
-      <c r="E11" s="6" t="n"/>
+      <c r="B11" s="6" t="n">
+        <v>0.4138888888888889</v>
+      </c>
+      <c r="C11" s="6" t="n">
+        <v>0.6340277777777777</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>0.6708333333333333</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>0.7861111111111111</v>
+      </c>
       <c r="F11" s="7" t="n"/>
       <c r="G11" s="8" t="n"/>
       <c r="K11" s="2">
@@ -2728,10 +3072,18 @@
       <c r="A12" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="n"/>
-      <c r="C12" s="6" t="n"/>
-      <c r="D12" s="6" t="n"/>
-      <c r="E12" s="6" t="n"/>
+      <c r="B12" s="6" t="n">
+        <v>0.3777777777777778</v>
+      </c>
+      <c r="C12" s="6" t="n">
+        <v>0.4979166666666667</v>
+      </c>
+      <c r="D12" s="6" t="n">
+        <v>0.5423611111111111</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0.8479166666666667</v>
+      </c>
       <c r="F12" s="7" t="n"/>
       <c r="G12" s="8" t="n"/>
       <c r="K12" s="2">
@@ -2774,10 +3126,18 @@
       <c r="A14" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="n"/>
-      <c r="C14" s="6" t="n"/>
-      <c r="D14" s="6" t="n"/>
-      <c r="E14" s="6" t="n"/>
+      <c r="B14" s="6" t="n">
+        <v>0.45625</v>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>0.6284722222222222</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>0.9256944444444445</v>
+      </c>
       <c r="F14" s="7" t="n"/>
       <c r="G14" s="8" t="n"/>
       <c r="K14" s="2">
@@ -2797,10 +3157,18 @@
       <c r="A15" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="n"/>
-      <c r="C15" s="6" t="n"/>
-      <c r="D15" s="6" t="n"/>
-      <c r="E15" s="6" t="n"/>
+      <c r="B15" s="6" t="n">
+        <v>0.36875</v>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.5652777777777778</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.6145833333333334</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.4256944444444444</v>
+      </c>
       <c r="F15" s="7" t="n"/>
       <c r="G15" s="8" t="n"/>
       <c r="K15" s="2">
@@ -2820,10 +3188,18 @@
       <c r="A16" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="n"/>
-      <c r="C16" s="6" t="n"/>
-      <c r="D16" s="6" t="n"/>
-      <c r="E16" s="6" t="n"/>
+      <c r="B16" s="6" t="n">
+        <v>0.3875</v>
+      </c>
+      <c r="C16" s="6" t="n">
+        <v>0.6180555555555556</v>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>0.6576388888888889</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>0.7395833333333334</v>
+      </c>
       <c r="F16" s="7" t="n"/>
       <c r="G16" s="8" t="n"/>
       <c r="K16" s="2">
@@ -2843,10 +3219,18 @@
       <c r="A17" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="n"/>
-      <c r="C17" s="6" t="n"/>
-      <c r="D17" s="6" t="n"/>
-      <c r="E17" s="6" t="n"/>
+      <c r="B17" s="6" t="n">
+        <v>0.4944444444444445</v>
+      </c>
+      <c r="C17" s="6" t="n">
+        <v>0.6263888888888889</v>
+      </c>
+      <c r="D17" s="6" t="n">
+        <v>0.6618055555555555</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>0.7875</v>
+      </c>
       <c r="F17" s="7" t="n"/>
       <c r="G17" s="8" t="n"/>
       <c r="K17" s="2">
@@ -2866,10 +3250,18 @@
       <c r="A18" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="n"/>
-      <c r="C18" s="6" t="n"/>
-      <c r="D18" s="6" t="n"/>
-      <c r="E18" s="6" t="n"/>
+      <c r="B18" s="6" t="n">
+        <v>0.4347222222222222</v>
+      </c>
+      <c r="C18" s="6" t="n">
+        <v>0.6479166666666667</v>
+      </c>
+      <c r="D18" s="6" t="n">
+        <v>0.6840277777777778</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>0.8104166666666667</v>
+      </c>
       <c r="F18" s="7" t="n"/>
       <c r="G18" s="8" t="n"/>
       <c r="K18" s="2">
@@ -2912,10 +3304,18 @@
       <c r="A20" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="n"/>
-      <c r="C20" s="6" t="n"/>
-      <c r="D20" s="6" t="n"/>
-      <c r="E20" s="6" t="n"/>
+      <c r="B20" s="6" t="n">
+        <v>0.4763888888888889</v>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>0.6284722222222222</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>0.6701388888888888</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>0.7847222222222222</v>
+      </c>
       <c r="F20" s="7" t="n"/>
       <c r="G20" s="8" t="n"/>
       <c r="K20" s="2">
@@ -2935,10 +3335,18 @@
       <c r="A21" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="n"/>
-      <c r="C21" s="6" t="n"/>
-      <c r="D21" s="6" t="n"/>
-      <c r="E21" s="6" t="n"/>
+      <c r="B21" s="6" t="n">
+        <v>0.44375</v>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.6284722222222222</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.6701388888888888</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.7756944444444445</v>
+      </c>
       <c r="F21" s="7" t="n"/>
       <c r="G21" s="8" t="n"/>
       <c r="K21" s="2">
@@ -2981,10 +3389,18 @@
       <c r="A23" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="n"/>
-      <c r="C23" s="6" t="n"/>
-      <c r="D23" s="6" t="n"/>
-      <c r="E23" s="6" t="n"/>
+      <c r="B23" s="6" t="n">
+        <v>0.4652777777777778</v>
+      </c>
+      <c r="C23" s="6" t="n">
+        <v>0.6125</v>
+      </c>
+      <c r="D23" s="6" t="n">
+        <v>0.6618055555555555</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>0.7916666666666666</v>
+      </c>
       <c r="F23" s="7" t="n"/>
       <c r="G23" s="8" t="n"/>
       <c r="K23" s="2">
@@ -3004,10 +3420,18 @@
       <c r="A24" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="6" t="n"/>
-      <c r="C24" s="6" t="n"/>
-      <c r="D24" s="6" t="n"/>
-      <c r="E24" s="6" t="n"/>
+      <c r="B24" s="6" t="n">
+        <v>0.4409722222222222</v>
+      </c>
+      <c r="C24" s="6" t="n">
+        <v>0.6263888888888889</v>
+      </c>
+      <c r="D24" s="6" t="n">
+        <v>0.6680555555555555</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>0.7868055555555555</v>
+      </c>
       <c r="F24" s="7" t="n"/>
       <c r="G24" s="8" t="n"/>
       <c r="K24" s="2">
@@ -3027,10 +3451,18 @@
       <c r="A25" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="6" t="n"/>
-      <c r="C25" s="6" t="n"/>
-      <c r="D25" s="6" t="n"/>
-      <c r="E25" s="6" t="n"/>
+      <c r="B25" s="6" t="n">
+        <v>0.4611111111111111</v>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.6354166666666666</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.6770833333333334</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.7965277777777777</v>
+      </c>
       <c r="F25" s="7" t="n"/>
       <c r="G25" s="8" t="n"/>
       <c r="K25" s="2">
@@ -3050,10 +3482,18 @@
       <c r="A26" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="6" t="n"/>
-      <c r="C26" s="6" t="n"/>
-      <c r="D26" s="6" t="n"/>
-      <c r="E26" s="6" t="n"/>
+      <c r="B26" s="6" t="n">
+        <v>0.3729166666666667</v>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>0.4854166666666667</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>0.5402777777777777</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>0.91875</v>
+      </c>
       <c r="F26" s="7" t="n"/>
       <c r="G26" s="8" t="n"/>
       <c r="K26" s="2">
@@ -3096,10 +3536,18 @@
       <c r="A28" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="6" t="n"/>
-      <c r="C28" s="6" t="n"/>
-      <c r="D28" s="6" t="n"/>
-      <c r="E28" s="6" t="n"/>
+      <c r="B28" s="6" t="n">
+        <v>0.4576388888888889</v>
+      </c>
+      <c r="C28" s="6" t="n">
+        <v>0.6277777777777778</v>
+      </c>
+      <c r="D28" s="6" t="n">
+        <v>0.6715277777777777</v>
+      </c>
+      <c r="E28" s="6" t="n">
+        <v>0.7784722222222222</v>
+      </c>
       <c r="F28" s="7" t="n"/>
       <c r="G28" s="8" t="n"/>
       <c r="K28" s="2">
@@ -3119,10 +3567,18 @@
       <c r="A29" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="6" t="n"/>
-      <c r="C29" s="6" t="n"/>
-      <c r="D29" s="6" t="n"/>
-      <c r="E29" s="6" t="n"/>
+      <c r="B29" s="6" t="n">
+        <v>0.3680555555555556</v>
+      </c>
+      <c r="C29" s="6" t="n">
+        <v>0.6201388888888889</v>
+      </c>
+      <c r="D29" s="6" t="n">
+        <v>0.6618055555555555</v>
+      </c>
+      <c r="E29" s="6" t="n">
+        <v>0.7</v>
+      </c>
       <c r="F29" s="7" t="n"/>
       <c r="G29" s="8" t="n"/>
       <c r="K29" s="2">
@@ -3142,10 +3598,18 @@
       <c r="A30" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="6" t="n"/>
-      <c r="C30" s="6" t="n"/>
-      <c r="D30" s="6" t="n"/>
-      <c r="E30" s="6" t="n"/>
+      <c r="B30" s="6" t="n">
+        <v>0.5027777777777778</v>
+      </c>
+      <c r="C30" s="6" t="n">
+        <v>0.6194444444444445</v>
+      </c>
+      <c r="D30" s="6" t="n">
+        <v>0.6618055555555555</v>
+      </c>
+      <c r="E30" s="6" t="n">
+        <v>0.7993055555555556</v>
+      </c>
       <c r="F30" s="7" t="n"/>
       <c r="G30" s="8" t="n"/>
       <c r="K30" s="2">
@@ -3165,10 +3629,18 @@
       <c r="A31" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="6" t="n"/>
-      <c r="C31" s="6" t="n"/>
-      <c r="D31" s="6" t="n"/>
-      <c r="E31" s="6" t="n"/>
+      <c r="B31" s="6" t="n">
+        <v>0.4388888888888889</v>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>0.6277777777777778</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>0.6694444444444444</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>0.7722222222222223</v>
+      </c>
       <c r="F31" s="7" t="n"/>
       <c r="G31" s="8" t="n"/>
       <c r="K31" s="2">
@@ -3188,10 +3660,18 @@
       <c r="A32" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="6" t="n"/>
-      <c r="C32" s="6" t="n"/>
-      <c r="D32" s="6" t="n"/>
-      <c r="E32" s="6" t="n"/>
+      <c r="B32" s="6" t="n">
+        <v>0.4604166666666666</v>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>0.6305555555555555</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>0.6652777777777777</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>0.7930555555555555</v>
+      </c>
       <c r="F32" s="7" t="n"/>
       <c r="G32" s="8" t="n"/>
       <c r="K32" s="2">
@@ -3257,8 +3737,8 @@
   </sheetPr>
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
@@ -3333,16 +3813,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="n">
-        <v>0.3770833333333333</v>
+        <v>0.3680555555555556</v>
       </c>
       <c r="C2" s="6" t="n">
-        <v>0.6152777777777778</v>
+        <v>0.6118055555555556</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>0.6590277777777778</v>
+        <v>0.6534722222222222</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>0.7111111111111111</v>
+        <v>0.7215277777777778</v>
       </c>
       <c r="F2" s="7" t="n"/>
       <c r="G2" s="8" t="n"/>
@@ -3373,18 +3853,10 @@
       <c r="A3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="n">
-        <v>0.3694444444444445</v>
-      </c>
-      <c r="C3" s="6" t="n">
-        <v>0.6194444444444445</v>
-      </c>
-      <c r="D3" s="6" t="n">
-        <v>0.6569444444444444</v>
-      </c>
-      <c r="E3" s="6" t="n">
-        <v>0.7104166666666667</v>
-      </c>
+      <c r="B3" s="6" t="n"/>
+      <c r="C3" s="6" t="n"/>
+      <c r="D3" s="6" t="n"/>
+      <c r="E3" s="6" t="n"/>
       <c r="F3" s="7" t="n"/>
       <c r="G3" s="8" t="n"/>
       <c r="K3" s="2">
@@ -3414,16 +3886,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="n">
-        <v>0</v>
+        <v>0.3708333333333333</v>
       </c>
       <c r="C4" s="6" t="n">
-        <v>0</v>
+        <v>0.6208333333333333</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0</v>
+        <v>0.6583333333333333</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0</v>
+        <v>0.7194444444444444</v>
       </c>
       <c r="F4" s="7" t="n"/>
       <c r="G4" s="8" t="n"/>
@@ -3453,18 +3925,10 @@
       <c r="A5" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="n">
-        <v>0.3736111111111111</v>
-      </c>
-      <c r="C5" s="6" t="n">
-        <v>0.61875</v>
-      </c>
-      <c r="D5" s="6" t="n">
-        <v>0.6631944444444444</v>
-      </c>
-      <c r="E5" s="6" t="n">
-        <v>0.7166666666666667</v>
-      </c>
+      <c r="B5" s="6" t="n"/>
+      <c r="C5" s="6" t="n"/>
+      <c r="D5" s="6" t="n"/>
+      <c r="E5" s="6" t="n"/>
       <c r="F5" s="7" t="n"/>
       <c r="G5" s="8" t="n"/>
       <c r="K5" s="2">
@@ -3485,16 +3949,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="n">
-        <v>0.3673611111111111</v>
+        <v>0.3736111111111111</v>
       </c>
       <c r="C6" s="6" t="n">
-        <v>0.6319444444444444</v>
+        <v>0.6243055555555556</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>0.6694444444444444</v>
+        <v>0.6618055555555555</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.7256944444444444</v>
+        <v>0.7145833333333333</v>
       </c>
       <c r="F6" s="7" t="n"/>
       <c r="G6" s="8" t="n"/>
@@ -3525,16 +3989,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="n">
-        <v>0</v>
+        <v>0.3659722222222222</v>
       </c>
       <c r="C7" s="6" t="n">
-        <v>0</v>
+        <v>0.6291666666666667</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0</v>
+        <v>0.6722222222222223</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0</v>
+        <v>0.7229166666666667</v>
       </c>
       <c r="F7" s="7" t="n"/>
       <c r="G7" s="8" t="n"/>
@@ -3556,10 +4020,18 @@
       <c r="A8" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="n"/>
-      <c r="C8" s="6" t="n"/>
-      <c r="D8" s="6" t="n"/>
-      <c r="E8" s="6" t="n"/>
+      <c r="B8" s="6" t="n">
+        <v>0.3854166666666667</v>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>0.6284722222222222</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>0.6694444444444444</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>0.7180555555555556</v>
+      </c>
       <c r="F8" s="7" t="n"/>
       <c r="G8" s="8" t="n"/>
       <c r="K8" s="2">
@@ -3588,18 +4060,10 @@
       <c r="A9" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="n">
-        <v>0.3631944444444444</v>
-      </c>
-      <c r="C9" s="6" t="n">
-        <v>0.6263888888888889</v>
-      </c>
-      <c r="D9" s="6" t="n">
-        <v>0.6645833333333333</v>
-      </c>
-      <c r="E9" s="6" t="n">
-        <v>0.7194444444444444</v>
-      </c>
+      <c r="B9" s="6" t="n"/>
+      <c r="C9" s="6" t="n"/>
+      <c r="D9" s="6" t="n"/>
+      <c r="E9" s="6" t="n"/>
       <c r="F9" s="7" t="n"/>
       <c r="G9" s="8" t="n"/>
       <c r="K9" s="2">
@@ -3620,16 +4084,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="n">
-        <v>0.3701388888888889</v>
+        <v>0.36875</v>
       </c>
       <c r="C10" s="6" t="n">
-        <v>0.6173611111111111</v>
+        <v>0.6194444444444445</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>0.6583333333333333</v>
+        <v>0.6590277777777778</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>0.7131944444444445</v>
+        <v>0.7138888888888889</v>
       </c>
       <c r="F10" s="7" t="n"/>
       <c r="G10" s="8" t="n"/>
@@ -3656,16 +4120,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="n">
-        <v>0</v>
+        <v>0.3708333333333333</v>
       </c>
       <c r="C11" s="6" t="n">
-        <v>0</v>
+        <v>0.6263888888888889</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>0</v>
+        <v>0.66875</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>0</v>
+        <v>0.7208333333333333</v>
       </c>
       <c r="F11" s="7" t="n"/>
       <c r="G11" s="8" t="n"/>
@@ -3687,16 +4151,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="n">
-        <v>0.3673611111111111</v>
+        <v>0.3819444444444444</v>
       </c>
       <c r="C12" s="6" t="n">
-        <v>0.6208333333333333</v>
+        <v>0.5465277777777777</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>0.6611111111111111</v>
+        <v>0.5854166666666667</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>0.71875</v>
+        <v>0.9201388888888888</v>
       </c>
       <c r="F12" s="7" t="n"/>
       <c r="G12" s="8" t="n"/>
@@ -3718,16 +4182,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="n">
-        <v>0.3708333333333333</v>
+        <v>0.3756944444444444</v>
       </c>
       <c r="C13" s="6" t="n">
-        <v>0.6270833333333333</v>
+        <v>0.6243055555555556</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.6673611111111111</v>
+        <v>0.6638888888888889</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.7208333333333333</v>
+        <v>0.71875</v>
       </c>
       <c r="F13" s="7" t="n"/>
       <c r="G13" s="8" t="n"/>
@@ -3749,16 +4213,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="n">
-        <v>0.3965277777777778</v>
+        <v>0.3763888888888889</v>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.5395833333333333</v>
+        <v>0.6229166666666667</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.5798611111111112</v>
+        <v>0.6604166666666667</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.91875</v>
+        <v>0.7208333333333333</v>
       </c>
       <c r="F14" s="7" t="n"/>
       <c r="G14" s="8" t="n"/>
@@ -3780,13 +4244,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="n">
-        <v>0.3763888888888889</v>
+        <v>0.3798611111111111</v>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.6243055555555556</v>
+        <v>0.6180555555555556</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.6611111111111111</v>
+        <v>0.6583333333333333</v>
       </c>
       <c r="E15" s="6" t="n">
         <v>0.7159722222222222</v>
@@ -3810,18 +4274,10 @@
       <c r="A16" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="n">
-        <v>0.3854166666666667</v>
-      </c>
-      <c r="C16" s="6" t="n">
-        <v>0.6118055555555556</v>
-      </c>
-      <c r="D16" s="6" t="n">
-        <v>0.6541666666666667</v>
-      </c>
-      <c r="E16" s="6" t="n">
-        <v>0.7090277777777778</v>
-      </c>
+      <c r="B16" s="6" t="n"/>
+      <c r="C16" s="6" t="n"/>
+      <c r="D16" s="6" t="n"/>
+      <c r="E16" s="6" t="n"/>
       <c r="F16" s="7" t="n"/>
       <c r="G16" s="8" t="n"/>
       <c r="K16" s="2">
@@ -3841,10 +4297,18 @@
       <c r="A17" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="n"/>
-      <c r="C17" s="6" t="n"/>
-      <c r="D17" s="6" t="n"/>
-      <c r="E17" s="6" t="n"/>
+      <c r="B17" s="6" t="n">
+        <v>0.3680555555555556</v>
+      </c>
+      <c r="C17" s="6" t="n">
+        <v>0.6222222222222222</v>
+      </c>
+      <c r="D17" s="6" t="n">
+        <v>0.6590277777777778</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>0.7159722222222222</v>
+      </c>
       <c r="F17" s="7" t="n"/>
       <c r="G17" s="8" t="n"/>
       <c r="K17" s="2">
@@ -3864,10 +4328,18 @@
       <c r="A18" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="n"/>
-      <c r="C18" s="6" t="n"/>
-      <c r="D18" s="6" t="n"/>
-      <c r="E18" s="6" t="n"/>
+      <c r="B18" s="6" t="n">
+        <v>0.3708333333333333</v>
+      </c>
+      <c r="C18" s="6" t="n">
+        <v>0.6236111111111111</v>
+      </c>
+      <c r="D18" s="6" t="n">
+        <v>0.6625</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>0.7145833333333333</v>
+      </c>
       <c r="F18" s="7" t="n"/>
       <c r="G18" s="8" t="n"/>
       <c r="K18" s="2">
@@ -3910,10 +4382,18 @@
       <c r="A20" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="n"/>
-      <c r="C20" s="6" t="n"/>
-      <c r="D20" s="6" t="n"/>
-      <c r="E20" s="6" t="n"/>
+      <c r="B20" s="6" t="n">
+        <v>0.36875</v>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>0.6256944444444444</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>0.6631944444444444</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>0.7201388888888889</v>
+      </c>
       <c r="F20" s="7" t="n"/>
       <c r="G20" s="8" t="n"/>
       <c r="K20" s="2">
@@ -3933,10 +4413,18 @@
       <c r="A21" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="n"/>
-      <c r="C21" s="6" t="n"/>
-      <c r="D21" s="6" t="n"/>
-      <c r="E21" s="6" t="n"/>
+      <c r="B21" s="6" t="n">
+        <v>0.3798611111111111</v>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.6173611111111111</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.6583333333333333</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.7166666666666667</v>
+      </c>
       <c r="F21" s="7" t="n"/>
       <c r="G21" s="8" t="n"/>
       <c r="K21" s="2">
@@ -3956,10 +4444,18 @@
       <c r="A22" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="n"/>
-      <c r="C22" s="6" t="n"/>
-      <c r="D22" s="6" t="n"/>
-      <c r="E22" s="6" t="n"/>
+      <c r="B22" s="6" t="n">
+        <v>0.3666666666666666</v>
+      </c>
+      <c r="C22" s="6" t="n">
+        <v>0.6152777777777778</v>
+      </c>
+      <c r="D22" s="6" t="n">
+        <v>0.6555555555555556</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>0.7104166666666667</v>
+      </c>
       <c r="F22" s="7" t="n"/>
       <c r="G22" s="8" t="n"/>
       <c r="K22" s="2">
@@ -4002,10 +4498,18 @@
       <c r="A24" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="6" t="n"/>
-      <c r="C24" s="6" t="n"/>
-      <c r="D24" s="6" t="n"/>
-      <c r="E24" s="6" t="n"/>
+      <c r="B24" s="6" t="n">
+        <v>0.3736111111111111</v>
+      </c>
+      <c r="C24" s="6" t="n">
+        <v>0.6159722222222223</v>
+      </c>
+      <c r="D24" s="6" t="n">
+        <v>0.6569444444444444</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>0.7111111111111111</v>
+      </c>
       <c r="F24" s="7" t="n"/>
       <c r="G24" s="8" t="n"/>
       <c r="K24" s="2">
@@ -4025,10 +4529,18 @@
       <c r="A25" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="6" t="n"/>
-      <c r="C25" s="6" t="n"/>
-      <c r="D25" s="6" t="n"/>
-      <c r="E25" s="6" t="n"/>
+      <c r="B25" s="6" t="n">
+        <v>0.3743055555555556</v>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.6243055555555556</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.6618055555555555</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.7180555555555556</v>
+      </c>
       <c r="F25" s="7" t="n"/>
       <c r="G25" s="8" t="n"/>
       <c r="K25" s="2">
@@ -4048,10 +4560,18 @@
       <c r="A26" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="6" t="n"/>
-      <c r="C26" s="6" t="n"/>
-      <c r="D26" s="6" t="n"/>
-      <c r="E26" s="6" t="n"/>
+      <c r="B26" s="6" t="n">
+        <v>0.3729166666666667</v>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>0.5798611111111112</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>0.9194444444444444</v>
+      </c>
       <c r="F26" s="7" t="n"/>
       <c r="G26" s="8" t="n"/>
       <c r="K26" s="2">
@@ -4071,10 +4591,18 @@
       <c r="A27" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="6" t="n"/>
-      <c r="C27" s="6" t="n"/>
-      <c r="D27" s="6" t="n"/>
-      <c r="E27" s="6" t="n"/>
+      <c r="B27" s="6" t="n">
+        <v>0.3819444444444444</v>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.6229166666666667</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.6645833333333333</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.7145833333333333</v>
+      </c>
       <c r="F27" s="7" t="n"/>
       <c r="G27" s="8" t="n"/>
       <c r="K27" s="2">
@@ -4094,10 +4622,18 @@
       <c r="A28" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="6" t="n"/>
-      <c r="C28" s="6" t="n"/>
-      <c r="D28" s="6" t="n"/>
-      <c r="E28" s="6" t="n"/>
+      <c r="B28" s="6" t="n">
+        <v>0.38125</v>
+      </c>
+      <c r="C28" s="6" t="n">
+        <v>0.6256944444444444</v>
+      </c>
+      <c r="D28" s="6" t="n">
+        <v>0.6673611111111111</v>
+      </c>
+      <c r="E28" s="6" t="n">
+        <v>0.7145833333333333</v>
+      </c>
       <c r="F28" s="7" t="n"/>
       <c r="G28" s="8" t="n"/>
       <c r="K28" s="2">
@@ -4117,10 +4653,18 @@
       <c r="A29" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="6" t="n"/>
-      <c r="C29" s="6" t="n"/>
-      <c r="D29" s="6" t="n"/>
-      <c r="E29" s="6" t="n"/>
+      <c r="B29" s="6" t="n">
+        <v>0.3756944444444444</v>
+      </c>
+      <c r="C29" s="6" t="n">
+        <v>0.6215277777777778</v>
+      </c>
+      <c r="D29" s="6" t="n">
+        <v>0.6583333333333333</v>
+      </c>
+      <c r="E29" s="6" t="n">
+        <v>0.7104166666666667</v>
+      </c>
       <c r="F29" s="7" t="n"/>
       <c r="G29" s="8" t="n"/>
       <c r="K29" s="2">
@@ -4163,10 +4707,18 @@
       <c r="A31" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="6" t="n"/>
-      <c r="C31" s="6" t="n"/>
-      <c r="D31" s="6" t="n"/>
-      <c r="E31" s="6" t="n"/>
+      <c r="B31" s="6" t="n">
+        <v>0.3618055555555555</v>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>0.6152777777777778</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>0.6534722222222222</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>0.7118055555555556</v>
+      </c>
       <c r="F31" s="7" t="n"/>
       <c r="G31" s="8" t="n"/>
       <c r="K31" s="2">
@@ -4186,10 +4738,18 @@
       <c r="A32" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="6" t="n"/>
-      <c r="C32" s="6" t="n"/>
-      <c r="D32" s="6" t="n"/>
-      <c r="E32" s="6" t="n"/>
+      <c r="B32" s="6" t="n">
+        <v>0.3756944444444444</v>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>0.6208333333333333</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>0.6583333333333333</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>0.7166666666666667</v>
+      </c>
       <c r="F32" s="7" t="n"/>
       <c r="G32" s="8" t="n"/>
       <c r="K32" s="2">
@@ -5216,10 +5776,18 @@
       <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="n"/>
-      <c r="C2" s="6" t="n"/>
-      <c r="D2" s="6" t="n"/>
-      <c r="E2" s="6" t="n"/>
+      <c r="B2" s="6" t="n">
+        <v>0.5006944444444444</v>
+      </c>
+      <c r="C2" s="6" t="n">
+        <v>0.63125</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>0.6756944444444445</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>0.8409722222222222</v>
+      </c>
       <c r="F2" s="7" t="n"/>
       <c r="G2" s="8" t="n"/>
       <c r="K2" s="2">
@@ -5249,10 +5817,18 @@
       <c r="A3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="n"/>
-      <c r="C3" s="6" t="n"/>
-      <c r="D3" s="6" t="n"/>
-      <c r="E3" s="6" t="n"/>
+      <c r="B3" s="6" t="n">
+        <v>0.3638888888888889</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>0.6215277777777778</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>0.6638888888888889</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>0.7277777777777777</v>
+      </c>
       <c r="F3" s="7" t="n"/>
       <c r="G3" s="8" t="n"/>
       <c r="K3" s="2">
@@ -5281,10 +5857,18 @@
       <c r="A4" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="n"/>
-      <c r="C4" s="6" t="n"/>
-      <c r="D4" s="6" t="n"/>
-      <c r="E4" s="6" t="n"/>
+      <c r="B4" s="6" t="n">
+        <v>0.5090277777777777</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>0.6298611111111111</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>0.6715277777777777</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.8430555555555556</v>
+      </c>
       <c r="F4" s="7" t="n"/>
       <c r="G4" s="8" t="n"/>
       <c r="K4" s="2">
@@ -5336,10 +5920,18 @@
       <c r="A6" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="n"/>
-      <c r="C6" s="6" t="n"/>
-      <c r="D6" s="6" t="n"/>
-      <c r="E6" s="6" t="n"/>
+      <c r="B6" s="6" t="n">
+        <v>0.6180555555555556</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>0.7208333333333333</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>0.7625</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.93125</v>
+      </c>
       <c r="F6" s="7" t="n"/>
       <c r="G6" s="8" t="n"/>
       <c r="K6" s="2">
@@ -5392,10 +5984,18 @@
       <c r="A8" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="n"/>
-      <c r="C8" s="6" t="n"/>
-      <c r="D8" s="6" t="n"/>
-      <c r="E8" s="6" t="n"/>
+      <c r="B8" s="6" t="n">
+        <v>0.6173611111111111</v>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>0.6701388888888888</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>0.7104166666666667</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>0.9340277777777778</v>
+      </c>
       <c r="F8" s="7" t="n"/>
       <c r="G8" s="8" t="n"/>
       <c r="K8" s="2">
@@ -5424,10 +6024,18 @@
       <c r="A9" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="n"/>
-      <c r="C9" s="6" t="n"/>
-      <c r="D9" s="6" t="n"/>
-      <c r="E9" s="6" t="n"/>
+      <c r="B9" s="6" t="n">
+        <v>0.3777777777777778</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.6180555555555556</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.6631944444444444</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.7208333333333333</v>
+      </c>
       <c r="F9" s="7" t="n"/>
       <c r="G9" s="8" t="n"/>
       <c r="K9" s="2">
@@ -5447,10 +6055,18 @@
       <c r="A10" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="n"/>
-      <c r="C10" s="6" t="n"/>
-      <c r="D10" s="6" t="n"/>
-      <c r="E10" s="6" t="n"/>
+      <c r="B10" s="6" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>0.7152777777777778</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.9319444444444445</v>
+      </c>
       <c r="F10" s="7" t="n"/>
       <c r="G10" s="8" t="n"/>
       <c r="K10" s="2">
@@ -5728,10 +6344,18 @@
       <c r="A22" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="n"/>
-      <c r="C22" s="6" t="n"/>
-      <c r="D22" s="6" t="n"/>
-      <c r="E22" s="6" t="n"/>
+      <c r="B22" s="6" t="n">
+        <v>0.6125</v>
+      </c>
+      <c r="C22" s="6" t="n">
+        <v>0.7118055555555556</v>
+      </c>
+      <c r="D22" s="6" t="n">
+        <v>0.7527777777777778</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>0.9333333333333333</v>
+      </c>
       <c r="F22" s="7" t="n"/>
       <c r="G22" s="8" t="n"/>
       <c r="K22" s="2">
@@ -5751,10 +6375,18 @@
       <c r="A23" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="n"/>
-      <c r="C23" s="6" t="n"/>
-      <c r="D23" s="6" t="n"/>
-      <c r="E23" s="6" t="n"/>
+      <c r="B23" s="6" t="n">
+        <v>0.3819444444444444</v>
+      </c>
+      <c r="C23" s="6" t="n">
+        <v>0.6201388888888889</v>
+      </c>
+      <c r="D23" s="6" t="n">
+        <v>0.6631944444444444</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>0.7256944444444444</v>
+      </c>
       <c r="F23" s="7" t="n"/>
       <c r="G23" s="8" t="n"/>
       <c r="K23" s="2">
@@ -5774,10 +6406,18 @@
       <c r="A24" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="6" t="n"/>
-      <c r="C24" s="6" t="n"/>
-      <c r="D24" s="6" t="n"/>
-      <c r="E24" s="6" t="n"/>
+      <c r="B24" s="6" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+      <c r="C24" s="6" t="n">
+        <v>0.6645833333333333</v>
+      </c>
+      <c r="D24" s="6" t="n">
+        <v>0.7076388888888889</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>0.9333333333333333</v>
+      </c>
       <c r="F24" s="7" t="n"/>
       <c r="G24" s="8" t="n"/>
       <c r="K24" s="2">
@@ -5797,10 +6437,18 @@
       <c r="A25" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="6" t="n"/>
-      <c r="C25" s="6" t="n"/>
-      <c r="D25" s="6" t="n"/>
-      <c r="E25" s="6" t="n"/>
+      <c r="B25" s="6" t="n">
+        <v>0.6138888888888889</v>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.6680555555555555</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.7076388888888889</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.9291666666666667</v>
+      </c>
       <c r="F25" s="7" t="n"/>
       <c r="G25" s="8" t="n"/>
       <c r="K25" s="2">
@@ -5843,10 +6491,18 @@
       <c r="A27" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="6" t="n"/>
-      <c r="C27" s="6" t="n"/>
-      <c r="D27" s="6" t="n"/>
-      <c r="E27" s="6" t="n"/>
+      <c r="B27" s="6" t="n">
+        <v>0.6138888888888889</v>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.6645833333333333</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.70625</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.9381944444444444</v>
+      </c>
       <c r="F27" s="7" t="n"/>
       <c r="G27" s="8" t="n"/>
       <c r="K27" s="2">
@@ -5889,10 +6545,18 @@
       <c r="A29" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="6" t="n"/>
-      <c r="C29" s="6" t="n"/>
-      <c r="D29" s="6" t="n"/>
-      <c r="E29" s="6" t="n"/>
+      <c r="B29" s="6" t="n">
+        <v>0.6131944444444445</v>
+      </c>
+      <c r="C29" s="6" t="n">
+        <v>0.6638888888888889</v>
+      </c>
+      <c r="D29" s="6" t="n">
+        <v>0.7090277777777778</v>
+      </c>
+      <c r="E29" s="6" t="n">
+        <v>0.9326388888888889</v>
+      </c>
       <c r="F29" s="7" t="n"/>
       <c r="G29" s="8" t="n"/>
       <c r="K29" s="2">
@@ -5912,10 +6576,18 @@
       <c r="A30" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="6" t="n"/>
-      <c r="C30" s="6" t="n"/>
-      <c r="D30" s="6" t="n"/>
-      <c r="E30" s="6" t="n"/>
+      <c r="B30" s="6" t="n">
+        <v>0.3784722222222222</v>
+      </c>
+      <c r="C30" s="6" t="n">
+        <v>0.6118055555555556</v>
+      </c>
+      <c r="D30" s="6" t="n">
+        <v>0.6548611111111111</v>
+      </c>
+      <c r="E30" s="6" t="n">
+        <v>0.7152777777777778</v>
+      </c>
       <c r="F30" s="7" t="n"/>
       <c r="G30" s="8" t="n"/>
       <c r="K30" s="2">
@@ -5935,10 +6607,18 @@
       <c r="A31" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="6" t="n"/>
-      <c r="C31" s="6" t="n"/>
-      <c r="D31" s="6" t="n"/>
-      <c r="E31" s="6" t="n"/>
+      <c r="B31" s="6" t="n">
+        <v>0.6083333333333333</v>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>0.6604166666666667</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>0.7076388888888889</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>0.93125</v>
+      </c>
       <c r="F31" s="7" t="n"/>
       <c r="G31" s="8" t="n"/>
       <c r="K31" s="2">
@@ -5958,10 +6638,18 @@
       <c r="A32" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="6" t="n"/>
-      <c r="C32" s="6" t="n"/>
-      <c r="D32" s="6" t="n"/>
-      <c r="E32" s="6" t="n"/>
+      <c r="B32" s="6" t="n">
+        <v>0.4951388888888889</v>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>0.6645833333333333</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>0.7055555555555556</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>0.9291666666666667</v>
+      </c>
       <c r="F32" s="7" t="n"/>
       <c r="G32" s="8" t="n"/>
       <c r="K32" s="2">
@@ -7000,10 +7688,18 @@
       <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="n"/>
-      <c r="C2" s="6" t="n"/>
-      <c r="D2" s="6" t="n"/>
-      <c r="E2" s="6" t="n"/>
+      <c r="B2" s="6" t="n">
+        <v>0.6125</v>
+      </c>
+      <c r="C2" s="6" t="n">
+        <v>0.7159722222222222</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>0.7625</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>0.9284722222222223</v>
+      </c>
       <c r="F2" s="7" t="n"/>
       <c r="G2" s="8" t="n"/>
       <c r="K2" s="2">
@@ -7033,10 +7729,18 @@
       <c r="A3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="n"/>
-      <c r="C3" s="6" t="n"/>
-      <c r="D3" s="6" t="n"/>
-      <c r="E3" s="6" t="n"/>
+      <c r="B3" s="6" t="n">
+        <v>0.6090277777777777</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>0.71875</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>0.7597222222222222</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>0.9291666666666667</v>
+      </c>
       <c r="F3" s="7" t="n"/>
       <c r="G3" s="8" t="n"/>
       <c r="K3" s="2">
@@ -7065,10 +7769,18 @@
       <c r="A4" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="n"/>
-      <c r="C4" s="6" t="n"/>
-      <c r="D4" s="6" t="n"/>
-      <c r="E4" s="6" t="n"/>
+      <c r="B4" s="6" t="n">
+        <v>0.6125</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>0.6847222222222222</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>0.7319444444444444</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.9263888888888889</v>
+      </c>
       <c r="F4" s="7" t="n"/>
       <c r="G4" s="8" t="n"/>
       <c r="K4" s="2">
@@ -7097,10 +7809,18 @@
       <c r="A5" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="n"/>
-      <c r="C5" s="6" t="n"/>
-      <c r="D5" s="6" t="n"/>
-      <c r="E5" s="6" t="n"/>
+      <c r="B5" s="6" t="n">
+        <v>0.4194444444444445</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>0.53125</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>0.5756944444444444</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>0.925</v>
+      </c>
       <c r="F5" s="7" t="n"/>
       <c r="G5" s="8" t="n"/>
       <c r="K5" s="2">
@@ -7120,10 +7840,18 @@
       <c r="A6" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="n"/>
-      <c r="C6" s="6" t="n"/>
-      <c r="D6" s="6" t="n"/>
-      <c r="E6" s="6" t="n"/>
+      <c r="B6" s="6" t="n">
+        <v>0.6118055555555556</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>0.6763888888888889</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>0.7180555555555556</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.93125</v>
+      </c>
       <c r="F6" s="7" t="n"/>
       <c r="G6" s="8" t="n"/>
       <c r="K6" s="2">
@@ -7152,10 +7880,18 @@
       <c r="A7" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="n"/>
-      <c r="C7" s="6" t="n"/>
-      <c r="D7" s="6" t="n"/>
-      <c r="E7" s="6" t="n"/>
+      <c r="B7" s="6" t="n">
+        <v>0.6076388888888888</v>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.71875</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.9305555555555556</v>
+      </c>
       <c r="F7" s="7" t="n"/>
       <c r="G7" s="8" t="n"/>
       <c r="K7" s="2">
@@ -7208,10 +7944,18 @@
       <c r="A9" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="n"/>
-      <c r="C9" s="6" t="n"/>
-      <c r="D9" s="6" t="n"/>
-      <c r="E9" s="6" t="n"/>
+      <c r="B9" s="6" t="n">
+        <v>0.6055555555555555</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.7125</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.7590277777777777</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.9326388888888889</v>
+      </c>
       <c r="F9" s="7" t="n"/>
       <c r="G9" s="8" t="n"/>
       <c r="K9" s="2">
@@ -7231,10 +7975,18 @@
       <c r="A10" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="n"/>
-      <c r="C10" s="6" t="n"/>
-      <c r="D10" s="6" t="n"/>
-      <c r="E10" s="6" t="n"/>
+      <c r="B10" s="6" t="n">
+        <v>0.6159722222222223</v>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>0.6673611111111111</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>0.7131944444444445</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.9326388888888889</v>
+      </c>
       <c r="F10" s="7" t="n"/>
       <c r="G10" s="8" t="n"/>
       <c r="K10" s="2">
@@ -7259,10 +8011,18 @@
       <c r="A11" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="n"/>
-      <c r="C11" s="6" t="n"/>
-      <c r="D11" s="6" t="n"/>
-      <c r="E11" s="6" t="n"/>
+      <c r="B11" s="6" t="n">
+        <v>0.6083333333333333</v>
+      </c>
+      <c r="C11" s="6" t="n">
+        <v>0.7152777777777778</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>0.7625</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>0.9256944444444445</v>
+      </c>
       <c r="F11" s="7" t="n"/>
       <c r="G11" s="8" t="n"/>
       <c r="K11" s="2">
@@ -7305,10 +8065,18 @@
       <c r="A13" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="n"/>
-      <c r="C13" s="6" t="n"/>
-      <c r="D13" s="6" t="n"/>
-      <c r="E13" s="6" t="n"/>
+      <c r="B13" s="6" t="n">
+        <v>0.6131944444444445</v>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.6694444444444444</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>0.7104166666666667</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.93125</v>
+      </c>
       <c r="F13" s="7" t="n"/>
       <c r="G13" s="8" t="n"/>
       <c r="K13" s="2">
@@ -7328,10 +8096,18 @@
       <c r="A14" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="n"/>
-      <c r="C14" s="6" t="n"/>
-      <c r="D14" s="6" t="n"/>
-      <c r="E14" s="6" t="n"/>
+      <c r="B14" s="6" t="n">
+        <v>0.6131944444444445</v>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>0.6659722222222222</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>0.7090277777777778</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>0.9291666666666667</v>
+      </c>
       <c r="F14" s="7" t="n"/>
       <c r="G14" s="8" t="n"/>
       <c r="K14" s="2">
@@ -7351,10 +8127,18 @@
       <c r="A15" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="n"/>
-      <c r="C15" s="6" t="n"/>
-      <c r="D15" s="6" t="n"/>
-      <c r="E15" s="6" t="n"/>
+      <c r="B15" s="6" t="n">
+        <v>0.6076388888888888</v>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.6652777777777777</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.9375</v>
+      </c>
       <c r="F15" s="7" t="n"/>
       <c r="G15" s="8" t="n"/>
       <c r="K15" s="2">
@@ -7374,10 +8158,18 @@
       <c r="A16" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="n"/>
-      <c r="C16" s="6" t="n"/>
-      <c r="D16" s="6" t="n"/>
-      <c r="E16" s="6" t="n"/>
+      <c r="B16" s="6" t="n">
+        <v>0.6083333333333333</v>
+      </c>
+      <c r="C16" s="6" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>0.7048611111111112</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>0.9333333333333333</v>
+      </c>
       <c r="F16" s="7" t="n"/>
       <c r="G16" s="8" t="n"/>
       <c r="K16" s="2">
@@ -7397,10 +8189,18 @@
       <c r="A17" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="n"/>
-      <c r="C17" s="6" t="n"/>
-      <c r="D17" s="6" t="n"/>
-      <c r="E17" s="6" t="n"/>
+      <c r="B17" s="6" t="n">
+        <v>0.6159722222222223</v>
+      </c>
+      <c r="C17" s="6" t="n">
+        <v>0.7090277777777778</v>
+      </c>
+      <c r="D17" s="6" t="n">
+        <v>0.7534722222222222</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>0.9319444444444445</v>
+      </c>
       <c r="F17" s="7" t="n"/>
       <c r="G17" s="8" t="n"/>
       <c r="K17" s="2">
@@ -7420,10 +8220,18 @@
       <c r="A18" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="n"/>
-      <c r="C18" s="6" t="n"/>
-      <c r="D18" s="6" t="n"/>
-      <c r="E18" s="6" t="n"/>
+      <c r="B18" s="6" t="n">
+        <v>0.6145833333333334</v>
+      </c>
+      <c r="C18" s="6" t="n">
+        <v>0.7125</v>
+      </c>
+      <c r="D18" s="6" t="n">
+        <v>0.75625</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>0.9333333333333333</v>
+      </c>
       <c r="F18" s="7" t="n"/>
       <c r="G18" s="8" t="n"/>
       <c r="K18" s="2">
@@ -7466,10 +8274,18 @@
       <c r="A20" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="n"/>
-      <c r="C20" s="6" t="n"/>
-      <c r="D20" s="6" t="n"/>
-      <c r="E20" s="6" t="n"/>
+      <c r="B20" s="6" t="n">
+        <v>0.6173611111111111</v>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>0.6694444444444444</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>0.7152777777777778</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>0.9319444444444445</v>
+      </c>
       <c r="F20" s="7" t="n"/>
       <c r="G20" s="8" t="n"/>
       <c r="K20" s="2">
@@ -7489,10 +8305,18 @@
       <c r="A21" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="n"/>
-      <c r="C21" s="6" t="n"/>
-      <c r="D21" s="6" t="n"/>
-      <c r="E21" s="6" t="n"/>
+      <c r="B21" s="6" t="n">
+        <v>0.6097222222222223</v>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.6625</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.7111111111111111</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.9326388888888889</v>
+      </c>
       <c r="F21" s="7" t="n"/>
       <c r="G21" s="8" t="n"/>
       <c r="K21" s="2">
@@ -7535,10 +8359,18 @@
       <c r="A23" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="n"/>
-      <c r="C23" s="6" t="n"/>
-      <c r="D23" s="6" t="n"/>
-      <c r="E23" s="6" t="n"/>
+      <c r="B23" s="6" t="n">
+        <v>0.6090277777777777</v>
+      </c>
+      <c r="C23" s="6" t="n">
+        <v>0.6645833333333333</v>
+      </c>
+      <c r="D23" s="6" t="n">
+        <v>0.7048611111111112</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>0.9354166666666667</v>
+      </c>
       <c r="F23" s="7" t="n"/>
       <c r="G23" s="8" t="n"/>
       <c r="K23" s="2">
@@ -7581,10 +8413,18 @@
       <c r="A25" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="6" t="n"/>
-      <c r="C25" s="6" t="n"/>
-      <c r="D25" s="6" t="n"/>
-      <c r="E25" s="6" t="n"/>
+      <c r="B25" s="6" t="n">
+        <v>0.6138888888888889</v>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.7048611111111112</v>
+      </c>
       <c r="F25" s="7" t="n"/>
       <c r="G25" s="8" t="n"/>
       <c r="K25" s="2">
@@ -7650,10 +8490,18 @@
       <c r="A28" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="6" t="n"/>
-      <c r="C28" s="6" t="n"/>
-      <c r="D28" s="6" t="n"/>
-      <c r="E28" s="6" t="n"/>
+      <c r="B28" s="6" t="n">
+        <v>0.6277777777777778</v>
+      </c>
+      <c r="C28" s="6" t="n">
+        <v>0.6673611111111111</v>
+      </c>
+      <c r="D28" s="6" t="n">
+        <v>0.7097222222222223</v>
+      </c>
+      <c r="E28" s="6" t="n">
+        <v>0.9361111111111111</v>
+      </c>
       <c r="F28" s="7" t="n"/>
       <c r="G28" s="8" t="n"/>
       <c r="K28" s="2">
@@ -7696,10 +8544,18 @@
       <c r="A30" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="6" t="n"/>
-      <c r="C30" s="6" t="n"/>
-      <c r="D30" s="6" t="n"/>
-      <c r="E30" s="6" t="n"/>
+      <c r="B30" s="6" t="n">
+        <v>0.6118055555555556</v>
+      </c>
+      <c r="C30" s="6" t="n">
+        <v>0.6645833333333333</v>
+      </c>
+      <c r="D30" s="6" t="n">
+        <v>0.7111111111111111</v>
+      </c>
+      <c r="E30" s="6" t="n">
+        <v>0.9347222222222222</v>
+      </c>
       <c r="F30" s="7" t="n"/>
       <c r="G30" s="8" t="n"/>
       <c r="K30" s="2">
@@ -7719,10 +8575,18 @@
       <c r="A31" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="6" t="n"/>
-      <c r="C31" s="6" t="n"/>
-      <c r="D31" s="6" t="n"/>
-      <c r="E31" s="6" t="n"/>
+      <c r="B31" s="6" t="n">
+        <v>0.6125</v>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>0.7111111111111111</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>0.7541666666666667</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>0.93125</v>
+      </c>
       <c r="F31" s="7" t="n"/>
       <c r="G31" s="8" t="n"/>
       <c r="K31" s="2">
@@ -7742,10 +8606,18 @@
       <c r="A32" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="6" t="n"/>
-      <c r="C32" s="6" t="n"/>
-      <c r="D32" s="6" t="n"/>
-      <c r="E32" s="6" t="n"/>
+      <c r="B32" s="6" t="n">
+        <v>0.6145833333333334</v>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>0.66875</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>0.7125</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>0.9291666666666667</v>
+      </c>
       <c r="F32" s="7" t="n"/>
       <c r="G32" s="8" t="n"/>
       <c r="K32" s="2">
@@ -7886,10 +8758,18 @@
       <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="n"/>
-      <c r="C2" s="6" t="n"/>
-      <c r="D2" s="6" t="n"/>
-      <c r="E2" s="6" t="n"/>
+      <c r="B2" s="6" t="n">
+        <v>0.35625</v>
+      </c>
+      <c r="C2" s="6" t="n">
+        <v>0.61875</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>0.6597222222222222</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>0.7333333333333333</v>
+      </c>
       <c r="F2" s="7" t="n"/>
       <c r="G2" s="8" t="n"/>
       <c r="K2" s="2">
@@ -7919,10 +8799,18 @@
       <c r="A3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="n"/>
-      <c r="C3" s="6" t="n"/>
-      <c r="D3" s="6" t="n"/>
-      <c r="E3" s="6" t="n"/>
+      <c r="B3" s="6" t="n">
+        <v>0.3555555555555556</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>0.5006944444444444</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>0.6902777777777778</v>
+      </c>
       <c r="F3" s="7" t="n"/>
       <c r="G3" s="8" t="n"/>
       <c r="K3" s="2">
@@ -7951,10 +8839,18 @@
       <c r="A4" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="n"/>
-      <c r="C4" s="6" t="n"/>
-      <c r="D4" s="6" t="n"/>
-      <c r="E4" s="6" t="n"/>
+      <c r="B4" s="6" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>0.6013888888888889</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>0.6270833333333333</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.7048611111111112</v>
+      </c>
       <c r="F4" s="7" t="n"/>
       <c r="G4" s="8" t="n"/>
       <c r="K4" s="2">
@@ -8006,10 +8902,18 @@
       <c r="A6" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="n"/>
-      <c r="C6" s="6" t="n"/>
-      <c r="D6" s="6" t="n"/>
-      <c r="E6" s="6" t="n"/>
+      <c r="B6" s="6" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>0.54375</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>0.5881944444444445</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.6826388888888889</v>
+      </c>
       <c r="F6" s="7" t="n"/>
       <c r="G6" s="8" t="n"/>
       <c r="K6" s="2">
@@ -8062,10 +8966,18 @@
       <c r="A8" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="n"/>
-      <c r="C8" s="6" t="n"/>
-      <c r="D8" s="6" t="n"/>
-      <c r="E8" s="6" t="n"/>
+      <c r="B8" s="6" t="n">
+        <v>0.3638888888888889</v>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>0.6076388888888888</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>0.6527777777777778</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>0.6854166666666667</v>
+      </c>
       <c r="F8" s="7" t="n"/>
       <c r="G8" s="8" t="n"/>
       <c r="K8" s="2">
@@ -8094,10 +9006,18 @@
       <c r="A9" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="n"/>
-      <c r="C9" s="6" t="n"/>
-      <c r="D9" s="6" t="n"/>
-      <c r="E9" s="6" t="n"/>
+      <c r="B9" s="6" t="n">
+        <v>0.3756944444444444</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.5652777777777778</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.6104166666666667</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.6861111111111111</v>
+      </c>
       <c r="F9" s="7" t="n"/>
       <c r="G9" s="8" t="n"/>
       <c r="K9" s="2">
@@ -8117,10 +9037,18 @@
       <c r="A10" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="n"/>
-      <c r="C10" s="6" t="n"/>
-      <c r="D10" s="6" t="n"/>
-      <c r="E10" s="6" t="n"/>
+      <c r="B10" s="6" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>0.6180555555555556</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>0.6541666666666667</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.9270833333333334</v>
+      </c>
       <c r="F10" s="7" t="n"/>
       <c r="G10" s="8" t="n"/>
       <c r="K10" s="2">
@@ -8145,10 +9073,18 @@
       <c r="A11" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="n"/>
-      <c r="C11" s="6" t="n"/>
-      <c r="D11" s="6" t="n"/>
-      <c r="E11" s="6" t="n"/>
+      <c r="B11" s="6" t="n">
+        <v>0.3652777777777778</v>
+      </c>
+      <c r="C11" s="6" t="n">
+        <v>0.5291666666666667</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>0.5729166666666666</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>0.6854166666666667</v>
+      </c>
       <c r="F11" s="7" t="n"/>
       <c r="G11" s="8" t="n"/>
       <c r="K11" s="2">
@@ -8168,10 +9104,18 @@
       <c r="A12" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="n"/>
-      <c r="C12" s="6" t="n"/>
-      <c r="D12" s="6" t="n"/>
-      <c r="E12" s="6" t="n"/>
+      <c r="B12" s="6" t="n">
+        <v>0.3520833333333334</v>
+      </c>
+      <c r="C12" s="6" t="n">
+        <v>0.5590277777777778</v>
+      </c>
+      <c r="D12" s="6" t="n">
+        <v>0.6027777777777777</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0.9222222222222223</v>
+      </c>
       <c r="F12" s="7" t="n"/>
       <c r="G12" s="8" t="n"/>
       <c r="K12" s="2">
@@ -8191,10 +9135,18 @@
       <c r="A13" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="n"/>
-      <c r="C13" s="6" t="n"/>
-      <c r="D13" s="6" t="n"/>
-      <c r="E13" s="6" t="n"/>
+      <c r="B13" s="6" t="n">
+        <v>0.3222222222222222</v>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.5430555555555555</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>0.5868055555555556</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.6875</v>
+      </c>
       <c r="F13" s="7" t="n"/>
       <c r="G13" s="8" t="n"/>
       <c r="K13" s="2">
@@ -8237,10 +9189,18 @@
       <c r="A15" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="n"/>
-      <c r="C15" s="6" t="n"/>
-      <c r="D15" s="6" t="n"/>
-      <c r="E15" s="6" t="n"/>
+      <c r="B15" s="6" t="n">
+        <v>0.3625</v>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.60625</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.6534722222222222</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.6854166666666667</v>
+      </c>
       <c r="F15" s="7" t="n"/>
       <c r="G15" s="8" t="n"/>
       <c r="K15" s="2">
@@ -8260,10 +9220,18 @@
       <c r="A16" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="n"/>
-      <c r="C16" s="6" t="n"/>
-      <c r="D16" s="6" t="n"/>
-      <c r="E16" s="6" t="n"/>
+      <c r="B16" s="6" t="n">
+        <v>0.3652777777777778</v>
+      </c>
+      <c r="C16" s="6" t="n">
+        <v>0.5805555555555556</v>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>0.6256944444444444</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>0.6868055555555556</v>
+      </c>
       <c r="F16" s="7" t="n"/>
       <c r="G16" s="8" t="n"/>
       <c r="K16" s="2">
@@ -8283,10 +9251,18 @@
       <c r="A17" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="n"/>
-      <c r="C17" s="6" t="n"/>
-      <c r="D17" s="6" t="n"/>
-      <c r="E17" s="6" t="n"/>
+      <c r="B17" s="6" t="n">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="C17" s="6" t="n">
+        <v>0.5513888888888889</v>
+      </c>
+      <c r="D17" s="6" t="n">
+        <v>0.5951388888888889</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>0.6881944444444444</v>
+      </c>
       <c r="F17" s="7" t="n"/>
       <c r="G17" s="8" t="n"/>
       <c r="K17" s="2">
@@ -8306,10 +9282,18 @@
       <c r="A18" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="n"/>
-      <c r="C18" s="6" t="n"/>
-      <c r="D18" s="6" t="n"/>
-      <c r="E18" s="6" t="n"/>
+      <c r="B18" s="6" t="n">
+        <v>0.3645833333333333</v>
+      </c>
+      <c r="C18" s="6" t="n">
+        <v>0.5451388888888888</v>
+      </c>
+      <c r="D18" s="6" t="n">
+        <v>0.5868055555555556</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>0.6881944444444444</v>
+      </c>
       <c r="F18" s="7" t="n"/>
       <c r="G18" s="8" t="n"/>
       <c r="K18" s="2">
@@ -8352,10 +9336,18 @@
       <c r="A20" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="n"/>
-      <c r="C20" s="6" t="n"/>
-      <c r="D20" s="6" t="n"/>
-      <c r="E20" s="6" t="n"/>
+      <c r="B20" s="6" t="n">
+        <v>0.3597222222222222</v>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>0.6145833333333334</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>0.6583333333333333</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>0.6854166666666667</v>
+      </c>
       <c r="F20" s="7" t="n"/>
       <c r="G20" s="8" t="n"/>
       <c r="K20" s="2">
@@ -8398,10 +9390,18 @@
       <c r="A22" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="n"/>
-      <c r="C22" s="6" t="n"/>
-      <c r="D22" s="6" t="n"/>
-      <c r="E22" s="6" t="n"/>
+      <c r="B22" s="6" t="n">
+        <v>0.3513888888888889</v>
+      </c>
+      <c r="C22" s="6" t="n">
+        <v>0.5944444444444444</v>
+      </c>
+      <c r="D22" s="6" t="n">
+        <v>0.6347222222222222</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>0.6888888888888889</v>
+      </c>
       <c r="F22" s="7" t="n"/>
       <c r="G22" s="8" t="n"/>
       <c r="K22" s="2">
@@ -8421,10 +9421,18 @@
       <c r="A23" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="n"/>
-      <c r="C23" s="6" t="n"/>
-      <c r="D23" s="6" t="n"/>
-      <c r="E23" s="6" t="n"/>
+      <c r="B23" s="6" t="n">
+        <v>0.3451388888888889</v>
+      </c>
+      <c r="C23" s="6" t="n">
+        <v>0.5472222222222223</v>
+      </c>
+      <c r="D23" s="6" t="n">
+        <v>0.5923611111111111</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>0.6819444444444445</v>
+      </c>
       <c r="F23" s="7" t="n"/>
       <c r="G23" s="8" t="n"/>
       <c r="K23" s="2">
@@ -8444,10 +9452,18 @@
       <c r="A24" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="6" t="n"/>
-      <c r="C24" s="6" t="n"/>
-      <c r="D24" s="6" t="n"/>
-      <c r="E24" s="6" t="n"/>
+      <c r="B24" s="6" t="n">
+        <v>0.3527777777777778</v>
+      </c>
+      <c r="C24" s="6" t="n">
+        <v>0.5402777777777777</v>
+      </c>
+      <c r="D24" s="6" t="n">
+        <v>0.5826388888888889</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>0.6555555555555556</v>
+      </c>
       <c r="F24" s="7" t="n"/>
       <c r="G24" s="8" t="n"/>
       <c r="K24" s="2">
@@ -8467,10 +9483,18 @@
       <c r="A25" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="6" t="n"/>
-      <c r="C25" s="6" t="n"/>
-      <c r="D25" s="6" t="n"/>
-      <c r="E25" s="6" t="n"/>
+      <c r="B25" s="6" t="n">
+        <v>0.3597222222222222</v>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.59375</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.7097222222222223</v>
+      </c>
       <c r="F25" s="7" t="n"/>
       <c r="G25" s="8" t="n"/>
       <c r="K25" s="2">
@@ -8490,10 +9514,18 @@
       <c r="A26" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="6" t="n"/>
-      <c r="C26" s="6" t="n"/>
-      <c r="D26" s="6" t="n"/>
-      <c r="E26" s="6" t="n"/>
+      <c r="B26" s="6" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>0.54375</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>0.9152777777777777</v>
+      </c>
       <c r="F26" s="7" t="n"/>
       <c r="G26" s="8" t="n"/>
       <c r="K26" s="2">
@@ -8513,10 +9545,18 @@
       <c r="A27" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="6" t="n"/>
-      <c r="C27" s="6" t="n"/>
-      <c r="D27" s="6" t="n"/>
-      <c r="E27" s="6" t="n"/>
+      <c r="B27" s="6" t="n">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.6166666666666667</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.6625</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.6868055555555556</v>
+      </c>
       <c r="F27" s="7" t="n"/>
       <c r="G27" s="8" t="n"/>
       <c r="K27" s="2">
@@ -8559,10 +9599,18 @@
       <c r="A29" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="6" t="n"/>
-      <c r="C29" s="6" t="n"/>
-      <c r="D29" s="6" t="n"/>
-      <c r="E29" s="12" t="n"/>
+      <c r="B29" s="6" t="n">
+        <v>0.3236111111111111</v>
+      </c>
+      <c r="C29" s="6" t="n">
+        <v>0.6145833333333334</v>
+      </c>
+      <c r="D29" s="6" t="n">
+        <v>0.6590277777777778</v>
+      </c>
+      <c r="E29" s="12" t="n">
+        <v>0.68125</v>
+      </c>
       <c r="F29" s="7" t="n"/>
       <c r="G29" s="8" t="n"/>
       <c r="K29" s="2">
@@ -8582,10 +9630,18 @@
       <c r="A30" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="6" t="n"/>
-      <c r="C30" s="6" t="n"/>
-      <c r="D30" s="6" t="n"/>
-      <c r="E30" s="6" t="n"/>
+      <c r="B30" s="6" t="n">
+        <v>0.3451388888888889</v>
+      </c>
+      <c r="C30" s="6" t="n">
+        <v>0.5569444444444445</v>
+      </c>
+      <c r="D30" s="6" t="n">
+        <v>0.5972222222222222</v>
+      </c>
+      <c r="E30" s="6" t="n">
+        <v>0.68125</v>
+      </c>
       <c r="F30" s="7" t="n"/>
       <c r="G30" s="8" t="n"/>
       <c r="K30" s="2">
@@ -8605,10 +9661,18 @@
       <c r="A31" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="6" t="n"/>
-      <c r="C31" s="6" t="n"/>
-      <c r="D31" s="6" t="n"/>
-      <c r="E31" s="6" t="n"/>
+      <c r="B31" s="6" t="n">
+        <v>0.3354166666666666</v>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>0.5465277777777777</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>0.5895833333333333</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>0.6784722222222223</v>
+      </c>
       <c r="F31" s="7" t="n"/>
       <c r="G31" s="8" t="n"/>
       <c r="K31" s="2">
@@ -8628,10 +9692,18 @@
       <c r="A32" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="6" t="n"/>
-      <c r="C32" s="6" t="n"/>
-      <c r="D32" s="6" t="n"/>
-      <c r="E32" s="6" t="n"/>
+      <c r="B32" s="6" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>0.5979166666666667</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>0.6354166666666666</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>0.71875</v>
+      </c>
       <c r="F32" s="7" t="n"/>
       <c r="G32" s="8" t="n"/>
       <c r="K32" s="2">
@@ -8772,10 +9844,18 @@
       <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="n"/>
-      <c r="C2" s="6" t="n"/>
-      <c r="D2" s="6" t="n"/>
-      <c r="E2" s="6" t="n"/>
+      <c r="B2" s="6" t="n">
+        <v>0.6083333333333333</v>
+      </c>
+      <c r="C2" s="6" t="n">
+        <v>0.7131944444444445</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>0.7479166666666667</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>0.9201388888888888</v>
+      </c>
       <c r="F2" s="7" t="n"/>
       <c r="G2" s="8" t="n"/>
       <c r="K2" s="2">
@@ -8948,10 +10028,18 @@
       <c r="A8" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="n"/>
-      <c r="C8" s="6" t="n"/>
-      <c r="D8" s="6" t="n"/>
-      <c r="E8" s="6" t="n"/>
+      <c r="B8" s="6" t="n">
+        <v>0.6027777777777777</v>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>0.7090277777777778</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>0.7465277777777778</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>0.9229166666666667</v>
+      </c>
       <c r="F8" s="7" t="n"/>
       <c r="G8" s="8" t="n"/>
       <c r="K8" s="2">
@@ -8980,10 +10068,18 @@
       <c r="A9" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="n"/>
-      <c r="C9" s="6" t="n"/>
-      <c r="D9" s="6" t="n"/>
-      <c r="E9" s="6" t="n"/>
+      <c r="B9" s="6" t="n">
+        <v>0.6013888888888889</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.7493055555555556</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.9222222222222223</v>
+      </c>
       <c r="F9" s="7" t="n"/>
       <c r="G9" s="8" t="n"/>
       <c r="K9" s="2">
@@ -9031,10 +10127,18 @@
       <c r="A11" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="n"/>
-      <c r="C11" s="6" t="n"/>
-      <c r="D11" s="6" t="n"/>
-      <c r="E11" s="6" t="n"/>
+      <c r="B11" s="6" t="n">
+        <v>0.5993055555555555</v>
+      </c>
+      <c r="C11" s="6" t="n">
+        <v>0.7090277777777778</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>0.7513888888888889</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>0.9194444444444444</v>
+      </c>
       <c r="F11" s="7" t="n"/>
       <c r="G11" s="8" t="n"/>
       <c r="K11" s="2">
@@ -9100,10 +10204,18 @@
       <c r="A14" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="n"/>
-      <c r="C14" s="6" t="n"/>
-      <c r="D14" s="6" t="n"/>
-      <c r="E14" s="6" t="n"/>
+      <c r="B14" s="6" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>0.7090277777777778</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>0.7444444444444445</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>0.9201388888888888</v>
+      </c>
       <c r="F14" s="7" t="n"/>
       <c r="G14" s="8" t="n"/>
       <c r="K14" s="2">
@@ -9123,10 +10235,18 @@
       <c r="A15" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="n"/>
-      <c r="C15" s="6" t="n"/>
-      <c r="D15" s="6" t="n"/>
-      <c r="E15" s="6" t="n"/>
+      <c r="B15" s="6" t="n">
+        <v>0.6048611111111111</v>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.7090277777777778</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.7465277777777778</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.925</v>
+      </c>
       <c r="F15" s="7" t="n"/>
       <c r="G15" s="8" t="n"/>
       <c r="K15" s="2">
@@ -9146,10 +10266,18 @@
       <c r="A16" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="n"/>
-      <c r="C16" s="6" t="n"/>
-      <c r="D16" s="6" t="n"/>
-      <c r="E16" s="6" t="n"/>
+      <c r="B16" s="6" t="n">
+        <v>0.6048611111111111</v>
+      </c>
+      <c r="C16" s="6" t="n">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>0.7465277777777778</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>0.9201388888888888</v>
+      </c>
       <c r="F16" s="7" t="n"/>
       <c r="G16" s="8" t="n"/>
       <c r="K16" s="2">
@@ -9169,10 +10297,18 @@
       <c r="A17" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="n"/>
-      <c r="C17" s="6" t="n"/>
-      <c r="D17" s="6" t="n"/>
-      <c r="E17" s="6" t="n"/>
+      <c r="B17" s="6" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+      <c r="C17" s="6" t="n">
+        <v>0.7097222222222223</v>
+      </c>
+      <c r="D17" s="6" t="n">
+        <v>0.7513888888888889</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>0.9201388888888888</v>
+      </c>
       <c r="F17" s="7" t="n"/>
       <c r="G17" s="8" t="n"/>
       <c r="K17" s="2">
@@ -9192,10 +10328,18 @@
       <c r="A18" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="n"/>
-      <c r="C18" s="6" t="n"/>
-      <c r="D18" s="6" t="n"/>
-      <c r="E18" s="6" t="n"/>
+      <c r="B18" s="6" t="n">
+        <v>0.6055555555555555</v>
+      </c>
+      <c r="C18" s="6" t="n">
+        <v>0.6701388888888888</v>
+      </c>
+      <c r="D18" s="6" t="n">
+        <v>0.7118055555555556</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>0.9222222222222223</v>
+      </c>
       <c r="F18" s="7" t="n"/>
       <c r="G18" s="8" t="n"/>
       <c r="K18" s="2">
@@ -9215,10 +10359,18 @@
       <c r="A19" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="n"/>
-      <c r="C19" s="6" t="n"/>
-      <c r="D19" s="6" t="n"/>
-      <c r="E19" s="6" t="n"/>
+      <c r="B19" s="6" t="n">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0.4972222222222222</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.5381944444444444</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.91875</v>
+      </c>
       <c r="F19" s="7" t="n"/>
       <c r="G19" s="8" t="n"/>
       <c r="K19" s="2">
@@ -9261,10 +10413,18 @@
       <c r="A21" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="n"/>
-      <c r="C21" s="6" t="n"/>
-      <c r="D21" s="6" t="n"/>
-      <c r="E21" s="6" t="n"/>
+      <c r="B21" s="6" t="n">
+        <v>0.6048611111111111</v>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.7104166666666667</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.7444444444444445</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.9215277777777777</v>
+      </c>
       <c r="F21" s="7" t="n"/>
       <c r="G21" s="8" t="n"/>
       <c r="K21" s="2">
@@ -9284,10 +10444,18 @@
       <c r="A22" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="n"/>
-      <c r="C22" s="6" t="n"/>
-      <c r="D22" s="6" t="n"/>
-      <c r="E22" s="6" t="n"/>
+      <c r="B22" s="6" t="n">
+        <v>0.6048611111111111</v>
+      </c>
+      <c r="C22" s="6" t="n">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="D22" s="6" t="n">
+        <v>0.7479166666666667</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>0.9201388888888888</v>
+      </c>
       <c r="F22" s="7" t="n"/>
       <c r="G22" s="8" t="n"/>
       <c r="K22" s="2">
@@ -9307,10 +10475,18 @@
       <c r="A23" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="n"/>
-      <c r="C23" s="6" t="n"/>
-      <c r="D23" s="6" t="n"/>
-      <c r="E23" s="6" t="n"/>
+      <c r="B23" s="6" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+      <c r="C23" s="6" t="n">
+        <v>0.7090277777777778</v>
+      </c>
+      <c r="D23" s="6" t="n">
+        <v>0.7493055555555556</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>0.9166666666666666</v>
+      </c>
       <c r="F23" s="7" t="n"/>
       <c r="G23" s="8" t="n"/>
       <c r="K23" s="2">
@@ -9330,10 +10506,18 @@
       <c r="A24" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="6" t="n"/>
-      <c r="C24" s="6" t="n"/>
-      <c r="D24" s="6" t="n"/>
-      <c r="E24" s="6" t="n"/>
+      <c r="B24" s="6" t="n">
+        <v>0.4993055555555556</v>
+      </c>
+      <c r="C24" s="6" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="D24" s="6" t="n">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>0.8319444444444445</v>
+      </c>
       <c r="F24" s="7" t="n"/>
       <c r="G24" s="8" t="n"/>
       <c r="K24" s="2">
@@ -9353,10 +10537,18 @@
       <c r="A25" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="6" t="n"/>
-      <c r="C25" s="6" t="n"/>
-      <c r="D25" s="6" t="n"/>
-      <c r="E25" s="6" t="n"/>
+      <c r="B25" s="6" t="n">
+        <v>0.6048611111111111</v>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.66875</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.9166666666666666</v>
+      </c>
       <c r="F25" s="7" t="n"/>
       <c r="G25" s="8" t="n"/>
       <c r="K25" s="2">
@@ -9376,10 +10568,18 @@
       <c r="A26" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="6" t="n"/>
-      <c r="C26" s="6" t="n"/>
-      <c r="D26" s="6" t="n"/>
-      <c r="E26" s="6" t="n"/>
+      <c r="B26" s="6" t="n">
+        <v>0.4145833333333334</v>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>0.5006944444444444</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>0.9166666666666666</v>
+      </c>
       <c r="F26" s="7" t="n"/>
       <c r="G26" s="8" t="n"/>
       <c r="K26" s="2">
@@ -9422,10 +10622,18 @@
       <c r="A28" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="6" t="n"/>
-      <c r="C28" s="6" t="n"/>
-      <c r="D28" s="6" t="n"/>
-      <c r="E28" s="6" t="n"/>
+      <c r="B28" s="6" t="n">
+        <v>0.3138888888888889</v>
+      </c>
+      <c r="C28" s="6" t="n">
+        <v>0.6020833333333333</v>
+      </c>
+      <c r="D28" s="6" t="n">
+        <v>0.6402777777777777</v>
+      </c>
+      <c r="E28" s="6" t="n">
+        <v>0.66875</v>
+      </c>
       <c r="F28" s="7" t="n"/>
       <c r="G28" s="8" t="n"/>
       <c r="K28" s="2">
@@ -9445,10 +10653,18 @@
       <c r="A29" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="6" t="n"/>
-      <c r="C29" s="6" t="n"/>
-      <c r="D29" s="6" t="n"/>
-      <c r="E29" s="6" t="n"/>
+      <c r="B29" s="6" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+      <c r="C29" s="6" t="n">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="D29" s="6" t="n">
+        <v>0.7486111111111111</v>
+      </c>
+      <c r="E29" s="6" t="n">
+        <v>0.9194444444444444</v>
+      </c>
       <c r="F29" s="7" t="n"/>
       <c r="G29" s="8" t="n"/>
       <c r="K29" s="2">
@@ -9468,10 +10684,18 @@
       <c r="A30" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="6" t="n"/>
-      <c r="C30" s="6" t="n"/>
-      <c r="D30" s="6" t="n"/>
-      <c r="E30" s="6" t="n"/>
+      <c r="B30" s="6" t="n">
+        <v>0.6048611111111111</v>
+      </c>
+      <c r="C30" s="6" t="n">
+        <v>0.7069444444444445</v>
+      </c>
+      <c r="D30" s="6" t="n">
+        <v>0.7486111111111111</v>
+      </c>
+      <c r="E30" s="6" t="n">
+        <v>0.9208333333333333</v>
+      </c>
       <c r="F30" s="7" t="n"/>
       <c r="G30" s="8" t="n"/>
       <c r="K30" s="2">
@@ -9491,10 +10715,18 @@
       <c r="A31" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="6" t="n"/>
-      <c r="C31" s="6" t="n"/>
-      <c r="D31" s="6" t="n"/>
-      <c r="E31" s="6" t="n"/>
+      <c r="B31" s="6" t="n">
+        <v>0.6076388888888888</v>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>0.7055555555555556</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>0.7472222222222222</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>0.9166666666666666</v>
+      </c>
       <c r="F31" s="7" t="n"/>
       <c r="G31" s="8" t="n"/>
       <c r="K31" s="2">
@@ -9514,10 +10746,18 @@
       <c r="A32" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="6" t="n"/>
-      <c r="C32" s="6" t="n"/>
-      <c r="D32" s="6" t="n"/>
-      <c r="E32" s="6" t="n"/>
+      <c r="B32" s="6" t="n">
+        <v>0.5048611111111111</v>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>0.6361111111111111</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>0.6652777777777777</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>0.8270833333333333</v>
+      </c>
       <c r="F32" s="7" t="n"/>
       <c r="G32" s="8" t="n"/>
       <c r="K32" s="2">
@@ -10544,10 +11784,18 @@
       <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="n"/>
-      <c r="C2" s="6" t="n"/>
-      <c r="D2" s="6" t="n"/>
-      <c r="E2" s="6" t="n"/>
+      <c r="B2" s="6" t="n">
+        <v>0.4145833333333334</v>
+      </c>
+      <c r="C2" s="6" t="n">
+        <v>0.5041666666666667</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>0.5493055555555556</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>0.6888888888888889</v>
+      </c>
       <c r="F2" s="7" t="n"/>
       <c r="G2" s="8" t="n"/>
       <c r="K2" s="2">
@@ -10577,10 +11825,18 @@
       <c r="A3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="n"/>
-      <c r="C3" s="6" t="n"/>
-      <c r="D3" s="6" t="n"/>
-      <c r="E3" s="6" t="n"/>
+      <c r="B3" s="6" t="n">
+        <v>0.41875</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>0.5361111111111111</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>0.5770833333333333</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>0.6916666666666667</v>
+      </c>
       <c r="F3" s="7" t="n"/>
       <c r="G3" s="8" t="n"/>
       <c r="K3" s="2">
@@ -10609,10 +11865,18 @@
       <c r="A4" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="n"/>
-      <c r="C4" s="6" t="n"/>
-      <c r="D4" s="6" t="n"/>
-      <c r="E4" s="6" t="n"/>
+      <c r="B4" s="6" t="n">
+        <v>0.4145833333333334</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>0.5201388888888889</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>0.5652777777777778</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.6951388888888889</v>
+      </c>
       <c r="F4" s="7" t="n"/>
       <c r="G4" s="8" t="n"/>
       <c r="K4" s="2">
@@ -10641,10 +11905,18 @@
       <c r="A5" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="n"/>
-      <c r="C5" s="6" t="n"/>
-      <c r="D5" s="6" t="n"/>
-      <c r="E5" s="6" t="n"/>
+      <c r="B5" s="6" t="n">
+        <v>0.5520833333333334</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>0.6326388888888889</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>0.6722222222222223</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>0.7944444444444444</v>
+      </c>
       <c r="F5" s="7" t="n"/>
       <c r="G5" s="8" t="n"/>
       <c r="K5" s="2">
@@ -10696,10 +11968,18 @@
       <c r="A7" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="n"/>
-      <c r="C7" s="6" t="n"/>
-      <c r="D7" s="6" t="n"/>
-      <c r="E7" s="6" t="n"/>
+      <c r="B7" s="6" t="n">
+        <v>0.4229166666666667</v>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.5583333333333333</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.6729166666666667</v>
+      </c>
       <c r="F7" s="7" t="n"/>
       <c r="G7" s="8" t="n"/>
       <c r="K7" s="2">
@@ -10720,10 +12000,18 @@
       <c r="A8" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="n"/>
-      <c r="C8" s="6" t="n"/>
-      <c r="D8" s="6" t="n"/>
-      <c r="E8" s="6" t="n"/>
+      <c r="B8" s="6" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>0.5180555555555556</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>0.5597222222222222</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>0.6861111111111111</v>
+      </c>
       <c r="F8" s="7" t="n"/>
       <c r="G8" s="8" t="n"/>
       <c r="K8" s="2">
@@ -10752,10 +12040,18 @@
       <c r="A9" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="n"/>
-      <c r="C9" s="6" t="n"/>
-      <c r="D9" s="6" t="n"/>
-      <c r="E9" s="6" t="n"/>
+      <c r="B9" s="6" t="n">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.5041666666666667</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.5465277777777777</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.7041666666666667</v>
+      </c>
       <c r="F9" s="7" t="n"/>
       <c r="G9" s="8" t="n"/>
       <c r="K9" s="2">
@@ -10775,10 +12071,18 @@
       <c r="A10" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="n"/>
-      <c r="C10" s="6" t="n"/>
-      <c r="D10" s="6" t="n"/>
-      <c r="E10" s="6" t="n"/>
+      <c r="B10" s="6" t="n">
+        <v>0.3951388888888889</v>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>0.5486111111111112</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.6895833333333333</v>
+      </c>
       <c r="F10" s="7" t="n"/>
       <c r="G10" s="8" t="n"/>
       <c r="K10" s="2">
@@ -10803,10 +12107,18 @@
       <c r="A11" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="n"/>
-      <c r="C11" s="6" t="n"/>
-      <c r="D11" s="6" t="n"/>
-      <c r="E11" s="6" t="n"/>
+      <c r="B11" s="6" t="n">
+        <v>0.4131944444444444</v>
+      </c>
+      <c r="C11" s="6" t="n">
+        <v>0.5125</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>0.5541666666666667</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="F11" s="7" t="n"/>
       <c r="G11" s="8" t="n"/>
       <c r="K11" s="2">
@@ -10872,10 +12184,18 @@
       <c r="A14" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="n"/>
-      <c r="C14" s="6" t="n"/>
-      <c r="D14" s="6" t="n"/>
-      <c r="E14" s="6" t="n"/>
+      <c r="B14" s="6" t="n">
+        <v>0.4277777777777778</v>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>0.5138888888888888</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>0.5548611111111111</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>0.6826388888888889</v>
+      </c>
       <c r="F14" s="7" t="n"/>
       <c r="G14" s="8" t="n"/>
       <c r="K14" s="2">
@@ -10895,10 +12215,18 @@
       <c r="A15" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="n"/>
-      <c r="C15" s="6" t="n"/>
-      <c r="D15" s="6" t="n"/>
-      <c r="E15" s="6" t="n"/>
+      <c r="B15" s="6" t="n">
+        <v>0.4180555555555556</v>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.5527777777777778</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.6854166666666667</v>
+      </c>
       <c r="F15" s="7" t="n"/>
       <c r="G15" s="8" t="n"/>
       <c r="K15" s="2">
@@ -10918,10 +12246,18 @@
       <c r="A16" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="n"/>
-      <c r="C16" s="6" t="n"/>
-      <c r="D16" s="6" t="n"/>
-      <c r="E16" s="6" t="n"/>
+      <c r="B16" s="6" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="C16" s="6" t="n">
+        <v>0.5041666666666667</v>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>0.5465277777777777</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>0.6805555555555556</v>
+      </c>
       <c r="F16" s="7" t="n"/>
       <c r="G16" s="8" t="n"/>
       <c r="K16" s="2">
@@ -10941,10 +12277,18 @@
       <c r="A17" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="n"/>
-      <c r="C17" s="6" t="n"/>
-      <c r="D17" s="6" t="n"/>
-      <c r="E17" s="6" t="n"/>
+      <c r="B17" s="6" t="n">
+        <v>0.4111111111111111</v>
+      </c>
+      <c r="C17" s="6" t="n">
+        <v>0.5173611111111112</v>
+      </c>
+      <c r="D17" s="6" t="n">
+        <v>0.5576388888888889</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>0.6784722222222223</v>
+      </c>
       <c r="F17" s="7" t="n"/>
       <c r="G17" s="8" t="n"/>
       <c r="K17" s="2">
@@ -10964,10 +12308,18 @@
       <c r="A18" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="n"/>
-      <c r="C18" s="6" t="n"/>
-      <c r="D18" s="6" t="n"/>
-      <c r="E18" s="6" t="n"/>
+      <c r="B18" s="6" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="C18" s="6" t="n">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="D18" s="6" t="n">
+        <v>0.5548611111111111</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>0.6895833333333333</v>
+      </c>
       <c r="F18" s="7" t="n"/>
       <c r="G18" s="8" t="n"/>
       <c r="K18" s="2">
@@ -10987,10 +12339,18 @@
       <c r="A19" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="n"/>
-      <c r="C19" s="6" t="n"/>
-      <c r="D19" s="6" t="n"/>
-      <c r="E19" s="6" t="n"/>
+      <c r="B19" s="6" t="n">
+        <v>0.5444444444444444</v>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0.6375</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.6736111111111112</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.8013888888888889</v>
+      </c>
       <c r="F19" s="7" t="n"/>
       <c r="G19" s="8" t="n"/>
       <c r="K19" s="2">
@@ -11033,10 +12393,18 @@
       <c r="A21" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="n"/>
-      <c r="C21" s="6" t="n"/>
-      <c r="D21" s="6" t="n"/>
-      <c r="E21" s="6" t="n"/>
+      <c r="B21" s="6" t="n">
+        <v>0.4159722222222222</v>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.50625</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.5479166666666667</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.6729166666666667</v>
+      </c>
       <c r="F21" s="7" t="n"/>
       <c r="G21" s="8" t="n"/>
       <c r="K21" s="2">
@@ -11056,10 +12424,18 @@
       <c r="A22" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="n"/>
-      <c r="C22" s="6" t="n"/>
-      <c r="D22" s="6" t="n"/>
-      <c r="E22" s="6" t="n"/>
+      <c r="B22" s="6" t="n">
+        <v>0.4145833333333334</v>
+      </c>
+      <c r="C22" s="6" t="n">
+        <v>0.5222222222222223</v>
+      </c>
+      <c r="D22" s="6" t="n">
+        <v>0.5666666666666667</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>0.6861111111111111</v>
+      </c>
       <c r="F22" s="7" t="n"/>
       <c r="G22" s="8" t="n"/>
       <c r="K22" s="2">
@@ -11079,10 +12455,18 @@
       <c r="A23" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="n"/>
-      <c r="C23" s="6" t="n"/>
-      <c r="D23" s="6" t="n"/>
-      <c r="E23" s="6" t="n"/>
+      <c r="B23" s="6" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="C23" s="6" t="n">
+        <v>0.53125</v>
+      </c>
+      <c r="D23" s="6" t="n">
+        <v>0.5743055555555555</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>0.6826388888888889</v>
+      </c>
       <c r="F23" s="7" t="n"/>
       <c r="G23" s="8" t="n"/>
       <c r="K23" s="2">
@@ -11102,10 +12486,18 @@
       <c r="A24" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="6" t="n"/>
-      <c r="C24" s="6" t="n"/>
-      <c r="D24" s="6" t="n"/>
-      <c r="E24" s="6" t="n"/>
+      <c r="B24" s="6" t="n">
+        <v>0.4222222222222222</v>
+      </c>
+      <c r="C24" s="6" t="n">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="D24" s="6" t="n">
+        <v>0.5534722222222223</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>0.6701388888888888</v>
+      </c>
       <c r="F24" s="7" t="n"/>
       <c r="G24" s="8" t="n"/>
       <c r="K24" s="2">
@@ -11125,10 +12517,18 @@
       <c r="A25" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="6" t="n"/>
-      <c r="C25" s="6" t="n"/>
-      <c r="D25" s="6" t="n"/>
-      <c r="E25" s="6" t="n"/>
+      <c r="B25" s="6" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.5243055555555556</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.5673611111111111</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.6652777777777777</v>
+      </c>
       <c r="F25" s="7" t="n"/>
       <c r="G25" s="8" t="n"/>
       <c r="K25" s="2">
@@ -11148,10 +12548,18 @@
       <c r="A26" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="6" t="n"/>
-      <c r="C26" s="6" t="n"/>
-      <c r="D26" s="6" t="n"/>
-      <c r="E26" s="6" t="n"/>
+      <c r="B26" s="6" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>0.6958333333333333</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>0.7347222222222223</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>0.7951388888888888</v>
+      </c>
       <c r="F26" s="7" t="n"/>
       <c r="G26" s="8" t="n"/>
       <c r="K26" s="2">
@@ -11194,10 +12602,18 @@
       <c r="A28" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="6" t="n"/>
-      <c r="C28" s="6" t="n"/>
-      <c r="D28" s="6" t="n"/>
-      <c r="E28" s="6" t="n"/>
+      <c r="B28" s="6" t="n">
+        <v>0.4145833333333334</v>
+      </c>
+      <c r="C28" s="6" t="n">
+        <v>0.5020833333333333</v>
+      </c>
+      <c r="D28" s="6" t="n">
+        <v>0.4659722222222222</v>
+      </c>
+      <c r="E28" s="6" t="n">
+        <v>0.6784722222222223</v>
+      </c>
       <c r="F28" s="7" t="n"/>
       <c r="G28" s="8" t="n"/>
       <c r="K28" s="2">
@@ -11217,10 +12633,18 @@
       <c r="A29" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="6" t="n"/>
-      <c r="C29" s="6" t="n"/>
-      <c r="D29" s="6" t="n"/>
-      <c r="E29" s="6" t="n"/>
+      <c r="B29" s="6" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="C29" s="6" t="n">
+        <v>0.5131944444444444</v>
+      </c>
+      <c r="D29" s="6" t="n">
+        <v>0.5520833333333334</v>
+      </c>
+      <c r="E29" s="6" t="n">
+        <v>0.6784722222222223</v>
+      </c>
       <c r="F29" s="7" t="n"/>
       <c r="G29" s="8" t="n"/>
       <c r="K29" s="2">
@@ -11240,10 +12664,18 @@
       <c r="A30" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="6" t="n"/>
-      <c r="C30" s="6" t="n"/>
-      <c r="D30" s="6" t="n"/>
-      <c r="E30" s="6" t="n"/>
+      <c r="B30" s="6" t="n">
+        <v>0.4090277777777778</v>
+      </c>
+      <c r="C30" s="6" t="n">
+        <v>0.5076388888888889</v>
+      </c>
+      <c r="D30" s="6" t="n">
+        <v>0.5513888888888889</v>
+      </c>
+      <c r="E30" s="6" t="n">
+        <v>0.6694444444444444</v>
+      </c>
       <c r="F30" s="7" t="n"/>
       <c r="G30" s="8" t="inlineStr">
         <is>
@@ -11267,10 +12699,18 @@
       <c r="A31" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="6" t="n"/>
-      <c r="C31" s="6" t="n"/>
-      <c r="D31" s="6" t="n"/>
-      <c r="E31" s="6" t="n"/>
+      <c r="B31" s="6" t="n">
+        <v>0.4229166666666667</v>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>0.5222222222222223</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>0.5638888888888889</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>0.6673611111111111</v>
+      </c>
       <c r="F31" s="7" t="n"/>
       <c r="G31" s="8" t="inlineStr">
         <is>
@@ -11294,10 +12734,18 @@
       <c r="A32" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="6" t="n"/>
-      <c r="C32" s="6" t="n"/>
-      <c r="D32" s="6" t="n"/>
-      <c r="E32" s="6" t="n"/>
+      <c r="B32" s="6" t="n">
+        <v>0.4173611111111111</v>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>0.5201388888888889</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>0.5611111111111111</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>0.6479166666666667</v>
+      </c>
       <c r="F32" s="7" t="n"/>
       <c r="G32" s="8" t="inlineStr">
         <is>
@@ -11366,8 +12814,8 @@
   </sheetPr>
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
@@ -11441,10 +12889,18 @@
       <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="n"/>
-      <c r="C2" s="6" t="n"/>
-      <c r="D2" s="6" t="n"/>
-      <c r="E2" s="6" t="n"/>
+      <c r="B2" s="6" t="n">
+        <v>0.6006944444444444</v>
+      </c>
+      <c r="C2" s="6" t="n">
+        <v>0.6625</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>0.7097222222222223</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>0.9284722222222223</v>
+      </c>
       <c r="F2" s="7" t="n"/>
       <c r="G2" s="8" t="n"/>
       <c r="K2" s="2">
@@ -11475,16 +12931,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="n">
-        <v>0.6111111111111112</v>
+        <v>0.6131944444444445</v>
       </c>
       <c r="C3" s="6" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.6638888888888889</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>0.7638888888888888</v>
+        <v>0.7118055555555556</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>0.93125</v>
+        <v>0.9284722222222223</v>
       </c>
       <c r="F3" s="7" t="n"/>
       <c r="G3" s="8" t="n"/>
@@ -11515,16 +12971,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="n">
-        <v>0.6111111111111112</v>
+        <v>0.6131944444444445</v>
       </c>
       <c r="C4" s="6" t="n">
-        <v>0.7645833333333333</v>
+        <v>0.6645833333333333</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.8041666666666667</v>
+        <v>0.7069444444444445</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0.9284722222222223</v>
+        <v>0.9263888888888889</v>
       </c>
       <c r="F4" s="7" t="n"/>
       <c r="G4" s="8" t="n"/>
@@ -11586,16 +13042,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="n">
-        <v>0.5</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="C6" s="6" t="n">
-        <v>0.66875</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>0.7118055555555556</v>
+        <v>0.7055555555555556</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.8388888888888889</v>
+        <v>0.93125</v>
       </c>
       <c r="F6" s="7" t="n"/>
       <c r="G6" s="8" t="n"/>
@@ -11625,10 +13081,18 @@
       <c r="A7" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="n"/>
-      <c r="C7" s="6" t="n"/>
-      <c r="D7" s="6" t="n"/>
-      <c r="E7" s="6" t="n"/>
+      <c r="B7" s="6" t="n">
+        <v>0.6194444444444445</v>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.6743055555555556</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.71875</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.9236111111111112</v>
+      </c>
       <c r="F7" s="7" t="n"/>
       <c r="G7" s="8" t="n"/>
       <c r="K7" s="2">
@@ -11650,16 +13114,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.63125</v>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.6041666666666666</v>
+        <v>0.7152777777777778</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.6451388888888889</v>
+        <v>0.7569444444444444</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.9326388888888889</v>
+        <v>0.9340277777777778</v>
       </c>
       <c r="F8" s="7" t="n"/>
       <c r="G8" s="8" t="n"/>
@@ -11689,10 +13153,18 @@
       <c r="A9" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="n"/>
-      <c r="C9" s="6" t="n"/>
-      <c r="D9" s="6" t="n"/>
-      <c r="E9" s="6" t="n"/>
+      <c r="B9" s="6" t="n">
+        <v>0.6104166666666667</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.6645833333333333</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.70625</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.9326388888888889</v>
+      </c>
       <c r="F9" s="7" t="n"/>
       <c r="G9" s="8" t="n"/>
       <c r="K9" s="2">
@@ -11712,10 +13184,18 @@
       <c r="A10" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="n"/>
-      <c r="C10" s="6" t="n"/>
-      <c r="D10" s="6" t="n"/>
-      <c r="E10" s="6" t="n"/>
+      <c r="B10" s="6" t="n">
+        <v>0.6097222222222223</v>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.9319444444444445</v>
+      </c>
       <c r="F10" s="7" t="n"/>
       <c r="G10" s="8" t="n"/>
       <c r="K10" s="2">
@@ -11740,10 +13220,18 @@
       <c r="A11" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="n"/>
-      <c r="C11" s="6" t="n"/>
-      <c r="D11" s="6" t="n"/>
-      <c r="E11" s="6" t="n"/>
+      <c r="B11" s="6" t="n">
+        <v>0.6173611111111111</v>
+      </c>
+      <c r="C11" s="6" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>0.9270833333333334</v>
+      </c>
       <c r="F11" s="7" t="n"/>
       <c r="G11" s="8" t="n"/>
       <c r="K11" s="2">
@@ -11786,10 +13274,18 @@
       <c r="A13" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="n"/>
-      <c r="C13" s="6" t="n"/>
-      <c r="D13" s="6" t="n"/>
-      <c r="E13" s="6" t="n"/>
+      <c r="B13" s="6" t="n">
+        <v>0.59375</v>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.66875</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>0.7104166666666667</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.93125</v>
+      </c>
       <c r="F13" s="7" t="n"/>
       <c r="G13" s="8" t="n"/>
       <c r="K13" s="2">
@@ -11855,10 +13351,18 @@
       <c r="A16" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="n"/>
-      <c r="C16" s="6" t="n"/>
-      <c r="D16" s="6" t="n"/>
-      <c r="E16" s="6" t="n"/>
+      <c r="B16" s="6" t="n">
+        <v>0.6076388888888888</v>
+      </c>
+      <c r="C16" s="6" t="n">
+        <v>0.6618055555555555</v>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>0.7027777777777777</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>0.9333333333333333</v>
+      </c>
       <c r="F16" s="7" t="n"/>
       <c r="G16" s="8" t="n"/>
       <c r="K16" s="2">
@@ -11878,10 +13382,18 @@
       <c r="A17" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="n"/>
-      <c r="C17" s="6" t="n"/>
-      <c r="D17" s="6" t="n"/>
-      <c r="E17" s="6" t="n"/>
+      <c r="B17" s="6" t="n">
+        <v>0.6145833333333334</v>
+      </c>
+      <c r="C17" s="6" t="n">
+        <v>0.6659722222222222</v>
+      </c>
+      <c r="D17" s="6" t="n">
+        <v>0.70625</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>0.9319444444444445</v>
+      </c>
       <c r="F17" s="7" t="n"/>
       <c r="G17" s="8" t="n"/>
       <c r="K17" s="2">
@@ -11901,10 +13413,18 @@
       <c r="A18" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="n"/>
-      <c r="C18" s="6" t="n"/>
-      <c r="D18" s="6" t="n"/>
-      <c r="E18" s="6" t="n"/>
+      <c r="B18" s="6" t="n">
+        <v>0.6159722222222223</v>
+      </c>
+      <c r="C18" s="6" t="n">
+        <v>0.6673611111111111</v>
+      </c>
+      <c r="D18" s="6" t="n">
+        <v>0.7076388888888889</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>0.9333333333333333</v>
+      </c>
       <c r="F18" s="7" t="n"/>
       <c r="G18" s="8" t="n"/>
       <c r="K18" s="2">
@@ -11924,10 +13444,18 @@
       <c r="A19" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="n"/>
-      <c r="C19" s="6" t="n"/>
-      <c r="D19" s="6" t="n"/>
-      <c r="E19" s="6" t="n"/>
+      <c r="B19" s="6" t="n">
+        <v>0.4173611111111111</v>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.5729166666666666</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.7743055555555556</v>
+      </c>
       <c r="F19" s="7" t="n"/>
       <c r="G19" s="8" t="n"/>
       <c r="K19" s="2">
@@ -12275,7 +13803,7 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="1" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="1" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1"/>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation sqref="G2:G32" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"FOLGA,ATESTADO,FALTA,DOBRA,DOMINGO,NÃO EXISTE"</formula1>
     </dataValidation>
@@ -14347,10 +15875,18 @@
       <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="n"/>
-      <c r="C2" s="6" t="n"/>
-      <c r="D2" s="6" t="n"/>
-      <c r="E2" s="6" t="n"/>
+      <c r="B2" s="6" t="n">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="C2" s="6" t="n">
+        <v>0.6270833333333333</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>0.6659722222222222</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>0.7930555555555555</v>
+      </c>
       <c r="F2" s="7" t="n"/>
       <c r="G2" s="8" t="n"/>
       <c r="K2" s="2">
@@ -14380,10 +15916,18 @@
       <c r="A3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="n"/>
-      <c r="C3" s="6" t="n"/>
-      <c r="D3" s="6" t="n"/>
-      <c r="E3" s="6" t="n"/>
+      <c r="B3" s="6" t="n">
+        <v>0.6069444444444444</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>0.6597222222222222</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>0.7013888888888888</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>0.9291666666666667</v>
+      </c>
       <c r="F3" s="7" t="n"/>
       <c r="G3" s="8" t="n"/>
       <c r="K3" s="2">
@@ -14412,10 +15956,18 @@
       <c r="A4" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="n"/>
-      <c r="C4" s="6" t="n"/>
-      <c r="D4" s="6" t="n"/>
-      <c r="E4" s="6" t="n"/>
+      <c r="B4" s="6" t="n">
+        <v>0.4222222222222222</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>0.6166666666666667</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>0.6604166666666667</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.7979166666666667</v>
+      </c>
       <c r="F4" s="7" t="n"/>
       <c r="G4" s="8" t="n"/>
       <c r="K4" s="2">
@@ -14499,10 +16051,18 @@
       <c r="A7" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="n"/>
-      <c r="C7" s="6" t="n"/>
-      <c r="D7" s="6" t="n"/>
-      <c r="E7" s="6" t="n"/>
+      <c r="B7" s="6" t="n">
+        <v>0.6055555555555555</v>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.6659722222222222</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.6972222222222222</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.9298611111111111</v>
+      </c>
       <c r="F7" s="7" t="n"/>
       <c r="G7" s="8" t="n"/>
       <c r="K7" s="2">
@@ -14555,10 +16115,18 @@
       <c r="A9" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="n"/>
-      <c r="C9" s="6" t="n"/>
-      <c r="D9" s="6" t="n"/>
-      <c r="E9" s="6" t="n"/>
+      <c r="B9" s="6" t="n">
+        <v>0.5326388888888889</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.6152777777777778</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.6597222222222222</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.8375</v>
+      </c>
       <c r="F9" s="7" t="n"/>
       <c r="G9" s="8" t="n"/>
       <c r="K9" s="2">
@@ -14578,10 +16146,18 @@
       <c r="A10" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="n"/>
-      <c r="C10" s="6" t="n"/>
-      <c r="D10" s="6" t="n"/>
-      <c r="E10" s="6" t="n"/>
+      <c r="B10" s="6" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>0.6201388888888889</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>0.6604166666666667</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.7659722222222223</v>
+      </c>
       <c r="F10" s="7" t="n"/>
       <c r="G10" s="8" t="n"/>
       <c r="K10" s="2">
@@ -14606,10 +16182,18 @@
       <c r="A11" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="n"/>
-      <c r="C11" s="6" t="n"/>
-      <c r="D11" s="6" t="n"/>
-      <c r="E11" s="6" t="n"/>
+      <c r="B11" s="6" t="n">
+        <v>0.6034722222222222</v>
+      </c>
+      <c r="C11" s="6" t="n">
+        <v>0.6729166666666667</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>0.7166666666666667</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>0.925</v>
+      </c>
       <c r="F11" s="7" t="n"/>
       <c r="G11" s="8" t="n"/>
       <c r="K11" s="2">
@@ -14629,10 +16213,18 @@
       <c r="A12" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="n"/>
-      <c r="C12" s="6" t="n"/>
-      <c r="D12" s="6" t="n"/>
-      <c r="E12" s="6" t="n"/>
+      <c r="B12" s="6" t="n">
+        <v>0.3986111111111111</v>
+      </c>
+      <c r="C12" s="6" t="n">
+        <v>0.4986111111111111</v>
+      </c>
+      <c r="D12" s="6" t="n">
+        <v>0.54375</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0.9180555555555555</v>
+      </c>
       <c r="F12" s="7" t="n"/>
       <c r="G12" s="8" t="n"/>
       <c r="K12" s="2">
@@ -14675,10 +16267,18 @@
       <c r="A14" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="n"/>
-      <c r="C14" s="6" t="n"/>
-      <c r="D14" s="6" t="n"/>
-      <c r="E14" s="6" t="n"/>
+      <c r="B14" s="6" t="n">
+        <v>0.6034722222222222</v>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>0.6590277777777778</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>0.7076388888888889</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>0.9291666666666667</v>
+      </c>
       <c r="F14" s="7" t="n"/>
       <c r="G14" s="8" t="n"/>
       <c r="K14" s="2">
@@ -14698,10 +16298,18 @@
       <c r="A15" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="n"/>
-      <c r="C15" s="6" t="n"/>
-      <c r="D15" s="6" t="n"/>
-      <c r="E15" s="6" t="n"/>
+      <c r="B15" s="6" t="n">
+        <v>0.6027777777777777</v>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.6638888888888889</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.6965277777777777</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.9375</v>
+      </c>
       <c r="F15" s="7" t="n"/>
       <c r="G15" s="8" t="n"/>
       <c r="K15" s="2">
@@ -14721,10 +16329,18 @@
       <c r="A16" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="n"/>
-      <c r="C16" s="6" t="n"/>
-      <c r="D16" s="6" t="n"/>
-      <c r="E16" s="6" t="n"/>
+      <c r="B16" s="6" t="n">
+        <v>0.6055555555555555</v>
+      </c>
+      <c r="C16" s="6" t="n">
+        <v>0.6631944444444444</v>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>0.7013888888888888</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>0.9319444444444445</v>
+      </c>
       <c r="F16" s="7" t="n"/>
       <c r="G16" s="8" t="n"/>
       <c r="K16" s="2">
@@ -14744,10 +16360,18 @@
       <c r="A17" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="n"/>
-      <c r="C17" s="6" t="n"/>
-      <c r="D17" s="6" t="n"/>
-      <c r="E17" s="6" t="n"/>
+      <c r="B17" s="6" t="n">
+        <v>0.4229166666666667</v>
+      </c>
+      <c r="C17" s="6" t="n">
+        <v>0.6173611111111111</v>
+      </c>
+      <c r="D17" s="6" t="n">
+        <v>0.6611111111111111</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>0.7868055555555555</v>
+      </c>
       <c r="F17" s="7" t="n"/>
       <c r="G17" s="8" t="n"/>
       <c r="K17" s="2">
@@ -14767,10 +16391,18 @@
       <c r="A18" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="n"/>
-      <c r="C18" s="6" t="n"/>
-      <c r="D18" s="6" t="n"/>
-      <c r="E18" s="6" t="n"/>
+      <c r="B18" s="6" t="n">
+        <v>0.4097222222222222</v>
+      </c>
+      <c r="C18" s="6" t="n">
+        <v>0.6201388888888889</v>
+      </c>
+      <c r="D18" s="6" t="n">
+        <v>0.6618055555555555</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>0.79375</v>
+      </c>
       <c r="F18" s="7" t="n"/>
       <c r="G18" s="8" t="n"/>
       <c r="K18" s="2">
@@ -14836,10 +16468,18 @@
       <c r="A21" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="n"/>
-      <c r="C21" s="6" t="n"/>
-      <c r="D21" s="6" t="n"/>
-      <c r="E21" s="6" t="n"/>
+      <c r="B21" s="6" t="n">
+        <v>0.6090277777777777</v>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.6708333333333333</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.7118055555555556</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.9326388888888889</v>
+      </c>
       <c r="F21" s="7" t="n"/>
       <c r="G21" s="8" t="n"/>
       <c r="K21" s="2">
@@ -14859,10 +16499,18 @@
       <c r="A22" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="n"/>
-      <c r="C22" s="6" t="n"/>
-      <c r="D22" s="6" t="n"/>
-      <c r="E22" s="6" t="n"/>
+      <c r="B22" s="6" t="n">
+        <v>0.6027777777777777</v>
+      </c>
+      <c r="C22" s="6" t="n">
+        <v>0.6555555555555556</v>
+      </c>
+      <c r="D22" s="6" t="n">
+        <v>0.7055555555555556</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>0.9333333333333333</v>
+      </c>
       <c r="F22" s="7" t="n"/>
       <c r="G22" s="8" t="n"/>
       <c r="K22" s="2">
@@ -14882,10 +16530,18 @@
       <c r="A23" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="n"/>
-      <c r="C23" s="6" t="n"/>
-      <c r="D23" s="6" t="n"/>
-      <c r="E23" s="6" t="n"/>
+      <c r="B23" s="6" t="n">
+        <v>0.6013888888888889</v>
+      </c>
+      <c r="C23" s="6" t="n">
+        <v>0.6590277777777778</v>
+      </c>
+      <c r="D23" s="6" t="n">
+        <v>0.7055555555555556</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>0.9326388888888889</v>
+      </c>
       <c r="F23" s="7" t="n"/>
       <c r="G23" s="8" t="n"/>
       <c r="K23" s="2">
@@ -14905,10 +16561,18 @@
       <c r="A24" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="6" t="n"/>
-      <c r="C24" s="6" t="n"/>
-      <c r="D24" s="6" t="n"/>
-      <c r="E24" s="6" t="n"/>
+      <c r="B24" s="6" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="C24" s="6" t="n">
+        <v>0.6111111111111112</v>
+      </c>
+      <c r="D24" s="6" t="n">
+        <v>0.6576388888888889</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>0.7930555555555555</v>
+      </c>
       <c r="F24" s="7" t="n"/>
       <c r="G24" s="8" t="n"/>
       <c r="K24" s="2">
@@ -14928,10 +16592,18 @@
       <c r="A25" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="6" t="n"/>
-      <c r="C25" s="6" t="n"/>
-      <c r="D25" s="6" t="n"/>
-      <c r="E25" s="6" t="n"/>
+      <c r="B25" s="6" t="n">
+        <v>0.4222222222222222</v>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.6222222222222222</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.6645833333333333</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.75625</v>
+      </c>
       <c r="F25" s="7" t="n"/>
       <c r="G25" s="8" t="n"/>
       <c r="K25" s="2">
@@ -14951,10 +16623,18 @@
       <c r="A26" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="6" t="n"/>
-      <c r="C26" s="6" t="n"/>
-      <c r="D26" s="6" t="n"/>
-      <c r="E26" s="6" t="n"/>
+      <c r="B26" s="6" t="n">
+        <v>0.3909722222222222</v>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>0.4854166666666667</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>0.5284722222222222</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>0.91875</v>
+      </c>
       <c r="F26" s="7" t="n"/>
       <c r="G26" s="8" t="n"/>
       <c r="K26" s="2">
@@ -14997,10 +16677,18 @@
       <c r="A28" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="6" t="n"/>
-      <c r="C28" s="6" t="n"/>
-      <c r="D28" s="6" t="n"/>
-      <c r="E28" s="6" t="n"/>
+      <c r="B28" s="6" t="n">
+        <v>0.6027777777777777</v>
+      </c>
+      <c r="C28" s="6" t="n">
+        <v>0.6520833333333333</v>
+      </c>
+      <c r="D28" s="6" t="n">
+        <v>0.7020833333333333</v>
+      </c>
+      <c r="E28" s="6" t="n">
+        <v>0.9361111111111111</v>
+      </c>
       <c r="F28" s="7" t="n"/>
       <c r="G28" s="8" t="n"/>
       <c r="K28" s="2">
@@ -15020,10 +16708,18 @@
       <c r="A29" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="6" t="n"/>
-      <c r="C29" s="6" t="n"/>
-      <c r="D29" s="6" t="n"/>
-      <c r="E29" s="6" t="n"/>
+      <c r="B29" s="6" t="n">
+        <v>0.4222222222222222</v>
+      </c>
+      <c r="C29" s="6" t="n">
+        <v>0.6111111111111112</v>
+      </c>
+      <c r="D29" s="6" t="n">
+        <v>0.6513888888888889</v>
+      </c>
+      <c r="E29" s="6" t="n">
+        <v>0.7680555555555556</v>
+      </c>
       <c r="F29" s="7" t="n"/>
       <c r="G29" s="8" t="n"/>
       <c r="K29" s="2">
@@ -15043,10 +16739,18 @@
       <c r="A30" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="6" t="n"/>
-      <c r="C30" s="6" t="n"/>
-      <c r="D30" s="6" t="n"/>
-      <c r="E30" s="6" t="n"/>
+      <c r="B30" s="6" t="n">
+        <v>0.5993055555555555</v>
+      </c>
+      <c r="C30" s="6" t="n">
+        <v>0.6569444444444444</v>
+      </c>
+      <c r="D30" s="6" t="n">
+        <v>0.6986111111111111</v>
+      </c>
+      <c r="E30" s="6" t="n">
+        <v>0.9347222222222222</v>
+      </c>
       <c r="F30" s="7" t="n"/>
       <c r="G30" s="8" t="n"/>
       <c r="K30" s="2">
@@ -15066,10 +16770,18 @@
       <c r="A31" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="6" t="n"/>
-      <c r="C31" s="6" t="n"/>
-      <c r="D31" s="6" t="n"/>
-      <c r="E31" s="6" t="n"/>
+      <c r="B31" s="6" t="n">
+        <v>0.4222222222222222</v>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>0.6145833333333334</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>0.65625</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>0.7770833333333333</v>
+      </c>
       <c r="F31" s="7" t="n"/>
       <c r="G31" s="8" t="n"/>
       <c r="K31" s="2">
@@ -15089,10 +16801,18 @@
       <c r="A32" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="6" t="n"/>
-      <c r="C32" s="6" t="n"/>
-      <c r="D32" s="6" t="n"/>
-      <c r="E32" s="6" t="n"/>
+      <c r="B32" s="6" t="n">
+        <v>0.4229166666666667</v>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>0.6215277777777778</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>0.6604166666666667</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>0.7618055555555555</v>
+      </c>
       <c r="F32" s="7" t="n"/>
       <c r="G32" s="8" t="n"/>
       <c r="K32" s="2">
@@ -15233,10 +16953,18 @@
       <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="n"/>
-      <c r="C2" s="6" t="n"/>
-      <c r="D2" s="6" t="n"/>
-      <c r="E2" s="6" t="n"/>
+      <c r="B2" s="6" t="n">
+        <v>0.6076388888888888</v>
+      </c>
+      <c r="C2" s="6" t="n">
+        <v>0.6722222222222223</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>0.7118055555555556</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>0.925</v>
+      </c>
       <c r="F2" s="7" t="n"/>
       <c r="G2" s="8" t="n"/>
       <c r="K2" s="2">
@@ -15266,10 +16994,18 @@
       <c r="A3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="n"/>
-      <c r="C3" s="6" t="n"/>
-      <c r="D3" s="6" t="n"/>
-      <c r="E3" s="6" t="n"/>
+      <c r="B3" s="6" t="n">
+        <v>0.45625</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>0.6152777777777778</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>0.65625</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>0.7923611111111111</v>
+      </c>
       <c r="F3" s="7" t="n"/>
       <c r="G3" s="8" t="n"/>
       <c r="K3" s="2">
@@ -15298,10 +17034,18 @@
       <c r="A4" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="n"/>
-      <c r="C4" s="6" t="n"/>
-      <c r="D4" s="6" t="n"/>
-      <c r="E4" s="6" t="n"/>
+      <c r="B4" s="6" t="n">
+        <v>0.6069444444444444</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>0.6631944444444444</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>0.7048611111111112</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.9256944444444445</v>
+      </c>
       <c r="F4" s="7" t="n"/>
       <c r="G4" s="8" t="n"/>
       <c r="K4" s="2">
@@ -15330,10 +17074,18 @@
       <c r="A5" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="n"/>
-      <c r="C5" s="6" t="n"/>
-      <c r="D5" s="6" t="n"/>
-      <c r="E5" s="6" t="n"/>
+      <c r="B5" s="6" t="n">
+        <v>0.4319444444444445</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>0.5236111111111111</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>0.5618055555555556</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>0.9243055555555556</v>
+      </c>
       <c r="F5" s="7" t="n"/>
       <c r="G5" s="8" t="n"/>
       <c r="K5" s="2">
@@ -15353,10 +17105,18 @@
       <c r="A6" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="n"/>
-      <c r="C6" s="6" t="n"/>
-      <c r="D6" s="6" t="n"/>
-      <c r="E6" s="6" t="n"/>
+      <c r="B6" s="6" t="n">
+        <v>0.4583333333333333</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>0.61875</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>0.6604166666666667</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.7916666666666666</v>
+      </c>
       <c r="F6" s="7" t="n"/>
       <c r="G6" s="8" t="n"/>
       <c r="K6" s="2">
@@ -15409,10 +17169,18 @@
       <c r="A8" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="n"/>
-      <c r="C8" s="6" t="n"/>
-      <c r="D8" s="6" t="n"/>
-      <c r="E8" s="6" t="n"/>
+      <c r="B8" s="6" t="n">
+        <v>0.3854166666666667</v>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>0.4819444444444445</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>0.7173611111111111</v>
+      </c>
       <c r="F8" s="7" t="n"/>
       <c r="G8" s="8" t="n"/>
       <c r="K8" s="2">
@@ -15441,10 +17209,18 @@
       <c r="A9" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="n"/>
-      <c r="C9" s="6" t="n"/>
-      <c r="D9" s="6" t="n"/>
-      <c r="E9" s="6" t="n"/>
+      <c r="B9" s="6" t="n">
+        <v>0.6055555555555555</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.6631944444444444</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.7020833333333333</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.9256944444444445</v>
+      </c>
       <c r="F9" s="7" t="n"/>
       <c r="G9" s="8" t="n"/>
       <c r="K9" s="2">
@@ -15464,10 +17240,18 @@
       <c r="A10" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="n"/>
-      <c r="C10" s="6" t="n"/>
-      <c r="D10" s="6" t="n"/>
-      <c r="E10" s="6" t="n"/>
+      <c r="B10" s="6" t="n">
+        <v>0.6097222222222223</v>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>0.6618055555555555</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>0.7041666666666667</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.9270833333333334</v>
+      </c>
       <c r="F10" s="7" t="n"/>
       <c r="G10" s="8" t="n"/>
       <c r="K10" s="2">
@@ -15492,10 +17276,18 @@
       <c r="A11" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="n"/>
-      <c r="C11" s="6" t="n"/>
-      <c r="D11" s="6" t="n"/>
-      <c r="E11" s="6" t="n"/>
+      <c r="B11" s="6" t="n">
+        <v>0.4493055555555556</v>
+      </c>
+      <c r="C11" s="6" t="n">
+        <v>0.6194444444444445</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>0.6611111111111111</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>0.7972222222222223</v>
+      </c>
       <c r="F11" s="7" t="n"/>
       <c r="G11" s="8" t="n"/>
       <c r="K11" s="2">
@@ -15538,10 +17330,18 @@
       <c r="A13" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="n"/>
-      <c r="C13" s="6" t="n"/>
-      <c r="D13" s="6" t="n"/>
-      <c r="E13" s="6" t="n"/>
+      <c r="B13" s="6" t="n">
+        <v>0.4541666666666667</v>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.6152777777777778</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>0.6576388888888889</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.7909722222222222</v>
+      </c>
       <c r="F13" s="7" t="n"/>
       <c r="G13" s="8" t="n"/>
       <c r="K13" s="2">
@@ -15584,10 +17384,18 @@
       <c r="A15" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="n"/>
-      <c r="C15" s="6" t="n"/>
-      <c r="D15" s="6" t="n"/>
-      <c r="E15" s="6" t="n"/>
+      <c r="B15" s="6" t="n">
+        <v>0.3833333333333334</v>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.4784722222222222</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.5222222222222223</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="F15" s="7" t="n"/>
       <c r="G15" s="8" t="n"/>
       <c r="K15" s="2">
@@ -15607,10 +17415,18 @@
       <c r="A16" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="n"/>
-      <c r="C16" s="6" t="n"/>
-      <c r="D16" s="6" t="n"/>
-      <c r="E16" s="6" t="n"/>
+      <c r="B16" s="6" t="n">
+        <v>0.4541666666666667</v>
+      </c>
+      <c r="C16" s="6" t="n">
+        <v>0.6180555555555556</v>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>0.6597222222222222</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>0.7923611111111111</v>
+      </c>
       <c r="F16" s="7" t="n"/>
       <c r="G16" s="8" t="n"/>
       <c r="K16" s="2">
@@ -15630,10 +17446,18 @@
       <c r="A17" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="n"/>
-      <c r="C17" s="6" t="n"/>
-      <c r="D17" s="6" t="n"/>
-      <c r="E17" s="6" t="n"/>
+      <c r="B17" s="6" t="n">
+        <v>0.6055555555555555</v>
+      </c>
+      <c r="C17" s="6" t="n">
+        <v>0.6583333333333333</v>
+      </c>
+      <c r="D17" s="6" t="n">
+        <v>0.7006944444444444</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>0.9270833333333334</v>
+      </c>
       <c r="F17" s="7" t="n"/>
       <c r="G17" s="8" t="n"/>
       <c r="K17" s="2">
@@ -15653,10 +17477,18 @@
       <c r="A18" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="n"/>
-      <c r="C18" s="6" t="n"/>
-      <c r="D18" s="6" t="n"/>
-      <c r="E18" s="6" t="n"/>
+      <c r="B18" s="6" t="n">
+        <v>0.6034722222222222</v>
+      </c>
+      <c r="C18" s="6" t="n">
+        <v>0.6569444444444444</v>
+      </c>
+      <c r="D18" s="6" t="n">
+        <v>0.6993055555555555</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>0.9263888888888889</v>
+      </c>
       <c r="F18" s="7" t="n"/>
       <c r="G18" s="8" t="n"/>
       <c r="K18" s="2">
@@ -15676,10 +17508,18 @@
       <c r="A19" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="n"/>
-      <c r="C19" s="6" t="n"/>
-      <c r="D19" s="6" t="n"/>
-      <c r="E19" s="6" t="n"/>
+      <c r="B19" s="6" t="n">
+        <v>0.4069444444444444</v>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0.5055555555555555</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.5506944444444445</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.9256944444444445</v>
+      </c>
       <c r="F19" s="7" t="n"/>
       <c r="G19" s="8" t="n"/>
       <c r="K19" s="2">
@@ -15699,10 +17539,18 @@
       <c r="A20" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="n"/>
-      <c r="C20" s="6" t="n"/>
-      <c r="D20" s="6" t="n"/>
-      <c r="E20" s="6" t="n"/>
+      <c r="B20" s="6" t="n">
+        <v>0.4541666666666667</v>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>0.6201388888888889</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>0.6611111111111111</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>0.7895833333333333</v>
+      </c>
       <c r="F20" s="7" t="n"/>
       <c r="G20" s="8" t="n"/>
       <c r="K20" s="2">
@@ -15745,10 +17593,18 @@
       <c r="A22" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="n"/>
-      <c r="C22" s="6" t="n"/>
-      <c r="D22" s="6" t="n"/>
-      <c r="E22" s="6" t="n"/>
+      <c r="B22" s="6" t="n">
+        <v>0.3930555555555555</v>
+      </c>
+      <c r="C22" s="6" t="n">
+        <v>0.4722222222222222</v>
+      </c>
+      <c r="D22" s="6" t="n">
+        <v>0.5131944444444444</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>0.7111111111111111</v>
+      </c>
       <c r="F22" s="7" t="n"/>
       <c r="G22" s="8" t="n"/>
       <c r="K22" s="2">
@@ -15768,10 +17624,18 @@
       <c r="A23" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="n"/>
-      <c r="C23" s="6" t="n"/>
-      <c r="D23" s="6" t="n"/>
-      <c r="E23" s="6" t="n"/>
+      <c r="B23" s="6" t="n">
+        <v>0.4541666666666667</v>
+      </c>
+      <c r="C23" s="6" t="n">
+        <v>0.6166666666666667</v>
+      </c>
+      <c r="D23" s="6" t="n">
+        <v>0.6569444444444444</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>0.7895833333333333</v>
+      </c>
       <c r="F23" s="7" t="n"/>
       <c r="G23" s="8" t="n"/>
       <c r="K23" s="2">
@@ -15791,10 +17655,18 @@
       <c r="A24" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="6" t="n"/>
-      <c r="C24" s="6" t="n"/>
-      <c r="D24" s="6" t="n"/>
-      <c r="E24" s="6" t="n"/>
+      <c r="B24" s="6" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+      <c r="C24" s="6" t="n">
+        <v>0.6583333333333333</v>
+      </c>
+      <c r="D24" s="6" t="n">
+        <v>0.7027777777777777</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>0.9277777777777778</v>
+      </c>
       <c r="F24" s="7" t="n"/>
       <c r="G24" s="8" t="n"/>
       <c r="K24" s="2">
@@ -15814,10 +17686,18 @@
       <c r="A25" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="6" t="n"/>
-      <c r="C25" s="6" t="n"/>
-      <c r="D25" s="6" t="n"/>
-      <c r="E25" s="6" t="n"/>
+      <c r="B25" s="6" t="n">
+        <v>0.6048611111111111</v>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.6631944444444444</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.7041666666666667</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.9270833333333334</v>
+      </c>
       <c r="F25" s="7" t="n"/>
       <c r="G25" s="8" t="n"/>
       <c r="K25" s="2">
@@ -15860,10 +17740,18 @@
       <c r="A27" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="6" t="n"/>
-      <c r="C27" s="6" t="n"/>
-      <c r="D27" s="6" t="n"/>
-      <c r="E27" s="6" t="n"/>
+      <c r="B27" s="6" t="n">
+        <v>0.4541666666666667</v>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.61875</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.6590277777777778</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.7881944444444444</v>
+      </c>
       <c r="F27" s="7" t="n"/>
       <c r="G27" s="8" t="n"/>
       <c r="K27" s="2">
@@ -15906,10 +17794,18 @@
       <c r="A29" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="6" t="n"/>
-      <c r="C29" s="6" t="n"/>
-      <c r="D29" s="6" t="n"/>
-      <c r="E29" s="6" t="n"/>
+      <c r="B29" s="6" t="n">
+        <v>0.3736111111111111</v>
+      </c>
+      <c r="C29" s="6" t="n">
+        <v>0.4625</v>
+      </c>
+      <c r="D29" s="6" t="n">
+        <v>0.5041666666666667</v>
+      </c>
+      <c r="E29" s="6" t="n">
+        <v>0.7104166666666667</v>
+      </c>
       <c r="F29" s="7" t="n"/>
       <c r="G29" s="8" t="n"/>
       <c r="K29" s="2">
@@ -15929,10 +17825,18 @@
       <c r="A30" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="6" t="n"/>
-      <c r="C30" s="6" t="n"/>
-      <c r="D30" s="6" t="n"/>
-      <c r="E30" s="6" t="n"/>
+      <c r="B30" s="6" t="n">
+        <v>0.4569444444444444</v>
+      </c>
+      <c r="C30" s="6" t="n">
+        <v>0.6069444444444444</v>
+      </c>
+      <c r="D30" s="6" t="n">
+        <v>0.6520833333333333</v>
+      </c>
+      <c r="E30" s="6" t="n">
+        <v>0.79375</v>
+      </c>
       <c r="F30" s="7" t="n"/>
       <c r="G30" s="8" t="n"/>
       <c r="K30" s="2">
@@ -15952,10 +17856,18 @@
       <c r="A31" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="6" t="n"/>
-      <c r="C31" s="6" t="n"/>
-      <c r="D31" s="6" t="n"/>
-      <c r="E31" s="6" t="n"/>
+      <c r="B31" s="6" t="n">
+        <v>0.6055555555555555</v>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>0.6576388888888889</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>0.9263888888888889</v>
+      </c>
       <c r="F31" s="7" t="n"/>
       <c r="G31" s="8" t="n"/>
       <c r="K31" s="2">
@@ -15975,10 +17887,18 @@
       <c r="A32" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="6" t="n"/>
-      <c r="C32" s="6" t="n"/>
-      <c r="D32" s="6" t="n"/>
-      <c r="E32" s="6" t="n"/>
+      <c r="B32" s="6" t="n">
+        <v>0.6076388888888888</v>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>0.6569444444444444</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>0.9277777777777778</v>
+      </c>
       <c r="F32" s="7" t="n"/>
       <c r="G32" s="8" t="n"/>
       <c r="K32" s="2">
@@ -16119,10 +18039,18 @@
       <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="n"/>
-      <c r="C2" s="6" t="n"/>
-      <c r="D2" s="6" t="n"/>
-      <c r="E2" s="6" t="n"/>
+      <c r="B2" s="6" t="n">
+        <v>0.3868055555555556</v>
+      </c>
+      <c r="C2" s="6" t="n">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>0.5256944444444445</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>0.7145833333333333</v>
+      </c>
       <c r="F2" s="7" t="n"/>
       <c r="G2" s="8" t="n"/>
       <c r="K2" s="2">
@@ -16152,10 +18080,18 @@
       <c r="A3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="n"/>
-      <c r="C3" s="6" t="n"/>
-      <c r="D3" s="6" t="n"/>
-      <c r="E3" s="6" t="n"/>
+      <c r="B3" s="6" t="n">
+        <v>0.3944444444444444</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>0.4895833333333333</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>0.5298611111111111</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>0.9229166666666667</v>
+      </c>
       <c r="F3" s="7" t="n"/>
       <c r="G3" s="8" t="n"/>
       <c r="K3" s="2">
@@ -16184,10 +18120,18 @@
       <c r="A4" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="n"/>
-      <c r="C4" s="6" t="n"/>
-      <c r="D4" s="6" t="n"/>
-      <c r="E4" s="6" t="n"/>
+      <c r="B4" s="6" t="n">
+        <v>0.4027777777777778</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>0.6180555555555556</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>0.6604166666666667</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.7125</v>
+      </c>
       <c r="F4" s="7" t="n"/>
       <c r="G4" s="8" t="n"/>
       <c r="K4" s="2">
@@ -16239,10 +18183,18 @@
       <c r="A6" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="n"/>
-      <c r="C6" s="6" t="n"/>
-      <c r="D6" s="6" t="n"/>
-      <c r="E6" s="6" t="n"/>
+      <c r="B6" s="6" t="n">
+        <v>0.4013888888888889</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>0.4729166666666667</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>0.5152777777777777</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="F6" s="7" t="n"/>
       <c r="G6" s="8" t="n"/>
       <c r="K6" s="2">
@@ -16271,10 +18223,18 @@
       <c r="A7" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="n"/>
-      <c r="C7" s="6" t="n"/>
-      <c r="D7" s="6" t="n"/>
-      <c r="E7" s="6" t="n"/>
+      <c r="B7" s="6" t="n">
+        <v>0.4083333333333333</v>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.4868055555555555</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.5291666666666667</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.7138888888888889</v>
+      </c>
       <c r="F7" s="7" t="n"/>
       <c r="G7" s="8" t="n"/>
       <c r="K7" s="2">
@@ -16327,10 +18287,18 @@
       <c r="A9" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="n"/>
-      <c r="C9" s="6" t="n"/>
-      <c r="D9" s="6" t="n"/>
-      <c r="E9" s="6" t="n"/>
+      <c r="B9" s="6" t="n">
+        <v>0.3722222222222222</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.4729166666666667</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.5138888888888888</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.7111111111111111</v>
+      </c>
       <c r="F9" s="7" t="n"/>
       <c r="G9" s="8" t="n"/>
       <c r="K9" s="2">
@@ -16350,10 +18318,18 @@
       <c r="A10" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="n"/>
-      <c r="C10" s="6" t="n"/>
-      <c r="D10" s="6" t="n"/>
-      <c r="E10" s="6" t="n"/>
+      <c r="B10" s="6" t="n">
+        <v>0.3854166666666667</v>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>0.6222222222222222</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>0.6611111111111111</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.7138888888888889</v>
+      </c>
       <c r="F10" s="7" t="n"/>
       <c r="G10" s="8" t="n"/>
       <c r="K10" s="2">
@@ -16378,10 +18354,18 @@
       <c r="A11" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="n"/>
-      <c r="C11" s="6" t="n"/>
-      <c r="D11" s="6" t="n"/>
-      <c r="E11" s="6" t="n"/>
+      <c r="B11" s="6" t="n">
+        <v>0.3965277777777778</v>
+      </c>
+      <c r="C11" s="6" t="n">
+        <v>0.4868055555555555</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>0.7145833333333333</v>
+      </c>
       <c r="F11" s="7" t="n"/>
       <c r="G11" s="8" t="n"/>
       <c r="K11" s="2">
@@ -16401,10 +18385,18 @@
       <c r="A12" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="n"/>
-      <c r="C12" s="6" t="n"/>
-      <c r="D12" s="6" t="n"/>
-      <c r="E12" s="6" t="n"/>
+      <c r="B12" s="6" t="n">
+        <v>0.4027777777777778</v>
+      </c>
+      <c r="C12" s="6" t="n">
+        <v>0.5041666666666667</v>
+      </c>
+      <c r="D12" s="6" t="n">
+        <v>0.5479166666666667</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0.9159722222222222</v>
+      </c>
       <c r="F12" s="7" t="n"/>
       <c r="G12" s="8" t="n"/>
       <c r="K12" s="2">
@@ -16424,10 +18416,18 @@
       <c r="A13" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="n"/>
-      <c r="C13" s="6" t="n"/>
-      <c r="D13" s="6" t="n"/>
-      <c r="E13" s="6" t="n"/>
+      <c r="B13" s="6" t="n">
+        <v>0.3986111111111111</v>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.4798611111111111</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>0.5173611111111112</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.7118055555555556</v>
+      </c>
       <c r="F13" s="7" t="n"/>
       <c r="G13" s="8" t="n"/>
       <c r="K13" s="2">
@@ -16447,10 +18447,18 @@
       <c r="A14" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="n"/>
-      <c r="C14" s="6" t="n"/>
-      <c r="D14" s="6" t="n"/>
-      <c r="E14" s="6" t="n"/>
+      <c r="B14" s="6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>0.4881944444444444</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>0.5243055555555556</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>0.7097222222222223</v>
+      </c>
       <c r="F14" s="7" t="n"/>
       <c r="G14" s="8" t="n"/>
       <c r="K14" s="2">
@@ -16493,10 +18501,18 @@
       <c r="A16" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="n"/>
-      <c r="C16" s="6" t="n"/>
-      <c r="D16" s="6" t="n"/>
-      <c r="E16" s="6" t="n"/>
+      <c r="B16" s="6" t="n">
+        <v>0.3951388888888889</v>
+      </c>
+      <c r="C16" s="6" t="n">
+        <v>0.4722222222222222</v>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>0.5097222222222222</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>0.7118055555555556</v>
+      </c>
       <c r="F16" s="7" t="n"/>
       <c r="G16" s="8" t="n"/>
       <c r="K16" s="2">
@@ -16516,10 +18532,18 @@
       <c r="A17" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="n"/>
-      <c r="C17" s="6" t="n"/>
-      <c r="D17" s="6" t="n"/>
-      <c r="E17" s="6" t="n"/>
+      <c r="B17" s="6" t="n">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="C17" s="6" t="n">
+        <v>0.6152777777777778</v>
+      </c>
+      <c r="D17" s="6" t="n">
+        <v>0.6541666666666667</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>0.7111111111111111</v>
+      </c>
       <c r="F17" s="7" t="n"/>
       <c r="G17" s="8" t="n"/>
       <c r="K17" s="2">
@@ -16539,10 +18563,18 @@
       <c r="A18" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="n"/>
-      <c r="C18" s="6" t="n"/>
-      <c r="D18" s="6" t="n"/>
-      <c r="E18" s="6" t="n"/>
+      <c r="B18" s="6" t="n">
+        <v>0.4090277777777778</v>
+      </c>
+      <c r="C18" s="6" t="n">
+        <v>0.6138888888888889</v>
+      </c>
+      <c r="D18" s="6" t="n">
+        <v>0.6548611111111111</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>0.7118055555555556</v>
+      </c>
       <c r="F18" s="7" t="n"/>
       <c r="G18" s="8" t="n"/>
       <c r="K18" s="2">
@@ -16585,10 +18617,18 @@
       <c r="A20" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="n"/>
-      <c r="C20" s="6" t="n"/>
-      <c r="D20" s="6" t="n"/>
-      <c r="E20" s="6" t="n"/>
+      <c r="B20" s="6" t="n">
+        <v>0.3972222222222222</v>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>0.4798611111111111</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>0.5201388888888889</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>0.7097222222222223</v>
+      </c>
       <c r="F20" s="7" t="n"/>
       <c r="G20" s="8" t="n"/>
       <c r="K20" s="2">
@@ -16608,10 +18648,18 @@
       <c r="A21" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="n"/>
-      <c r="C21" s="6" t="n"/>
-      <c r="D21" s="6" t="n"/>
-      <c r="E21" s="6" t="n"/>
+      <c r="B21" s="6" t="n">
+        <v>0.3895833333333333</v>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.4833333333333333</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.5215277777777778</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.7152777777777778</v>
+      </c>
       <c r="F21" s="7" t="n"/>
       <c r="G21" s="8" t="n"/>
       <c r="K21" s="2">
@@ -16654,10 +18702,18 @@
       <c r="A23" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="n"/>
-      <c r="C23" s="6" t="n"/>
-      <c r="D23" s="6" t="n"/>
-      <c r="E23" s="6" t="n"/>
+      <c r="B23" s="6" t="n">
+        <v>0.3909722222222222</v>
+      </c>
+      <c r="C23" s="6" t="n">
+        <v>0.4784722222222222</v>
+      </c>
+      <c r="D23" s="6" t="n">
+        <v>0.5145833333333333</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>0.7194444444444444</v>
+      </c>
       <c r="F23" s="7" t="n"/>
       <c r="G23" s="8" t="n"/>
       <c r="K23" s="2">
@@ -16677,10 +18733,18 @@
       <c r="A24" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="6" t="n"/>
-      <c r="C24" s="6" t="n"/>
-      <c r="D24" s="6" t="n"/>
-      <c r="E24" s="6" t="n"/>
+      <c r="B24" s="6" t="n">
+        <v>0.4138888888888889</v>
+      </c>
+      <c r="C24" s="6" t="n">
+        <v>0.6111111111111112</v>
+      </c>
+      <c r="D24" s="6" t="n">
+        <v>0.6548611111111111</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>0.7194444444444444</v>
+      </c>
       <c r="F24" s="7" t="n"/>
       <c r="G24" s="8" t="n"/>
       <c r="K24" s="2">
@@ -16700,10 +18764,18 @@
       <c r="A25" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="6" t="n"/>
-      <c r="C25" s="6" t="n"/>
-      <c r="D25" s="6" t="n"/>
-      <c r="E25" s="6" t="n"/>
+      <c r="B25" s="6" t="n">
+        <v>0.3986111111111111</v>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.6201388888888889</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.65625</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.7111111111111111</v>
+      </c>
       <c r="F25" s="7" t="n"/>
       <c r="G25" s="8" t="n"/>
       <c r="K25" s="2">
@@ -16723,10 +18795,18 @@
       <c r="A26" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="6" t="n"/>
-      <c r="C26" s="6" t="n"/>
-      <c r="D26" s="6" t="n"/>
-      <c r="E26" s="6" t="n"/>
+      <c r="B26" s="6" t="n">
+        <v>0.3743055555555556</v>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>0.5027777777777778</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>0.5368055555555555</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>0.9152777777777777</v>
+      </c>
       <c r="F26" s="7" t="n"/>
       <c r="G26" s="8" t="n"/>
       <c r="K26" s="2">
@@ -16746,10 +18826,18 @@
       <c r="A27" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="6" t="n"/>
-      <c r="C27" s="6" t="n"/>
-      <c r="D27" s="6" t="n"/>
-      <c r="E27" s="6" t="n"/>
+      <c r="B27" s="6" t="n">
+        <v>0.3479166666666667</v>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.4770833333333334</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.5104166666666666</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.7090277777777778</v>
+      </c>
       <c r="F27" s="7" t="n"/>
       <c r="G27" s="8" t="n"/>
       <c r="K27" s="2">
@@ -16769,10 +18857,18 @@
       <c r="A28" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="6" t="n"/>
-      <c r="C28" s="6" t="n"/>
-      <c r="D28" s="6" t="n"/>
-      <c r="E28" s="6" t="n"/>
+      <c r="B28" s="6" t="n">
+        <v>0.3861111111111111</v>
+      </c>
+      <c r="C28" s="6" t="n">
+        <v>0.4951388888888889</v>
+      </c>
+      <c r="D28" s="6" t="n">
+        <v>0.5347222222222222</v>
+      </c>
+      <c r="E28" s="6" t="n">
+        <v>0.7125</v>
+      </c>
       <c r="F28" s="7" t="n"/>
       <c r="G28" s="8" t="n"/>
       <c r="K28" s="2">
@@ -16815,10 +18911,18 @@
       <c r="A30" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="6" t="n"/>
-      <c r="C30" s="6" t="n"/>
-      <c r="D30" s="6" t="n"/>
-      <c r="E30" s="6" t="n"/>
+      <c r="B30" s="6" t="n">
+        <v>0.3993055555555556</v>
+      </c>
+      <c r="C30" s="6" t="n">
+        <v>0.4875</v>
+      </c>
+      <c r="D30" s="6" t="n">
+        <v>0.5270833333333333</v>
+      </c>
+      <c r="E30" s="6" t="n">
+        <v>0.7097222222222223</v>
+      </c>
       <c r="F30" s="7" t="n"/>
       <c r="G30" s="8" t="n"/>
       <c r="K30" s="2">
@@ -16838,10 +18942,18 @@
       <c r="A31" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="6" t="n"/>
-      <c r="C31" s="6" t="n"/>
-      <c r="D31" s="6" t="n"/>
-      <c r="E31" s="6" t="n"/>
+      <c r="B31" s="6" t="n">
+        <v>0.3777777777777778</v>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>0.6152777777777778</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>0.6534722222222222</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>0.7111111111111111</v>
+      </c>
       <c r="F31" s="7" t="n"/>
       <c r="G31" s="8" t="n"/>
       <c r="K31" s="2">
@@ -16861,10 +18973,18 @@
       <c r="A32" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="6" t="n"/>
-      <c r="C32" s="6" t="n"/>
-      <c r="D32" s="6" t="n"/>
-      <c r="E32" s="6" t="n"/>
+      <c r="B32" s="6" t="n">
+        <v>0.3986111111111111</v>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>0.6215277777777778</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>0.6513888888888889</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>0.7125</v>
+      </c>
       <c r="F32" s="7" t="n"/>
       <c r="G32" s="8" t="n"/>
       <c r="K32" s="2">
@@ -17005,10 +19125,18 @@
       <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="n"/>
-      <c r="C2" s="6" t="n"/>
-      <c r="D2" s="6" t="n"/>
-      <c r="E2" s="6" t="n"/>
+      <c r="B2" s="6" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+      <c r="C2" s="6" t="n">
+        <v>0.6694444444444444</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>0.7118055555555556</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>0.9270833333333334</v>
+      </c>
       <c r="F2" s="7" t="n"/>
       <c r="G2" s="8" t="n"/>
       <c r="K2" s="2">
@@ -17070,10 +19198,18 @@
       <c r="A4" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="n"/>
-      <c r="C4" s="6" t="n"/>
-      <c r="D4" s="6" t="n"/>
-      <c r="E4" s="6" t="n"/>
+      <c r="B4" s="6" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>0.6638888888888889</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>0.7048611111111112</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.9263888888888889</v>
+      </c>
       <c r="F4" s="7" t="n"/>
       <c r="G4" s="8" t="n"/>
       <c r="K4" s="2">
@@ -17102,10 +19238,18 @@
       <c r="A5" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="n"/>
-      <c r="C5" s="6" t="n"/>
-      <c r="D5" s="6" t="n"/>
-      <c r="E5" s="6" t="n"/>
+      <c r="B5" s="6" t="n">
+        <v>0.3770833333333333</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>0.4756944444444444</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>0.5083333333333333</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>0.9222222222222223</v>
+      </c>
       <c r="F5" s="7" t="n"/>
       <c r="G5" s="8" t="n"/>
       <c r="K5" s="2">
@@ -17125,10 +19269,18 @@
       <c r="A6" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="n"/>
-      <c r="C6" s="6" t="n"/>
-      <c r="D6" s="6" t="n"/>
-      <c r="E6" s="6" t="n"/>
+      <c r="B6" s="6" t="n">
+        <v>0.6083333333333333</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>0.6604166666666667</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>0.7048611111111112</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.93125</v>
+      </c>
       <c r="F6" s="7" t="n"/>
       <c r="G6" s="8" t="n"/>
       <c r="K6" s="2">
@@ -17157,10 +19309,18 @@
       <c r="A7" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="n"/>
-      <c r="C7" s="6" t="n"/>
-      <c r="D7" s="6" t="n"/>
-      <c r="E7" s="6" t="n"/>
+      <c r="B7" s="6" t="n">
+        <v>0.4569444444444444</v>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.6611111111111111</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.6159722222222223</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.7923611111111111</v>
+      </c>
       <c r="F7" s="7" t="n"/>
       <c r="G7" s="8" t="n"/>
       <c r="K7" s="2">
@@ -17181,10 +19341,18 @@
       <c r="A8" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="n"/>
-      <c r="C8" s="6" t="n"/>
-      <c r="D8" s="6" t="n"/>
-      <c r="E8" s="6" t="n"/>
+      <c r="B8" s="6" t="n">
+        <v>0.4569444444444444</v>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>0.6381944444444444</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>0.6833333333333333</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>0.7972222222222223</v>
+      </c>
       <c r="F8" s="7" t="n"/>
       <c r="G8" s="8" t="n"/>
       <c r="K8" s="2">
@@ -17213,10 +19381,18 @@
       <c r="A9" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="n"/>
-      <c r="C9" s="6" t="n"/>
-      <c r="D9" s="6" t="n"/>
-      <c r="E9" s="6" t="n"/>
+      <c r="B9" s="6" t="n">
+        <v>0.6055555555555555</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.6645833333333333</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.7041666666666667</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.9263888888888889</v>
+      </c>
       <c r="F9" s="7" t="n"/>
       <c r="G9" s="8" t="n"/>
       <c r="K9" s="2">
@@ -17236,10 +19412,18 @@
       <c r="A10" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="n"/>
-      <c r="C10" s="6" t="n"/>
-      <c r="D10" s="6" t="n"/>
-      <c r="E10" s="6" t="n"/>
+      <c r="B10" s="6" t="n">
+        <v>0.6090277777777777</v>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>0.6618055555555555</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>0.7034722222222223</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.9298611111111111</v>
+      </c>
       <c r="F10" s="7" t="n"/>
       <c r="G10" s="8" t="n"/>
       <c r="K10" s="2">
@@ -17310,10 +19494,18 @@
       <c r="A13" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="n"/>
-      <c r="C13" s="6" t="n"/>
-      <c r="D13" s="6" t="n"/>
-      <c r="E13" s="6" t="n"/>
+      <c r="B13" s="6" t="n">
+        <v>0.6083333333333333</v>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.6604166666666667</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>0.70625</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.9298611111111111</v>
+      </c>
       <c r="F13" s="7" t="n"/>
       <c r="G13" s="8" t="n"/>
       <c r="K13" s="2">
@@ -17333,10 +19525,18 @@
       <c r="A14" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="n"/>
-      <c r="C14" s="6" t="n"/>
-      <c r="D14" s="6" t="n"/>
-      <c r="E14" s="6" t="n"/>
+      <c r="B14" s="6" t="n">
+        <v>0.4527777777777778</v>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>0.6111111111111112</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>0.65625</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>0.7923611111111111</v>
+      </c>
       <c r="F14" s="7" t="n"/>
       <c r="G14" s="8" t="n"/>
       <c r="K14" s="2">
@@ -17356,10 +19556,18 @@
       <c r="A15" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="n"/>
-      <c r="C15" s="6" t="n"/>
-      <c r="D15" s="6" t="n"/>
-      <c r="E15" s="6" t="n"/>
+      <c r="B15" s="6" t="n">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.6076388888888888</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.6534722222222222</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.79375</v>
+      </c>
       <c r="F15" s="7" t="n"/>
       <c r="G15" s="8" t="n"/>
       <c r="K15" s="2">
@@ -17402,10 +19610,18 @@
       <c r="A17" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="n"/>
-      <c r="C17" s="6" t="n"/>
-      <c r="D17" s="6" t="n"/>
-      <c r="E17" s="6" t="n"/>
+      <c r="B17" s="6" t="n">
+        <v>0.6076388888888888</v>
+      </c>
+      <c r="C17" s="6" t="n">
+        <v>0.6645833333333333</v>
+      </c>
+      <c r="D17" s="6" t="n">
+        <v>0.7069444444444445</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>0.9277777777777778</v>
+      </c>
       <c r="F17" s="7" t="n"/>
       <c r="G17" s="8" t="n"/>
       <c r="K17" s="2">
@@ -17425,10 +19641,18 @@
       <c r="A18" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="n"/>
-      <c r="C18" s="6" t="n"/>
-      <c r="D18" s="6" t="n"/>
-      <c r="E18" s="6" t="n"/>
+      <c r="B18" s="6" t="n">
+        <v>0.6076388888888888</v>
+      </c>
+      <c r="C18" s="6" t="n">
+        <v>0.6645833333333333</v>
+      </c>
+      <c r="D18" s="6" t="n">
+        <v>0.7069444444444445</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>0.9277777777777778</v>
+      </c>
       <c r="F18" s="7" t="n"/>
       <c r="G18" s="8" t="n"/>
       <c r="K18" s="2">
@@ -17448,10 +19672,18 @@
       <c r="A19" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="n"/>
-      <c r="C19" s="6" t="n"/>
-      <c r="D19" s="6" t="n"/>
-      <c r="E19" s="6" t="n"/>
+      <c r="B19" s="6" t="n">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.5055555555555555</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.9243055555555556</v>
+      </c>
       <c r="F19" s="7" t="n"/>
       <c r="G19" s="8" t="n"/>
       <c r="K19" s="2">
@@ -17471,10 +19703,18 @@
       <c r="A20" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="n"/>
-      <c r="C20" s="6" t="n"/>
-      <c r="D20" s="6" t="n"/>
-      <c r="E20" s="6" t="n"/>
+      <c r="B20" s="6" t="n">
+        <v>0.60625</v>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>0.6645833333333333</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>0.7111111111111111</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>0.9277777777777778</v>
+      </c>
       <c r="F20" s="7" t="n"/>
       <c r="G20" s="8" t="n"/>
       <c r="K20" s="2">
@@ -17494,10 +19734,18 @@
       <c r="A21" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="n"/>
-      <c r="C21" s="6" t="n"/>
-      <c r="D21" s="6" t="n"/>
-      <c r="E21" s="6" t="n"/>
+      <c r="B21" s="6" t="n">
+        <v>0.4576388888888889</v>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.6138888888888889</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.6652777777777777</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.7902777777777777</v>
+      </c>
       <c r="F21" s="7" t="n"/>
       <c r="G21" s="8" t="n"/>
       <c r="K21" s="2">
@@ -17517,10 +19765,18 @@
       <c r="A22" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="n"/>
-      <c r="C22" s="6" t="n"/>
-      <c r="D22" s="6" t="n"/>
-      <c r="E22" s="6" t="n"/>
+      <c r="B22" s="6" t="n">
+        <v>0.4541666666666667</v>
+      </c>
+      <c r="C22" s="6" t="n">
+        <v>0.6097222222222223</v>
+      </c>
+      <c r="D22" s="6" t="n">
+        <v>0.6527777777777778</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>0.7916666666666666</v>
+      </c>
       <c r="F22" s="7" t="n"/>
       <c r="G22" s="8" t="n"/>
       <c r="K22" s="2">
@@ -17563,10 +19819,18 @@
       <c r="A24" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="6" t="n"/>
-      <c r="C24" s="6" t="n"/>
-      <c r="D24" s="6" t="n"/>
-      <c r="E24" s="6" t="n"/>
+      <c r="B24" s="6" t="n">
+        <v>0.6048611111111111</v>
+      </c>
+      <c r="C24" s="6" t="n">
+        <v>0.6597222222222222</v>
+      </c>
+      <c r="D24" s="6" t="n">
+        <v>0.7041666666666667</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>0.9305555555555556</v>
+      </c>
       <c r="F24" s="7" t="n"/>
       <c r="G24" s="8" t="n"/>
       <c r="K24" s="2">
@@ -17586,10 +19850,18 @@
       <c r="A25" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="6" t="n"/>
-      <c r="C25" s="6" t="n"/>
-      <c r="D25" s="6" t="n"/>
-      <c r="E25" s="6" t="n"/>
+      <c r="B25" s="6" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.6645833333333333</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.7034722222222223</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.9388888888888889</v>
+      </c>
       <c r="F25" s="7" t="n"/>
       <c r="G25" s="8" t="n"/>
       <c r="K25" s="2">
@@ -17632,10 +19904,18 @@
       <c r="A27" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="6" t="n"/>
-      <c r="C27" s="6" t="n"/>
-      <c r="D27" s="6" t="n"/>
-      <c r="E27" s="6" t="n"/>
+      <c r="B27" s="6" t="n">
+        <v>0.6118055555555556</v>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.6645833333333333</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.70625</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.9395833333333333</v>
+      </c>
       <c r="F27" s="7" t="n"/>
       <c r="G27" s="8" t="n"/>
       <c r="K27" s="2">
@@ -17655,10 +19935,18 @@
       <c r="A28" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="6" t="n"/>
-      <c r="C28" s="6" t="n"/>
-      <c r="D28" s="6" t="n"/>
-      <c r="E28" s="6" t="n"/>
+      <c r="B28" s="6" t="n">
+        <v>0.4555555555555555</v>
+      </c>
+      <c r="C28" s="6" t="n">
+        <v>0.6076388888888888</v>
+      </c>
+      <c r="D28" s="6" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="E28" s="6" t="n">
+        <v>0.7868055555555555</v>
+      </c>
       <c r="F28" s="7" t="n"/>
       <c r="G28" s="8" t="n"/>
       <c r="K28" s="2">
@@ -17678,10 +19966,18 @@
       <c r="A29" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="6" t="n"/>
-      <c r="C29" s="6" t="n"/>
-      <c r="D29" s="6" t="n"/>
-      <c r="E29" s="6" t="n"/>
+      <c r="B29" s="6" t="n">
+        <v>0.6055555555555555</v>
+      </c>
+      <c r="C29" s="6" t="n">
+        <v>0.6555555555555556</v>
+      </c>
+      <c r="D29" s="6" t="n">
+        <v>0.7020833333333333</v>
+      </c>
+      <c r="E29" s="6" t="n">
+        <v>0.9291666666666667</v>
+      </c>
       <c r="F29" s="7" t="n"/>
       <c r="G29" s="8" t="n"/>
       <c r="K29" s="2">
@@ -17724,10 +20020,18 @@
       <c r="A31" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="6" t="n"/>
-      <c r="C31" s="6" t="n"/>
-      <c r="D31" s="6" t="n"/>
-      <c r="E31" s="6" t="n"/>
+      <c r="B31" s="6" t="n">
+        <v>0.6097222222222223</v>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>0.6576388888888889</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>0.9284722222222223</v>
+      </c>
       <c r="F31" s="7" t="n"/>
       <c r="G31" s="8" t="n"/>
       <c r="K31" s="2">
@@ -17747,10 +20051,18 @@
       <c r="A32" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="6" t="n"/>
-      <c r="C32" s="6" t="n"/>
-      <c r="D32" s="6" t="n"/>
-      <c r="E32" s="6" t="n"/>
+      <c r="B32" s="6" t="n">
+        <v>0.6027777777777777</v>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>0.6625</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>0.70625</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>0.9284722222222223</v>
+      </c>
       <c r="F32" s="7" t="n"/>
       <c r="G32" s="8" t="n"/>
       <c r="K32" s="2">
@@ -17891,10 +20203,18 @@
       <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="n"/>
-      <c r="C2" s="6" t="n"/>
-      <c r="D2" s="6" t="n"/>
-      <c r="E2" s="6" t="n"/>
+      <c r="B2" s="6" t="n">
+        <v>0.3201388888888889</v>
+      </c>
+      <c r="C2" s="6" t="n">
+        <v>0.5520833333333334</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>0.59375</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>0.6881944444444444</v>
+      </c>
       <c r="F2" s="7" t="n"/>
       <c r="G2" s="8" t="n"/>
       <c r="K2" s="2">
@@ -17924,10 +20244,18 @@
       <c r="A3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="n"/>
-      <c r="C3" s="6" t="n"/>
-      <c r="D3" s="6" t="n"/>
-      <c r="E3" s="6" t="n"/>
+      <c r="B3" s="6" t="n">
+        <v>0.3388888888888889</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>0.5458333333333333</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>0.5854166666666667</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>0.7180555555555556</v>
+      </c>
       <c r="F3" s="7" t="n"/>
       <c r="G3" s="8" t="n"/>
       <c r="K3" s="2">
@@ -17956,10 +20284,18 @@
       <c r="A4" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="n"/>
-      <c r="C4" s="6" t="n"/>
-      <c r="D4" s="6" t="n"/>
-      <c r="E4" s="6" t="n"/>
+      <c r="B4" s="6" t="n">
+        <v>0.2951388888888889</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>0.5798611111111112</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>0.6180555555555556</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.7743055555555556</v>
+      </c>
       <c r="F4" s="7" t="n"/>
       <c r="G4" s="8" t="n"/>
       <c r="K4" s="2">
@@ -17988,10 +20324,18 @@
       <c r="A5" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="n"/>
-      <c r="C5" s="6" t="n"/>
-      <c r="D5" s="6" t="n"/>
-      <c r="E5" s="6" t="n"/>
+      <c r="B5" s="6" t="n">
+        <v>0.3965277777777778</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>0.5006944444444444</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>0.4951388888888889</v>
+      </c>
       <c r="F5" s="7" t="n"/>
       <c r="G5" s="8" t="n"/>
       <c r="K5" s="2">
@@ -18011,10 +20355,18 @@
       <c r="A6" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="n"/>
-      <c r="C6" s="6" t="n"/>
-      <c r="D6" s="6" t="n"/>
-      <c r="E6" s="6" t="n"/>
+      <c r="B6" s="6" t="n">
+        <v>0.3340277777777778</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>0.5451388888888888</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>0.5854166666666667</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.7145833333333333</v>
+      </c>
       <c r="F6" s="7" t="n"/>
       <c r="G6" s="8" t="n"/>
       <c r="K6" s="2">
@@ -18043,10 +20395,18 @@
       <c r="A7" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="n"/>
-      <c r="C7" s="6" t="n"/>
-      <c r="D7" s="6" t="n"/>
-      <c r="E7" s="6" t="n"/>
+      <c r="B7" s="6" t="n">
+        <v>0.3506944444444444</v>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.5756944444444444</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.6138888888888889</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.7659722222222223</v>
+      </c>
       <c r="F7" s="7" t="n"/>
       <c r="G7" s="8" t="n"/>
       <c r="K7" s="2">
@@ -18067,10 +20427,18 @@
       <c r="A8" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="n"/>
-      <c r="C8" s="6" t="n"/>
-      <c r="D8" s="6" t="n"/>
-      <c r="E8" s="6" t="n"/>
+      <c r="B8" s="6" t="n">
+        <v>0.3618055555555555</v>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>0.5611111111111111</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>0.6069444444444444</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>0.7180555555555556</v>
+      </c>
       <c r="F8" s="7" t="n"/>
       <c r="G8" s="8" t="n"/>
       <c r="K8" s="2">
@@ -18099,10 +20467,18 @@
       <c r="A9" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="n"/>
-      <c r="C9" s="6" t="n"/>
-      <c r="D9" s="6" t="n"/>
-      <c r="E9" s="6" t="n"/>
+      <c r="B9" s="6" t="n">
+        <v>0.3638888888888889</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.6076388888888888</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.6472222222222223</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.8048611111111111</v>
+      </c>
       <c r="F9" s="7" t="n"/>
       <c r="G9" s="8" t="n"/>
       <c r="K9" s="2">
@@ -18122,10 +20498,18 @@
       <c r="A10" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="n"/>
-      <c r="C10" s="6" t="n"/>
-      <c r="D10" s="6" t="n"/>
-      <c r="E10" s="6" t="n"/>
+      <c r="B10" s="6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>0.5631944444444444</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>0.5993055555555555</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.7166666666666667</v>
+      </c>
       <c r="F10" s="7" t="n"/>
       <c r="G10" s="8" t="n"/>
       <c r="K10" s="2">
@@ -18150,10 +20534,18 @@
       <c r="A11" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="n"/>
-      <c r="C11" s="6" t="n"/>
-      <c r="D11" s="6" t="n"/>
-      <c r="E11" s="6" t="n"/>
+      <c r="B11" s="6" t="n">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="C11" s="6" t="n">
+        <v>0.5770833333333333</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>0.61875</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>0.7756944444444445</v>
+      </c>
       <c r="F11" s="7" t="n"/>
       <c r="G11" s="8" t="n"/>
       <c r="K11" s="2">
@@ -18196,10 +20588,18 @@
       <c r="A13" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="n"/>
-      <c r="C13" s="6" t="n"/>
-      <c r="D13" s="6" t="n"/>
-      <c r="E13" s="6" t="n"/>
+      <c r="B13" s="6" t="n">
+        <v>0.3472222222222222</v>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.5666666666666667</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>0.6083333333333333</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.7152777777777778</v>
+      </c>
       <c r="F13" s="7" t="n"/>
       <c r="G13" s="8" t="n"/>
       <c r="K13" s="2">
@@ -18219,10 +20619,18 @@
       <c r="A14" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="n"/>
-      <c r="C14" s="6" t="n"/>
-      <c r="D14" s="6" t="n"/>
-      <c r="E14" s="6" t="n"/>
+      <c r="B14" s="6" t="n">
+        <v>0.3402777777777778</v>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>0.9048611111111111</v>
+      </c>
       <c r="F14" s="7" t="n"/>
       <c r="G14" s="8" t="n"/>
       <c r="K14" s="2">
@@ -18265,10 +20673,18 @@
       <c r="A16" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="n"/>
-      <c r="C16" s="6" t="n"/>
-      <c r="D16" s="6" t="n"/>
-      <c r="E16" s="6" t="n"/>
+      <c r="B16" s="6" t="n">
+        <v>0.3458333333333333</v>
+      </c>
+      <c r="C16" s="6" t="n">
+        <v>0.6006944444444444</v>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>0.6395833333333333</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>0.7819444444444444</v>
+      </c>
       <c r="F16" s="7" t="n"/>
       <c r="G16" s="8" t="n"/>
       <c r="K16" s="2">
@@ -18288,10 +20704,18 @@
       <c r="A17" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="n"/>
-      <c r="C17" s="6" t="n"/>
-      <c r="D17" s="6" t="n"/>
-      <c r="E17" s="6" t="n"/>
+      <c r="B17" s="6" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="C17" s="6" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="D17" s="6" t="n">
+        <v>0.6125</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>0.7138888888888889</v>
+      </c>
       <c r="F17" s="7" t="n"/>
       <c r="G17" s="8" t="n"/>
       <c r="K17" s="2">
@@ -18311,10 +20735,18 @@
       <c r="A18" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="n"/>
-      <c r="C18" s="6" t="n"/>
-      <c r="D18" s="6" t="n"/>
-      <c r="E18" s="6" t="n"/>
+      <c r="B18" s="6" t="n">
+        <v>0.36875</v>
+      </c>
+      <c r="C18" s="6" t="n">
+        <v>0.55625</v>
+      </c>
+      <c r="D18" s="6" t="n">
+        <v>0.5979166666666667</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>0.7652777777777777</v>
+      </c>
       <c r="F18" s="7" t="n"/>
       <c r="G18" s="8" t="n"/>
       <c r="K18" s="2">
@@ -18334,10 +20766,18 @@
       <c r="A19" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="n"/>
-      <c r="C19" s="6" t="n"/>
-      <c r="D19" s="6" t="n"/>
-      <c r="E19" s="6" t="n"/>
+      <c r="B19" s="6" t="n">
+        <v>0.3243055555555556</v>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.5006944444444444</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.3631944444444444</v>
+      </c>
       <c r="F19" s="7" t="n"/>
       <c r="G19" s="8" t="n"/>
       <c r="K19" s="2">
@@ -18357,10 +20797,18 @@
       <c r="A20" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="n"/>
-      <c r="C20" s="6" t="n"/>
-      <c r="D20" s="6" t="n"/>
-      <c r="E20" s="6" t="n"/>
+      <c r="B20" s="6" t="n">
+        <v>0.3506944444444444</v>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>0.5576388888888889</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>0.6020833333333333</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="F20" s="7" t="n"/>
       <c r="G20" s="8" t="n"/>
       <c r="K20" s="2">
@@ -18380,10 +20828,18 @@
       <c r="A21" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="n"/>
-      <c r="C21" s="6" t="n"/>
-      <c r="D21" s="6" t="n"/>
-      <c r="E21" s="6" t="n"/>
+      <c r="B21" s="6" t="n">
+        <v>0.3583333333333333</v>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.5659722222222222</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.6111111111111112</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.7965277777777777</v>
+      </c>
       <c r="F21" s="7" t="n"/>
       <c r="G21" s="8" t="n"/>
       <c r="K21" s="2">
@@ -18403,10 +20859,18 @@
       <c r="A22" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="n"/>
-      <c r="C22" s="6" t="n"/>
-      <c r="D22" s="6" t="n"/>
-      <c r="E22" s="6" t="n"/>
+      <c r="B22" s="6" t="n">
+        <v>0.3513888888888889</v>
+      </c>
+      <c r="C22" s="6" t="n">
+        <v>0.5597222222222222</v>
+      </c>
+      <c r="D22" s="6" t="n">
+        <v>0.6055555555555555</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>0.7104166666666667</v>
+      </c>
       <c r="F22" s="7" t="n"/>
       <c r="G22" s="8" t="n"/>
       <c r="K22" s="2">
@@ -18426,10 +20890,18 @@
       <c r="A23" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="n"/>
-      <c r="C23" s="6" t="n"/>
-      <c r="D23" s="6" t="n"/>
-      <c r="E23" s="6" t="n"/>
+      <c r="B23" s="6" t="n">
+        <v>0.3555555555555556</v>
+      </c>
+      <c r="C23" s="6" t="n">
+        <v>0.5645833333333333</v>
+      </c>
+      <c r="D23" s="6" t="n">
+        <v>0.6069444444444444</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>0.7625</v>
+      </c>
       <c r="F23" s="7" t="n"/>
       <c r="G23" s="8" t="n"/>
       <c r="K23" s="2">
@@ -18449,10 +20921,18 @@
       <c r="A24" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="6" t="n"/>
-      <c r="C24" s="6" t="n"/>
-      <c r="D24" s="6" t="n"/>
-      <c r="E24" s="6" t="n"/>
+      <c r="B24" s="6" t="n">
+        <v>0.3569444444444445</v>
+      </c>
+      <c r="C24" s="6" t="n">
+        <v>0.5527777777777778</v>
+      </c>
+      <c r="D24" s="6" t="n">
+        <v>0.6111111111111112</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>0.7111111111111111</v>
+      </c>
       <c r="F24" s="7" t="n"/>
       <c r="G24" s="8" t="n"/>
       <c r="K24" s="2">
@@ -18472,10 +20952,18 @@
       <c r="A25" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="6" t="n"/>
-      <c r="C25" s="6" t="n"/>
-      <c r="D25" s="6" t="n"/>
-      <c r="E25" s="6" t="n"/>
+      <c r="B25" s="6" t="n">
+        <v>0.3597222222222222</v>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.5729166666666666</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.6180555555555556</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.7097222222222223</v>
+      </c>
       <c r="F25" s="7" t="n"/>
       <c r="G25" s="8" t="n"/>
       <c r="K25" s="2">
@@ -18518,10 +21006,18 @@
       <c r="A27" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="6" t="n"/>
-      <c r="C27" s="6" t="n"/>
-      <c r="D27" s="6" t="n"/>
-      <c r="E27" s="6" t="n"/>
+      <c r="B27" s="6" t="n">
+        <v>0.3666666666666666</v>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.5604166666666667</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.6055555555555555</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.7145833333333333</v>
+      </c>
       <c r="F27" s="7" t="n"/>
       <c r="G27" s="8" t="n"/>
       <c r="K27" s="2">
@@ -18541,10 +21037,18 @@
       <c r="A28" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="6" t="n"/>
-      <c r="C28" s="6" t="n"/>
-      <c r="D28" s="6" t="n"/>
-      <c r="E28" s="6" t="n"/>
+      <c r="B28" s="6" t="n">
+        <v>0.3368055555555556</v>
+      </c>
+      <c r="C28" s="6" t="n">
+        <v>0.5722222222222222</v>
+      </c>
+      <c r="D28" s="6" t="n">
+        <v>0.6125</v>
+      </c>
+      <c r="E28" s="6" t="n">
+        <v>0.8513888888888889</v>
+      </c>
       <c r="F28" s="7" t="n"/>
       <c r="G28" s="8" t="n"/>
       <c r="K28" s="2">
@@ -18587,10 +21091,18 @@
       <c r="A30" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="6" t="n"/>
-      <c r="C30" s="6" t="n"/>
-      <c r="D30" s="6" t="n"/>
-      <c r="E30" s="6" t="n"/>
+      <c r="B30" s="6" t="n">
+        <v>0.3486111111111111</v>
+      </c>
+      <c r="C30" s="6" t="n">
+        <v>0.5708333333333333</v>
+      </c>
+      <c r="D30" s="6" t="n">
+        <v>0.6118055555555556</v>
+      </c>
+      <c r="E30" s="6" t="n">
+        <v>0.7861111111111111</v>
+      </c>
       <c r="F30" s="7" t="n"/>
       <c r="G30" s="8" t="n"/>
       <c r="K30" s="2">
@@ -18610,10 +21122,18 @@
       <c r="A31" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="6" t="n"/>
-      <c r="C31" s="6" t="n"/>
-      <c r="D31" s="6" t="n"/>
-      <c r="E31" s="6" t="n"/>
+      <c r="B31" s="6" t="n">
+        <v>0.3534722222222222</v>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>0.5819444444444445</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>0.6229166666666667</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>0.7118055555555556</v>
+      </c>
       <c r="F31" s="7" t="n"/>
       <c r="G31" s="8" t="n"/>
       <c r="K31" s="2">
@@ -18633,10 +21153,18 @@
       <c r="A32" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="6" t="n"/>
-      <c r="C32" s="6" t="n"/>
-      <c r="D32" s="6" t="n"/>
-      <c r="E32" s="6" t="n"/>
+      <c r="B32" s="6" t="n">
+        <v>0.3597222222222222</v>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>0.5979166666666667</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>0.5569444444444445</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>0.6993055555555555</v>
+      </c>
       <c r="F32" s="7" t="n"/>
       <c r="G32" s="8" t="n"/>
       <c r="K32" s="2">
